--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D055115-7F9A-4B8B-A306-F83022A1FBD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A18BA-2D6D-466B-8A1E-9DA499095FAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="108">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,18 @@
   </si>
   <si>
     <t>@Offset_Variance_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9,1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,38 +820,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.77734375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="7" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="7" customWidth="1"/>
     <col min="19" max="19" width="14" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.21875" style="13" customWidth="1"/>
+    <col min="20" max="20" width="14.25" style="13" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" style="16" customWidth="1"/>
+    <col min="22" max="23" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -916,7 +928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1027,8 +1039,8 @@
       <c r="N3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="7">
-        <v>1.5</v>
+      <c r="O3" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>44</v>
@@ -1040,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="X3" t="s">
         <v>41</v>
@@ -1049,7 +1061,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>101.1</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>102</v>
       </c>
@@ -1149,7 +1161,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>103</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>104</v>
       </c>
@@ -1261,7 +1273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>105</v>
       </c>
@@ -1320,7 +1332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>106</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
         <v>18</v>
@@ -1379,7 +1391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>107</v>
       </c>
@@ -1438,7 +1450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>108</v>
       </c>
@@ -1488,7 +1500,7 @@
         <v>57</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="X11" t="s">
         <v>28</v>
@@ -1497,7 +1509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>109</v>
       </c>
@@ -1553,7 +1565,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>121</v>
       </c>
@@ -1611,7 +1623,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>122</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>123</v>
       </c>
@@ -1727,7 +1739,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>124</v>
       </c>
@@ -1785,7 +1797,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>125</v>
       </c>
@@ -1846,7 +1858,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>126</v>
       </c>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A18BA-2D6D-466B-8A1E-9DA499095FAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3F3262-C056-4CD2-812A-5DD194C2D55E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="110">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022/12/20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S1Dur</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,6 +445,18 @@
   </si>
   <si>
     <t>0.9,1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonkeyLinearArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Var_4_16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,12 +489,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -519,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -538,6 +552,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -818,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -865,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -877,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>1</v>
@@ -898,19 +920,19 @@
         <v>2</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="T1" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>12</v>
@@ -922,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -933,76 +955,76 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="N2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1022,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>10</v>
@@ -1037,13 +1059,13 @@
         <v>1000</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="7">
         <v>1</v>
@@ -1052,118 +1074,118 @@
         <v>1</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>101.1</v>
+        <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="8">
         <v>97656</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L4" s="11">
         <v>2000</v>
       </c>
-      <c r="M4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="7">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7">
-        <v>1</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>55</v>
+      <c r="U4">
+        <v>3000</v>
+      </c>
+      <c r="V4">
+        <v>500</v>
+      </c>
+      <c r="W4">
+        <v>333</v>
       </c>
       <c r="X4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8">
         <v>97656</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="11">
         <v>2000</v>
       </c>
-      <c r="U5">
-        <v>3000</v>
-      </c>
-      <c r="V5">
-        <v>500</v>
-      </c>
-      <c r="W5">
-        <v>333</v>
+      <c r="M5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+      <c r="S5" s="14">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="X5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y5" s="16" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
@@ -1172,13 +1194,13 @@
         <v>97656</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -1193,13 +1215,13 @@
         <v>1000</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R6" s="14">
         <v>0</v>
@@ -1208,18 +1230,18 @@
         <v>0</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s">
         <v>18</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
@@ -1228,13 +1250,13 @@
         <v>97656</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
@@ -1242,40 +1264,43 @@
       <c r="H7" s="6">
         <v>0.5</v>
       </c>
-      <c r="L7" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1000</v>
+      <c r="K7" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7" s="14">
+        <v>47</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="7">
         <v>0</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="7">
         <v>0</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X7" t="s">
         <v>18</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
@@ -1284,10 +1309,10 @@
         <v>97656</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
@@ -1302,19 +1327,19 @@
         <v>6000</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="7">
-        <v>1.5</v>
+        <v>47</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R8" s="7">
         <v>0</v>
@@ -1323,18 +1348,18 @@
         <v>0</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
         <v>18</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
@@ -1343,57 +1368,57 @@
         <v>97656</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="6">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="6">
+        <v>26</v>
       </c>
       <c r="K9" s="9">
         <v>6000</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="U9">
+        <v>6000</v>
+      </c>
+      <c r="V9">
+        <v>500</v>
+      </c>
+      <c r="W9">
+        <v>333</v>
       </c>
       <c r="X9" t="s">
         <v>18</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
@@ -1402,57 +1427,57 @@
         <v>97656</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="6">
-        <v>26</v>
-      </c>
-      <c r="K10" s="9">
-        <v>6000</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10">
-        <v>6000</v>
-      </c>
-      <c r="V10">
-        <v>500</v>
-      </c>
-      <c r="W10">
-        <v>333</v>
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="X10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
@@ -1461,10 +1486,10 @@
         <v>97656</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>27</v>
@@ -1482,95 +1507,94 @@
         <v>1000</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8">
         <v>97656</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>87</v>
+      <c r="D12" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="17">
         <v>0.5</v>
       </c>
-      <c r="L12" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1000</v>
+      <c r="I12" s="14"/>
+      <c r="J12" s="17"/>
+      <c r="L12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R12" s="14">
-        <v>0</v>
-      </c>
-      <c r="S12" s="14">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="X12" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="8">
         <v>97656</v>
@@ -1582,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>10</v>
@@ -1593,54 +1617,54 @@
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="L13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="N13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T13" s="13" t="s">
+      <c r="X13" t="s">
         <v>64</v>
       </c>
-      <c r="X13" t="s">
-        <v>65</v>
-      </c>
       <c r="Y13" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="8">
         <v>97656</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>10</v>
@@ -1651,54 +1675,54 @@
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="L14" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="13" t="s">
+      <c r="X14" t="s">
         <v>64</v>
       </c>
-      <c r="X14" t="s">
-        <v>65</v>
-      </c>
       <c r="Y14" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="8">
         <v>97656</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>10</v>
@@ -1709,31 +1733,31 @@
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="L15" s="11" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T15" s="13" t="s">
+      <c r="X15" t="s">
         <v>64</v>
-      </c>
-      <c r="X15" t="s">
-        <v>65</v>
       </c>
       <c r="Y15" s="16" t="s">
         <v>102</v>
@@ -1741,10 +1765,10 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="8">
         <v>97656</v>
@@ -1767,31 +1791,34 @@
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="L16" s="11" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="Y16" s="16" t="s">
         <v>103</v>
@@ -1799,22 +1826,22 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="8">
         <v>97656</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>10</v>
@@ -1825,95 +1852,175 @@
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="L17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" s="7" t="s">
+      <c r="O17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="24"/>
+      <c r="Y19" s="25"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>225</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="17"/>
+      <c r="L21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="Q21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" t="s">
         <v>28</v>
       </c>
-      <c r="Y17" s="16" t="s">
-        <v>104</v>
+      <c r="Y21" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>126</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="8">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>226</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="8">
         <v>97656</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18">
+      <c r="D22" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F22" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="17"/>
+      <c r="L22" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
-      <c r="L18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="M22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" t="s">
         <v>18</v>
       </c>
-      <c r="Y18" s="16" t="s">
-        <v>103</v>
+      <c r="Y22" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3F3262-C056-4CD2-812A-5DD194C2D55E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C785A3C3-E551-4E4F-95C2-DB37D05472CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="117">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,34 @@
   </si>
   <si>
     <t>MLA_Offset_Var_4_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250,50,10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/02/07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Var_4_16_v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Var_4_16_v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Var_4_16_v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Var_4_16_v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Var_4_16_v5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,40 +868,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="20.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.75" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.77734375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" style="7" customWidth="1"/>
     <col min="19" max="19" width="14" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.25" style="13" customWidth="1"/>
+    <col min="20" max="20" width="14.21875" style="13" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.375" style="16" customWidth="1"/>
+    <col min="22" max="23" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -950,7 +978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1027,7 +1055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1083,7 +1111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>102</v>
       </c>
@@ -1127,7 +1155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -1183,7 +1211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>104</v>
       </c>
@@ -1239,7 +1267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>105</v>
       </c>
@@ -1298,7 +1326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>106</v>
       </c>
@@ -1357,7 +1385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>107</v>
       </c>
@@ -1416,7 +1444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>108</v>
       </c>
@@ -1475,7 +1503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>109</v>
       </c>
@@ -1531,7 +1559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>121</v>
       </c>
@@ -1589,7 +1617,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>122</v>
       </c>
@@ -1647,7 +1675,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>123</v>
       </c>
@@ -1705,7 +1733,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>124</v>
       </c>
@@ -1763,7 +1791,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>125</v>
       </c>
@@ -1824,7 +1852,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>126</v>
       </c>
@@ -1882,7 +1910,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
@@ -1904,7 +1932,7 @@
       <c r="T19" s="24"/>
       <c r="Y19" s="25"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>225</v>
       </c>
@@ -1944,7 +1972,7 @@
         <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>56</v>
@@ -1965,24 +1993,24 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>226</v>
+        <v>225.1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C22" s="8">
         <v>97656</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>108</v>
@@ -2004,22 +2032,327 @@
       <c r="O22" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="P22" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="Q22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>225.2</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="17"/>
+      <c r="L23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="N23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>225.3</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="17"/>
+      <c r="L24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="N24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>225.4</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="17"/>
+      <c r="L25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="N25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>225.5</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="17"/>
+      <c r="L26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>226</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="17"/>
+      <c r="L27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X27" t="s">
         <v>18</v>
       </c>
-      <c r="Y22" s="16" t="s">
+      <c r="Y27" s="16" t="s">
         <v>102</v>
       </c>
     </row>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C785A3C3-E551-4E4F-95C2-DB37D05472CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822029C8-F418-4952-90BB-7486F0A81E8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="158">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,152 @@
   </si>
   <si>
     <t>MLA_Offset_Var_4_16_v5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_Basic_IFFT_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Basic_Reg_IFFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg&amp;IFFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randSeq_v1.mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randSeq_v2.mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randSeq_v3.mat</t>
+  </si>
+  <si>
+    <t>randSeq_v4.mat</t>
+  </si>
+  <si>
+    <t>randSeq_v5.mat</t>
+  </si>
+  <si>
+    <t>2022/02/08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_64ms_v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_64ms_v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_64ms_v3</t>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_64ms_v4</t>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_64ms_v5</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_8ms_v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_8ms_v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_8ms_v3</t>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_8ms_v4</t>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_8ms_v5</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>1.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_4_4o02_v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_4_4o02_v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_4_4o02_v3</t>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_4_4o02_v4</t>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_4_4o02_v5</t>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_128ms_v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_128ms_v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_128ms_v3</t>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_128ms_v4</t>
+  </si>
+  <si>
+    <t>MLA_Basic_IFFT_128ms_v5</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -880,7 +1026,7 @@
     <col min="2" max="2" width="14.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" style="7" customWidth="1"/>
@@ -898,10 +1044,11 @@
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" style="16" customWidth="1"/>
+    <col min="25" max="25" width="25" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -974,11 +1121,14 @@
       <c r="X1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1051,11 +1201,14 @@
       <c r="X2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z2" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1107,11 +1260,11 @@
       <c r="X3" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>102</v>
       </c>
@@ -1151,11 +1304,11 @@
       <c r="X4" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Z4" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -1207,11 +1360,11 @@
       <c r="X5" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Z5" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>104</v>
       </c>
@@ -1263,11 +1416,11 @@
       <c r="X6" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Z6" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>105</v>
       </c>
@@ -1322,11 +1475,11 @@
       <c r="X7" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Z7" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>106</v>
       </c>
@@ -1381,11 +1534,11 @@
       <c r="X8" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="16" t="s">
+      <c r="Z8" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>107</v>
       </c>
@@ -1440,11 +1593,11 @@
       <c r="X9" t="s">
         <v>18</v>
       </c>
-      <c r="Y9" s="16" t="s">
+      <c r="Z9" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>108</v>
       </c>
@@ -1499,11 +1652,11 @@
       <c r="X10" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="16" t="s">
+      <c r="Z10" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>109</v>
       </c>
@@ -1555,11 +1708,11 @@
       <c r="X11" t="s">
         <v>18</v>
       </c>
-      <c r="Y11" s="16" t="s">
+      <c r="Z11" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>121</v>
       </c>
@@ -1613,11 +1766,11 @@
       <c r="X12" t="s">
         <v>64</v>
       </c>
-      <c r="Y12" s="16" t="s">
+      <c r="Z12" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>122</v>
       </c>
@@ -1671,11 +1824,11 @@
       <c r="X13" t="s">
         <v>64</v>
       </c>
-      <c r="Y13" s="16" t="s">
+      <c r="Z13" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>123</v>
       </c>
@@ -1729,11 +1882,11 @@
       <c r="X14" t="s">
         <v>64</v>
       </c>
-      <c r="Y14" s="16" t="s">
+      <c r="Z14" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>124</v>
       </c>
@@ -1787,11 +1940,11 @@
       <c r="X15" t="s">
         <v>64</v>
       </c>
-      <c r="Y15" s="16" t="s">
+      <c r="Z15" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>125</v>
       </c>
@@ -1848,11 +2001,11 @@
       <c r="X16" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="16" t="s">
+      <c r="Z16" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>126</v>
       </c>
@@ -1906,11 +2059,11 @@
       <c r="X17" t="s">
         <v>18</v>
       </c>
-      <c r="Y17" s="16" t="s">
+      <c r="Z17" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
@@ -1930,429 +2083,1609 @@
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
       <c r="T19" s="24"/>
-      <c r="Y19" s="25"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="25"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>225</v>
+        <v>210.1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C21" s="8">
         <v>97656</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>76</v>
+      <c r="D21" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>109</v>
+      <c r="F21" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
-      <c r="L21" s="11" t="s">
-        <v>79</v>
+      <c r="H21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="11">
+        <v>2000</v>
       </c>
       <c r="M21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>56</v>
+      <c r="R21" s="7">
+        <v>1</v>
+      </c>
+      <c r="S21" s="7">
+        <v>1</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="X21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>225.1</v>
+        <v>210.2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C22" s="8">
         <v>97656</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>76</v>
+      <c r="D22" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>114</v>
+      <c r="F22" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="17"/>
-      <c r="L22" s="11" t="s">
-        <v>79</v>
+      <c r="H22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="11">
+        <v>2000</v>
       </c>
       <c r="M22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>56</v>
+      <c r="R22" s="7">
+        <v>1</v>
+      </c>
+      <c r="S22" s="7">
+        <v>1</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="X22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>225.2</v>
+        <v>210.3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C23" s="8">
         <v>97656</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>76</v>
+      <c r="D23" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>113</v>
+      <c r="F23" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="17"/>
-      <c r="L23" s="11" t="s">
-        <v>79</v>
+      <c r="H23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="11">
+        <v>2000</v>
       </c>
       <c r="M23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>56</v>
+      <c r="R23" s="7">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7">
+        <v>1</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="X23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>225.3</v>
+        <v>210.4</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C24" s="8">
         <v>97656</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>76</v>
+      <c r="D24" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>112</v>
+      <c r="F24" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="17"/>
-      <c r="L24" s="11" t="s">
-        <v>79</v>
+      <c r="H24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="11">
+        <v>2000</v>
       </c>
       <c r="M24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>56</v>
+      <c r="R24" s="7">
+        <v>1</v>
+      </c>
+      <c r="S24" s="7">
+        <v>1</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="X24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>225.4</v>
+        <v>210.5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C25" s="8">
         <v>97656</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>76</v>
+      <c r="D25" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>115</v>
+      <c r="F25" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="17"/>
-      <c r="L25" s="11" t="s">
-        <v>79</v>
+      <c r="H25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="11">
+        <v>2000</v>
       </c>
       <c r="M25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>56</v>
+      <c r="R25" s="7">
+        <v>1</v>
+      </c>
+      <c r="S25" s="7">
+        <v>1</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="X25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>225.5</v>
+        <v>211.1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C26" s="8">
         <v>97656</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>76</v>
+      <c r="D26" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>116</v>
+      <c r="F26" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="17"/>
-      <c r="L26" s="11" t="s">
-        <v>79</v>
+      <c r="H26" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="11">
+        <v>2000</v>
       </c>
       <c r="M26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S26" s="7" t="s">
-        <v>56</v>
+      <c r="R26" s="7">
+        <v>1</v>
+      </c>
+      <c r="S26" s="7">
+        <v>1</v>
       </c>
       <c r="T26" s="13" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="X26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y26" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>226</v>
+        <v>211.2</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C27" s="8">
         <v>97656</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>87</v>
+      <c r="D27" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="17"/>
-      <c r="L27" s="11" t="s">
-        <v>79</v>
+      <c r="H27" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="11">
+        <v>2000</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R27" s="7" t="s">
+      <c r="R27" s="7">
+        <v>1</v>
+      </c>
+      <c r="S27" s="7">
+        <v>1</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z27" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>211.3</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="R28" s="7">
+        <v>1</v>
+      </c>
+      <c r="S28" s="7">
+        <v>1</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X28" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>211.4</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="R29" s="7">
+        <v>1</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X29" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>211.5</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R30" s="7">
+        <v>1</v>
+      </c>
+      <c r="S30" s="7">
+        <v>1</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>212.1</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R31" s="7">
+        <v>1</v>
+      </c>
+      <c r="S31" s="7">
+        <v>1</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z31" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>212.2</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" s="7">
+        <v>1</v>
+      </c>
+      <c r="S32" s="7">
+        <v>1</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X32" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>212.3</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" s="7">
+        <v>1</v>
+      </c>
+      <c r="S33" s="7">
+        <v>1</v>
+      </c>
+      <c r="T33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>212.4</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R34" s="7">
+        <v>1</v>
+      </c>
+      <c r="S34" s="7">
+        <v>1</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X34" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z34" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>212.5</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R35" s="7">
+        <v>1</v>
+      </c>
+      <c r="S35" s="7">
+        <v>1</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X35" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z35" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>213.1</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="7">
+        <v>1</v>
+      </c>
+      <c r="S36" s="7">
+        <v>1</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X36" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z36" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>213.2</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R37" s="7">
+        <v>1</v>
+      </c>
+      <c r="S37" s="7">
+        <v>1</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X37" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z37" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>213.3</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="7">
+        <v>1</v>
+      </c>
+      <c r="S38" s="7">
+        <v>1</v>
+      </c>
+      <c r="T38" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X38" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z38" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>213.4</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R39" s="7">
+        <v>1</v>
+      </c>
+      <c r="S39" s="7">
+        <v>1</v>
+      </c>
+      <c r="T39" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X39" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z39" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>213.5</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="7">
+        <v>1</v>
+      </c>
+      <c r="S40" s="7">
+        <v>1</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z40" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>225</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="17"/>
+      <c r="L41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z41" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>225.1</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="17"/>
+      <c r="L42" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T42" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z42" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>225.2</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="17"/>
+      <c r="L43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z43" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>225.3</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="17"/>
+      <c r="L44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z44" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>225.4</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="17"/>
+      <c r="L45" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z45" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>225.5</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="17"/>
+      <c r="L46" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z46" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>226</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="17"/>
+      <c r="L47" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T47" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X47" t="s">
         <v>18</v>
       </c>
-      <c r="Y27" s="16" t="s">
+      <c r="Z47" s="16" t="s">
         <v>102</v>
       </c>
     </row>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822029C8-F418-4952-90BB-7486F0A81E8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE9C4D5-7B08-4D71-B1D5-C58090F4397F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="203">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,6 +631,186 @@
   </si>
   <si>
     <t>128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/02/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Tone_Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/02/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Oscillation_Tone_Sharp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_Tone_Oscillation_Sharp_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_IntegrationWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Offset_IntWin_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,1.5;1.5,0.5;1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeICI_Tail_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeICI_Head_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Int_4_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Basic_4o06_In_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.015,1.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_Local_ICIChange_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Basic_4o06_In_4_Insert1_2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Basic_4o06_In_4_Insert1_5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Basic_4o06_In_4_Insert1_1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Basic_4o06_In_4_Insert1_0o5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Basic_4o06_In_4_Insert1_3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Basic_4o06_In_4_Insert1_4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Basic_4o06_In_4_Insert_Per_1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_Insert_N_ICI_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_TimePoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -734,6 +914,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1014,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A40"/>
+    <sheetView tabSelected="1" topLeftCell="L22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1207,7 @@
     <col min="2" max="2" width="14.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" style="7" customWidth="1"/>
@@ -1041,14 +1222,19 @@
     <col min="18" max="18" width="14.44140625" style="7" customWidth="1"/>
     <col min="19" max="19" width="14" style="7" customWidth="1"/>
     <col min="20" max="20" width="14.21875" style="13" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" style="16" customWidth="1"/>
+    <col min="21" max="21" width="19.109375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="17.109375" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.109375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="21.109375" style="7" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.109375" customWidth="1"/>
+    <col min="30" max="30" width="29.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1109,26 +1295,38 @@
       <c r="T1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1189,26 +1387,38 @@
       <c r="T2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1257,14 +1467,14 @@
       <c r="T3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AB3" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="AD3" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>102</v>
       </c>
@@ -1292,23 +1502,23 @@
       <c r="L4" s="11">
         <v>2000</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
         <v>3000</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>500</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <v>333</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AB4" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="AD4" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -1357,31 +1567,31 @@
       <c r="T5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AB5" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="AD5" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>104</v>
+        <v>103.1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="C6" s="8">
         <v>97656</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -1396,10 +1606,10 @@
         <v>1000</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="14" t="s">
         <v>51</v>
@@ -1413,16 +1623,16 @@
       <c r="T6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AB6" t="s">
         <v>18</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="AD6" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
@@ -1431,13 +1641,13 @@
         <v>97656</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
@@ -1445,43 +1655,40 @@
       <c r="H7" s="6">
         <v>0.5</v>
       </c>
-      <c r="K7" s="9">
-        <v>6000</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>34</v>
+      <c r="L7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1000</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" s="7" t="s">
+      <c r="O7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="14">
         <v>0</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="14">
         <v>0</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD7" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
@@ -1490,10 +1697,10 @@
         <v>97656</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
@@ -1508,16 +1715,16 @@
         <v>6000</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>62</v>
+      <c r="O8" s="7">
+        <v>1.5</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>51</v>
@@ -1529,18 +1736,18 @@
         <v>0</v>
       </c>
       <c r="T8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD8" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>106</v>
-      </c>
-      <c r="X8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z8" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>107</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
@@ -1549,57 +1756,57 @@
         <v>97656</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="6">
-        <v>26</v>
+        <v>0.5</v>
       </c>
       <c r="K9" s="9">
         <v>6000</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9">
-        <v>6000</v>
-      </c>
-      <c r="V9">
-        <v>500</v>
-      </c>
-      <c r="W9">
-        <v>333</v>
-      </c>
-      <c r="X9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB9" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD9" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
@@ -1608,229 +1815,231 @@
         <v>97656</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="X10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="6">
+        <v>26</v>
+      </c>
+      <c r="K10" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y10">
+        <v>6000</v>
+      </c>
+      <c r="Z10">
+        <v>500</v>
+      </c>
+      <c r="AA10">
+        <v>333</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>109</v>
+        <v>107.1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="C11" s="8">
         <v>97656</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="6">
+        <v>26</v>
+      </c>
+      <c r="K11" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" s="14">
-        <v>0</v>
-      </c>
-      <c r="S11" s="14">
-        <v>0</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11">
+        <v>6000</v>
+      </c>
+      <c r="Z11">
+        <v>500</v>
+      </c>
+      <c r="AA11">
+        <v>333</v>
+      </c>
+      <c r="AB11" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD11" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C12" s="8">
         <v>97656</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>73</v>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>58</v>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="17"/>
-      <c r="L12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>60</v>
+      <c r="H12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1000</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="X12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8">
         <v>97656</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>74</v>
+      <c r="D13" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17"/>
-      <c r="L13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>60</v>
+      <c r="H13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1000</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="X13" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD13" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>57</v>
@@ -1839,10 +2048,10 @@
         <v>97656</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>58</v>
@@ -1856,13 +2065,13 @@
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="L14" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>62</v>
@@ -1879,16 +2088,16 @@
       <c r="T14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="X14" t="s">
+      <c r="AB14" t="s">
         <v>64</v>
       </c>
-      <c r="Z14" s="16" t="s">
+      <c r="AD14" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>57</v>
@@ -1897,13 +2106,13 @@
         <v>97656</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>10</v>
@@ -1914,13 +2123,13 @@
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="L15" s="11" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>60</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>62</v>
@@ -1937,16 +2146,16 @@
       <c r="T15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AB15" t="s">
         <v>64</v>
       </c>
-      <c r="Z15" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD15" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>57</v>
@@ -1955,13 +2164,13 @@
         <v>97656</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>10</v>
@@ -1972,42 +2181,39 @@
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="L16" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="X16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>57</v>
@@ -2016,13 +2222,13 @@
         <v>97656</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>10</v>
@@ -2033,7 +2239,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="L17" s="11" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>60</v>
@@ -2056,230 +2262,176 @@
       <c r="T17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AB17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD17" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>125</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="17"/>
+      <c r="L18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD18" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>126</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="17"/>
+      <c r="L19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB19" t="s">
         <v>18</v>
       </c>
-      <c r="Z17" s="16" t="s">
+      <c r="AD19" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="24"/>
-      <c r="Z19" s="25"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>210.1</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R21" s="7">
-        <v>1</v>
-      </c>
-      <c r="S21" s="7">
-        <v>1</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="X21" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z21" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>210.2</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R22" s="7">
-        <v>1</v>
-      </c>
-      <c r="S22" s="7">
-        <v>1</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="X22" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>210.3</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R23" s="7">
-        <v>1</v>
-      </c>
-      <c r="S23" s="7">
-        <v>1</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="X23" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z23" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="AD22" s="25"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>210.4</v>
+        <v>201</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C24" s="8">
         <v>97656</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>108</v>
@@ -2287,20 +2439,20 @@
       <c r="H24" s="6">
         <v>0.5</v>
       </c>
-      <c r="L24" s="11">
-        <v>2000</v>
+      <c r="L24" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R24" s="7">
         <v>1</v>
@@ -2311,34 +2463,31 @@
       <c r="T24" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z24" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD24" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>210.5</v>
+        <v>201.1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C25" s="8">
         <v>97656</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>108</v>
@@ -2346,20 +2495,20 @@
       <c r="H25" s="6">
         <v>0.5</v>
       </c>
-      <c r="L25" s="11">
-        <v>2000</v>
+      <c r="L25" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R25" s="7">
         <v>1</v>
@@ -2370,34 +2519,31 @@
       <c r="T25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X25" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z25" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD25" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>211.1</v>
+        <v>201.2</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="C26" s="8">
         <v>97656</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>108</v>
@@ -2405,20 +2551,20 @@
       <c r="H26" s="6">
         <v>0.5</v>
       </c>
-      <c r="L26" s="11">
-        <v>2000</v>
+      <c r="L26" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R26" s="7">
         <v>1</v>
@@ -2429,78 +2575,60 @@
       <c r="T26" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X26" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z26" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD26" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>211.2</v>
+        <v>202</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C27" s="8">
         <v>97656</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H27" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="11">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R27" s="7">
-        <v>1</v>
-      </c>
-      <c r="S27" s="7">
-        <v>1</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="X27" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="Z27">
+        <v>125</v>
+      </c>
+      <c r="AA27">
+        <v>123.1527</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD27" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>211.3</v>
+        <v>210.1</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>130</v>
@@ -2515,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>108</v>
@@ -2530,10 +2658,10 @@
         <v>117</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>51</v>
@@ -2547,19 +2675,19 @@
       <c r="T28" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X28" t="s">
+      <c r="AB28" t="s">
         <v>122</v>
       </c>
-      <c r="Y28" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z28" s="16" t="s">
+      <c r="AC28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD28" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>211.4</v>
+        <v>210.2</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>130</v>
@@ -2574,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>108</v>
@@ -2589,10 +2717,10 @@
         <v>117</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>51</v>
@@ -2606,19 +2734,19 @@
       <c r="T29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X29" t="s">
+      <c r="AB29" t="s">
         <v>122</v>
       </c>
-      <c r="Y29" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z29" s="16" t="s">
+      <c r="AC29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD29" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>211.5</v>
+        <v>210.3</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>130</v>
@@ -2633,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>108</v>
@@ -2648,10 +2776,10 @@
         <v>117</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>51</v>
@@ -2665,19 +2793,19 @@
       <c r="T30" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X30" t="s">
+      <c r="AB30" t="s">
         <v>122</v>
       </c>
-      <c r="Y30" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z30" s="16" t="s">
+      <c r="AC30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD30" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>212.1</v>
+        <v>210.4</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>130</v>
@@ -2692,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>108</v>
@@ -2707,10 +2835,10 @@
         <v>117</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>51</v>
@@ -2724,19 +2852,19 @@
       <c r="T31" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X31" t="s">
+      <c r="AB31" t="s">
         <v>122</v>
       </c>
-      <c r="Y31" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z31" s="16" t="s">
+      <c r="AC31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD31" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>212.2</v>
+        <v>210.5</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>130</v>
@@ -2751,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>108</v>
@@ -2766,10 +2894,10 @@
         <v>117</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>51</v>
@@ -2783,19 +2911,19 @@
       <c r="T32" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X32" t="s">
+      <c r="AB32" t="s">
         <v>122</v>
       </c>
-      <c r="Y32" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z32" s="16" t="s">
+      <c r="AC32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD32" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>212.3</v>
+        <v>211.1</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>130</v>
@@ -2810,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>108</v>
@@ -2825,10 +2953,10 @@
         <v>117</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>51</v>
@@ -2842,19 +2970,19 @@
       <c r="T33" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X33" t="s">
+      <c r="AB33" t="s">
         <v>122</v>
       </c>
-      <c r="Y33" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z33" s="16" t="s">
+      <c r="AC33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD33" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>212.4</v>
+        <v>211.2</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>130</v>
@@ -2869,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>108</v>
@@ -2884,10 +3012,10 @@
         <v>117</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>51</v>
@@ -2901,19 +3029,19 @@
       <c r="T34" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X34" t="s">
+      <c r="AB34" t="s">
         <v>122</v>
       </c>
-      <c r="Y34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z34" s="16" t="s">
+      <c r="AC34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD34" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>212.5</v>
+        <v>211.3</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>130</v>
@@ -2928,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>108</v>
@@ -2943,10 +3071,10 @@
         <v>117</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>51</v>
@@ -2960,19 +3088,19 @@
       <c r="T35" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X35" t="s">
+      <c r="AB35" t="s">
         <v>122</v>
       </c>
-      <c r="Y35" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z35" s="16" t="s">
+      <c r="AC35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD35" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>213.1</v>
+        <v>211.4</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>130</v>
@@ -2987,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>108</v>
@@ -3002,7 +3130,7 @@
         <v>117</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>119</v>
@@ -3019,19 +3147,19 @@
       <c r="T36" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X36" t="s">
+      <c r="AB36" t="s">
         <v>122</v>
       </c>
-      <c r="Y36" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z36" s="16" t="s">
+      <c r="AC36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD36" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>213.2</v>
+        <v>211.5</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>130</v>
@@ -3046,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>108</v>
@@ -3061,7 +3189,7 @@
         <v>117</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>119</v>
@@ -3078,19 +3206,19 @@
       <c r="T37" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X37" t="s">
+      <c r="AB37" t="s">
         <v>122</v>
       </c>
-      <c r="Y37" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z37" s="16" t="s">
+      <c r="AC37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD37" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>213.3</v>
+        <v>212.1</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>130</v>
@@ -3105,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>108</v>
@@ -3120,10 +3248,10 @@
         <v>117</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>51</v>
@@ -3137,19 +3265,19 @@
       <c r="T38" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X38" t="s">
+      <c r="AB38" t="s">
         <v>122</v>
       </c>
-      <c r="Y38" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z38" s="16" t="s">
+      <c r="AC38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD38" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>213.4</v>
+        <v>212.2</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>130</v>
@@ -3164,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>108</v>
@@ -3179,10 +3307,10 @@
         <v>117</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>51</v>
@@ -3196,19 +3324,19 @@
       <c r="T39" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X39" t="s">
+      <c r="AB39" t="s">
         <v>122</v>
       </c>
-      <c r="Y39" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z39" s="16" t="s">
+      <c r="AC39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD39" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>213.5</v>
+        <v>212.3</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>130</v>
@@ -3223,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>108</v>
@@ -3238,10 +3366,10 @@
         <v>117</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>51</v>
@@ -3255,438 +3383,1434 @@
       <c r="T40" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="X40" t="s">
+      <c r="AB40" t="s">
         <v>122</v>
       </c>
-      <c r="Y40" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z40" s="16" t="s">
+      <c r="AC40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD40" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>225</v>
+        <v>212.4</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C41" s="8">
         <v>97656</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>76</v>
+      <c r="D41" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>109</v>
+      <c r="F41" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H41" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="17"/>
-      <c r="L41" s="11" t="s">
-        <v>79</v>
+      <c r="H41" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="11">
+        <v>2000</v>
       </c>
       <c r="M41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R41" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S41" s="7" t="s">
-        <v>56</v>
+      <c r="R41" s="7">
+        <v>1</v>
+      </c>
+      <c r="S41" s="7">
+        <v>1</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X41" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z41" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD41" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>225.1</v>
+        <v>212.5</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C42" s="8">
         <v>97656</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>76</v>
+      <c r="D42" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>114</v>
+      <c r="F42" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="17"/>
-      <c r="L42" s="11" t="s">
-        <v>79</v>
+      <c r="H42" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="11">
+        <v>2000</v>
       </c>
       <c r="M42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N42" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R42" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S42" s="7" t="s">
-        <v>56</v>
+      <c r="R42" s="7">
+        <v>1</v>
+      </c>
+      <c r="S42" s="7">
+        <v>1</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z42" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD42" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>225.2</v>
+        <v>213.1</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C43" s="8">
         <v>97656</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>76</v>
+      <c r="D43" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>113</v>
+      <c r="F43" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H43" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="17"/>
-      <c r="L43" s="11" t="s">
-        <v>79</v>
+      <c r="H43" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L43" s="11">
+        <v>2000</v>
       </c>
       <c r="M43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N43" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>56</v>
+      <c r="R43" s="7">
+        <v>1</v>
+      </c>
+      <c r="S43" s="7">
+        <v>1</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z43" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD43" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>225.3</v>
+        <v>213.2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C44" s="8">
         <v>97656</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>76</v>
+      <c r="D44" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>112</v>
+      <c r="F44" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="17"/>
-      <c r="L44" s="11" t="s">
-        <v>79</v>
+      <c r="H44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="11">
+        <v>2000</v>
       </c>
       <c r="M44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N44" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S44" s="7" t="s">
-        <v>56</v>
+      <c r="R44" s="7">
+        <v>1</v>
+      </c>
+      <c r="S44" s="7">
+        <v>1</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X44" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z44" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD44" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>225.4</v>
+        <v>213.3</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C45" s="8">
         <v>97656</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>76</v>
+      <c r="D45" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>115</v>
+      <c r="F45" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H45" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="17"/>
-      <c r="L45" s="11" t="s">
-        <v>79</v>
+      <c r="H45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="11">
+        <v>2000</v>
       </c>
       <c r="M45" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N45" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>56</v>
+      <c r="R45" s="7">
+        <v>1</v>
+      </c>
+      <c r="S45" s="7">
+        <v>1</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z45" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD45" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>225.5</v>
+        <v>213.4</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C46" s="8">
         <v>97656</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>76</v>
+      <c r="D46" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>116</v>
+      <c r="F46" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H46" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="17"/>
-      <c r="L46" s="11" t="s">
-        <v>79</v>
+      <c r="H46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L46" s="11">
+        <v>2000</v>
       </c>
       <c r="M46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N46" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S46" s="7" t="s">
-        <v>56</v>
+      <c r="R46" s="7">
+        <v>1</v>
+      </c>
+      <c r="S46" s="7">
+        <v>1</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X46" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z46" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD46" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>226</v>
+        <v>213.5</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C47" s="8">
         <v>97656</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>87</v>
+      <c r="D47" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H47" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="17"/>
-      <c r="L47" s="11" t="s">
-        <v>79</v>
+      <c r="H47" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L47" s="11">
+        <v>2000</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R47" s="7" t="s">
+      <c r="R47" s="7">
+        <v>1</v>
+      </c>
+      <c r="S47" s="7">
+        <v>1</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD47" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>214</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R48" s="7">
+        <v>1</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD48" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>214.1</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R49" s="7">
+        <v>1</v>
+      </c>
+      <c r="S49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S47" s="7" t="s">
+      <c r="T49" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD49" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>214.2</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" s="7">
+        <v>1</v>
+      </c>
+      <c r="S50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T47" s="13" t="s">
+      <c r="T50" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD50" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>214.3</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" s="7">
+        <v>1</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD51" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>214.4</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" s="7">
+        <v>1</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD52" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>214.5</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" s="7">
+        <v>1</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T53" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD53" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>214.6</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" s="7">
+        <v>1</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T54" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD54" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>214.7</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55" s="7">
+        <v>1</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T55" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD55" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>215</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R56" s="7">
+        <v>1</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T56" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="V56" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="W56" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="X56" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD56" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>225</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="17"/>
+      <c r="L57" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T57" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD57" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>225.1</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H58" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="14"/>
+      <c r="J58" s="17"/>
+      <c r="L58" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T58" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD58" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>225.2</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="17"/>
+      <c r="L59" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T59" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD59" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>225.3</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I60" s="14"/>
+      <c r="J60" s="17"/>
+      <c r="L60" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T60" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD60" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>225.4</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="14"/>
+      <c r="J61" s="17"/>
+      <c r="L61" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T61" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD61" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>225.5</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="14"/>
+      <c r="J62" s="17"/>
+      <c r="L62" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R62" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S62" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T62" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD62" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>226</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="17"/>
+      <c r="L63" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T63" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="X47" t="s">
+      <c r="AB63" t="s">
         <v>18</v>
       </c>
-      <c r="Z47" s="16" t="s">
+      <c r="AD63" s="16" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>227</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="17"/>
+      <c r="L64" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="R64" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="T64" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="U64" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="V64" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="W64" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD64" s="16" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE9C4D5-7B08-4D71-B1D5-C58090F4397F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261C358A-7512-4804-8FF0-3E967DF79325}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="211">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,6 +811,38 @@
   </si>
   <si>
     <t>change_TimePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/02/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1.015,1.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_2Reg_In_Irreg_4-4.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_2Reg_In_Irreg_4.06-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.9852,0.9852</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD64"/>
+  <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U57" sqref="U57"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2419,7 +2451,7 @@
         <v>201</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="C24" s="8">
         <v>97656</v>
@@ -2584,66 +2616,78 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>202</v>
+        <v>201.3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C27" s="8">
         <v>97656</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H27" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>161</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z27">
-        <v>125</v>
-      </c>
-      <c r="AA27">
-        <v>123.1527</v>
+        <v>117</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="S27" s="7">
+        <v>1</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="AB27" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AD27" s="16" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>210.1</v>
+        <v>201.4</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="C28" s="8">
         <v>97656</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>108</v>
@@ -2651,8 +2695,8 @@
       <c r="H28" s="6">
         <v>0.5</v>
       </c>
-      <c r="L28" s="11">
-        <v>2000</v>
+      <c r="L28" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>117</v>
@@ -2661,92 +2705,74 @@
         <v>118</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R28" s="7">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="S28" s="7">
         <v>1</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="AB28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AD28" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>210.2</v>
+        <v>202</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C29" s="8">
         <v>97656</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H29" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="11">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R29" s="7">
-        <v>1</v>
-      </c>
-      <c r="S29" s="7">
-        <v>1</v>
-      </c>
-      <c r="T29" s="13" t="s">
-        <v>105</v>
+        <v>187</v>
+      </c>
+      <c r="Z29">
+        <v>125</v>
+      </c>
+      <c r="AA29">
+        <v>123.1527</v>
       </c>
       <c r="AB29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="AD29" s="16" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>210.3</v>
+        <v>210.1</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>130</v>
@@ -2761,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>108</v>
@@ -2779,7 +2805,7 @@
         <v>118</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>51</v>
@@ -2797,7 +2823,7 @@
         <v>122</v>
       </c>
       <c r="AC30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AD30" s="16" t="s">
         <v>120</v>
@@ -2805,7 +2831,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>210.4</v>
+        <v>210.2</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>130</v>
@@ -2820,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>108</v>
@@ -2838,7 +2864,7 @@
         <v>118</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>51</v>
@@ -2856,7 +2882,7 @@
         <v>122</v>
       </c>
       <c r="AC31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD31" s="16" t="s">
         <v>120</v>
@@ -2864,7 +2890,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>210.5</v>
+        <v>210.3</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>130</v>
@@ -2879,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>108</v>
@@ -2915,7 +2941,7 @@
         <v>122</v>
       </c>
       <c r="AC32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD32" s="16" t="s">
         <v>120</v>
@@ -2923,7 +2949,7 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>211.1</v>
+        <v>210.4</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>130</v>
@@ -2938,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>108</v>
@@ -2953,10 +2979,10 @@
         <v>117</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>51</v>
@@ -2974,7 +3000,7 @@
         <v>122</v>
       </c>
       <c r="AC33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AD33" s="16" t="s">
         <v>120</v>
@@ -2982,7 +3008,7 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>211.2</v>
+        <v>210.5</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>130</v>
@@ -2997,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>108</v>
@@ -3012,10 +3038,10 @@
         <v>117</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>51</v>
@@ -3033,7 +3059,7 @@
         <v>122</v>
       </c>
       <c r="AC34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AD34" s="16" t="s">
         <v>120</v>
@@ -3041,7 +3067,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>211.3</v>
+        <v>211.1</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>130</v>
@@ -3056,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>108</v>
@@ -3071,7 +3097,7 @@
         <v>117</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>119</v>
@@ -3092,7 +3118,7 @@
         <v>122</v>
       </c>
       <c r="AC35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AD35" s="16" t="s">
         <v>120</v>
@@ -3100,7 +3126,7 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>211.4</v>
+        <v>211.2</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>130</v>
@@ -3115,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>108</v>
@@ -3130,7 +3156,7 @@
         <v>117</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>119</v>
@@ -3151,7 +3177,7 @@
         <v>122</v>
       </c>
       <c r="AC36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD36" s="16" t="s">
         <v>120</v>
@@ -3159,7 +3185,7 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>211.5</v>
+        <v>211.3</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>130</v>
@@ -3174,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>108</v>
@@ -3210,7 +3236,7 @@
         <v>122</v>
       </c>
       <c r="AC37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD37" s="16" t="s">
         <v>120</v>
@@ -3218,7 +3244,7 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>212.1</v>
+        <v>211.4</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>130</v>
@@ -3233,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>108</v>
@@ -3248,10 +3274,10 @@
         <v>117</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>51</v>
@@ -3269,7 +3295,7 @@
         <v>122</v>
       </c>
       <c r="AC38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AD38" s="16" t="s">
         <v>120</v>
@@ -3277,7 +3303,7 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>212.2</v>
+        <v>211.5</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>130</v>
@@ -3292,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>108</v>
@@ -3307,10 +3333,10 @@
         <v>117</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>51</v>
@@ -3328,7 +3354,7 @@
         <v>122</v>
       </c>
       <c r="AC39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AD39" s="16" t="s">
         <v>120</v>
@@ -3336,7 +3362,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>212.3</v>
+        <v>212.1</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>130</v>
@@ -3351,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>108</v>
@@ -3366,7 +3392,7 @@
         <v>117</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>145</v>
@@ -3387,7 +3413,7 @@
         <v>122</v>
       </c>
       <c r="AC40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AD40" s="16" t="s">
         <v>120</v>
@@ -3395,7 +3421,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>212.4</v>
+        <v>212.2</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>130</v>
@@ -3410,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>108</v>
@@ -3425,7 +3451,7 @@
         <v>117</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>145</v>
@@ -3446,15 +3472,15 @@
         <v>122</v>
       </c>
       <c r="AC41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD41" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>212.5</v>
+        <v>212.3</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>130</v>
@@ -3469,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>108</v>
@@ -3505,7 +3531,7 @@
         <v>122</v>
       </c>
       <c r="AC42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD42" s="16" t="s">
         <v>120</v>
@@ -3513,7 +3539,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>213.1</v>
+        <v>212.4</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>130</v>
@@ -3528,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>108</v>
@@ -3543,10 +3569,10 @@
         <v>117</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>51</v>
@@ -3564,15 +3590,15 @@
         <v>122</v>
       </c>
       <c r="AC43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AD43" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>213.2</v>
+        <v>212.5</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>130</v>
@@ -3587,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>108</v>
@@ -3602,10 +3628,10 @@
         <v>117</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>51</v>
@@ -3623,7 +3649,7 @@
         <v>122</v>
       </c>
       <c r="AC44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AD44" s="16" t="s">
         <v>120</v>
@@ -3631,7 +3657,7 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>213.3</v>
+        <v>213.1</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>130</v>
@@ -3646,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>108</v>
@@ -3661,7 +3687,7 @@
         <v>117</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>119</v>
@@ -3682,7 +3708,7 @@
         <v>122</v>
       </c>
       <c r="AC45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AD45" s="16" t="s">
         <v>120</v>
@@ -3690,7 +3716,7 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>213.4</v>
+        <v>213.2</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>130</v>
@@ -3705,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>108</v>
@@ -3720,7 +3746,7 @@
         <v>117</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>119</v>
@@ -3741,7 +3767,7 @@
         <v>122</v>
       </c>
       <c r="AC46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD46" s="16" t="s">
         <v>120</v>
@@ -3749,7 +3775,7 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>213.5</v>
+        <v>213.3</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>130</v>
@@ -3764,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>108</v>
@@ -3800,30 +3826,30 @@
         <v>122</v>
       </c>
       <c r="AC47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD47" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>214</v>
+        <v>213.4</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C48" s="8">
         <v>97656</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>108</v>
@@ -3834,52 +3860,55 @@
       <c r="L48" s="11">
         <v>2000</v>
       </c>
-      <c r="M48" s="7">
-        <v>1000</v>
+      <c r="M48" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R48" s="7">
         <v>1</v>
       </c>
-      <c r="S48" s="7" t="s">
-        <v>170</v>
+      <c r="S48" s="7">
+        <v>1</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB48" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>128</v>
       </c>
       <c r="AD48" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>214.1</v>
+        <v>213.5</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="C49" s="8">
         <v>97656</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>108</v>
@@ -3887,43 +3916,46 @@
       <c r="H49" s="6">
         <v>0.5</v>
       </c>
-      <c r="L49" s="11" t="s">
-        <v>161</v>
+      <c r="L49" s="11">
+        <v>2000</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R49" s="7">
         <v>1</v>
       </c>
-      <c r="S49" s="7" t="s">
-        <v>51</v>
+      <c r="S49" s="7">
+        <v>1</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB49" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>129</v>
       </c>
       <c r="AD49" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>214.2</v>
+        <v>214</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C50" s="8">
         <v>97656</v>
@@ -3935,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>108</v>
@@ -3943,11 +3975,11 @@
       <c r="H50" s="6">
         <v>0.5</v>
       </c>
-      <c r="L50" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>186</v>
+      <c r="L50" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1000</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>118</v>
@@ -3956,13 +3988,13 @@
         <v>56</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="R50" s="7">
         <v>1</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="T50" s="13" t="s">
         <v>183</v>
@@ -3974,12 +4006,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>214.3</v>
+        <v>214.1</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C51" s="8">
         <v>97656</v>
@@ -3991,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>108</v>
@@ -4012,7 +4044,7 @@
         <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="R51" s="7">
         <v>1</v>
@@ -4032,10 +4064,10 @@
     </row>
     <row r="52" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>214.4</v>
+        <v>214.2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C52" s="8">
         <v>97656</v>
@@ -4047,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>108</v>
@@ -4056,10 +4088,10 @@
         <v>0.5</v>
       </c>
       <c r="L52" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>118</v>
@@ -4088,10 +4120,10 @@
     </row>
     <row r="53" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>214.5</v>
+        <v>214.3</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C53" s="8">
         <v>97656</v>
@@ -4103,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>108</v>
@@ -4112,7 +4144,7 @@
         <v>0.5</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>117</v>
@@ -4144,7 +4176,7 @@
     </row>
     <row r="54" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>214.6</v>
+        <v>214.4</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>193</v>
@@ -4159,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>108</v>
@@ -4168,7 +4200,7 @@
         <v>0.5</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>117</v>
@@ -4200,7 +4232,7 @@
     </row>
     <row r="55" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>214.7</v>
+        <v>214.5</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>193</v>
@@ -4215,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>108</v>
@@ -4224,7 +4256,7 @@
         <v>0.5</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>117</v>
@@ -4256,7 +4288,7 @@
     </row>
     <row r="56" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>215</v>
+        <v>214.6</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>193</v>
@@ -4271,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>108</v>
@@ -4280,7 +4312,7 @@
         <v>0.5</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>117</v>
@@ -4292,7 +4324,7 @@
         <v>56</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R56" s="7">
         <v>1</v>
@@ -4303,153 +4335,143 @@
       <c r="T56" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="U56" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="V56" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="W56" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X56" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="AB56" t="s">
         <v>18</v>
       </c>
       <c r="AD56" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>225</v>
+        <v>214.7</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C57" s="8">
         <v>97656</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>76</v>
+      <c r="D57" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>109</v>
+      <c r="F57" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H57" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="17"/>
+      <c r="H57" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L57" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P57" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q57" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R57" s="7" t="s">
-        <v>56</v>
+      <c r="R57" s="7">
+        <v>1</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="AB57" t="s">
         <v>18</v>
       </c>
       <c r="AD57" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>225.1</v>
+        <v>215</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C58" s="8">
         <v>97656</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>76</v>
+      <c r="D58" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" s="17" t="s">
-        <v>114</v>
+      <c r="F58" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H58" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="17"/>
+      <c r="H58" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L58" s="11" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O58" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P58" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q58" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R58" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="R58" s="7">
+        <v>1</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T58" s="13" t="s">
-        <v>38</v>
+        <v>183</v>
+      </c>
+      <c r="U58" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="V58" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="W58" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="X58" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="AB58" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD58" s="16" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>225.2</v>
+        <v>225</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C59" s="8">
         <v>97656</v>
@@ -4461,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>108</v>
@@ -4499,7 +4521,7 @@
         <v>38</v>
       </c>
       <c r="AB59" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD59" s="16" t="s">
         <v>103</v>
@@ -4507,7 +4529,7 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>225.3</v>
+        <v>225.1</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>111</v>
@@ -4522,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>108</v>
@@ -4568,7 +4590,7 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>225.4</v>
+        <v>225.2</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>111</v>
@@ -4583,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>108</v>
@@ -4629,7 +4651,7 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>225.5</v>
+        <v>225.3</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>111</v>
@@ -4644,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>108</v>
@@ -4690,22 +4712,22 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>226</v>
+        <v>225.4</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C63" s="8">
         <v>97656</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>108</v>
@@ -4727,43 +4749,46 @@
       <c r="O63" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="P63" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="Q63" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T63" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AB63" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AD63" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
-        <v>227</v>
+      <c r="A64" s="6">
+        <v>225.5</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C64" s="26">
+        <v>111</v>
+      </c>
+      <c r="C64" s="8">
         <v>97656</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>108</v>
@@ -4774,42 +4799,161 @@
       <c r="I64" s="14"/>
       <c r="J64" s="17"/>
       <c r="L64" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T64" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD64" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>226</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H65" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="14"/>
+      <c r="J65" s="17"/>
+      <c r="L65" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q65" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R65" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T65" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD65" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <v>227</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="14"/>
+      <c r="J66" s="17"/>
+      <c r="L66" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="M64" s="7" t="s">
+      <c r="M66" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N64" s="7" t="s">
+      <c r="N66" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O64" s="7" t="s">
+      <c r="O66" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="Q64" s="7" t="s">
+      <c r="Q66" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="R64" s="7" t="s">
+      <c r="R66" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="S64" s="7" t="s">
+      <c r="S66" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="T64" s="13" t="s">
+      <c r="T66" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U64" s="7" t="s">
+      <c r="U66" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="V64" s="7" t="s">
+      <c r="V66" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="W64" s="7" t="s">
+      <c r="W66" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AB66" t="s">
         <v>173</v>
       </c>
-      <c r="AD64" s="16" t="s">
+      <c r="AD66" s="16" t="s">
         <v>175</v>
       </c>
     </row>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261C358A-7512-4804-8FF0-3E967DF79325}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A2D726-875C-4710-B3E0-CB224FA2D1FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="216">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,6 +843,26 @@
   </si>
   <si>
     <t>1,1,0.9852,0.9852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,16,32,64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_Oscillation_ICIbase_Gen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1227,46 +1247,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD66"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="G40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.9140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.08203125" style="6" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.77734375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="16.9140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.4140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.9140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.4140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="14.4140625" style="7" customWidth="1"/>
     <col min="19" max="19" width="14" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.21875" style="13" customWidth="1"/>
-    <col min="21" max="21" width="19.109375" style="7" customWidth="1"/>
-    <col min="22" max="22" width="17.109375" style="7" customWidth="1"/>
-    <col min="23" max="23" width="16.109375" style="7" customWidth="1"/>
-    <col min="24" max="24" width="21.109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.25" style="13" customWidth="1"/>
+    <col min="21" max="21" width="19.08203125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="17.08203125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.08203125" style="7" customWidth="1"/>
+    <col min="24" max="24" width="21.08203125" style="7" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.109375" customWidth="1"/>
+    <col min="26" max="26" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.08203125" customWidth="1"/>
     <col min="30" max="30" width="29.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1378,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1450,7 +1470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1506,7 +1526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>102</v>
       </c>
@@ -1550,7 +1570,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -1606,7 +1626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>103.1</v>
       </c>
@@ -1662,7 +1682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>104</v>
       </c>
@@ -1718,7 +1738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>105</v>
       </c>
@@ -1777,7 +1797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>106</v>
       </c>
@@ -1836,7 +1856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>107</v>
       </c>
@@ -1895,7 +1915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>107.1</v>
       </c>
@@ -1954,7 +1974,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>108</v>
       </c>
@@ -2013,7 +2033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>109</v>
       </c>
@@ -2069,7 +2089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>121</v>
       </c>
@@ -2127,7 +2147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>122</v>
       </c>
@@ -2185,7 +2205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>123</v>
       </c>
@@ -2243,7 +2263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>124</v>
       </c>
@@ -2301,7 +2321,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>125</v>
       </c>
@@ -2362,7 +2382,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>126</v>
       </c>
@@ -2420,7 +2440,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -2446,7 +2466,7 @@
       <c r="X22" s="19"/>
       <c r="AD22" s="25"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>201</v>
       </c>
@@ -2502,7 +2522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>201.1</v>
       </c>
@@ -2558,7 +2578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>201.2</v>
       </c>
@@ -2614,7 +2634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>201.3</v>
       </c>
@@ -2670,7 +2690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>201.4</v>
       </c>
@@ -2726,7 +2746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>202</v>
       </c>
@@ -2770,7 +2790,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>210.1</v>
       </c>
@@ -2829,7 +2849,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>210.2</v>
       </c>
@@ -2888,7 +2908,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>210.3</v>
       </c>
@@ -2947,7 +2967,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>210.4</v>
       </c>
@@ -3006,7 +3026,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>210.5</v>
       </c>
@@ -3065,7 +3085,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>211.1</v>
       </c>
@@ -3124,7 +3144,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>211.2</v>
       </c>
@@ -3183,7 +3203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>211.3</v>
       </c>
@@ -3242,7 +3262,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>211.4</v>
       </c>
@@ -3301,7 +3321,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>211.5</v>
       </c>
@@ -3360,7 +3380,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>212.1</v>
       </c>
@@ -3419,7 +3439,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>212.2</v>
       </c>
@@ -3478,7 +3498,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>212.3</v>
       </c>
@@ -3537,7 +3557,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>212.4</v>
       </c>
@@ -3596,7 +3616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>212.5</v>
       </c>
@@ -3655,7 +3675,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>213.1</v>
       </c>
@@ -3714,7 +3734,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>213.2</v>
       </c>
@@ -3773,7 +3793,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>213.3</v>
       </c>
@@ -3832,7 +3852,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>213.4</v>
       </c>
@@ -3891,7 +3911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>213.5</v>
       </c>
@@ -3950,7 +3970,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>214</v>
       </c>
@@ -4006,7 +4026,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>214.1</v>
       </c>
@@ -4062,7 +4082,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>214.2</v>
       </c>
@@ -4118,7 +4138,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>214.3</v>
       </c>
@@ -4174,7 +4194,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>214.4</v>
       </c>
@@ -4230,7 +4250,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>214.5</v>
       </c>
@@ -4286,7 +4306,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>214.6</v>
       </c>
@@ -4342,7 +4362,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>214.7</v>
       </c>
@@ -4398,7 +4418,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>215</v>
       </c>
@@ -4466,73 +4486,71 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="C59" s="8">
         <v>97656</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>76</v>
+      <c r="D59" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" s="17" t="s">
-        <v>109</v>
+      <c r="F59" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H59" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="17"/>
+      <c r="H59" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K59" s="9">
+        <v>6000</v>
+      </c>
       <c r="L59" s="11" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="M59" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O59" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N59" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R59" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>56</v>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+      <c r="S59" s="7">
+        <v>0</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB59" t="s">
         <v>18</v>
       </c>
       <c r="AD59" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <v>225.1</v>
+        <v>225</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C60" s="8">
         <v>97656</v>
@@ -4544,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>108</v>
@@ -4582,15 +4600,15 @@
         <v>38</v>
       </c>
       <c r="AB60" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD60" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <v>225.2</v>
+        <v>225.1</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>111</v>
@@ -4605,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>108</v>
@@ -4649,9 +4667,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <v>225.3</v>
+        <v>225.2</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>111</v>
@@ -4666,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>108</v>
@@ -4710,9 +4728,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <v>225.4</v>
+        <v>225.3</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>111</v>
@@ -4727,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>108</v>
@@ -4771,9 +4789,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <v>225.5</v>
+        <v>225.4</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>111</v>
@@ -4788,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>108</v>
@@ -4832,24 +4850,24 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <v>226</v>
+        <v>225.5</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C65" s="8">
         <v>97656</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>108</v>
@@ -4871,43 +4889,46 @@
       <c r="O65" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="P65" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="Q65" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T65" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AB65" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AD65" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
-        <v>227</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>226</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C66" s="26">
+        <v>31</v>
+      </c>
+      <c r="C66" s="8">
         <v>97656</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>108</v>
@@ -4918,42 +4939,100 @@
       <c r="I66" s="14"/>
       <c r="J66" s="17"/>
       <c r="L66" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T66" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD66" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A67" s="17">
+        <v>227</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="14"/>
+      <c r="J67" s="17"/>
+      <c r="L67" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="M66" s="7" t="s">
+      <c r="M67" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N66" s="7" t="s">
+      <c r="N67" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O66" s="7" t="s">
+      <c r="O67" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="Q66" s="7" t="s">
+      <c r="Q67" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="R66" s="7" t="s">
+      <c r="R67" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="S66" s="7" t="s">
+      <c r="S67" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="T66" s="13" t="s">
+      <c r="T67" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U66" s="7" t="s">
+      <c r="U67" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="V66" s="7" t="s">
+      <c r="V67" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="W66" s="7" t="s">
+      <c r="W67" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AB67" t="s">
         <v>173</v>
       </c>
-      <c r="AD66" s="16" t="s">
+      <c r="AD67" s="16" t="s">
         <v>175</v>
       </c>
     </row>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A2D726-875C-4710-B3E0-CB224FA2D1FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74265213-6AE2-497F-A899-C3694AE65538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1332" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="240">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -863,6 +863,92 @@
   </si>
   <si>
     <t>@TB_Oscillation_ICIbase_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_2s-1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.015,1.015,1.015,1.015,1.015,1.015,1.015,1.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_5s-5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localChange_2_3_2</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_5s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_4s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_3s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_2s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_1s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_0o5s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_Per_1s</t>
+  </si>
+  <si>
+    <t>2023/03/21</t>
+  </si>
+  <si>
+    <t>1.5,1.5</t>
+  </si>
+  <si>
+    <t>1.5,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Int_16_last4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Int_16_last8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -967,6 +1053,17 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1247,46 +1344,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AD77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R59" sqref="A59:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="H61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.9140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.08203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="6" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.9140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.75" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.9140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.4140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14.4140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.77734375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" style="7" customWidth="1"/>
     <col min="19" max="19" width="14" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.25" style="13" customWidth="1"/>
-    <col min="21" max="21" width="19.08203125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="17.08203125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="16.08203125" style="7" customWidth="1"/>
-    <col min="24" max="24" width="21.08203125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.21875" style="13" customWidth="1"/>
+    <col min="21" max="21" width="19.109375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="17.109375" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.109375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="21.109375" style="7" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.08203125" customWidth="1"/>
+    <col min="26" max="26" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.109375" customWidth="1"/>
     <col min="30" max="30" width="29.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1378,7 +1475,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1470,7 +1567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1526,7 +1623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>102</v>
       </c>
@@ -1570,7 +1667,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -1626,7 +1723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>103.1</v>
       </c>
@@ -1682,7 +1779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>104</v>
       </c>
@@ -1738,7 +1835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>105</v>
       </c>
@@ -1797,7 +1894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>106</v>
       </c>
@@ -1856,7 +1953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>107</v>
       </c>
@@ -1915,7 +2012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>107.1</v>
       </c>
@@ -1974,7 +2071,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>108</v>
       </c>
@@ -2033,7 +2130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>109</v>
       </c>
@@ -2089,7 +2186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>121</v>
       </c>
@@ -2147,7 +2244,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>122</v>
       </c>
@@ -2205,7 +2302,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>123</v>
       </c>
@@ -2263,7 +2360,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>124</v>
       </c>
@@ -2321,7 +2418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>125</v>
       </c>
@@ -2382,7 +2479,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>126</v>
       </c>
@@ -2440,374 +2537,458 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="AD22" s="25"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>201</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>203</v>
+    <row r="20" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>127</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="7">
+        <v>1</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD20" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>127.1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="7">
+        <v>1</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>127.2</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="28">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" s="7">
+        <v>1</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD22" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>127.3</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="7">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD23" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>127.4</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="C24" s="8">
         <v>97656</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>108</v>
+      <c r="D24" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="28">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>10</v>
       </c>
       <c r="H24" s="6">
         <v>0.5</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="R24" s="7">
         <v>1</v>
       </c>
-      <c r="S24" s="7">
-        <v>1</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>105</v>
+      <c r="S24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="AB24" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AD24" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>201.1</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>127.5</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="C25" s="8">
         <v>97656</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>108</v>
+      <c r="D25" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="28">
+        <v>1</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>10</v>
       </c>
       <c r="H25" s="6">
         <v>0.5</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>186</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="R25" s="7">
         <v>1</v>
       </c>
-      <c r="S25" s="7">
-        <v>1</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>105</v>
+      <c r="S25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="AB25" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AD25" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>201.2</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D26" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>127.6</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R26" s="30">
+        <v>1</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="T26" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="U26" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="V26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD26" s="35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="AD28" s="25"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>201</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R26" s="7">
-        <v>1</v>
-      </c>
-      <c r="S26" s="7">
-        <v>1</v>
-      </c>
-      <c r="T26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD26" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>201.3</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="S27" s="7">
-        <v>1</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD27" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>201.4</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="R28" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="S28" s="7">
-        <v>1</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD28" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>202</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z29">
-        <v>125</v>
-      </c>
-      <c r="AA29">
-        <v>123.1527</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD29" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>210.1</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>108</v>
@@ -2815,20 +2996,20 @@
       <c r="H30" s="6">
         <v>0.5</v>
       </c>
-      <c r="L30" s="11">
-        <v>2000</v>
+      <c r="L30" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R30" s="7">
         <v>1</v>
@@ -2840,33 +3021,30 @@
         <v>105</v>
       </c>
       <c r="AB30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AD30" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>210.2</v>
+        <v>201.1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C31" s="8">
         <v>97656</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>108</v>
@@ -2874,20 +3052,20 @@
       <c r="H31" s="6">
         <v>0.5</v>
       </c>
-      <c r="L31" s="11">
-        <v>2000</v>
+      <c r="L31" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R31" s="7">
         <v>1</v>
@@ -2899,33 +3077,30 @@
         <v>105</v>
       </c>
       <c r="AB31" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AD31" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>210.3</v>
+        <v>201.2</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="C32" s="8">
         <v>97656</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>108</v>
@@ -2933,8 +3108,8 @@
       <c r="H32" s="6">
         <v>0.5</v>
       </c>
-      <c r="L32" s="11">
-        <v>2000</v>
+      <c r="L32" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>117</v>
@@ -2943,10 +3118,10 @@
         <v>118</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R32" s="7">
         <v>1</v>
@@ -2958,33 +3133,30 @@
         <v>105</v>
       </c>
       <c r="AB32" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AD32" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>210.4</v>
+        <v>201.3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="C33" s="8">
         <v>97656</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>108</v>
@@ -2992,8 +3164,8 @@
       <c r="H33" s="6">
         <v>0.5</v>
       </c>
-      <c r="L33" s="11">
-        <v>2000</v>
+      <c r="L33" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>117</v>
@@ -3002,48 +3174,45 @@
         <v>118</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R33" s="7">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="S33" s="7">
         <v>1</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="AB33" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AD33" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>210.5</v>
+        <v>201.4</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="C34" s="8">
         <v>97656</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>108</v>
@@ -3051,8 +3220,8 @@
       <c r="H34" s="6">
         <v>0.5</v>
       </c>
-      <c r="L34" s="11">
-        <v>2000</v>
+      <c r="L34" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>117</v>
@@ -3061,92 +3230,74 @@
         <v>118</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R34" s="7">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="S34" s="7">
         <v>1</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="AB34" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AD34" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>211.1</v>
+        <v>202</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C35" s="8">
         <v>97656</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H35" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="11">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R35" s="7">
-        <v>1</v>
-      </c>
-      <c r="S35" s="7">
-        <v>1</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>105</v>
+        <v>187</v>
+      </c>
+      <c r="Z35">
+        <v>125</v>
+      </c>
+      <c r="AA35">
+        <v>123.1527</v>
       </c>
       <c r="AB35" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="AD35" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>211.2</v>
+        <v>210.1</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>130</v>
@@ -3161,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>108</v>
@@ -3176,10 +3327,10 @@
         <v>117</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>51</v>
@@ -3197,15 +3348,15 @@
         <v>122</v>
       </c>
       <c r="AC36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD36" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>211.3</v>
+        <v>210.2</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>130</v>
@@ -3220,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>108</v>
@@ -3235,10 +3386,10 @@
         <v>117</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>51</v>
@@ -3256,15 +3407,15 @@
         <v>122</v>
       </c>
       <c r="AC37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD37" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>211.4</v>
+        <v>210.3</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>130</v>
@@ -3279,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>108</v>
@@ -3294,10 +3445,10 @@
         <v>117</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>51</v>
@@ -3315,15 +3466,15 @@
         <v>122</v>
       </c>
       <c r="AC38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD38" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>211.5</v>
+        <v>210.4</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>130</v>
@@ -3338,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>108</v>
@@ -3353,10 +3504,10 @@
         <v>117</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>51</v>
@@ -3374,15 +3525,15 @@
         <v>122</v>
       </c>
       <c r="AC39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD39" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>212.1</v>
+        <v>210.5</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>130</v>
@@ -3397,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>108</v>
@@ -3412,10 +3563,10 @@
         <v>117</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>51</v>
@@ -3433,15 +3584,15 @@
         <v>122</v>
       </c>
       <c r="AC40" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AD40" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>212.2</v>
+        <v>211.1</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>130</v>
@@ -3456,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>108</v>
@@ -3471,10 +3622,10 @@
         <v>117</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>51</v>
@@ -3492,15 +3643,15 @@
         <v>122</v>
       </c>
       <c r="AC41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD41" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>212.3</v>
+        <v>211.2</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>130</v>
@@ -3515,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>108</v>
@@ -3530,10 +3681,10 @@
         <v>117</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>51</v>
@@ -3551,15 +3702,15 @@
         <v>122</v>
       </c>
       <c r="AC42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD42" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>212.4</v>
+        <v>211.3</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>130</v>
@@ -3574,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>108</v>
@@ -3589,10 +3740,10 @@
         <v>117</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>51</v>
@@ -3610,15 +3761,15 @@
         <v>122</v>
       </c>
       <c r="AC43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD43" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>212.5</v>
+        <v>211.4</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>130</v>
@@ -3633,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>108</v>
@@ -3648,10 +3799,10 @@
         <v>117</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>51</v>
@@ -3669,15 +3820,15 @@
         <v>122</v>
       </c>
       <c r="AC44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD44" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>213.1</v>
+        <v>211.5</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>130</v>
@@ -3692,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>108</v>
@@ -3707,7 +3858,7 @@
         <v>117</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>119</v>
@@ -3728,15 +3879,15 @@
         <v>122</v>
       </c>
       <c r="AC45" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AD45" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>213.2</v>
+        <v>212.1</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>130</v>
@@ -3751,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>108</v>
@@ -3766,10 +3917,10 @@
         <v>117</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>51</v>
@@ -3787,15 +3938,15 @@
         <v>122</v>
       </c>
       <c r="AC46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD46" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>213.3</v>
+        <v>212.2</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>130</v>
@@ -3810,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>108</v>
@@ -3825,10 +3976,10 @@
         <v>117</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>51</v>
@@ -3846,15 +3997,15 @@
         <v>122</v>
       </c>
       <c r="AC47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD47" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>213.4</v>
+        <v>212.3</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>130</v>
@@ -3869,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>108</v>
@@ -3884,10 +4035,10 @@
         <v>117</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>51</v>
@@ -3905,15 +4056,15 @@
         <v>122</v>
       </c>
       <c r="AC48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD48" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>213.5</v>
+        <v>212.4</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>130</v>
@@ -3928,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>108</v>
@@ -3943,10 +4094,10 @@
         <v>117</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>51</v>
@@ -3964,30 +4115,30 @@
         <v>122</v>
       </c>
       <c r="AC49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD49" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>214</v>
+        <v>212.5</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C50" s="8">
         <v>97656</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>108</v>
@@ -3998,52 +4149,55 @@
       <c r="L50" s="11">
         <v>2000</v>
       </c>
-      <c r="M50" s="7">
-        <v>1000</v>
+      <c r="M50" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R50" s="7">
         <v>1</v>
       </c>
-      <c r="S50" s="7" t="s">
-        <v>170</v>
+      <c r="S50" s="7">
+        <v>1</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB50" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>129</v>
       </c>
       <c r="AD50" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>214.1</v>
+        <v>213.1</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="C51" s="8">
         <v>97656</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>108</v>
@@ -4051,55 +4205,58 @@
       <c r="H51" s="6">
         <v>0.5</v>
       </c>
-      <c r="L51" s="11" t="s">
-        <v>161</v>
+      <c r="L51" s="11">
+        <v>2000</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R51" s="7">
         <v>1</v>
       </c>
-      <c r="S51" s="7" t="s">
-        <v>51</v>
+      <c r="S51" s="7">
+        <v>1</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB51" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>125</v>
       </c>
       <c r="AD51" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>214.2</v>
+        <v>213.2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C52" s="8">
         <v>97656</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>108</v>
@@ -4107,55 +4264,58 @@
       <c r="H52" s="6">
         <v>0.5</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M52" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="N52" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R52" s="7">
         <v>1</v>
       </c>
-      <c r="S52" s="7" t="s">
-        <v>51</v>
+      <c r="S52" s="7">
+        <v>1</v>
       </c>
       <c r="T52" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB52" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>126</v>
       </c>
       <c r="AD52" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>214.3</v>
+        <v>213.3</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C53" s="8">
         <v>97656</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>108</v>
@@ -4163,55 +4323,58 @@
       <c r="H53" s="6">
         <v>0.5</v>
       </c>
-      <c r="L53" s="11" t="s">
-        <v>161</v>
+      <c r="L53" s="11">
+        <v>2000</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R53" s="7">
         <v>1</v>
       </c>
-      <c r="S53" s="7" t="s">
-        <v>51</v>
+      <c r="S53" s="7">
+        <v>1</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB53" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>127</v>
       </c>
       <c r="AD53" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>214.4</v>
+        <v>213.4</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="C54" s="8">
         <v>97656</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>108</v>
@@ -4219,55 +4382,58 @@
       <c r="H54" s="6">
         <v>0.5</v>
       </c>
-      <c r="L54" s="11" t="s">
-        <v>186</v>
+      <c r="L54" s="11">
+        <v>2000</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R54" s="7">
         <v>1</v>
       </c>
-      <c r="S54" s="7" t="s">
-        <v>51</v>
+      <c r="S54" s="7">
+        <v>1</v>
       </c>
       <c r="T54" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB54" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>128</v>
       </c>
       <c r="AD54" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>214.5</v>
+        <v>213.5</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="C55" s="8">
         <v>97656</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>108</v>
@@ -4275,43 +4441,46 @@
       <c r="H55" s="6">
         <v>0.5</v>
       </c>
-      <c r="L55" s="11" t="s">
-        <v>72</v>
+      <c r="L55" s="11">
+        <v>2000</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R55" s="7">
         <v>1</v>
       </c>
-      <c r="S55" s="7" t="s">
-        <v>51</v>
+      <c r="S55" s="7">
+        <v>1</v>
       </c>
       <c r="T55" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB55" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>129</v>
       </c>
       <c r="AD55" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>214.6</v>
+        <v>214</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C56" s="8">
         <v>97656</v>
@@ -4323,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>108</v>
@@ -4331,11 +4500,11 @@
       <c r="H56" s="6">
         <v>0.5</v>
       </c>
-      <c r="L56" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>117</v>
+      <c r="L56" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M56" s="7">
+        <v>1000</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>118</v>
@@ -4344,13 +4513,13 @@
         <v>56</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="R56" s="7">
         <v>1</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="T56" s="13" t="s">
         <v>183</v>
@@ -4362,12 +4531,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>214.7</v>
+        <v>214.1</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C57" s="8">
         <v>97656</v>
@@ -4379,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>108</v>
@@ -4388,7 +4557,7 @@
         <v>0.5</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>117</v>
@@ -4400,7 +4569,7 @@
         <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="R57" s="7">
         <v>1</v>
@@ -4418,12 +4587,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>215</v>
+        <v>214.2</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C58" s="8">
         <v>97656</v>
@@ -4435,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>108</v>
@@ -4444,10 +4613,10 @@
         <v>0.5</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>118</v>
@@ -4456,7 +4625,7 @@
         <v>56</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R58" s="7">
         <v>1</v>
@@ -4467,43 +4636,31 @@
       <c r="T58" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="U58" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="V58" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="W58" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X58" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="AB58" t="s">
         <v>18</v>
       </c>
       <c r="AD58" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>216</v>
+        <v>214.3</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C59" s="8">
         <v>97656</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>108</v>
@@ -4511,302 +4668,279 @@
       <c r="H59" s="6">
         <v>0.5</v>
       </c>
-      <c r="K59" s="9">
-        <v>6000</v>
-      </c>
       <c r="L59" s="11" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="O59" s="7">
-        <v>1.5</v>
+        <v>118</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R59" s="7">
-        <v>0</v>
-      </c>
-      <c r="S59" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="AB59" t="s">
         <v>18</v>
       </c>
       <c r="AD59" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>225</v>
+        <v>214.4</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C60" s="8">
         <v>97656</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>76</v>
+      <c r="D60" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>109</v>
+      <c r="F60" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="17"/>
+      <c r="H60" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L60" s="11" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P60" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R60" s="7" t="s">
-        <v>56</v>
+      <c r="R60" s="7">
+        <v>1</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="AB60" t="s">
         <v>18</v>
       </c>
       <c r="AD60" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>225.1</v>
+        <v>214.5</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C61" s="8">
         <v>97656</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>76</v>
+      <c r="D61" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" s="17" t="s">
-        <v>114</v>
+      <c r="F61" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="17"/>
+      <c r="H61" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L61" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P61" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R61" s="7" t="s">
-        <v>56</v>
+      <c r="R61" s="7">
+        <v>1</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="AB61" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD61" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>225.2</v>
+        <v>214.6</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C62" s="8">
         <v>97656</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>76</v>
+      <c r="D62" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" s="17" t="s">
-        <v>113</v>
+      <c r="F62" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H62" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="17"/>
+      <c r="H62" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L62" s="11" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P62" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q62" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R62" s="7" t="s">
-        <v>56</v>
+      <c r="R62" s="7">
+        <v>1</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T62" s="13" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="AB62" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD62" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>225.3</v>
+        <v>214.7</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C63" s="8">
         <v>97656</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>76</v>
+      <c r="D63" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" s="17" t="s">
-        <v>112</v>
+      <c r="F63" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H63" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="17"/>
+      <c r="H63" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L63" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P63" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R63" s="7" t="s">
-        <v>56</v>
+      <c r="R63" s="7">
+        <v>1</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T63" s="13" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="AB63" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD63" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
-        <v>225.4</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>214.8</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="8">
+        <v>216</v>
+      </c>
+      <c r="C64" s="26">
         <v>97656</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>108</v>
@@ -4814,60 +4948,55 @@
       <c r="H64" s="17">
         <v>0.5</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="17"/>
       <c r="L64" s="11" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="S64" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>38</v>
+        <v>221</v>
+      </c>
+      <c r="T64" s="27" t="s">
+        <v>222</v>
       </c>
       <c r="AB64" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD64" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
-        <v>225.5</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <v>214.9</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="8">
+        <v>216</v>
+      </c>
+      <c r="C65" s="26">
         <v>97656</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>108</v>
@@ -4875,77 +5004,70 @@
       <c r="H65" s="17">
         <v>0.5</v>
       </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="17"/>
       <c r="L65" s="11" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T65" s="13" t="s">
-        <v>38</v>
+        <v>221</v>
+      </c>
+      <c r="T65" s="27" t="s">
+        <v>222</v>
       </c>
       <c r="AB65" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD65" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C66" s="8">
         <v>97656</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>87</v>
+      <c r="D66" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H66" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="17"/>
+      <c r="H66" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L66" s="11" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>56</v>
@@ -4953,86 +5075,721 @@
       <c r="Q66" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R66" s="7" t="s">
-        <v>51</v>
+      <c r="R66" s="7">
+        <v>1</v>
       </c>
       <c r="S66" s="7" t="s">
         <v>51</v>
       </c>
       <c r="T66" s="13" t="s">
-        <v>54</v>
+        <v>183</v>
+      </c>
+      <c r="U66" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="V66" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="W66" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="X66" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="AB66" t="s">
         <v>18</v>
       </c>
       <c r="AD66" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
-        <v>227</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>216</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>168</v>
+        <v>211</v>
+      </c>
+      <c r="C67" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67" s="17" t="s">
-        <v>181</v>
+      <c r="F67" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H67" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I67" s="14"/>
-      <c r="J67" s="17"/>
+      <c r="H67" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="9">
+        <v>6000</v>
+      </c>
       <c r="L67" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O67" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="7">
+        <v>0</v>
+      </c>
+      <c r="T67" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD67" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>225</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H68" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="14"/>
+      <c r="J68" s="17"/>
+      <c r="L68" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T68" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD68" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>225.1</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H69" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="14"/>
+      <c r="J69" s="17"/>
+      <c r="L69" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T69" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD69" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>225.2</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H70" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="14"/>
+      <c r="J70" s="17"/>
+      <c r="L70" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T70" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD70" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>225.3</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="14"/>
+      <c r="J71" s="17"/>
+      <c r="L71" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T71" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD71" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>225.4</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H72" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="14"/>
+      <c r="J72" s="17"/>
+      <c r="L72" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD72" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>225.5</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="14"/>
+      <c r="J73" s="17"/>
+      <c r="L73" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T73" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD73" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>226</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="14"/>
+      <c r="J74" s="17"/>
+      <c r="L74" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD74" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
+        <v>227</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H75" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I75" s="14"/>
+      <c r="J75" s="17"/>
+      <c r="L75" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="M67" s="7" t="s">
+      <c r="M75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N67" s="7" t="s">
+      <c r="N75" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O67" s="7" t="s">
+      <c r="O75" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="Q67" s="7" t="s">
+      <c r="Q75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="R67" s="7" t="s">
+      <c r="R75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="S67" s="7" t="s">
+      <c r="S75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="T67" s="13" t="s">
+      <c r="T75" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U67" s="7" t="s">
+      <c r="U75" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="V67" s="7" t="s">
+      <c r="V75" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="W67" s="7" t="s">
+      <c r="W75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AB75" t="s">
         <v>173</v>
       </c>
-      <c r="AD67" s="16" t="s">
+      <c r="AD75" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <v>227.1</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="28">
+        <v>1</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H76" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I76" s="14"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M76" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N76" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O76" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R76" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="S76" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="T76" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U76" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="V76" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="W76" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="X76" s="30"/>
+      <c r="AB76" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD76" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17">
+        <v>227.2</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="28">
+        <v>1</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H77" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="14"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M77" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N77" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O77" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R77" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="S77" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="T77" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U77" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="V77" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="W77" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="X77" s="30"/>
+      <c r="AB77" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD77" s="35" t="s">
         <v>175</v>
       </c>
     </row>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C7EA9E-6C0B-4F74-BCE4-167FD56286A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E8574C-E9F3-4334-B040-FF098AEA15B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="1332" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="300">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1155,6 +1155,58 @@
   </si>
   <si>
     <t>RNP_Offset_2_2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_Jitter_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;0,10;20,30;40,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Jitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Offset_Jitter_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Offset_Jitter_512ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1550,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI93"/>
+  <dimension ref="A1:AI95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI46" sqref="AI46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1626,8 @@
     <col min="15" max="15" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.44140625" style="7" customWidth="1"/>
-    <col min="18" max="20" width="12.44140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" style="30" customWidth="1"/>
+    <col min="19" max="20" width="12.44140625" style="30" customWidth="1"/>
     <col min="21" max="21" width="14.44140625" style="7" customWidth="1"/>
     <col min="22" max="22" width="14" style="7" customWidth="1"/>
     <col min="23" max="23" width="47.109375" style="13" customWidth="1"/>
@@ -2261,8 +2314,8 @@
       <c r="I10" s="30"/>
       <c r="J10" s="29"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="33">
-        <v>2000</v>
+      <c r="L10" s="33" t="s">
+        <v>293</v>
       </c>
       <c r="M10" s="30">
         <v>1000</v>
@@ -2717,8 +2770,8 @@
       <c r="H17" s="6">
         <v>0.5</v>
       </c>
-      <c r="L17" s="11">
-        <v>2000</v>
+      <c r="L17" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>1000</v>
@@ -2817,24 +2870,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
-        <v>1010</v>
+        <v>109.1</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="C19" s="31">
         <v>97656</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="E19" s="28">
         <v>1</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>10</v>
@@ -2846,10 +2899,10 @@
       <c r="J19" s="29"/>
       <c r="K19" s="32"/>
       <c r="L19" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="M19" s="30">
-        <v>1000</v>
+        <v>172</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="N19" s="30" t="s">
         <v>47</v>
@@ -2858,25 +2911,33 @@
         <v>52</v>
       </c>
       <c r="P19" s="30"/>
-      <c r="Q19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="U19" s="14">
-        <v>0</v>
-      </c>
-      <c r="V19" s="14">
-        <v>0</v>
+      <c r="Q19" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="S19" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="U19" s="30">
+        <v>1</v>
+      </c>
+      <c r="V19" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="W19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
+        <v>291</v>
+      </c>
+      <c r="X19" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="Z19" s="30"/>
       <c r="AA19" s="30"/>
       <c r="AB19" s="30"/>
@@ -2885,66 +2946,66 @@
         <v>18</v>
       </c>
       <c r="AI19" s="35" t="s">
-        <v>50</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
-        <v>121</v>
+        <v>1010</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="C20" s="31">
         <v>97656</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>73</v>
+      <c r="D20" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="E20" s="28">
         <v>1</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>58</v>
+      <c r="F20" s="29" t="s">
+        <v>260</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
+      <c r="H20" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="32"/>
       <c r="L20" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>51</v>
+        <v>255</v>
+      </c>
+      <c r="M20" s="30">
+        <v>1000</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P20" s="30"/>
-      <c r="Q20" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U20" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V20" s="30" t="s">
-        <v>51</v>
+      <c r="Q20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="U20" s="14">
+        <v>0</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0</v>
       </c>
       <c r="W20" s="34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
@@ -2956,29 +3017,29 @@
         <v>18</v>
       </c>
       <c r="AI20" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>121.1</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>121</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="31">
         <v>97656</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="28">
         <v>1</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="G21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="17">
@@ -2986,58 +3047,68 @@
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="32"/>
+      <c r="L21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="M21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
       <c r="T21" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="U21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI21" s="16" t="s">
+      <c r="U21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AG21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI21" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>122</v>
+        <v>121.1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="C22" s="8">
         <v>97656</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>10</v>
@@ -3048,13 +3119,13 @@
       <c r="I22" s="14"/>
       <c r="J22" s="17"/>
       <c r="L22" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>62</v>
@@ -3081,26 +3152,26 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
-        <v>123</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="31">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>122</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="8">
         <v>97656</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="28">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="17">
@@ -3108,56 +3179,46 @@
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O23" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
+      <c r="L23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="T23" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="U23" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V23" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W23" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AG23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI23" s="35" t="s">
+      <c r="U23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI23" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
-        <v>123.1</v>
+        <v>123</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="C24" s="31">
         <v>97656</v>
@@ -3169,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>10</v>
@@ -3181,13 +3242,13 @@
       <c r="J24" s="17"/>
       <c r="K24" s="32"/>
       <c r="L24" s="33" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="M24" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="O24" s="30" t="s">
         <v>56</v>
@@ -3223,26 +3284,26 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>123.2</v>
+    <row r="25" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>123.1</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="31">
         <v>97656</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="28">
         <v>0</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G25" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="17">
@@ -3250,58 +3311,68 @@
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="17"/>
-      <c r="L25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
       <c r="T25" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="U25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI25" s="16" t="s">
+      <c r="U25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W25" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AG25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI25" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>124</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>57</v>
+        <v>123.2</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>256</v>
       </c>
       <c r="C26" s="8">
         <v>97656</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>10</v>
@@ -3312,13 +3383,13 @@
       <c r="I26" s="14"/>
       <c r="J26" s="17"/>
       <c r="L26" s="11" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>60</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>62</v>
@@ -3342,29 +3413,29 @@
         <v>64</v>
       </c>
       <c r="AI26" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
-        <v>124.1</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="31">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>124</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="8">
         <v>97656</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="17">
@@ -3372,56 +3443,46 @@
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O27" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
+      <c r="L27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="T27" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="U27" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V27" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W27" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AG27" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI27" s="35" t="s">
+      <c r="U27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI27" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
-        <v>124.2</v>
+        <v>124.1</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C28" s="31">
         <v>97656</v>
@@ -3433,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>10</v>
@@ -3445,7 +3506,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M28" s="30" t="s">
         <v>51</v>
@@ -3489,10 +3550,10 @@
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
-        <v>124.3</v>
+        <v>124.2</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C29" s="31">
         <v>97656</v>
@@ -3504,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>10</v>
@@ -3516,7 +3577,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="32"/>
       <c r="L29" s="33" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M29" s="30" t="s">
         <v>51</v>
@@ -3560,7 +3621,7 @@
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
-        <v>124.4</v>
+        <v>124.3</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>268</v>
@@ -3575,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>10</v>
@@ -3587,7 +3648,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="32"/>
       <c r="L30" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M30" s="30" t="s">
         <v>51</v>
@@ -3631,7 +3692,7 @@
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
-        <v>124.5</v>
+        <v>124.4</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>268</v>
@@ -3640,13 +3701,13 @@
         <v>97656</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="E31" s="28">
         <v>1</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>10</v>
@@ -3658,7 +3719,7 @@
       <c r="J31" s="17"/>
       <c r="K31" s="32"/>
       <c r="L31" s="33" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="M31" s="30" t="s">
         <v>51</v>
@@ -3667,7 +3728,7 @@
         <v>118</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P31" s="30"/>
       <c r="Q31" s="30" t="s">
@@ -3676,7 +3737,7 @@
       <c r="R31" s="30"/>
       <c r="S31" s="30"/>
       <c r="T31" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U31" s="30" t="s">
         <v>51</v>
@@ -3700,26 +3761,26 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>125</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="8">
+    <row r="32" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>124.5</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="31">
         <v>97656</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32">
+        <v>269</v>
+      </c>
+      <c r="E32" s="28">
         <v>1</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="17">
@@ -3727,46 +3788,53 @@
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="17"/>
-      <c r="L32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
       <c r="T32" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI32" s="16" t="s">
-        <v>103</v>
+        <v>266</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AG32" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI32" s="35" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>57</v>
@@ -3775,10 +3843,10 @@
         <v>97656</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>78</v>
@@ -3803,125 +3871,130 @@
       <c r="O33" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="P33" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="T33" s="30" t="s">
         <v>267</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W33" s="13" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="AG33" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI33" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>127</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>125.1</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>144</v>
+        <v>287</v>
+      </c>
+      <c r="C34" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>295</v>
       </c>
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>222</v>
+      <c r="F34" s="29" t="s">
+        <v>299</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="17"/>
+      <c r="H34" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="32"/>
       <c r="L34" s="33" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="M34" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="O34" s="30" t="s">
         <v>56</v>
       </c>
       <c r="P34" s="30"/>
       <c r="Q34" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
+        <v>47</v>
+      </c>
+      <c r="R34" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="S34" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="T34" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U34" s="30" t="s">
-        <v>51</v>
+        <v>298</v>
+      </c>
+      <c r="U34" s="30">
+        <v>1</v>
       </c>
       <c r="V34" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W34" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA34" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB34" s="30" t="s">
-        <v>51</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="X34" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y34" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
       <c r="AC34" s="30"/>
       <c r="AG34" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AI34" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>127.1</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C35" s="26">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>126</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="8">
         <v>97656</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="28">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="G35" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H35" s="17">
@@ -3929,180 +4002,200 @@
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N35" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="O35" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
+      <c r="L35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="T35" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="U35" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V35" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W35" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA35" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB35" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC35" s="30"/>
-      <c r="AG35" s="28" t="s">
+      <c r="U35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG35" t="s">
         <v>18</v>
       </c>
-      <c r="AI35" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>131</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>201</v>
+      <c r="AI35" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>127</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="E36" s="28">
         <v>1</v>
       </c>
-      <c r="F36" s="29" t="s">
-        <v>202</v>
+      <c r="F36" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1000</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="H36" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
       <c r="T36" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="U36" s="7">
-        <v>1</v>
-      </c>
-      <c r="V36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W36" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG36" t="s">
+        <v>267</v>
+      </c>
+      <c r="U36" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V36" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W36" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA36" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB36" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC36" s="30"/>
+      <c r="AG36" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI36" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>131.1</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>201</v>
+      <c r="AI36" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>127.1</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
       </c>
-      <c r="F37" s="29" t="s">
-        <v>203</v>
+      <c r="F37" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="H37" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
       <c r="T37" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="U37" s="7">
-        <v>1</v>
-      </c>
-      <c r="V37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="U37" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V37" s="30" t="s">
         <v>51</v>
       </c>
       <c r="W37" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG37" t="s">
+        <v>51</v>
+      </c>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA37" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB37" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC37" s="30"/>
+      <c r="AG37" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI37" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI37" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>131.19999999999999</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>209</v>
+        <v>131</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C38" s="8">
         <v>97656</v>
@@ -4114,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>10</v>
@@ -4123,10 +4216,10 @@
         <v>0.5</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>162</v>
+        <v>219</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1000</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>47</v>
@@ -4135,7 +4228,7 @@
         <v>56</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="T38" s="30" t="s">
         <v>266</v>
@@ -4146,8 +4239,8 @@
       <c r="V38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W38" s="34" t="s">
-        <v>210</v>
+      <c r="W38" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="AG38" t="s">
         <v>18</v>
@@ -4156,12 +4249,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>131.30000000000001</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>209</v>
+        <v>131.1</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C39" s="8">
         <v>97656</v>
@@ -4173,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>10</v>
@@ -4182,7 +4275,7 @@
         <v>0.5</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>162</v>
@@ -4194,7 +4287,7 @@
         <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="T39" s="30" t="s">
         <v>266</v>
@@ -4206,7 +4299,7 @@
         <v>51</v>
       </c>
       <c r="W39" s="34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG39" t="s">
         <v>18</v>
@@ -4216,8 +4309,8 @@
       </c>
     </row>
     <row r="40" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
-        <v>131.4</v>
+      <c r="A40" s="6">
+        <v>131.19999999999999</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>209</v>
@@ -4232,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>10</v>
@@ -4241,7 +4334,7 @@
         <v>0.5</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>162</v>
@@ -4275,8 +4368,8 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
-        <v>131.5</v>
+      <c r="A41" s="6">
+        <v>131.30000000000001</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>209</v>
@@ -4291,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>10</v>
@@ -4300,7 +4393,7 @@
         <v>0.5</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>162</v>
@@ -4333,14 +4426,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
-        <v>131.6</v>
+        <v>131.4</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="8">
         <v>97656</v>
       </c>
       <c r="D42" s="29" t="s">
@@ -4350,233 +4443,209 @@
         <v>1</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="M42" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="N42" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="O42" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
+      <c r="H42" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T42" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="U42" s="30">
-        <v>1</v>
-      </c>
-      <c r="V42" s="30" t="s">
+      <c r="U42" s="7">
+        <v>1</v>
+      </c>
+      <c r="V42" s="7" t="s">
         <v>51</v>
       </c>
       <c r="W42" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA42" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB42" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC42" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG42" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG42" t="s">
         <v>18</v>
       </c>
-      <c r="AI42" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
-        <v>132</v>
+      <c r="AI42" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29">
+        <v>131.5</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C43" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>228</v>
+        <v>209</v>
+      </c>
+      <c r="C43" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="E43" s="28">
         <v>1</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>271</v>
+      <c r="F43" s="29" t="s">
+        <v>207</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="M43" s="30" t="s">
+      <c r="H43" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="N43" s="30" t="s">
+      <c r="N43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
+      <c r="O43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T43" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="U43" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="V43" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W43" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AG43" s="28" t="s">
+      <c r="U43" s="7">
+        <v>1</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W43" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG43" t="s">
         <v>18</v>
       </c>
-      <c r="AI43" s="35" t="s">
+      <c r="AI43" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:35" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
-        <v>132.1</v>
+    <row r="44" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29">
+        <v>131.6</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>228</v>
+        <v>209</v>
+      </c>
+      <c r="C44" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="E44" s="28">
         <v>1</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>272</v>
+      <c r="F44" s="29" t="s">
+        <v>208</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="29">
         <v>0.5</v>
       </c>
       <c r="I44" s="30"/>
       <c r="J44" s="29"/>
       <c r="K44" s="32"/>
       <c r="L44" s="33" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="M44" s="30" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="N44" s="30" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="O44" s="30" t="s">
         <v>56</v>
       </c>
       <c r="P44" s="30"/>
       <c r="Q44" s="30" t="s">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="R44" s="30"/>
       <c r="S44" s="30"/>
       <c r="T44" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="U44" s="30" t="s">
-        <v>56</v>
+      <c r="U44" s="30">
+        <v>1</v>
       </c>
       <c r="V44" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="W44" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
+      <c r="W44" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA44" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB44" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC44" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="AG44" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AI44" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
-        <v>133</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>132</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>201</v>
+        <v>224</v>
+      </c>
+      <c r="C45" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="E45" s="28">
         <v>1</v>
       </c>
-      <c r="F45" s="29" t="s">
-        <v>273</v>
+      <c r="F45" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="17">
         <v>0.5</v>
       </c>
       <c r="I45" s="30"/>
@@ -4589,31 +4658,31 @@
         <v>162</v>
       </c>
       <c r="N45" s="30" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="O45" s="30" t="s">
         <v>56</v>
       </c>
       <c r="P45" s="30"/>
       <c r="Q45" s="30" t="s">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="R45" s="30"/>
       <c r="S45" s="30"/>
       <c r="T45" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="U45" s="30">
-        <v>1</v>
+      <c r="U45" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="V45" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="W45" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
+      <c r="W45" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
       <c r="Z45" s="30"/>
       <c r="AA45" s="30"/>
       <c r="AB45" s="30"/>
@@ -4625,29 +4694,29 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
-        <v>134</v>
+    <row r="46" spans="1:35" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>132.1</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>201</v>
+        <v>224</v>
+      </c>
+      <c r="C46" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="E46" s="28">
         <v>1</v>
       </c>
-      <c r="F46" s="29" t="s">
-        <v>274</v>
+      <c r="F46" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="17">
         <v>0.5</v>
       </c>
       <c r="I46" s="30"/>
@@ -4660,35 +4729,31 @@
         <v>162</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="O46" s="30" t="s">
         <v>56</v>
       </c>
       <c r="P46" s="30"/>
       <c r="Q46" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="R46" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="S46" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="U46" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="V46" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y46" s="34" t="s">
-        <v>248</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="W46" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
       <c r="Z46" s="30"/>
       <c r="AA46" s="30"/>
       <c r="AB46" s="30"/>
@@ -4697,158 +4762,194 @@
         <v>18</v>
       </c>
       <c r="AI46" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>133</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="28">
+        <v>1</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="M47" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N47" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O47" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="U47" s="30">
+        <v>1</v>
+      </c>
+      <c r="V47" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W47" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AG47" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI47" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
+        <v>134</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" s="28">
+        <v>1</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="30"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="M48" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N48" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O48" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="R48" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="S48" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="T48" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="U48" s="30">
+        <v>1</v>
+      </c>
+      <c r="V48" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y48" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AG48" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI48" s="35" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AI48" s="25"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>201</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U50" s="7">
-        <v>1</v>
-      </c>
-      <c r="V50" s="7">
-        <v>1</v>
-      </c>
-      <c r="W50" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI50" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>201.1</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U51" s="7">
-        <v>1</v>
-      </c>
-      <c r="V51" s="7">
-        <v>1</v>
-      </c>
-      <c r="W51" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI51" s="16" t="s">
-        <v>50</v>
-      </c>
+    <row r="50" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AI50" s="25"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>201.2</v>
+        <v>201</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C52" s="8">
         <v>97656</v>
@@ -4872,13 +4973,13 @@
         <v>137</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>43</v>
@@ -4901,10 +5002,10 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>201.3</v>
+        <v>201.1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="C53" s="8">
         <v>97656</v>
@@ -4916,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>108</v>
@@ -4925,10 +5026,10 @@
         <v>0.5</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>118</v>
@@ -4937,16 +5038,16 @@
         <v>161</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="U53" s="7" t="s">
-        <v>185</v>
+        <v>43</v>
+      </c>
+      <c r="U53" s="7">
+        <v>1</v>
       </c>
       <c r="V53" s="7">
         <v>1</v>
       </c>
       <c r="W53" s="13" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="AG53" t="s">
         <v>40</v>
@@ -4957,10 +5058,10 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>201.4</v>
+        <v>201.2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C54" s="8">
         <v>97656</v>
@@ -4972,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>108</v>
@@ -4993,16 +5094,16 @@
         <v>161</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="U54" s="7" t="s">
-        <v>185</v>
+        <v>43</v>
+      </c>
+      <c r="U54" s="7">
+        <v>1</v>
       </c>
       <c r="V54" s="7">
         <v>1</v>
       </c>
       <c r="W54" s="13" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="AG54" t="s">
         <v>40</v>
@@ -5013,66 +5114,78 @@
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>202</v>
+        <v>201.3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C55" s="8">
         <v>97656</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H55" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L55" s="11" t="s">
         <v>137</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE55">
-        <v>125</v>
-      </c>
-      <c r="AF55">
-        <v>123.1527</v>
+        <v>117</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="V55" s="7">
+        <v>1</v>
+      </c>
+      <c r="W55" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="AG55" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AI55" s="16" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>210.1</v>
+        <v>201.4</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="C56" s="8">
         <v>97656</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>108</v>
@@ -5080,8 +5193,8 @@
       <c r="H56" s="6">
         <v>0.5</v>
       </c>
-      <c r="L56" s="11">
-        <v>2000</v>
+      <c r="L56" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>117</v>
@@ -5090,92 +5203,74 @@
         <v>118</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U56" s="7">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="V56" s="7">
         <v>1</v>
       </c>
       <c r="W56" s="13" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="AG56" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AI56" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>211.1</v>
+        <v>202</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C57" s="8">
         <v>97656</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H57" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L57" s="11">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U57" s="7">
-        <v>1</v>
-      </c>
-      <c r="V57" s="7">
-        <v>1</v>
-      </c>
-      <c r="W57" s="13" t="s">
-        <v>105</v>
+        <v>163</v>
+      </c>
+      <c r="AE57">
+        <v>125</v>
+      </c>
+      <c r="AF57">
+        <v>123.1527</v>
       </c>
       <c r="AG57" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="AI57" s="16" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>212.1</v>
+        <v>210.1</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>126</v>
@@ -5190,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>108</v>
@@ -5205,7 +5300,7 @@
         <v>117</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O58" s="7" t="s">
         <v>130</v>
@@ -5234,7 +5329,7 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>213.1</v>
+        <v>211.1</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>126</v>
@@ -5249,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>108</v>
@@ -5264,7 +5359,7 @@
         <v>117</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>119</v>
@@ -5291,24 +5386,24 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>214</v>
+        <v>212.1</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C60" s="8">
         <v>97656</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>108</v>
@@ -5319,52 +5414,55 @@
       <c r="L60" s="11">
         <v>2000</v>
       </c>
-      <c r="M60" s="7">
-        <v>1000</v>
+      <c r="M60" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="U60" s="7">
         <v>1</v>
       </c>
-      <c r="V60" s="7" t="s">
-        <v>146</v>
+      <c r="V60" s="7">
+        <v>1</v>
       </c>
       <c r="W60" s="13" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="AG60" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>125</v>
       </c>
       <c r="AI60" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>214.1</v>
+        <v>213.1</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C61" s="8">
         <v>97656</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>108</v>
@@ -5372,43 +5470,46 @@
       <c r="H61" s="6">
         <v>0.5</v>
       </c>
-      <c r="L61" s="11" t="s">
-        <v>137</v>
+      <c r="L61" s="11">
+        <v>2000</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="U61" s="7">
         <v>1</v>
       </c>
-      <c r="V61" s="7" t="s">
-        <v>51</v>
+      <c r="V61" s="7">
+        <v>1</v>
       </c>
       <c r="W61" s="13" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="AG61" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>125</v>
       </c>
       <c r="AI61" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>214.2</v>
+        <v>214</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C62" s="8">
         <v>97656</v>
@@ -5420,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>108</v>
@@ -5428,11 +5529,11 @@
       <c r="H62" s="6">
         <v>0.5</v>
       </c>
-      <c r="L62" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>162</v>
+      <c r="L62" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M62" s="7">
+        <v>1000</v>
       </c>
       <c r="N62" s="7" t="s">
         <v>118</v>
@@ -5441,13 +5542,13 @@
         <v>56</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="U62" s="7">
         <v>1</v>
       </c>
       <c r="V62" s="7" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="W62" s="13" t="s">
         <v>159</v>
@@ -5459,12 +5560,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>214.3</v>
+        <v>214.1</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63" s="8">
         <v>97656</v>
@@ -5476,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>108</v>
@@ -5497,7 +5598,7 @@
         <v>56</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="U63" s="7">
         <v>1</v>
@@ -5517,10 +5618,10 @@
     </row>
     <row r="64" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>214.4</v>
+        <v>214.2</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C64" s="8">
         <v>97656</v>
@@ -5532,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>108</v>
@@ -5541,10 +5642,10 @@
         <v>0.5</v>
       </c>
       <c r="L64" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M64" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="N64" s="7" t="s">
         <v>118</v>
@@ -5573,10 +5674,10 @@
     </row>
     <row r="65" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>214.5</v>
+        <v>214.3</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C65" s="8">
         <v>97656</v>
@@ -5588,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>108</v>
@@ -5597,7 +5698,7 @@
         <v>0.5</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>117</v>
@@ -5629,7 +5730,7 @@
     </row>
     <row r="66" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>214.6</v>
+        <v>214.4</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>169</v>
@@ -5644,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>108</v>
@@ -5653,7 +5754,7 @@
         <v>0.5</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M66" s="7" t="s">
         <v>117</v>
@@ -5685,7 +5786,7 @@
     </row>
     <row r="67" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>214.7</v>
+        <v>214.5</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>169</v>
@@ -5700,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>108</v>
@@ -5709,7 +5810,7 @@
         <v>0.5</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="M67" s="7" t="s">
         <v>117</v>
@@ -5739,57 +5840,55 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
-        <v>214.8</v>
+    <row r="68" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>214.6</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>193</v>
+        <v>169</v>
+      </c>
+      <c r="C68" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" s="17" t="s">
-        <v>193</v>
+      <c r="F68" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="6">
         <v>0.5</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="N68" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="U68" s="7" t="s">
-        <v>196</v>
+        <v>56</v>
+      </c>
+      <c r="U68" s="7">
+        <v>1</v>
       </c>
       <c r="V68" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="W68" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="W68" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="AG68" t="s">
         <v>18</v>
       </c>
@@ -5797,57 +5896,55 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
-        <v>214.9</v>
+    <row r="69" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>214.7</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>200</v>
+        <v>169</v>
+      </c>
+      <c r="C69" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69" s="17" t="s">
-        <v>200</v>
+      <c r="F69" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="6">
         <v>0.5</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="U69" s="7" t="s">
-        <v>196</v>
+        <v>56</v>
+      </c>
+      <c r="U69" s="7">
+        <v>1</v>
       </c>
       <c r="V69" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="W69" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="W69" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="AG69" t="s">
         <v>18</v>
       </c>
@@ -5855,261 +5952,255 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>215</v>
+    <row r="70" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <v>214.8</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>158</v>
+        <v>192</v>
+      </c>
+      <c r="C70" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>174</v>
+      <c r="F70" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70" s="17">
         <v>0.5</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="N70" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U70" s="7">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="U70" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="V70" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W70" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z70" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA70" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB70" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC70" s="7" t="s">
-        <v>212</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="W70" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
       <c r="AG70" t="s">
         <v>18</v>
       </c>
       <c r="AI70" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>216</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <v>214.9</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C71" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="C71" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" s="6" t="s">
-        <v>188</v>
+      <c r="F71" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K71" s="9">
-        <v>6000</v>
+      <c r="H71" s="17">
+        <v>0.5</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="O71" s="7">
-        <v>1.5</v>
+        <v>118</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U71" s="7">
-        <v>0</v>
-      </c>
-      <c r="V71" s="7">
-        <v>0</v>
-      </c>
-      <c r="W71" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="U71" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="V71" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W71" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
       <c r="AG71" t="s">
         <v>18</v>
       </c>
       <c r="AI71" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="C72" s="8">
         <v>97656</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>76</v>
+      <c r="D72" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" s="17" t="s">
-        <v>109</v>
+      <c r="F72" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H72" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="17"/>
+      <c r="H72" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L72" s="11" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O72" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P72" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q72" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="U72" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="U72" s="7">
+        <v>1</v>
       </c>
       <c r="V72" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W72" s="13" t="s">
-        <v>38</v>
+        <v>159</v>
+      </c>
+      <c r="Z72" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA72" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB72" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC72" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="AG72" t="s">
         <v>18</v>
       </c>
       <c r="AI72" s="16" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>225.1</v>
+        <v>216</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C73" s="8">
         <v>97656</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>76</v>
+      <c r="D73" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73" s="17" t="s">
-        <v>114</v>
+      <c r="F73" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H73" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="17"/>
+      <c r="H73" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K73" s="9">
+        <v>6000</v>
+      </c>
       <c r="L73" s="11" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>110</v>
+        <v>190</v>
+      </c>
+      <c r="O73" s="7">
+        <v>1.5</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="U73" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="V73" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="U73" s="7">
+        <v>0</v>
+      </c>
+      <c r="V73" s="7">
+        <v>0</v>
       </c>
       <c r="W73" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG73" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AI73" s="16" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>225.2</v>
+        <v>225</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C74" s="8">
         <v>97656</v>
@@ -6121,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>108</v>
@@ -6159,7 +6250,7 @@
         <v>38</v>
       </c>
       <c r="AG74" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AI74" s="16" t="s">
         <v>103</v>
@@ -6167,7 +6258,7 @@
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>225.3</v>
+        <v>225.1</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>111</v>
@@ -6182,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>108</v>
@@ -6228,7 +6319,7 @@
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>225.4</v>
+        <v>225.2</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>111</v>
@@ -6243,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>108</v>
@@ -6289,7 +6380,7 @@
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>225.5</v>
+        <v>225.3</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>111</v>
@@ -6304,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>108</v>
@@ -6350,22 +6441,22 @@
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>226</v>
+        <v>225.4</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C78" s="8">
         <v>97656</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>108</v>
@@ -6387,43 +6478,46 @@
       <c r="O78" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="P78" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="Q78" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U78" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V78" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W78" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG78" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI78" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A79" s="17">
-        <v>227</v>
+      <c r="A79" s="6">
+        <v>225.5</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="26">
+        <v>111</v>
+      </c>
+      <c r="C79" s="8">
         <v>97656</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>108</v>
@@ -6434,65 +6528,59 @@
       <c r="I79" s="14"/>
       <c r="J79" s="17"/>
       <c r="L79" s="11" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>148</v>
+        <v>56</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="V79" s="7" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="W79" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z79" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA79" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB79" s="7" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="AG79" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="AI79" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
-        <v>227.1</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C80" s="26">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>226</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="8">
         <v>97656</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E80" s="28">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G80" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H80" s="17">
@@ -6500,60 +6588,43 @@
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M80" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N80" s="30" t="s">
+      <c r="L80" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N80" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O80" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R80" s="30"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V80" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W80" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X80" s="34"/>
-      <c r="Y80" s="34"/>
-      <c r="Z80" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA80" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB80" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC80" s="30"/>
-      <c r="AG80" s="28" t="s">
+      <c r="O80" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG80" t="s">
         <v>18</v>
       </c>
-      <c r="AI80" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI80" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
-        <v>227.2</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>213</v>
+        <v>227</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="C81" s="26">
         <v>97656</v>
@@ -6561,13 +6632,13 @@
       <c r="D81" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E81" s="28">
+      <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G81" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H81" s="17">
@@ -6575,60 +6646,52 @@
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M81" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N81" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="O81" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R81" s="30"/>
-      <c r="S81" s="30"/>
-      <c r="T81" s="30"/>
-      <c r="U81" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V81" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W81" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X81" s="34"/>
-      <c r="Y81" s="34"/>
-      <c r="Z81" s="30" t="s">
+      <c r="L81" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="U81" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="V81" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="W81" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z81" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AA81" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB81" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC81" s="30"/>
-      <c r="AG81" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI81" s="35" t="s">
+      <c r="AA81" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB81" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI81" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
-        <v>227.3</v>
+        <v>227.1</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C82" s="26">
         <v>97656</v>
@@ -6640,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G82" s="29" t="s">
         <v>108</v>
@@ -6682,10 +6745,10 @@
       <c r="X82" s="34"/>
       <c r="Y82" s="34"/>
       <c r="Z82" s="30" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="AA82" s="30" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="AB82" s="30" t="s">
         <v>51</v>
@@ -6700,10 +6763,10 @@
     </row>
     <row r="83" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
-        <v>227.4</v>
+        <v>227.2</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C83" s="26">
         <v>97656</v>
@@ -6757,7 +6820,7 @@
       <c r="X83" s="34"/>
       <c r="Y83" s="34"/>
       <c r="Z83" s="30" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="AA83" s="30" t="s">
         <v>71</v>
@@ -6775,10 +6838,10 @@
     </row>
     <row r="84" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
-        <v>227.5</v>
+        <v>227.3</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C84" s="26">
         <v>97656</v>
@@ -6790,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="G84" s="29" t="s">
         <v>108</v>
@@ -6832,10 +6895,10 @@
       <c r="X84" s="34"/>
       <c r="Y84" s="34"/>
       <c r="Z84" s="30" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AA84" s="30" t="s">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="AB84" s="30" t="s">
         <v>51</v>
@@ -6848,182 +6911,190 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
-      <c r="U87" s="19"/>
-      <c r="V87" s="19"/>
-      <c r="W87" s="24"/>
-      <c r="X87" s="24"/>
-      <c r="Y87" s="24"/>
-      <c r="Z87" s="19"/>
-      <c r="AA87" s="19"/>
-      <c r="AB87" s="19"/>
-      <c r="AC87" s="19"/>
-      <c r="AI87" s="25"/>
-    </row>
-    <row r="88" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29">
-        <v>321</v>
-      </c>
-      <c r="B88" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="C88" s="31">
-        <v>384000</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E88" s="28">
-        <v>1</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="G88" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="H88" s="17">
-        <v>1</v>
-      </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M88" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N88" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="O88" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30"/>
-      <c r="T88" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U88" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V88" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W88" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X88" s="34"/>
-      <c r="Y88" s="34"/>
-      <c r="Z88" s="30"/>
-      <c r="AA88" s="30"/>
-      <c r="AB88" s="30"/>
-      <c r="AC88" s="30"/>
-      <c r="AG88" s="28" t="s">
+    <row r="85" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17">
+        <v>227.4</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="28">
+        <v>1</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H85" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I85" s="14"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M85" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N85" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O85" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R85" s="30"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V85" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W85" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA85" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB85" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC85" s="30"/>
+      <c r="AG85" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI88" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="29">
-        <v>321.10000000000002</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="C89" s="31">
-        <v>384000</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E89" s="28">
-        <v>1</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G89" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="H89" s="17">
-        <v>1</v>
-      </c>
-      <c r="I89" s="14"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="M89" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N89" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O89" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U89" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V89" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W89" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X89" s="34"/>
-      <c r="Y89" s="34"/>
-      <c r="Z89" s="30"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="30"/>
-      <c r="AC89" s="30"/>
-      <c r="AG89" s="28" t="s">
+      <c r="AI85" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17">
+        <v>227.5</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="28">
+        <v>1</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H86" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I86" s="14"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M86" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N86" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O86" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="30"/>
+      <c r="U86" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V86" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W86" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X86" s="34"/>
+      <c r="Y86" s="34"/>
+      <c r="Z86" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA86" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB86" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC86" s="30"/>
+      <c r="AG86" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI89" s="35" t="s">
-        <v>101</v>
-      </c>
+      <c r="AI86" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="24"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="19"/>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="19"/>
+      <c r="AI89" s="25"/>
     </row>
     <row r="90" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="29">
-        <v>321.2</v>
+        <v>321</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>253</v>
@@ -7032,13 +7103,13 @@
         <v>384000</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E90" s="28">
         <v>1</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G90" s="29" t="s">
         <v>276</v>
@@ -7050,13 +7121,13 @@
       <c r="J90" s="17"/>
       <c r="K90" s="32"/>
       <c r="L90" s="33" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="M90" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N90" s="30" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="O90" s="30" t="s">
         <v>56</v>
@@ -7092,9 +7163,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="29">
-        <v>324</v>
+        <v>321.10000000000002</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>253</v>
@@ -7103,13 +7174,13 @@
         <v>384000</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E91" s="28">
         <v>1</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G91" s="29" t="s">
         <v>276</v>
@@ -7121,13 +7192,13 @@
       <c r="J91" s="17"/>
       <c r="K91" s="32"/>
       <c r="L91" s="33" t="s">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="M91" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N91" s="30" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O91" s="30" t="s">
         <v>56</v>
@@ -7160,12 +7231,12 @@
         <v>18</v>
       </c>
       <c r="AI91" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="29">
-        <v>324.10000000000002</v>
+        <v>321.2</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>253</v>
@@ -7174,13 +7245,13 @@
         <v>384000</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E92" s="28">
         <v>1</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G92" s="29" t="s">
         <v>276</v>
@@ -7192,13 +7263,13 @@
       <c r="J92" s="17"/>
       <c r="K92" s="32"/>
       <c r="L92" s="33" t="s">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="M92" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="O92" s="30" t="s">
         <v>56</v>
@@ -7231,27 +7302,27 @@
         <v>18</v>
       </c>
       <c r="AI92" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
-        <v>324.2</v>
+        <v>324</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C93" s="31">
         <v>384000</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="E93" s="28">
         <v>1</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G93" s="29" t="s">
         <v>276</v>
@@ -7263,7 +7334,7 @@
       <c r="J93" s="17"/>
       <c r="K93" s="32"/>
       <c r="L93" s="33" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="M93" s="30" t="s">
         <v>51</v>
@@ -7272,7 +7343,7 @@
         <v>118</v>
       </c>
       <c r="O93" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P93" s="30"/>
       <c r="Q93" s="30" t="s">
@@ -7281,7 +7352,7 @@
       <c r="R93" s="30"/>
       <c r="S93" s="30"/>
       <c r="T93" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U93" s="30" t="s">
         <v>51</v>
@@ -7305,6 +7376,148 @@
         <v>102</v>
       </c>
     </row>
+    <row r="94" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="29">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="28">
+        <v>1</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G94" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="H94" s="17">
+        <v>1</v>
+      </c>
+      <c r="I94" s="14"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M94" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N94" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O94" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P94" s="30"/>
+      <c r="Q94" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R94" s="30"/>
+      <c r="S94" s="30"/>
+      <c r="T94" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U94" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V94" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W94" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X94" s="34"/>
+      <c r="Y94" s="34"/>
+      <c r="Z94" s="30"/>
+      <c r="AA94" s="30"/>
+      <c r="AB94" s="30"/>
+      <c r="AC94" s="30"/>
+      <c r="AG94" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI94" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="29">
+        <v>324.2</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E95" s="28">
+        <v>1</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G95" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="H95" s="17">
+        <v>1</v>
+      </c>
+      <c r="I95" s="14"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M95" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N95" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O95" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P95" s="30"/>
+      <c r="Q95" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R95" s="30"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U95" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V95" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W95" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X95" s="34"/>
+      <c r="Y95" s="34"/>
+      <c r="Z95" s="30"/>
+      <c r="AA95" s="30"/>
+      <c r="AB95" s="30"/>
+      <c r="AC95" s="30"/>
+      <c r="AG95" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI95" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E8574C-E9F3-4334-B040-FF098AEA15B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D1ACD1-8539-4946-BD82-031D15DBD85E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="1332" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="321">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -827,386 +827,469 @@
     <t>localChange_2_3_2</t>
   </si>
   <si>
+    <t>localChange_2-3-2_4s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_3s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_2s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_1s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_0o5s</t>
+  </si>
+  <si>
+    <t>localChange_2-3-2_Per_1s</t>
+  </si>
+  <si>
+    <t>2023/03/21</t>
+  </si>
+  <si>
+    <t>1.5,1.5</t>
+  </si>
+  <si>
+    <t>1.5,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Int_16_last4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Int_16_last8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1;1,1.1;1,1.2;1,1.3;1,1.4;1,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,8,16,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLA_Offset_Int_4ms-8ms_last8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512,1024,2048,4096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,16,32,64,128,256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLA_Offset_Dur_4_short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLA_Offset_Dur_4_long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_3s-1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5,1.5,1.5,1.5,1.5,1.5,1.5,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_Basic_SPLNorm_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLA_Basic_Norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6667,0.6667,0.6667,0.6667,0.6667,0.6667,0.6667,0.6667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,8,16,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_Local_ICIChange_Jitter_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,10;20,30;40,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JitterMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvenOdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1;1,0.91;1,1.1;1,0.83;1,1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Int_16_last12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repRatioHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repRatioTail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1;1.5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Int_4_8_last8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/04/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,1000,2000,4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/04/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Oscillation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Variance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_TB_Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Offset_Dur_4_long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Offset_Dur_4_short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Offset_2_128_4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Offset_SingleClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLA_LocalChange_2ms_3s-1s_N1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLA_LocalChange_3ms_3s-1s_N1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLA_localChange_X_1.5X_X_3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLA_localChange_2-3-2_Jitter_3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_Offset_2_128_4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HumanEEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_Offset_8_0.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_Offset_4_2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,16,32,64,128,256,512,1024,2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_Offset_SingleClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_Offset_Dur_4ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_Offset_Dur_16ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,32,64,128,256,512,1024,2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Offset_8_0.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Offset_2_2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Jitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_Jitter_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;0,10;20,30;40,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_Duration_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/04/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLA_Offset_Var_4ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Var_4ms_Last4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Var_4ms_Last8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_Var_4ms_Last16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;0,10;20,30;40,50;60,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,50,100,250,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/26</t>
+  </si>
+  <si>
     <t>localChange_2-3-2_5s</t>
-  </si>
-  <si>
-    <t>localChange_2-3-2_4s</t>
-  </si>
-  <si>
-    <t>localChange_2-3-2_3s</t>
-  </si>
-  <si>
-    <t>localChange_2-3-2_2s</t>
-  </si>
-  <si>
-    <t>localChange_2-3-2_1s</t>
-  </si>
-  <si>
-    <t>localChange_2-3-2_0o5s</t>
-  </si>
-  <si>
-    <t>localChange_2-3-2_Per_1s</t>
-  </si>
-  <si>
-    <t>2023/03/21</t>
-  </si>
-  <si>
-    <t>1.5,1.5</t>
-  </si>
-  <si>
-    <t>1.5,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/03/30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Offset_Int_16_last4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Offset_Int_16_last8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/03/31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1;1,1.1;1,1.2;1,1.3;1,1.4;1,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/03/31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,8,16,32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RLA_Offset_Int_4ms-8ms_last8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512,1024,2048,4096</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/04/01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8,16,32,64,128,256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RLA_Offset_Dur_4_short</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RLA_Offset_Dur_4_long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalChange_3s-1s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5,1.5,1.5,1.5,1.5,1.5,1.5,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@TB_Basic_SPLNorm_Gen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RLA_Basic_Norm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6667,0.6667,0.6667,0.6667,0.6667,0.6667,0.6667,0.6667</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,4,8,16,32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@TB_Local_ICIChange_Jitter_Gen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,10;20,30;40,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JitterMethod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvenOdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/04/04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1;1,0.91;1,1.1;1,0.83;1,1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Offset_Int_16_last12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repRatioHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repRatioTail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1;1.5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Offset_Int_4_8_last8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/04/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/04/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,1000,2000,4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/04/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_Oscillation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_Variance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_TB_Duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_Offset_Dur_4_long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_Offset_Dur_4_short</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_Offset_2_128_4s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastClick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/04/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleClick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_Offset_SingleClick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RLA_LocalChange_2ms_3s-1s_N1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RLA_LocalChange_3ms_3s-1s_N1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RLA_localChange_X_1.5X_X_3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RLA_localChange_2-3-2_Jitter_3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human_Offset_2_128_4s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HumanEEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human_Offset_8_0.5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human_Offset_4_2s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8,16,32,64,128,256,512,1024,2048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human_Offset_SingleClick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human_Offset_Dur_4ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human_Offset_Dur_16ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,32,64,128,256,512,1024,2048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_Offset_8_0.5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_Offset_2_2s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/04/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Jitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_TB_Jitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@TB_Jitter_Gen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0;0,10;20,30;40,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset_Jitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@Offset_Jitter_Gen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNP_Offset_Jitter_512ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_localChange_2-3-2_5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_localChange_2-3-2_4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_localChange_2-3-2_3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_localChange_2-3-2_2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_localChange_2-3-2_1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_localChange_2-3-2_Per_1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1;1,0.91;1,1.1;1,0.77;1,1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Offset_Int_4_8_last8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1602,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI95"/>
+  <dimension ref="A1:AI107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1697,7 @@
     <col min="2" max="2" width="14.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" style="7" customWidth="1"/>
@@ -1697,13 +1780,13 @@
         <v>4</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>41</v>
@@ -1715,10 +1798,10 @@
         <v>36</v>
       </c>
       <c r="X1" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y1" s="12" t="s">
         <v>246</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>154</v>
@@ -1810,7 +1893,7 @@
         <v>46</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>45</v>
@@ -1899,7 +1982,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U3" s="7">
         <v>1</v>
@@ -1922,7 +2005,7 @@
         <v>101.1</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="31">
         <v>97656</v>
@@ -1934,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>10</v>
@@ -1946,7 +2029,7 @@
       <c r="J4" s="29"/>
       <c r="K4" s="32"/>
       <c r="L4" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M4" s="30">
         <v>1000</v>
@@ -1964,7 +2047,7 @@
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
       <c r="T4" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U4" s="30">
         <v>1</v>
@@ -1985,7 +2068,7 @@
         <v>40</v>
       </c>
       <c r="AI4" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -2075,7 +2158,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U6" s="14">
         <v>0</v>
@@ -2136,7 +2219,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U7" s="14">
         <v>0</v>
@@ -2159,7 +2242,7 @@
         <v>103.2</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="31">
         <v>97656</v>
@@ -2183,13 +2266,13 @@
       <c r="J8" s="29"/>
       <c r="K8" s="32"/>
       <c r="L8" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M8" s="30">
         <v>1000</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O8" s="30" t="s">
         <v>52</v>
@@ -2201,7 +2284,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U8" s="14">
         <v>0</v>
@@ -2268,7 +2351,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U9" s="14">
         <v>0</v>
@@ -2291,7 +2374,7 @@
         <v>104.1</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" s="31">
         <v>97656</v>
@@ -2303,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>10</v>
@@ -2315,7 +2398,7 @@
       <c r="J10" s="29"/>
       <c r="K10" s="32"/>
       <c r="L10" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M10" s="30">
         <v>1000</v>
@@ -2333,7 +2416,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U10" s="14">
         <v>0</v>
@@ -2406,7 +2489,7 @@
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U11" s="30">
         <v>0</v>
@@ -2435,7 +2518,7 @@
         <v>105.1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="8">
         <v>97656</v>
@@ -2447,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>10</v>
@@ -2474,7 +2557,7 @@
         <v>51</v>
       </c>
       <c r="T12" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U12" s="7">
         <v>0</v>
@@ -2492,71 +2575,82 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>106</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13">
+    <row r="13" spans="1:35" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>105.2</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="30">
         <v>0</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="9">
-        <v>6000</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="T13" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="U13" s="7">
+      <c r="V13" s="30">
         <v>0</v>
       </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG13" t="s">
+      <c r="W13" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AG13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI13" s="16" t="s">
+      <c r="AI13" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>
@@ -2565,66 +2659,69 @@
         <v>97656</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="6">
-        <v>26</v>
+        <v>0.5</v>
       </c>
       <c r="K14" s="9">
         <v>6000</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD14">
-        <v>6000</v>
-      </c>
-      <c r="AE14">
-        <v>500</v>
-      </c>
-      <c r="AF14">
-        <v>333</v>
+        <v>62</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="AG14" t="s">
         <v>18</v>
       </c>
       <c r="AI14" s="16" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8">
         <v>97656</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2654,7 +2751,7 @@
         <v>89</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="AD15">
         <v>6000</v>
@@ -2669,120 +2766,109 @@
         <v>18</v>
       </c>
       <c r="AI15" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>107.1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="6">
+        <v>26</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD16">
+        <v>6000</v>
+      </c>
+      <c r="AE16">
+        <v>500</v>
+      </c>
+      <c r="AF16">
+        <v>333</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI16" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+    <row r="17" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <v>108</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D16" s="29" t="s">
+      <c r="C17" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="28">
-        <v>1</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33">
+      <c r="H17" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33">
         <v>2000</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M17" s="30">
         <v>1000</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N17" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O17" s="30">
         <v>1.5</v>
       </c>
-      <c r="P16" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AG16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI16" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>108.1</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1000</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="30" t="s">
         <v>44</v>
       </c>
       <c r="Q17" s="14" t="s">
@@ -2791,7 +2877,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U17" s="14" t="s">
         <v>56</v>
@@ -2799,34 +2885,40 @@
       <c r="V17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="W17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG17" t="s">
+      <c r="W17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AG17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AI17" s="16" t="s">
+      <c r="AI17" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>109</v>
+        <v>108.1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="C18" s="8">
         <v>97656</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>10</v>
@@ -2834,8 +2926,8 @@
       <c r="H18" s="6">
         <v>0.5</v>
       </c>
-      <c r="L18" s="11">
-        <v>2000</v>
+      <c r="L18" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>1000</v>
@@ -2843,130 +2935,115 @@
       <c r="N18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>56</v>
+      <c r="O18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="U18" s="14">
+        <v>265</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI18" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>109</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="V18" s="14">
+      <c r="F19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="U19" s="14">
         <v>0</v>
       </c>
-      <c r="W18" s="13" t="s">
+      <c r="V19" s="14">
+        <v>0</v>
+      </c>
+      <c r="W19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG19" t="s">
         <v>18</v>
       </c>
-      <c r="AI18" s="16" t="s">
+      <c r="AI19" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+    <row r="20" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
         <v>109.1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D19" s="29" t="s">
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>288</v>
-      </c>
-      <c r="E19" s="28">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="R19" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="S19" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="T19" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="U19" s="30">
-        <v>1</v>
-      </c>
-      <c r="V19" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="W19" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="X19" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y19" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AG19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI19" s="35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
-        <v>1010</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="28">
-        <v>1</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>260</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>10</v>
@@ -2978,10 +3055,10 @@
       <c r="J20" s="29"/>
       <c r="K20" s="32"/>
       <c r="L20" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="M20" s="30">
-        <v>1000</v>
+        <v>172</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="N20" s="30" t="s">
         <v>47</v>
@@ -2990,25 +3067,33 @@
         <v>52</v>
       </c>
       <c r="P20" s="30"/>
-      <c r="Q20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="U20" s="14">
-        <v>0</v>
-      </c>
-      <c r="V20" s="14">
-        <v>0</v>
+      <c r="Q20" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="U20" s="30">
+        <v>1</v>
+      </c>
+      <c r="V20" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="W20" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
+        <v>290</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y20" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="Z20" s="30"/>
       <c r="AA20" s="30"/>
       <c r="AB20" s="30"/>
@@ -3017,69 +3102,77 @@
         <v>18</v>
       </c>
       <c r="AI20" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
-        <v>121</v>
+        <v>109.2</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="C21" s="31">
         <v>97656</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>73</v>
+      <c r="D21" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="E21" s="28">
         <v>1</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>58</v>
+      <c r="F21" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
+      <c r="H21" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="32"/>
       <c r="L21" s="33" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="O21" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P21" s="30"/>
       <c r="Q21" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
+        <v>47</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="T21" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>51</v>
+        <v>51</v>
+      </c>
+      <c r="U21" s="30">
+        <v>1</v>
       </c>
       <c r="V21" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
+      <c r="X21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y21" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="Z21" s="30"/>
       <c r="AA21" s="30"/>
       <c r="AB21" s="30"/>
@@ -3088,90 +3181,100 @@
         <v>18</v>
       </c>
       <c r="AI21" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>121.1</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D22" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>1010</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="28">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M22" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="U22" s="14">
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <v>0</v>
+      </c>
+      <c r="W22" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AG22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI22" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>121</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="17"/>
-      <c r="L22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T22" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI22" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>122</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23">
+      <c r="E23" s="28">
         <v>1</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="17">
@@ -3179,60 +3282,70 @@
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="17"/>
-      <c r="L23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
       <c r="T23" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI23" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="U23" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V23" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AG23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI23" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
-        <v>123</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="31">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>121.1</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="8">
         <v>97656</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="28">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="17">
@@ -3240,70 +3353,60 @@
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O24" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
+      <c r="L24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="T24" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U24" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V24" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W24" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AG24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI24" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI24" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
-        <v>123.1</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="31">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>122</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="8">
         <v>97656</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="28">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G25" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="17">
@@ -3311,70 +3414,60 @@
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
+      <c r="L25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="T25" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U25" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V25" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W25" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AG25" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI25" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI25" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>123.2</v>
+    <row r="26" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>123</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="8">
+        <v>31</v>
+      </c>
+      <c r="C26" s="31">
         <v>97656</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="28">
         <v>0</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="17">
@@ -3382,60 +3475,70 @@
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="17"/>
-      <c r="L26" s="11" t="s">
+      <c r="K26" s="32"/>
+      <c r="L26" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N26" s="7" t="s">
+      <c r="M26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O26" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
       <c r="T26" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI26" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="U26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AG26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI26" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>124</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="8">
+    <row r="27" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>123.1</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="31">
         <v>97656</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="E27" s="28">
+        <v>0</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="17">
@@ -3443,60 +3546,70 @@
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="17"/>
-      <c r="L27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
       <c r="T27" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI27" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
-        <v>124.1</v>
+        <v>266</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V27" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AG27" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI27" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>123.2</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="31">
+        <v>255</v>
+      </c>
+      <c r="C28" s="8">
         <v>97656</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="28">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="17">
@@ -3504,70 +3617,60 @@
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O28" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
+      <c r="L28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="T28" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U28" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V28" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AG28" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI28" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
-        <v>124.2</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C29" s="31">
+        <v>266</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI28" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>124</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="8">
         <v>97656</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G29" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="17">
@@ -3575,56 +3678,46 @@
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="M29" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O29" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
+      <c r="L29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="T29" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U29" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V29" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W29" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AG29" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI29" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI29" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
-        <v>124.3</v>
+        <v>124.1</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="C30" s="31">
         <v>97656</v>
@@ -3636,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>10</v>
@@ -3648,7 +3741,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="32"/>
       <c r="L30" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M30" s="30" t="s">
         <v>51</v>
@@ -3666,7 +3759,7 @@
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
       <c r="T30" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U30" s="30" t="s">
         <v>51</v>
@@ -3692,10 +3785,10 @@
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
-        <v>124.4</v>
+        <v>124.2</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="C31" s="31">
         <v>97656</v>
@@ -3707,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>10</v>
@@ -3719,7 +3812,7 @@
       <c r="J31" s="17"/>
       <c r="K31" s="32"/>
       <c r="L31" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M31" s="30" t="s">
         <v>51</v>
@@ -3737,7 +3830,7 @@
       <c r="R31" s="30"/>
       <c r="S31" s="30"/>
       <c r="T31" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U31" s="30" t="s">
         <v>51</v>
@@ -3763,22 +3856,22 @@
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
-        <v>124.5</v>
+        <v>124.3</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="C32" s="31">
         <v>97656</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="E32" s="28">
         <v>1</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>10</v>
@@ -3790,7 +3883,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="32"/>
       <c r="L32" s="33" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="M32" s="30" t="s">
         <v>51</v>
@@ -3799,7 +3892,7 @@
         <v>118</v>
       </c>
       <c r="O32" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P32" s="30"/>
       <c r="Q32" s="30" t="s">
@@ -3832,26 +3925,26 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>125</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="8">
+    <row r="33" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>124.4</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="C33" s="31">
         <v>97656</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33">
+        <v>75</v>
+      </c>
+      <c r="E33" s="28">
         <v>1</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="17">
@@ -3859,73 +3952,80 @@
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="17"/>
-      <c r="L33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
       <c r="T33" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="U33" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V33" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W33" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AG33" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI33" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>124.5</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="U33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="V33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="W33" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI33" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
-        <v>125.1</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>287</v>
-      </c>
       <c r="C34" s="31">
         <v>97656</v>
       </c>
-      <c r="D34" s="29" t="s">
-        <v>295</v>
+      <c r="D34" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="29" t="s">
-        <v>299</v>
+      <c r="F34" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="29"/>
+      <c r="H34" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="32"/>
       <c r="L34" s="33" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="M34" s="30" t="s">
         <v>51</v>
@@ -3934,36 +4034,28 @@
         <v>118</v>
       </c>
       <c r="O34" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P34" s="30"/>
       <c r="Q34" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="R34" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="S34" s="30" t="s">
-        <v>241</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
       <c r="T34" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="U34" s="30">
-        <v>1</v>
+        <v>265</v>
+      </c>
+      <c r="U34" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="V34" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W34" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="X34" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y34" s="34" t="s">
-        <v>296</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
       <c r="Z34" s="30"/>
       <c r="AA34" s="30"/>
       <c r="AB34" s="30"/>
@@ -3972,12 +4064,12 @@
         <v>18</v>
       </c>
       <c r="AI34" s="35" t="s">
-        <v>297</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>57</v>
@@ -3986,10 +4078,10 @@
         <v>97656</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>78</v>
@@ -4014,46 +4106,49 @@
       <c r="O35" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="P35" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="Q35" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="T35" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W35" s="13" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="AG35" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI35" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>127</v>
+      <c r="A36" s="29">
+        <v>125</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="26">
+        <v>296</v>
+      </c>
+      <c r="C36" s="31">
         <v>97656</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="E36" s="28">
         <v>1</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>10</v>
@@ -4065,7 +4160,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="32"/>
       <c r="L36" s="33" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="M36" s="30" t="s">
         <v>51</v>
@@ -4076,63 +4171,59 @@
       <c r="O36" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="P36" s="30"/>
+      <c r="P36" s="30" t="s">
+        <v>81</v>
+      </c>
       <c r="Q36" s="30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
       <c r="T36" s="30" t="s">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="U36" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V36" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W36" s="34" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="X36" s="34"/>
       <c r="Y36" s="34"/>
-      <c r="Z36" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA36" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB36" s="30" t="s">
-        <v>51</v>
-      </c>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
       <c r="AC36" s="30"/>
       <c r="AG36" s="28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI36" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
-        <v>127.1</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="26">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>126</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="8">
         <v>97656</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="28">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H37" s="17">
@@ -4140,239 +4231,277 @@
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M37" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N37" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="O37" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
+      <c r="L37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="T37" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="U37" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V37" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W37" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA37" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB37" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC37" s="30"/>
-      <c r="AG37" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG37" t="s">
         <v>18</v>
       </c>
-      <c r="AI37" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>131</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>201</v>
+      <c r="AI37" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>127</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="E38" s="28">
         <v>1</v>
       </c>
-      <c r="F38" s="29" t="s">
-        <v>202</v>
+      <c r="F38" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1000</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="H38" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
       <c r="T38" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="U38" s="7">
-        <v>1</v>
-      </c>
-      <c r="V38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W38" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG38" t="s">
+      <c r="U38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W38" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA38" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC38" s="30"/>
+      <c r="AG38" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI38" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>131.1</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>201</v>
+      <c r="AI38" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>127.1</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="E39" s="28">
         <v>1</v>
       </c>
-      <c r="F39" s="29" t="s">
-        <v>203</v>
+      <c r="F39" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="H39" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M39" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O39" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
       <c r="T39" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="U39" s="7">
-        <v>1</v>
-      </c>
-      <c r="V39" s="7" t="s">
+      <c r="U39" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V39" s="30" t="s">
         <v>51</v>
       </c>
       <c r="W39" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG39" t="s">
+        <v>51</v>
+      </c>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA39" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB39" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC39" s="30"/>
+      <c r="AG39" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI39" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>131.19999999999999</v>
+      <c r="AI39" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>127.2</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>201</v>
+        <v>318</v>
+      </c>
+      <c r="C40" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="E40" s="28">
         <v>1</v>
       </c>
-      <c r="F40" s="29" t="s">
-        <v>204</v>
+      <c r="F40" s="17" t="s">
+        <v>320</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="H40" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O40" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
       <c r="T40" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="U40" s="7">
-        <v>1</v>
-      </c>
-      <c r="V40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="U40" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V40" s="30" t="s">
         <v>51</v>
       </c>
       <c r="W40" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG40" t="s">
+        <v>51</v>
+      </c>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA40" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB40" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC40" s="30"/>
+      <c r="AG40" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI40" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI40" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>131.30000000000001</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>209</v>
+        <v>131</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C41" s="8">
         <v>97656</v>
@@ -4384,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>10</v>
@@ -4393,10 +4522,10 @@
         <v>0.5</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>162</v>
+        <v>218</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1000</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>47</v>
@@ -4408,7 +4537,7 @@
         <v>56</v>
       </c>
       <c r="T41" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U41" s="7">
         <v>1</v>
@@ -4416,7 +4545,7 @@
       <c r="V41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="W41" s="34" t="s">
+      <c r="W41" s="13" t="s">
         <v>210</v>
       </c>
       <c r="AG41" t="s">
@@ -4426,12 +4555,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
-        <v>131.4</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>209</v>
+    <row r="42" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>131.1</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C42" s="8">
         <v>97656</v>
@@ -4443,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>10</v>
@@ -4452,7 +4581,7 @@
         <v>0.5</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>162</v>
@@ -4467,7 +4596,7 @@
         <v>56</v>
       </c>
       <c r="T42" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U42" s="7">
         <v>1</v>
@@ -4486,11 +4615,11 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
-        <v>131.5</v>
+      <c r="A43" s="6">
+        <v>131.19999999999999</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C43" s="8">
         <v>97656</v>
@@ -4502,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>10</v>
@@ -4511,7 +4640,7 @@
         <v>0.5</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>162</v>
@@ -4526,7 +4655,7 @@
         <v>56</v>
       </c>
       <c r="T43" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U43" s="7">
         <v>1</v>
@@ -4535,7 +4664,7 @@
         <v>51</v>
       </c>
       <c r="W43" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG43" t="s">
         <v>18</v>
@@ -4544,14 +4673,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
-        <v>131.6</v>
+    <row r="44" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>131.30000000000001</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="31">
+        <v>208</v>
+      </c>
+      <c r="C44" s="8">
         <v>97656</v>
       </c>
       <c r="D44" s="29" t="s">
@@ -4561,216 +4690,172 @@
         <v>1</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="M44" s="30" t="s">
+      <c r="H44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="N44" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="O44" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
+      <c r="M44" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T44" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="U44" s="30">
-        <v>1</v>
-      </c>
-      <c r="V44" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="U44" s="7">
+        <v>1</v>
+      </c>
+      <c r="V44" s="7" t="s">
         <v>51</v>
       </c>
       <c r="W44" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA44" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB44" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC44" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG44" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG44" t="s">
         <v>18</v>
       </c>
-      <c r="AI44" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
-        <v>132</v>
+      <c r="AI44" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
+        <v>131.4</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>228</v>
+        <v>208</v>
+      </c>
+      <c r="C45" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="E45" s="28">
         <v>1</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>271</v>
+      <c r="F45" s="29" t="s">
+        <v>205</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="M45" s="30" t="s">
+      <c r="H45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="N45" s="30" t="s">
+      <c r="M45" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
+      <c r="O45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T45" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="U45" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="V45" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W45" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AG45" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="U45" s="7">
+        <v>1</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W45" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG45" t="s">
         <v>18</v>
       </c>
-      <c r="AI45" s="35" t="s">
+      <c r="AI45" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:35" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
-        <v>132.1</v>
+    <row r="46" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29">
+        <v>131.5</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>228</v>
+        <v>208</v>
+      </c>
+      <c r="C46" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="E46" s="28">
         <v>1</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>272</v>
+      <c r="F46" s="29" t="s">
+        <v>206</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="M46" s="30" t="s">
+      <c r="H46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M46" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="N46" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="O46" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
+      <c r="N46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T46" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="U46" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W46" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AG46" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="U46" s="7">
+        <v>1</v>
+      </c>
+      <c r="V46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W46" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG46" t="s">
         <v>18</v>
       </c>
-      <c r="AI46" s="35" t="s">
+      <c r="AI46" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
-        <v>133</v>
+        <v>131.6</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C47" s="31">
         <v>97656</v>
@@ -4782,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>10</v>
@@ -4794,10 +4879,10 @@
       <c r="J47" s="29"/>
       <c r="K47" s="32"/>
       <c r="L47" s="33" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="M47" s="30" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="N47" s="30" t="s">
         <v>220</v>
@@ -4807,12 +4892,12 @@
       </c>
       <c r="P47" s="30"/>
       <c r="Q47" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R47" s="30"/>
       <c r="S47" s="30"/>
       <c r="T47" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U47" s="30">
         <v>1</v>
@@ -4821,27 +4906,35 @@
         <v>51</v>
       </c>
       <c r="W47" s="34" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="X47" s="34"/>
       <c r="Y47" s="34"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
+      <c r="Z47" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA47" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB47" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC47" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="AG47" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AI47" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" s="28" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
-        <v>134</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="C48" s="31">
         <v>97656</v>
@@ -4853,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>10</v>
@@ -4865,10 +4958,10 @@
       <c r="J48" s="29"/>
       <c r="K48" s="32"/>
       <c r="L48" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="M48" s="30" t="s">
-        <v>162</v>
+        <v>137</v>
+      </c>
+      <c r="M48" s="30">
+        <v>1000</v>
       </c>
       <c r="N48" s="30" t="s">
         <v>47</v>
@@ -4878,30 +4971,24 @@
       </c>
       <c r="P48" s="30"/>
       <c r="Q48" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="R48" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="S48" s="30" t="s">
-        <v>241</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
       <c r="T48" s="30" t="s">
-        <v>290</v>
+        <v>51</v>
       </c>
       <c r="U48" s="30">
         <v>1</v>
       </c>
       <c r="V48" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y48" s="34" t="s">
-        <v>248</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="W48" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
       <c r="Z48" s="30"/>
       <c r="AA48" s="30"/>
       <c r="AB48" s="30"/>
@@ -4910,559 +4997,711 @@
         <v>18</v>
       </c>
       <c r="AI48" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
-      <c r="AI50" s="25"/>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" s="28" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="C49" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D49" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U52" s="7">
-        <v>1</v>
-      </c>
-      <c r="V52" s="7">
-        <v>1</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI52" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>201.1</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L53" s="11" t="s">
+      <c r="E49" s="28">
+        <v>1</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N49" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U49" s="30">
+        <v>1</v>
+      </c>
+      <c r="V49" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W49" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AG49" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI49" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>131.9</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C50" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="28">
+        <v>1</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="M50" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N50" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U50" s="30">
+        <v>1</v>
+      </c>
+      <c r="V50" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W50" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AG50" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI50" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29">
+        <v>131.11000000000001</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C51" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="28">
+        <v>1</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="30"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M51" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="N53" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U53" s="7">
-        <v>1</v>
-      </c>
-      <c r="V53" s="7">
-        <v>1</v>
-      </c>
-      <c r="W53" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI53" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>201.2</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U54" s="7">
-        <v>1</v>
-      </c>
-      <c r="V54" s="7">
-        <v>1</v>
-      </c>
-      <c r="W54" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI54" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>201.3</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="U55" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="V55" s="7">
-        <v>1</v>
-      </c>
-      <c r="W55" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI55" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>201.4</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C56" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H56" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="U56" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="V56" s="7">
-        <v>1</v>
-      </c>
-      <c r="W56" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI56" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>202</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="N51" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U51" s="30">
+        <v>1</v>
+      </c>
+      <c r="V51" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W51" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AG51" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI51" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29">
+        <v>131.12</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C52" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="28">
+        <v>1</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="30"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M52" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N52" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U52" s="30">
+        <v>1</v>
+      </c>
+      <c r="V52" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AG52" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI52" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="29">
+        <v>131.13</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C53" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="28">
+        <v>1</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="30"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="M53" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N53" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O53" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U53" s="30">
+        <v>1</v>
+      </c>
+      <c r="V53" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W53" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA53" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB53" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC53" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG53" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI53" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>132</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="28">
+        <v>1</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="30"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="M54" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N54" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="U54" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V54" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W54" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AG54" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI54" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>132.1</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="28">
+        <v>1</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="30"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N55" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="O55" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="U55" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V55" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W55" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AG55" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI55" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="29">
+        <v>133</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="28">
+        <v>1</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I56" s="30"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="M56" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N56" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="O56" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="U56" s="30">
+        <v>1</v>
+      </c>
+      <c r="V56" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W56" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AG56" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI56" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="29">
         <v>134</v>
       </c>
-      <c r="C57" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H57" s="6">
-        <v>1</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE57">
-        <v>125</v>
-      </c>
-      <c r="AF57">
-        <v>123.1527</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI57" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>210.1</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H58" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L58" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U58" s="7">
-        <v>1</v>
-      </c>
-      <c r="V58" s="7">
-        <v>1</v>
-      </c>
-      <c r="W58" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI58" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>211.1</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L59" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U59" s="7">
-        <v>1</v>
-      </c>
-      <c r="V59" s="7">
-        <v>1</v>
-      </c>
-      <c r="W59" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI59" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>212.1</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L60" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U60" s="7">
-        <v>1</v>
-      </c>
-      <c r="V60" s="7">
-        <v>1</v>
-      </c>
-      <c r="W60" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI60" s="16" t="s">
-        <v>120</v>
-      </c>
+      <c r="B57" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="28">
+        <v>1</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="30"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="M57" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N57" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O57" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="R57" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="S57" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T57" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="U57" s="30">
+        <v>1</v>
+      </c>
+      <c r="V57" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y57" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AG57" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI57" s="35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AI59" s="25"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>213.1</v>
+        <v>201</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C61" s="8">
         <v>97656</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>108</v>
@@ -5470,20 +5709,20 @@
       <c r="H61" s="6">
         <v>0.5</v>
       </c>
-      <c r="L61" s="11">
-        <v>2000</v>
+      <c r="L61" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>119</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U61" s="7">
         <v>1</v>
@@ -5495,18 +5734,15 @@
         <v>105</v>
       </c>
       <c r="AG61" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AI61" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>214</v>
+        <v>201.1</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>143</v>
@@ -5515,13 +5751,13 @@
         <v>97656</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>108</v>
@@ -5529,40 +5765,40 @@
       <c r="H62" s="6">
         <v>0.5</v>
       </c>
-      <c r="L62" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M62" s="7">
-        <v>1000</v>
+      <c r="L62" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="N62" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U62" s="7">
         <v>1</v>
       </c>
-      <c r="V62" s="7" t="s">
-        <v>146</v>
+      <c r="V62" s="7">
+        <v>1</v>
       </c>
       <c r="W62" s="13" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="AG62" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AI62" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>214.1</v>
+        <v>201.2</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>164</v>
@@ -5571,13 +5807,13 @@
         <v>97656</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>108</v>
@@ -5595,45 +5831,45 @@
         <v>118</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U63" s="7">
         <v>1</v>
       </c>
-      <c r="V63" s="7" t="s">
-        <v>51</v>
+      <c r="V63" s="7">
+        <v>1</v>
       </c>
       <c r="W63" s="13" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="AG63" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AI63" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>214.2</v>
+        <v>201.3</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C64" s="8">
         <v>97656</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>108</v>
@@ -5642,54 +5878,54 @@
         <v>0.5</v>
       </c>
       <c r="L64" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M64" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="N64" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="U64" s="7">
-        <v>1</v>
-      </c>
-      <c r="V64" s="7" t="s">
-        <v>51</v>
+        <v>181</v>
+      </c>
+      <c r="U64" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="V64" s="7">
+        <v>1</v>
       </c>
       <c r="W64" s="13" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="AG64" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AI64" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>214.3</v>
+        <v>201.4</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C65" s="8">
         <v>97656</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>108</v>
@@ -5707,101 +5943,89 @@
         <v>118</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="U65" s="7">
-        <v>1</v>
-      </c>
-      <c r="V65" s="7" t="s">
-        <v>51</v>
+        <v>181</v>
+      </c>
+      <c r="U65" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="V65" s="7">
+        <v>1</v>
       </c>
       <c r="W65" s="13" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="AG65" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AI65" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>214.4</v>
+        <v>202</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C66" s="8">
         <v>97656</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H66" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O66" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="U66" s="7">
-        <v>1</v>
-      </c>
-      <c r="V66" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W66" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="AE66">
+        <v>125</v>
+      </c>
+      <c r="AF66">
+        <v>123.1527</v>
       </c>
       <c r="AG66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI66" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>214.5</v>
+        <v>210.1</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C67" s="8">
         <v>97656</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>108</v>
@@ -5809,8 +6033,8 @@
       <c r="H67" s="6">
         <v>0.5</v>
       </c>
-      <c r="L67" s="11" t="s">
-        <v>72</v>
+      <c r="L67" s="11">
+        <v>2000</v>
       </c>
       <c r="M67" s="7" t="s">
         <v>117</v>
@@ -5819,45 +6043,48 @@
         <v>118</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U67" s="7">
         <v>1</v>
       </c>
-      <c r="V67" s="7" t="s">
-        <v>51</v>
+      <c r="V67" s="7">
+        <v>1</v>
       </c>
       <c r="W67" s="13" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="AG67" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>125</v>
       </c>
       <c r="AI67" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>214.6</v>
+        <v>211.1</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C68" s="8">
         <v>97656</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>108</v>
@@ -5865,55 +6092,58 @@
       <c r="H68" s="6">
         <v>0.5</v>
       </c>
-      <c r="L68" s="11" t="s">
-        <v>172</v>
+      <c r="L68" s="11">
+        <v>2000</v>
       </c>
       <c r="M68" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U68" s="7">
         <v>1</v>
       </c>
-      <c r="V68" s="7" t="s">
-        <v>51</v>
+      <c r="V68" s="7">
+        <v>1</v>
       </c>
       <c r="W68" s="13" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="AG68" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>125</v>
       </c>
       <c r="AI68" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>214.7</v>
+        <v>212.1</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C69" s="8">
         <v>97656</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>108</v>
@@ -5921,146 +6151,148 @@
       <c r="H69" s="6">
         <v>0.5</v>
       </c>
-      <c r="L69" s="11" t="s">
-        <v>59</v>
+      <c r="L69" s="11">
+        <v>2000</v>
       </c>
       <c r="M69" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U69" s="7">
         <v>1</v>
       </c>
-      <c r="V69" s="7" t="s">
-        <v>51</v>
+      <c r="V69" s="7">
+        <v>1</v>
       </c>
       <c r="W69" s="13" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="AG69" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>125</v>
       </c>
       <c r="AI69" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
-        <v>214.8</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>213.1</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>193</v>
+        <v>126</v>
+      </c>
+      <c r="C70" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" s="17" t="s">
-        <v>193</v>
+      <c r="F70" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H70" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>194</v>
+      <c r="H70" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L70" s="11">
+        <v>2000</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="U70" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="V70" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="W70" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="U70" s="7">
+        <v>1</v>
+      </c>
+      <c r="V70" s="7">
+        <v>1</v>
+      </c>
+      <c r="W70" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="AG70" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>125</v>
       </c>
       <c r="AI70" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
-        <v>214.9</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>214</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>200</v>
+        <v>143</v>
+      </c>
+      <c r="C71" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" s="17" t="s">
-        <v>200</v>
+      <c r="F71" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="L71" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M71" s="7" t="s">
-        <v>137</v>
+      <c r="H71" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L71" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M71" s="7">
+        <v>1000</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="U71" s="7" t="s">
-        <v>196</v>
+        <v>47</v>
+      </c>
+      <c r="U71" s="7">
+        <v>1</v>
       </c>
       <c r="V71" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="W71" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
+        <v>146</v>
+      </c>
+      <c r="W71" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="AG71" t="s">
         <v>18</v>
       </c>
@@ -6068,12 +6300,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>215</v>
+        <v>214.1</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C72" s="8">
         <v>97656</v>
@@ -6085,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>108</v>
@@ -6106,7 +6338,7 @@
         <v>56</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="U72" s="7">
         <v>1</v>
@@ -6117,43 +6349,31 @@
       <c r="W72" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="Z72" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA72" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB72" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC72" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="AG72" t="s">
         <v>18</v>
       </c>
       <c r="AI72" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>216</v>
+        <v>214.2</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C73" s="8">
         <v>97656</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>108</v>
@@ -6161,363 +6381,335 @@
       <c r="H73" s="6">
         <v>0.5</v>
       </c>
-      <c r="K73" s="9">
-        <v>6000</v>
-      </c>
       <c r="L73" s="11" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="O73" s="7">
-        <v>1.5</v>
+        <v>118</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U73" s="7">
-        <v>0</v>
-      </c>
-      <c r="V73" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V73" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="W73" s="13" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="AG73" t="s">
         <v>18</v>
       </c>
       <c r="AI73" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>225</v>
+        <v>214.3</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="C74" s="8">
         <v>97656</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>76</v>
+      <c r="D74" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" s="17" t="s">
-        <v>109</v>
+      <c r="F74" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H74" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="17"/>
+      <c r="H74" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L74" s="11" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O74" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P74" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q74" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U74" s="7" t="s">
-        <v>56</v>
+      <c r="U74" s="7">
+        <v>1</v>
       </c>
       <c r="V74" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AG74" t="s">
         <v>18</v>
       </c>
       <c r="AI74" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>225.1</v>
+        <v>214.4</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C75" s="8">
         <v>97656</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>76</v>
+      <c r="D75" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" s="17" t="s">
-        <v>114</v>
+      <c r="F75" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H75" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="17"/>
+      <c r="H75" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L75" s="11" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P75" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q75" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U75" s="7" t="s">
-        <v>56</v>
+      <c r="U75" s="7">
+        <v>1</v>
       </c>
       <c r="V75" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W75" s="13" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AG75" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AI75" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>225.2</v>
+        <v>214.5</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C76" s="8">
         <v>97656</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>76</v>
+      <c r="D76" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" s="17" t="s">
-        <v>113</v>
+      <c r="F76" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H76" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I76" s="14"/>
-      <c r="J76" s="17"/>
+      <c r="H76" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L76" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O76" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P76" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q76" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U76" s="7" t="s">
-        <v>56</v>
+      <c r="U76" s="7">
+        <v>1</v>
       </c>
       <c r="V76" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W76" s="13" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AG76" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AI76" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>225.3</v>
+        <v>214.6</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C77" s="8">
         <v>97656</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>76</v>
+      <c r="D77" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" s="17" t="s">
-        <v>112</v>
+      <c r="F77" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H77" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="17"/>
+      <c r="H77" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L77" s="11" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P77" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q77" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U77" s="7" t="s">
-        <v>56</v>
+      <c r="U77" s="7">
+        <v>1</v>
       </c>
       <c r="V77" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W77" s="13" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AG77" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AI77" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>225.4</v>
+        <v>214.7</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C78" s="8">
         <v>97656</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>76</v>
+      <c r="D78" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78" s="17" t="s">
-        <v>115</v>
+      <c r="F78" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H78" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I78" s="14"/>
-      <c r="J78" s="17"/>
+      <c r="H78" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L78" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O78" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P78" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q78" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U78" s="7" t="s">
-        <v>56</v>
+      <c r="U78" s="7">
+        <v>1</v>
       </c>
       <c r="V78" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W78" s="13" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AG78" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AI78" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>225.5</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
+        <v>214.8</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" s="8">
+        <v>192</v>
+      </c>
+      <c r="C79" s="26">
         <v>97656</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>108</v>
@@ -6525,60 +6717,57 @@
       <c r="H79" s="17">
         <v>0.5</v>
       </c>
-      <c r="I79" s="14"/>
-      <c r="J79" s="17"/>
       <c r="L79" s="11" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="V79" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W79" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="W79" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
       <c r="AG79" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AI79" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>226</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17">
+        <v>214.9</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="8">
+        <v>192</v>
+      </c>
+      <c r="C80" s="26">
         <v>97656</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>108</v>
@@ -6586,201 +6775,186 @@
       <c r="H80" s="17">
         <v>0.5</v>
       </c>
-      <c r="I80" s="14"/>
-      <c r="J80" s="17"/>
       <c r="L80" s="11" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="U80" s="7" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="V80" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W80" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="W80" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
       <c r="AG80" t="s">
         <v>18</v>
       </c>
       <c r="AI80" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
-        <v>227</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>215</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>144</v>
+        <v>169</v>
+      </c>
+      <c r="C81" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" s="17" t="s">
-        <v>157</v>
+      <c r="F81" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H81" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="17"/>
+      <c r="H81" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L81" s="11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="U81" s="7" t="s">
-        <v>146</v>
+        <v>51</v>
+      </c>
+      <c r="U81" s="7">
+        <v>1</v>
       </c>
       <c r="V81" s="7" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="W81" s="13" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Z81" s="7" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="AA81" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AB81" s="7" t="s">
-        <v>146</v>
+        <v>175</v>
+      </c>
+      <c r="AC81" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="AG81" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="AI81" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17">
-        <v>227.1</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C82" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E82" s="28">
-        <v>1</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G82" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>216</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H82" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I82" s="14"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M82" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N82" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="O82" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="30"/>
-      <c r="U82" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V82" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W82" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X82" s="34"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA82" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB82" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC82" s="30"/>
-      <c r="AG82" s="28" t="s">
+      <c r="H82" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K82" s="9">
+        <v>6000</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="O82" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U82" s="7">
+        <v>0</v>
+      </c>
+      <c r="V82" s="7">
+        <v>0</v>
+      </c>
+      <c r="W82" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG82" t="s">
         <v>18</v>
       </c>
-      <c r="AI82" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17">
-        <v>227.2</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C83" s="26">
+      <c r="AI82" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>225</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="8">
         <v>97656</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E83" s="28">
+        <v>76</v>
+      </c>
+      <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G83" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H83" s="17">
@@ -6788,74 +6962,63 @@
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="17"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N83" s="30" t="s">
+      <c r="L83" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N83" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O83" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="30"/>
-      <c r="U83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W83" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X83" s="34"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA83" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC83" s="30"/>
-      <c r="AG83" s="28" t="s">
+      <c r="O83" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q83" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T83" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="U83" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V83" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W83" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG83" t="s">
         <v>18</v>
       </c>
-      <c r="AI83" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
-        <v>227.3</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C84" s="26">
+      <c r="AI83" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>225.1</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="8">
         <v>97656</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E84" s="28">
+        <v>76</v>
+      </c>
+      <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G84" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H84" s="17">
@@ -6863,74 +7026,63 @@
       </c>
       <c r="I84" s="14"/>
       <c r="J84" s="17"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M84" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N84" s="30" t="s">
+      <c r="L84" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N84" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O84" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V84" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W84" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA84" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB84" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC84" s="30"/>
-      <c r="AG84" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI84" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17">
-        <v>227.4</v>
-      </c>
-      <c r="B85" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C85" s="26">
+      <c r="O84" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q84" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T84" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="U84" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V84" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W84" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI84" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>225.2</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="8">
         <v>97656</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E85" s="28">
+        <v>76</v>
+      </c>
+      <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G85" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H85" s="17">
@@ -6938,74 +7090,63 @@
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="17"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M85" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N85" s="30" t="s">
+      <c r="L85" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N85" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O85" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R85" s="30"/>
-      <c r="S85" s="30"/>
-      <c r="T85" s="30"/>
-      <c r="U85" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V85" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W85" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X85" s="34"/>
-      <c r="Y85" s="34"/>
-      <c r="Z85" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA85" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB85" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC85" s="30"/>
-      <c r="AG85" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI85" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
-        <v>227.5</v>
-      </c>
-      <c r="B86" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C86" s="26">
+      <c r="O85" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q85" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T85" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="U85" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V85" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W85" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI85" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>225.3</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="8">
         <v>97656</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E86" s="28">
+        <v>76</v>
+      </c>
+      <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="G86" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H86" s="17">
@@ -7013,142 +7154,303 @@
       </c>
       <c r="I86" s="14"/>
       <c r="J86" s="17"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M86" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N86" s="30" t="s">
+      <c r="L86" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N86" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O86" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
-      <c r="T86" s="30"/>
-      <c r="U86" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V86" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W86" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X86" s="34"/>
-      <c r="Y86" s="34"/>
-      <c r="Z86" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA86" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB86" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC86" s="30"/>
-      <c r="AG86" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI86" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
-      <c r="W89" s="24"/>
-      <c r="X89" s="24"/>
-      <c r="Y89" s="24"/>
-      <c r="Z89" s="19"/>
-      <c r="AA89" s="19"/>
-      <c r="AB89" s="19"/>
-      <c r="AC89" s="19"/>
-      <c r="AI89" s="25"/>
+      <c r="O86" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T86" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="U86" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V86" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W86" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI86" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>225.4</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H87" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I87" s="14"/>
+      <c r="J87" s="17"/>
+      <c r="L87" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T87" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="U87" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V87" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W87" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI87" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>225.5</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H88" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I88" s="14"/>
+      <c r="J88" s="17"/>
+      <c r="L88" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T88" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U88" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V88" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W88" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI88" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="29">
+        <v>225.6</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C89" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E89" s="28">
+        <v>1</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H89" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I89" s="14"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M89" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N89" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O89" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P89" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q89" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U89" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V89" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W89" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="X89" s="34"/>
+      <c r="Y89" s="34"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="30"/>
+      <c r="AB89" s="30"/>
+      <c r="AC89" s="30"/>
+      <c r="AG89" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI89" s="35" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="90" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="29">
-        <v>321</v>
+        <v>225.7</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="C90" s="31">
-        <v>384000</v>
+        <v>97656</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E90" s="28">
         <v>1</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="H90" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I90" s="14"/>
       <c r="J90" s="17"/>
       <c r="K90" s="32"/>
       <c r="L90" s="33" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="M90" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N90" s="30" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="O90" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="P90" s="30"/>
+      <c r="P90" s="30" t="s">
+        <v>305</v>
+      </c>
       <c r="Q90" s="30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R90" s="30"/>
       <c r="S90" s="30"/>
       <c r="T90" s="30" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="U90" s="30" t="s">
         <v>51</v>
       </c>
       <c r="V90" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W90" s="34" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="X90" s="34"/>
       <c r="Y90" s="34"/>
@@ -7157,69 +7459,71 @@
       <c r="AB90" s="30"/>
       <c r="AC90" s="30"/>
       <c r="AG90" s="28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI90" s="35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="29">
-        <v>321.10000000000002</v>
+        <v>225.8</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="C91" s="31">
-        <v>384000</v>
+        <v>97656</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E91" s="28">
         <v>1</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="H91" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="17"/>
       <c r="K91" s="32"/>
       <c r="L91" s="33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M91" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N91" s="30" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O91" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="P91" s="30"/>
+      <c r="P91" s="30" t="s">
+        <v>305</v>
+      </c>
       <c r="Q91" s="30" t="s">
-        <v>51</v>
+        <v>283</v>
       </c>
       <c r="R91" s="30"/>
       <c r="S91" s="30"/>
       <c r="T91" s="30" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="U91" s="30" t="s">
         <v>51</v>
       </c>
       <c r="V91" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W91" s="34" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="X91" s="34"/>
       <c r="Y91" s="34"/>
@@ -7228,190 +7532,179 @@
       <c r="AB91" s="30"/>
       <c r="AC91" s="30"/>
       <c r="AG91" s="28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI91" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="29">
-        <v>321.2</v>
-      </c>
-      <c r="B92" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="C92" s="31">
-        <v>384000</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>226</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="8">
+        <v>97656</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E92" s="28">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G92" s="29" t="s">
-        <v>276</v>
+        <v>109</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="H92" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I92" s="14"/>
       <c r="J92" s="17"/>
-      <c r="K92" s="32"/>
-      <c r="L92" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M92" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N92" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O92" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P92" s="30"/>
-      <c r="Q92" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R92" s="30"/>
-      <c r="S92" s="30"/>
+      <c r="L92" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T92" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U92" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V92" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W92" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="U92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W92" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="X92" s="34"/>
-      <c r="Y92" s="34"/>
-      <c r="Z92" s="30"/>
-      <c r="AA92" s="30"/>
-      <c r="AB92" s="30"/>
-      <c r="AC92" s="30"/>
-      <c r="AG92" s="28" t="s">
+      <c r="AG92" t="s">
         <v>18</v>
       </c>
-      <c r="AI92" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="29">
-        <v>324</v>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" s="31">
-        <v>384000</v>
+      <c r="AI92" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A93" s="17">
+        <v>227</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="26">
+        <v>97656</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E93" s="28">
+        <v>144</v>
+      </c>
+      <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G93" s="29" t="s">
-        <v>276</v>
+        <v>157</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="H93" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="17"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="M93" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N93" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O93" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
+      <c r="L93" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q93" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="T93" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U93" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V93" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W93" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X93" s="34"/>
-      <c r="Y93" s="34"/>
-      <c r="Z93" s="30"/>
-      <c r="AA93" s="30"/>
-      <c r="AB93" s="30"/>
-      <c r="AC93" s="30"/>
-      <c r="AG93" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI93" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="29">
-        <v>324.10000000000002</v>
+        <v>300</v>
+      </c>
+      <c r="U93" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="V93" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="W93" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z93" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA93" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB93" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI93" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="17">
+        <v>227.1</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="C94" s="31">
-        <v>384000</v>
+        <v>212</v>
+      </c>
+      <c r="C94" s="26">
+        <v>97656</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="E94" s="28">
         <v>1</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="H94" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="17"/>
       <c r="K94" s="32"/>
       <c r="L94" s="33" t="s">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="M94" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N94" s="30" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="O94" s="30" t="s">
         <v>56</v>
@@ -7423,7 +7716,7 @@
       <c r="R94" s="30"/>
       <c r="S94" s="30"/>
       <c r="T94" s="30" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="U94" s="30" t="s">
         <v>51</v>
@@ -7432,60 +7725,66 @@
         <v>51</v>
       </c>
       <c r="W94" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X94" s="34"/>
       <c r="Y94" s="34"/>
-      <c r="Z94" s="30"/>
-      <c r="AA94" s="30"/>
-      <c r="AB94" s="30"/>
+      <c r="Z94" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA94" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB94" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="AC94" s="30"/>
       <c r="AG94" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AI94" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="29">
-        <v>324.2</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17">
+        <v>227.2</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="C95" s="31">
-        <v>384000</v>
+        <v>212</v>
+      </c>
+      <c r="C95" s="26">
+        <v>97656</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="E95" s="28">
         <v>1</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="H95" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I95" s="14"/>
       <c r="J95" s="17"/>
       <c r="K95" s="32"/>
       <c r="L95" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M95" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O95" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P95" s="30"/>
       <c r="Q95" s="30" t="s">
@@ -7494,7 +7793,7 @@
       <c r="R95" s="30"/>
       <c r="S95" s="30"/>
       <c r="T95" s="30" t="s">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="U95" s="30" t="s">
         <v>51</v>
@@ -7503,18 +7802,712 @@
         <v>51</v>
       </c>
       <c r="W95" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X95" s="34"/>
       <c r="Y95" s="34"/>
-      <c r="Z95" s="30"/>
-      <c r="AA95" s="30"/>
-      <c r="AB95" s="30"/>
+      <c r="Z95" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA95" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB95" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="AC95" s="30"/>
       <c r="AG95" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AI95" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="17">
+        <v>227.3</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="28">
+        <v>1</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H96" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I96" s="14"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M96" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N96" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O96" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P96" s="30"/>
+      <c r="Q96" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R96" s="30"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U96" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V96" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W96" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X96" s="34"/>
+      <c r="Y96" s="34"/>
+      <c r="Z96" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA96" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB96" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC96" s="30"/>
+      <c r="AG96" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI96" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17">
+        <v>227.4</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="28">
+        <v>1</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G97" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I97" s="14"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M97" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N97" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O97" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P97" s="30"/>
+      <c r="Q97" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R97" s="30"/>
+      <c r="S97" s="30"/>
+      <c r="T97" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U97" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V97" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W97" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X97" s="34"/>
+      <c r="Y97" s="34"/>
+      <c r="Z97" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA97" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB97" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC97" s="30"/>
+      <c r="AG97" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI97" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="17">
+        <v>227.5</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="28">
+        <v>1</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G98" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H98" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I98" s="14"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M98" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N98" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O98" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P98" s="30"/>
+      <c r="Q98" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R98" s="30"/>
+      <c r="S98" s="30"/>
+      <c r="T98" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U98" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V98" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W98" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X98" s="34"/>
+      <c r="Y98" s="34"/>
+      <c r="Z98" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA98" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB98" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC98" s="30"/>
+      <c r="AG98" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI98" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="19"/>
+      <c r="W101" s="24"/>
+      <c r="X101" s="24"/>
+      <c r="Y101" s="24"/>
+      <c r="Z101" s="19"/>
+      <c r="AA101" s="19"/>
+      <c r="AB101" s="19"/>
+      <c r="AC101" s="19"/>
+      <c r="AI101" s="25"/>
+    </row>
+    <row r="102" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="29">
+        <v>321</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E102" s="28">
+        <v>1</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H102" s="17">
+        <v>1</v>
+      </c>
+      <c r="I102" s="14"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M102" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N102" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O102" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P102" s="30"/>
+      <c r="Q102" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R102" s="30"/>
+      <c r="S102" s="30"/>
+      <c r="T102" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U102" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V102" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W102" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X102" s="34"/>
+      <c r="Y102" s="34"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="30"/>
+      <c r="AC102" s="30"/>
+      <c r="AG102" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI102" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="29">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E103" s="28">
+        <v>1</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="G103" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H103" s="17">
+        <v>1</v>
+      </c>
+      <c r="I103" s="14"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="M103" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N103" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="O103" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R103" s="30"/>
+      <c r="S103" s="30"/>
+      <c r="T103" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U103" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V103" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W103" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X103" s="34"/>
+      <c r="Y103" s="34"/>
+      <c r="Z103" s="30"/>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="30"/>
+      <c r="AG103" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI103" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="29">
+        <v>321.2</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E104" s="28">
+        <v>1</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H104" s="17">
+        <v>1</v>
+      </c>
+      <c r="I104" s="14"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M104" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N104" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O104" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P104" s="30"/>
+      <c r="Q104" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R104" s="30"/>
+      <c r="S104" s="30"/>
+      <c r="T104" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U104" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V104" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W104" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X104" s="34"/>
+      <c r="Y104" s="34"/>
+      <c r="Z104" s="30"/>
+      <c r="AA104" s="30"/>
+      <c r="AB104" s="30"/>
+      <c r="AC104" s="30"/>
+      <c r="AG104" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI104" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="29">
+        <v>324</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C105" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="28">
+        <v>1</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G105" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H105" s="17">
+        <v>1</v>
+      </c>
+      <c r="I105" s="14"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M105" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N105" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O105" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P105" s="30"/>
+      <c r="Q105" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R105" s="30"/>
+      <c r="S105" s="30"/>
+      <c r="T105" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U105" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V105" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W105" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X105" s="34"/>
+      <c r="Y105" s="34"/>
+      <c r="Z105" s="30"/>
+      <c r="AA105" s="30"/>
+      <c r="AB105" s="30"/>
+      <c r="AC105" s="30"/>
+      <c r="AG105" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI105" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="29">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C106" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" s="28">
+        <v>1</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G106" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H106" s="17">
+        <v>1</v>
+      </c>
+      <c r="I106" s="14"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M106" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N106" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O106" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P106" s="30"/>
+      <c r="Q106" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R106" s="30"/>
+      <c r="S106" s="30"/>
+      <c r="T106" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U106" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V106" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W106" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X106" s="34"/>
+      <c r="Y106" s="34"/>
+      <c r="Z106" s="30"/>
+      <c r="AA106" s="30"/>
+      <c r="AB106" s="30"/>
+      <c r="AC106" s="30"/>
+      <c r="AG106" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI106" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="29">
+        <v>324.2</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C107" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E107" s="28">
+        <v>1</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G107" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H107" s="17">
+        <v>1</v>
+      </c>
+      <c r="I107" s="14"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M107" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N107" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O107" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P107" s="30"/>
+      <c r="Q107" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R107" s="30"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U107" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V107" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W107" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X107" s="34"/>
+      <c r="Y107" s="34"/>
+      <c r="Z107" s="30"/>
+      <c r="AA107" s="30"/>
+      <c r="AB107" s="30"/>
+      <c r="AC107" s="30"/>
+      <c r="AG107" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI107" s="35" t="s">
         <v>102</v>
       </c>
     </row>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A2D726-875C-4710-B3E0-CB224FA2D1FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FC4B1C-1463-449A-BB0C-AEE874FF5FF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="236">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,19 +850,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MLA_Oscillation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,8,16,32,64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@TB_Oscillation_ICIbase_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_ICI4-8-16-32-64_ratio_1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Oscillation_ICI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkeySounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,12,16,24,32,64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,12,16,18,20,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_ICI4-8-12-16-18-20-24_ratio_1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4.5,6.75,10.125,15.1875,22.78125,34.17188,51.25781,76.88672,115.3301</t>
+  </si>
+  <si>
+    <t>2023/03/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_2-115_devratio_1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_2-115_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4.5,7,10,15,23,34,51,77,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4.5,6.8,10,15,22.5,33.8,50.7,76.1,114.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_2-115_devratio_1.2_fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_2-115_control_fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,15,22.5,76.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_ICI3-15-22.5-76.1_ratio_1.2_dur_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_ICI3-15-22.5-76.1_ratio_1.2_dur_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1247,46 +1326,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R59" sqref="A59:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.9140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.08203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.9140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.75" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.9140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.4140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14.4140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="43.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="9" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="67.125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="7" customWidth="1"/>
     <col min="19" max="19" width="14" style="7" customWidth="1"/>
     <col min="20" max="20" width="14.25" style="13" customWidth="1"/>
-    <col min="21" max="21" width="19.08203125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="17.08203125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="16.08203125" style="7" customWidth="1"/>
-    <col min="24" max="24" width="21.08203125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="19.125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="17.125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.125" style="7" customWidth="1"/>
+    <col min="24" max="24" width="21.125" style="7" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.08203125" customWidth="1"/>
-    <col min="30" max="30" width="29.6640625" style="16" customWidth="1"/>
+    <col min="26" max="26" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.125" customWidth="1"/>
+    <col min="30" max="30" width="29.625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1378,7 +1457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1470,7 +1549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1526,7 +1605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>102</v>
       </c>
@@ -1570,7 +1649,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -1626,7 +1705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>103.1</v>
       </c>
@@ -1682,7 +1761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>104</v>
       </c>
@@ -1738,7 +1817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>105</v>
       </c>
@@ -1797,7 +1876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>106</v>
       </c>
@@ -1856,7 +1935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>107</v>
       </c>
@@ -1915,7 +1994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>107.1</v>
       </c>
@@ -1974,7 +2053,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>108</v>
       </c>
@@ -2033,7 +2112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>109</v>
       </c>
@@ -2089,7 +2168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>121</v>
       </c>
@@ -2147,7 +2226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>122</v>
       </c>
@@ -2205,7 +2284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>123</v>
       </c>
@@ -2263,7 +2342,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>124</v>
       </c>
@@ -2321,7 +2400,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>125</v>
       </c>
@@ -2382,7 +2461,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>126</v>
       </c>
@@ -2440,7 +2519,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -2466,7 +2545,7 @@
       <c r="X22" s="19"/>
       <c r="AD22" s="25"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>201</v>
       </c>
@@ -2522,7 +2601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>201.1</v>
       </c>
@@ -2578,7 +2657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>201.2</v>
       </c>
@@ -2634,7 +2713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>201.3</v>
       </c>
@@ -2690,7 +2769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>201.4</v>
       </c>
@@ -2746,86 +2825,98 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>202</v>
+        <v>201.5</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="C29" s="8">
         <v>97656</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="H29" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z29">
-        <v>125</v>
-      </c>
-      <c r="AA29">
-        <v>123.1527</v>
+        <v>59</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" s="7">
+        <v>1</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="AB29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD29" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>210.1</v>
+        <v>201.6</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="C30" s="8">
         <v>97656</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="H30" s="6">
         <v>0.5</v>
       </c>
-      <c r="L30" s="11">
-        <v>2000</v>
+      <c r="L30" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>51</v>
@@ -2840,51 +2931,48 @@
         <v>105</v>
       </c>
       <c r="AB30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="AD30" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>210.2</v>
+        <v>201.7</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="C31" s="8">
         <v>97656</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="H31" s="6">
         <v>0.5</v>
       </c>
-      <c r="L31" s="11">
-        <v>2000</v>
+      <c r="L31" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>51</v>
@@ -2899,51 +2987,48 @@
         <v>105</v>
       </c>
       <c r="AB31" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="AD31" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>210.3</v>
+        <v>201.8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="C32" s="8">
         <v>97656</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="H32" s="6">
         <v>0.5</v>
       </c>
-      <c r="L32" s="11">
-        <v>2000</v>
+      <c r="L32" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>51</v>
@@ -2958,51 +3043,48 @@
         <v>105</v>
       </c>
       <c r="AB32" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="AD32" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>210.4</v>
+        <v>201.9</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="C33" s="8">
         <v>97656</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="H33" s="6">
         <v>0.5</v>
       </c>
-      <c r="L33" s="11">
-        <v>2000</v>
+      <c r="L33" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>51</v>
@@ -3017,77 +3099,59 @@
         <v>105</v>
       </c>
       <c r="AB33" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="AD33" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>210.5</v>
+        <v>202</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C34" s="8">
         <v>97656</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H34" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="11">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R34" s="7">
-        <v>1</v>
-      </c>
-      <c r="S34" s="7">
-        <v>1</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>105</v>
+        <v>187</v>
+      </c>
+      <c r="Z34">
+        <v>125</v>
+      </c>
+      <c r="AA34">
+        <v>123.1527</v>
       </c>
       <c r="AB34" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="AD34" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>211.1</v>
+        <v>210.1</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>130</v>
@@ -3102,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>108</v>
@@ -3117,10 +3181,10 @@
         <v>117</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>51</v>
@@ -3144,9 +3208,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>211.2</v>
+        <v>210.2</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>130</v>
@@ -3161,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>108</v>
@@ -3176,10 +3240,10 @@
         <v>117</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>51</v>
@@ -3203,9 +3267,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>211.3</v>
+        <v>210.3</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>130</v>
@@ -3220,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>108</v>
@@ -3235,10 +3299,10 @@
         <v>117</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>51</v>
@@ -3262,9 +3326,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>211.4</v>
+        <v>210.4</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>130</v>
@@ -3279,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>108</v>
@@ -3294,10 +3358,10 @@
         <v>117</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>51</v>
@@ -3321,9 +3385,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>211.5</v>
+        <v>210.5</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>130</v>
@@ -3338,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>108</v>
@@ -3353,10 +3417,10 @@
         <v>117</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>51</v>
@@ -3380,9 +3444,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>212.1</v>
+        <v>211.1</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>130</v>
@@ -3397,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>108</v>
@@ -3412,10 +3476,10 @@
         <v>117</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>51</v>
@@ -3439,9 +3503,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>212.2</v>
+        <v>211.2</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>130</v>
@@ -3456,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>108</v>
@@ -3471,10 +3535,10 @@
         <v>117</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>51</v>
@@ -3498,9 +3562,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>212.3</v>
+        <v>211.3</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>130</v>
@@ -3515,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>108</v>
@@ -3530,10 +3594,10 @@
         <v>117</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>51</v>
@@ -3557,9 +3621,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>212.4</v>
+        <v>211.4</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>130</v>
@@ -3574,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>108</v>
@@ -3589,10 +3653,10 @@
         <v>117</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>51</v>
@@ -3616,9 +3680,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>212.5</v>
+        <v>211.5</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>130</v>
@@ -3633,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>108</v>
@@ -3648,10 +3712,10 @@
         <v>117</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>51</v>
@@ -3675,9 +3739,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>213.1</v>
+        <v>212.1</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>130</v>
@@ -3692,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>108</v>
@@ -3707,10 +3771,10 @@
         <v>117</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>51</v>
@@ -3734,9 +3798,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>213.2</v>
+        <v>212.2</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>130</v>
@@ -3751,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>108</v>
@@ -3766,10 +3830,10 @@
         <v>117</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>51</v>
@@ -3793,9 +3857,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>213.3</v>
+        <v>212.3</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>130</v>
@@ -3810,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>108</v>
@@ -3825,10 +3889,10 @@
         <v>117</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>51</v>
@@ -3852,9 +3916,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>213.4</v>
+        <v>212.4</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>130</v>
@@ -3869,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>108</v>
@@ -3884,10 +3948,10 @@
         <v>117</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>51</v>
@@ -3911,9 +3975,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>213.5</v>
+        <v>212.5</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>130</v>
@@ -3928,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>108</v>
@@ -3943,10 +4007,10 @@
         <v>117</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>51</v>
@@ -3970,24 +4034,24 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>214</v>
+        <v>213.1</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C50" s="8">
         <v>97656</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>108</v>
@@ -3998,52 +4062,55 @@
       <c r="L50" s="11">
         <v>2000</v>
       </c>
-      <c r="M50" s="7">
-        <v>1000</v>
+      <c r="M50" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R50" s="7">
         <v>1</v>
       </c>
-      <c r="S50" s="7" t="s">
-        <v>170</v>
+      <c r="S50" s="7">
+        <v>1</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB50" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>125</v>
       </c>
       <c r="AD50" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>214.1</v>
+        <v>213.2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="C51" s="8">
         <v>97656</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>108</v>
@@ -4051,55 +4118,58 @@
       <c r="H51" s="6">
         <v>0.5</v>
       </c>
-      <c r="L51" s="11" t="s">
-        <v>161</v>
+      <c r="L51" s="11">
+        <v>2000</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R51" s="7">
         <v>1</v>
       </c>
-      <c r="S51" s="7" t="s">
-        <v>51</v>
+      <c r="S51" s="7">
+        <v>1</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB51" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>126</v>
       </c>
       <c r="AD51" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>214.2</v>
+        <v>213.3</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C52" s="8">
         <v>97656</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>108</v>
@@ -4107,55 +4177,58 @@
       <c r="H52" s="6">
         <v>0.5</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M52" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="N52" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R52" s="7">
         <v>1</v>
       </c>
-      <c r="S52" s="7" t="s">
-        <v>51</v>
+      <c r="S52" s="7">
+        <v>1</v>
       </c>
       <c r="T52" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB52" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>127</v>
       </c>
       <c r="AD52" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>214.3</v>
+        <v>213.4</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C53" s="8">
         <v>97656</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>108</v>
@@ -4163,55 +4236,58 @@
       <c r="H53" s="6">
         <v>0.5</v>
       </c>
-      <c r="L53" s="11" t="s">
-        <v>161</v>
+      <c r="L53" s="11">
+        <v>2000</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R53" s="7">
         <v>1</v>
       </c>
-      <c r="S53" s="7" t="s">
-        <v>51</v>
+      <c r="S53" s="7">
+        <v>1</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB53" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>128</v>
       </c>
       <c r="AD53" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>214.4</v>
+        <v>213.5</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="C54" s="8">
         <v>97656</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>108</v>
@@ -4219,43 +4295,46 @@
       <c r="H54" s="6">
         <v>0.5</v>
       </c>
-      <c r="L54" s="11" t="s">
-        <v>186</v>
+      <c r="L54" s="11">
+        <v>2000</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R54" s="7">
         <v>1</v>
       </c>
-      <c r="S54" s="7" t="s">
-        <v>51</v>
+      <c r="S54" s="7">
+        <v>1</v>
       </c>
       <c r="T54" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB54" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>129</v>
       </c>
       <c r="AD54" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>214.5</v>
+        <v>214</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C55" s="8">
         <v>97656</v>
@@ -4267,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>108</v>
@@ -4275,11 +4354,11 @@
       <c r="H55" s="6">
         <v>0.5</v>
       </c>
-      <c r="L55" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>117</v>
+      <c r="L55" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M55" s="7">
+        <v>1000</v>
       </c>
       <c r="N55" s="7" t="s">
         <v>118</v>
@@ -4288,13 +4367,13 @@
         <v>56</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="R55" s="7">
         <v>1</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="T55" s="13" t="s">
         <v>183</v>
@@ -4306,12 +4385,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>214.6</v>
+        <v>214.1</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C56" s="8">
         <v>97656</v>
@@ -4323,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>108</v>
@@ -4332,7 +4411,7 @@
         <v>0.5</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>117</v>
@@ -4344,7 +4423,7 @@
         <v>56</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="R56" s="7">
         <v>1</v>
@@ -4362,12 +4441,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>214.7</v>
+        <v>214.2</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C57" s="8">
         <v>97656</v>
@@ -4379,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>108</v>
@@ -4388,10 +4467,10 @@
         <v>0.5</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>118</v>
@@ -4418,12 +4497,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>215</v>
+        <v>214.3</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C58" s="8">
         <v>97656</v>
@@ -4435,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>108</v>
@@ -4456,7 +4535,7 @@
         <v>56</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R58" s="7">
         <v>1</v>
@@ -4467,43 +4546,31 @@
       <c r="T58" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="U58" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="V58" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="W58" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X58" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="AB58" t="s">
         <v>18</v>
       </c>
       <c r="AD58" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>216</v>
+        <v>214.4</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C59" s="8">
         <v>97656</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>108</v>
@@ -4511,528 +4578,997 @@
       <c r="H59" s="6">
         <v>0.5</v>
       </c>
-      <c r="K59" s="9">
-        <v>6000</v>
-      </c>
       <c r="L59" s="11" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="O59" s="7">
-        <v>1.5</v>
+        <v>118</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="Q59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59" s="7">
+        <v>1</v>
+      </c>
+      <c r="S59" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R59" s="7">
-        <v>0</v>
-      </c>
-      <c r="S59" s="7">
-        <v>0</v>
-      </c>
       <c r="T59" s="13" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="AB59" t="s">
         <v>18</v>
       </c>
       <c r="AD59" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>225</v>
+        <v>214.5</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C60" s="8">
         <v>97656</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>76</v>
+      <c r="D60" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>109</v>
+      <c r="F60" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="17"/>
+      <c r="H60" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L60" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P60" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R60" s="7" t="s">
-        <v>56</v>
+      <c r="R60" s="7">
+        <v>1</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="AB60" t="s">
         <v>18</v>
       </c>
       <c r="AD60" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>225.1</v>
+        <v>214.6</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C61" s="8">
         <v>97656</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>76</v>
+      <c r="D61" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" s="17" t="s">
-        <v>114</v>
+      <c r="F61" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="17"/>
+      <c r="H61" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L61" s="11" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P61" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R61" s="7" t="s">
-        <v>56</v>
+      <c r="R61" s="7">
+        <v>1</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="AB61" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD61" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>225.2</v>
+        <v>214.7</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C62" s="8">
         <v>97656</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>76</v>
+      <c r="D62" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" s="17" t="s">
-        <v>113</v>
+      <c r="F62" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H62" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="17"/>
+      <c r="H62" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L62" s="11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P62" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q62" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R62" s="7" t="s">
-        <v>56</v>
+      <c r="R62" s="7">
+        <v>1</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T62" s="13" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="AB62" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD62" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>225.3</v>
+        <v>215</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C63" s="8">
         <v>97656</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>76</v>
+      <c r="D63" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" s="17" t="s">
-        <v>112</v>
+      <c r="F63" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H63" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="17"/>
+      <c r="H63" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L63" s="11" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P63" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q63" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R63" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="R63" s="7">
+        <v>1</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T63" s="13" t="s">
-        <v>38</v>
+        <v>183</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="V63" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="W63" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="X63" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="AB63" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD63" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>225.4</v>
+        <v>216</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="C64" s="8">
         <v>97656</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>76</v>
+      <c r="D64" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" s="17" t="s">
-        <v>115</v>
+      <c r="F64" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H64" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="17"/>
+        <v>216</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K64" s="9">
+        <v>6000</v>
+      </c>
       <c r="L64" s="11" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="M64" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="O64" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N64" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R64" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S64" s="7" t="s">
-        <v>56</v>
+      <c r="R64" s="7">
+        <v>0</v>
+      </c>
+      <c r="S64" s="7">
+        <v>0</v>
       </c>
       <c r="T64" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB64" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD64" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>225.5</v>
+        <v>216.1</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="C65" s="8">
         <v>97656</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>76</v>
+      <c r="D65" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" s="17" t="s">
-        <v>116</v>
+      <c r="F65" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="17"/>
+        <v>216</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K65" s="9">
+        <v>10000</v>
+      </c>
       <c r="L65" s="11" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="M65" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N65" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S65" s="7" t="s">
-        <v>56</v>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+      <c r="S65" s="7">
+        <v>0</v>
       </c>
       <c r="T65" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB65" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD65" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>226</v>
+        <v>216.2</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="C66" s="8">
         <v>97656</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>87</v>
+      <c r="D66" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H66" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="17"/>
+        <v>216</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K66" s="9">
+        <v>18000</v>
+      </c>
       <c r="L66" s="11" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="Q66" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R66" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S66" s="7" t="s">
-        <v>51</v>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+      <c r="S66" s="7">
+        <v>0</v>
       </c>
       <c r="T66" s="13" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AB66" t="s">
         <v>18</v>
       </c>
       <c r="AD66" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>216.3</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="7">
+        <v>0</v>
+      </c>
+      <c r="T67" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD67" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>225</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H68" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="14"/>
+      <c r="J68" s="17"/>
+      <c r="L68" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T68" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD68" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>225.1</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H69" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="14"/>
+      <c r="J69" s="17"/>
+      <c r="L69" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T69" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD69" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>225.2</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H70" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="14"/>
+      <c r="J70" s="17"/>
+      <c r="L70" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T70" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD70" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>225.3</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="14"/>
+      <c r="J71" s="17"/>
+      <c r="L71" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T71" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD71" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>225.4</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H72" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="14"/>
+      <c r="J72" s="17"/>
+      <c r="L72" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD72" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>225.5</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="14"/>
+      <c r="J73" s="17"/>
+      <c r="L73" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T73" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD73" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>226</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="14"/>
+      <c r="J74" s="17"/>
+      <c r="L74" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD74" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A75" s="17">
         <v>227</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D67" s="17" t="s">
+      <c r="C75" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" s="17" t="s">
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G75" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H67" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I67" s="14"/>
-      <c r="J67" s="17"/>
-      <c r="L67" s="11" t="s">
+      <c r="H75" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I75" s="14"/>
+      <c r="J75" s="17"/>
+      <c r="L75" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="M67" s="7" t="s">
+      <c r="M75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N67" s="7" t="s">
+      <c r="N75" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O67" s="7" t="s">
+      <c r="O75" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="Q67" s="7" t="s">
+      <c r="Q75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="R67" s="7" t="s">
+      <c r="R75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="S67" s="7" t="s">
+      <c r="S75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="T67" s="13" t="s">
+      <c r="T75" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U67" s="7" t="s">
+      <c r="U75" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="V67" s="7" t="s">
+      <c r="V75" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="W67" s="7" t="s">
+      <c r="W75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AB75" t="s">
         <v>173</v>
       </c>
-      <c r="AD67" s="16" t="s">
+      <c r="AD75" s="16" t="s">
         <v>175</v>
       </c>
     </row>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D1ACD1-8539-4946-BD82-031D15DBD85E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830E571D-EE0B-4858-9854-819F4144AD13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="1332" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="393">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1290,6 +1290,291 @@
   </si>
   <si>
     <t>RNP_Offset_Int_4_8_last8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_BaseICI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/04/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/05/03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1,1.1,1.1,1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/05/03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_LocalChange_2ms_2s-1s_N1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Basic_Norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_BaseICI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;0,20;20,40;40,60;60,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Oscillation_MultiTone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Oscillation_MultiTone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TB_MultiTone_Oscillation_Phase_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/05/04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/05/04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_TITS_Osci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/05/05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_LocalChange_2ms_2s-1s_N124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/05/09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_Offset_4_256_1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/05/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_Anesthesia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,60,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/05/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Offset_2_128_2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,16,32,64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/05/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_Offset_4_1.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/05/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,50,100,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_LocalChange_2.2ms_2s-1s_N124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9091,0.9091,0.9091,0.9091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Basic_Norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Oscillation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Oscillation_MultiTone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_BaseICI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_TB_Jitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/05/29</t>
+  </si>
+  <si>
+    <t>2023/05/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkeySounds</t>
+  </si>
+  <si>
+    <t>ME_LocalChange_4ms_2s-1s_N124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.015</t>
+  </si>
+  <si>
+    <t>4,8,16,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.0025,1.005,1.0075,1.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Offset_4_128_2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,16,32,64,128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Offset_8_0.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Offset_2_2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_IntegrationWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Offset_Dur_4_short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Offset_Dur_4_long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Offset_SingleClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Offset_IntWin_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Offset_Jitter_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Offset_IntWin_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME_Offset_IntWin_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.015,1.015,1.015,1.015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,7 +1621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1362,11 +1647,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1405,6 +1740,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1685,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI107"/>
+  <dimension ref="A1:AJ155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="L127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W140" sqref="W140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1722,12 +2064,13 @@
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.109375" customWidth="1"/>
-    <col min="35" max="35" width="29.6640625" style="16" customWidth="1"/>
+    <col min="33" max="33" width="9.44140625" style="28" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.109375" customWidth="1"/>
+    <col min="36" max="36" width="29.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1825,16 +2168,19 @@
         <v>14</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1932,16 +2278,19 @@
         <v>46</v>
       </c>
       <c r="AG2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1993,14 +2342,14 @@
       <c r="W3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>40</v>
       </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>101.1</v>
       </c>
@@ -2064,14 +2413,14 @@
       <c r="AA4" s="30"/>
       <c r="AB4" s="30"/>
       <c r="AC4" s="30"/>
-      <c r="AG4" s="28" t="s">
+      <c r="AH4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AI4" s="35" t="s">
+      <c r="AJ4" s="35" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>102</v>
       </c>
@@ -2108,14 +2457,14 @@
       <c r="AF5">
         <v>333</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="16" t="s">
+      <c r="AJ5" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>103</v>
       </c>
@@ -2169,14 +2518,14 @@
       <c r="W6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>18</v>
       </c>
-      <c r="AI6" s="16" t="s">
+      <c r="AJ6" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>103.1</v>
       </c>
@@ -2230,14 +2579,14 @@
       <c r="W7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="16" t="s">
+      <c r="AJ7" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>103.2</v>
       </c>
@@ -2301,14 +2650,14 @@
       <c r="AA8" s="30"/>
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
-      <c r="AG8" s="28" t="s">
+      <c r="AH8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI8" s="35" t="s">
+      <c r="AJ8" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>104</v>
       </c>
@@ -2362,14 +2711,14 @@
       <c r="W9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>18</v>
       </c>
-      <c r="AI9" s="16" t="s">
+      <c r="AJ9" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>104.1</v>
       </c>
@@ -2433,14 +2782,14 @@
       <c r="AA10" s="30"/>
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
-      <c r="AG10" s="28" t="s">
+      <c r="AH10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI10" s="35" t="s">
+      <c r="AJ10" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>105</v>
       </c>
@@ -2506,14 +2855,14 @@
       <c r="AA11" s="30"/>
       <c r="AB11" s="30"/>
       <c r="AC11" s="30"/>
-      <c r="AG11" s="28" t="s">
+      <c r="AH11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI11" s="35" t="s">
+      <c r="AJ11" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>105.1</v>
       </c>
@@ -2568,14 +2917,14 @@
       <c r="W12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>18</v>
       </c>
-      <c r="AI12" s="16" t="s">
+      <c r="AJ12" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>105.2</v>
       </c>
@@ -2641,14 +2990,14 @@
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
       <c r="AC13" s="30"/>
-      <c r="AG13" s="28" t="s">
+      <c r="AH13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI13" s="35" t="s">
+      <c r="AJ13" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>106</v>
       </c>
@@ -2703,14 +3052,14 @@
       <c r="W14" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>18</v>
       </c>
-      <c r="AI14" s="16" t="s">
+      <c r="AJ14" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>107</v>
       </c>
@@ -2762,14 +3111,14 @@
       <c r="AF15">
         <v>333</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>18</v>
       </c>
-      <c r="AI15" s="16" t="s">
+      <c r="AJ15" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>107.1</v>
       </c>
@@ -2821,14 +3170,14 @@
       <c r="AF16">
         <v>333</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>18</v>
       </c>
-      <c r="AI16" s="16" t="s">
+      <c r="AJ16" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>108</v>
       </c>
@@ -2894,14 +3243,14 @@
       <c r="AA17" s="30"/>
       <c r="AB17" s="30"/>
       <c r="AC17" s="30"/>
-      <c r="AG17" s="28" t="s">
+      <c r="AH17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AI17" s="35" t="s">
+      <c r="AJ17" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>108.1</v>
       </c>
@@ -2958,14 +3307,14 @@
       <c r="W18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>28</v>
       </c>
-      <c r="AI18" s="16" t="s">
+      <c r="AJ18" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>109</v>
       </c>
@@ -3019,14 +3368,14 @@
       <c r="W19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>18</v>
       </c>
-      <c r="AI19" s="16" t="s">
+      <c r="AJ19" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>109.1</v>
       </c>
@@ -3098,14 +3447,14 @@
       <c r="AA20" s="30"/>
       <c r="AB20" s="30"/>
       <c r="AC20" s="30"/>
-      <c r="AG20" s="28" t="s">
+      <c r="AH20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI20" s="35" t="s">
+      <c r="AJ20" s="35" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>109.2</v>
       </c>
@@ -3177,14 +3526,14 @@
       <c r="AA21" s="30"/>
       <c r="AB21" s="30"/>
       <c r="AC21" s="30"/>
-      <c r="AG21" s="28" t="s">
+      <c r="AH21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI21" s="35" t="s">
+      <c r="AJ21" s="35" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>1010</v>
       </c>
@@ -3248,14 +3597,14 @@
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
       <c r="AC22" s="30"/>
-      <c r="AG22" s="28" t="s">
+      <c r="AH22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI22" s="35" t="s">
+      <c r="AJ22" s="35" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>121</v>
       </c>
@@ -3319,14 +3668,14 @@
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30"/>
-      <c r="AG23" s="28" t="s">
+      <c r="AH23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI23" s="35" t="s">
+      <c r="AJ23" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>121.1</v>
       </c>
@@ -3380,14 +3729,14 @@
       <c r="W24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>64</v>
       </c>
-      <c r="AI24" s="16" t="s">
+      <c r="AJ24" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>122</v>
       </c>
@@ -3441,14 +3790,14 @@
       <c r="W25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>64</v>
       </c>
-      <c r="AI25" s="16" t="s">
+      <c r="AJ25" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>123</v>
       </c>
@@ -3512,14 +3861,14 @@
       <c r="AA26" s="30"/>
       <c r="AB26" s="30"/>
       <c r="AC26" s="30"/>
-      <c r="AG26" s="28" t="s">
+      <c r="AH26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI26" s="35" t="s">
+      <c r="AJ26" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>123.1</v>
       </c>
@@ -3583,14 +3932,14 @@
       <c r="AA27" s="30"/>
       <c r="AB27" s="30"/>
       <c r="AC27" s="30"/>
-      <c r="AG27" s="28" t="s">
+      <c r="AH27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI27" s="35" t="s">
+      <c r="AJ27" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>123.2</v>
       </c>
@@ -3644,14 +3993,14 @@
       <c r="W28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>64</v>
       </c>
-      <c r="AI28" s="16" t="s">
+      <c r="AJ28" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>124</v>
       </c>
@@ -3705,14 +4054,14 @@
       <c r="W29" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>64</v>
       </c>
-      <c r="AI29" s="16" t="s">
+      <c r="AJ29" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>124.1</v>
       </c>
@@ -3776,14 +4125,14 @@
       <c r="AA30" s="30"/>
       <c r="AB30" s="30"/>
       <c r="AC30" s="30"/>
-      <c r="AG30" s="28" t="s">
+      <c r="AH30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI30" s="35" t="s">
+      <c r="AJ30" s="35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>124.2</v>
       </c>
@@ -3847,14 +4196,14 @@
       <c r="AA31" s="30"/>
       <c r="AB31" s="30"/>
       <c r="AC31" s="30"/>
-      <c r="AG31" s="28" t="s">
+      <c r="AH31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI31" s="35" t="s">
+      <c r="AJ31" s="35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>124.3</v>
       </c>
@@ -3918,14 +4267,14 @@
       <c r="AA32" s="30"/>
       <c r="AB32" s="30"/>
       <c r="AC32" s="30"/>
-      <c r="AG32" s="28" t="s">
+      <c r="AH32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI32" s="35" t="s">
+      <c r="AJ32" s="35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>124.4</v>
       </c>
@@ -3989,14 +4338,14 @@
       <c r="AA33" s="30"/>
       <c r="AB33" s="30"/>
       <c r="AC33" s="30"/>
-      <c r="AG33" s="28" t="s">
+      <c r="AH33" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI33" s="35" t="s">
+      <c r="AJ33" s="35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>124.5</v>
       </c>
@@ -4060,14 +4409,14 @@
       <c r="AA34" s="30"/>
       <c r="AB34" s="30"/>
       <c r="AC34" s="30"/>
-      <c r="AG34" s="28" t="s">
+      <c r="AH34" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI34" s="35" t="s">
+      <c r="AJ34" s="35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>125</v>
       </c>
@@ -4124,14 +4473,14 @@
       <c r="W35" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AH35" t="s">
         <v>28</v>
       </c>
-      <c r="AI35" s="16" t="s">
+      <c r="AJ35" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>125</v>
       </c>
@@ -4197,14 +4546,14 @@
       <c r="AA36" s="30"/>
       <c r="AB36" s="30"/>
       <c r="AC36" s="30"/>
-      <c r="AG36" s="28" t="s">
+      <c r="AH36" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AI36" s="35" t="s">
+      <c r="AJ36" s="35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>126</v>
       </c>
@@ -4258,14 +4607,14 @@
       <c r="W37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AH37" t="s">
         <v>18</v>
       </c>
-      <c r="AI37" s="16" t="s">
+      <c r="AJ37" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>127</v>
       </c>
@@ -4335,14 +4684,14 @@
         <v>51</v>
       </c>
       <c r="AC38" s="30"/>
-      <c r="AG38" s="28" t="s">
+      <c r="AH38" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI38" s="35" t="s">
+      <c r="AJ38" s="35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>127.1</v>
       </c>
@@ -4412,14 +4761,14 @@
         <v>51</v>
       </c>
       <c r="AC39" s="30"/>
-      <c r="AG39" s="28" t="s">
+      <c r="AH39" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI39" s="35" t="s">
+      <c r="AJ39" s="35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>127.2</v>
       </c>
@@ -4489,14 +4838,14 @@
         <v>51</v>
       </c>
       <c r="AC40" s="30"/>
-      <c r="AG40" s="28" t="s">
+      <c r="AH40" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI40" s="35" t="s">
+      <c r="AJ40" s="35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>131</v>
       </c>
@@ -4548,14 +4897,14 @@
       <c r="W41" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AH41" t="s">
         <v>18</v>
       </c>
-      <c r="AI41" s="16" t="s">
+      <c r="AJ41" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>131.1</v>
       </c>
@@ -4607,14 +4956,14 @@
       <c r="W42" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AH42" t="s">
         <v>18</v>
       </c>
-      <c r="AI42" s="16" t="s">
+      <c r="AJ42" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>131.19999999999999</v>
       </c>
@@ -4666,14 +5015,14 @@
       <c r="W43" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AH43" t="s">
         <v>18</v>
       </c>
-      <c r="AI43" s="16" t="s">
+      <c r="AJ43" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>131.30000000000001</v>
       </c>
@@ -4725,14 +5074,14 @@
       <c r="W44" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AH44" t="s">
         <v>18</v>
       </c>
-      <c r="AI44" s="16" t="s">
+      <c r="AJ44" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>131.4</v>
       </c>
@@ -4784,14 +5133,14 @@
       <c r="W45" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AH45" t="s">
         <v>18</v>
       </c>
-      <c r="AI45" s="16" t="s">
+      <c r="AJ45" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>131.5</v>
       </c>
@@ -4843,14 +5192,14 @@
       <c r="W46" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AH46" t="s">
         <v>18</v>
       </c>
-      <c r="AI46" s="16" t="s">
+      <c r="AJ46" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>131.6</v>
       </c>
@@ -4922,14 +5271,14 @@
       <c r="AC47" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="AG47" s="28" t="s">
+      <c r="AH47" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI47" s="35" t="s">
+      <c r="AJ47" s="35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="28" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" s="28" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>131.69999999999999</v>
       </c>
@@ -4993,14 +5342,14 @@
       <c r="AA48" s="30"/>
       <c r="AB48" s="30"/>
       <c r="AC48" s="30"/>
-      <c r="AG48" s="28" t="s">
+      <c r="AH48" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI48" s="35" t="s">
+      <c r="AJ48" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="28" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" s="28" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>131.80000000000001</v>
       </c>
@@ -5064,14 +5413,14 @@
       <c r="AA49" s="30"/>
       <c r="AB49" s="30"/>
       <c r="AC49" s="30"/>
-      <c r="AG49" s="28" t="s">
+      <c r="AH49" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI49" s="35" t="s">
+      <c r="AJ49" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>131.9</v>
       </c>
@@ -5135,14 +5484,14 @@
       <c r="AA50" s="30"/>
       <c r="AB50" s="30"/>
       <c r="AC50" s="30"/>
-      <c r="AG50" s="28" t="s">
+      <c r="AH50" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI50" s="35" t="s">
+      <c r="AJ50" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>131.11000000000001</v>
       </c>
@@ -5206,14 +5555,14 @@
       <c r="AA51" s="30"/>
       <c r="AB51" s="30"/>
       <c r="AC51" s="30"/>
-      <c r="AG51" s="28" t="s">
+      <c r="AH51" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI51" s="35" t="s">
+      <c r="AJ51" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>131.12</v>
       </c>
@@ -5277,14 +5626,14 @@
       <c r="AA52" s="30"/>
       <c r="AB52" s="30"/>
       <c r="AC52" s="30"/>
-      <c r="AG52" s="28" t="s">
+      <c r="AH52" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI52" s="35" t="s">
+      <c r="AJ52" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>131.13</v>
       </c>
@@ -5356,14 +5705,14 @@
       <c r="AC53" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="AG53" s="28" t="s">
+      <c r="AH53" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI53" s="35" t="s">
+      <c r="AJ53" s="35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:35" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>132</v>
       </c>
@@ -5427,14 +5776,14 @@
       <c r="AA54" s="30"/>
       <c r="AB54" s="30"/>
       <c r="AC54" s="30"/>
-      <c r="AG54" s="28" t="s">
+      <c r="AH54" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI54" s="35" t="s">
+      <c r="AJ54" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>132.1</v>
       </c>
@@ -5498,14 +5847,14 @@
       <c r="AA55" s="30"/>
       <c r="AB55" s="30"/>
       <c r="AC55" s="30"/>
-      <c r="AG55" s="28" t="s">
+      <c r="AH55" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI55" s="35" t="s">
+      <c r="AJ55" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>133</v>
       </c>
@@ -5569,14 +5918,14 @@
       <c r="AA56" s="30"/>
       <c r="AB56" s="30"/>
       <c r="AC56" s="30"/>
-      <c r="AG56" s="28" t="s">
+      <c r="AH56" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI56" s="35" t="s">
+      <c r="AJ56" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:35" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>134</v>
       </c>
@@ -5646,14 +5995,14 @@
       <c r="AA57" s="30"/>
       <c r="AB57" s="30"/>
       <c r="AC57" s="30"/>
-      <c r="AG57" s="28" t="s">
+      <c r="AH57" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI57" s="35" t="s">
+      <c r="AJ57" s="35" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
@@ -5682,9 +6031,9 @@
       <c r="AA59" s="19"/>
       <c r="AB59" s="19"/>
       <c r="AC59" s="19"/>
-      <c r="AI59" s="25"/>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ59" s="25"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>201</v>
       </c>
@@ -5733,14 +6082,14 @@
       <c r="W61" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" t="s">
         <v>40</v>
       </c>
-      <c r="AI61" s="16" t="s">
+      <c r="AJ61" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>201.1</v>
       </c>
@@ -5789,14 +6138,14 @@
       <c r="W62" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AH62" t="s">
         <v>40</v>
       </c>
-      <c r="AI62" s="16" t="s">
+      <c r="AJ62" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>201.2</v>
       </c>
@@ -5845,14 +6194,14 @@
       <c r="W63" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AG63" t="s">
+      <c r="AH63" t="s">
         <v>40</v>
       </c>
-      <c r="AI63" s="16" t="s">
+      <c r="AJ63" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>201.3</v>
       </c>
@@ -5901,14 +6250,14 @@
       <c r="W64" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AH64" t="s">
         <v>40</v>
       </c>
-      <c r="AI64" s="16" t="s">
+      <c r="AJ64" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>201.4</v>
       </c>
@@ -5957,14 +6306,14 @@
       <c r="W65" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AG65" t="s">
+      <c r="AH65" t="s">
         <v>40</v>
       </c>
-      <c r="AI65" s="16" t="s">
+      <c r="AJ65" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>202</v>
       </c>
@@ -6001,134 +6350,160 @@
       <c r="AF66">
         <v>123.1527</v>
       </c>
-      <c r="AG66" t="s">
+      <c r="AH66" t="s">
         <v>19</v>
       </c>
-      <c r="AI66" s="16" t="s">
+      <c r="AJ66" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+    <row r="67" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="29">
+        <v>203</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C67" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="28">
+        <v>1</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="30"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="M67" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N67" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="O67" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U67" s="14">
+        <v>0</v>
+      </c>
+      <c r="V67" s="14">
+        <v>0</v>
+      </c>
+      <c r="W67" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="30"/>
+      <c r="AH67" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ67" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="29">
+        <v>205</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="28">
+        <v>1</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H68" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="30"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="32">
+        <v>8000</v>
+      </c>
+      <c r="L68" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N68" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U68" s="30">
+        <v>0</v>
+      </c>
+      <c r="V68" s="30">
+        <v>0</v>
+      </c>
+      <c r="W68" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30"/>
+      <c r="AH68" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ68" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
         <v>210.1</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H67" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L67" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U67" s="7">
-        <v>1</v>
-      </c>
-      <c r="V67" s="7">
-        <v>1</v>
-      </c>
-      <c r="W67" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI67" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>211.1</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H68" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L68" s="11">
-        <v>2000</v>
-      </c>
-      <c r="M68" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U68" s="7">
-        <v>1</v>
-      </c>
-      <c r="V68" s="7">
-        <v>1</v>
-      </c>
-      <c r="W68" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI68" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>212.1</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>126</v>
@@ -6143,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>108</v>
@@ -6158,7 +6533,7 @@
         <v>117</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>130</v>
@@ -6175,19 +6550,19 @@
       <c r="W69" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AG69" t="s">
+      <c r="AH69" t="s">
         <v>122</v>
       </c>
-      <c r="AH69" t="s">
+      <c r="AI69" t="s">
         <v>125</v>
       </c>
-      <c r="AI69" s="16" t="s">
+      <c r="AJ69" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>213.1</v>
+        <v>211.1</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>126</v>
@@ -6202,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>108</v>
@@ -6217,7 +6592,7 @@
         <v>117</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O70" s="7" t="s">
         <v>119</v>
@@ -6234,34 +6609,34 @@
       <c r="W70" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AG70" t="s">
+      <c r="AH70" t="s">
         <v>122</v>
       </c>
-      <c r="AH70" t="s">
+      <c r="AI70" t="s">
         <v>125</v>
       </c>
-      <c r="AI70" s="16" t="s">
+      <c r="AJ70" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>214</v>
+        <v>212.1</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C71" s="8">
         <v>97656</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>108</v>
@@ -6272,52 +6647,55 @@
       <c r="L71" s="11">
         <v>2000</v>
       </c>
-      <c r="M71" s="7">
-        <v>1000</v>
+      <c r="M71" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="U71" s="7">
         <v>1</v>
       </c>
-      <c r="V71" s="7" t="s">
-        <v>146</v>
+      <c r="V71" s="7">
+        <v>1</v>
       </c>
       <c r="W71" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI71" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ71" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>214.1</v>
+        <v>213.1</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C72" s="8">
         <v>97656</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>108</v>
@@ -6325,43 +6703,46 @@
       <c r="H72" s="6">
         <v>0.5</v>
       </c>
-      <c r="L72" s="11" t="s">
-        <v>137</v>
+      <c r="L72" s="11">
+        <v>2000</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="U72" s="7">
         <v>1</v>
       </c>
-      <c r="V72" s="7" t="s">
-        <v>51</v>
+      <c r="V72" s="7">
+        <v>1</v>
       </c>
       <c r="W72" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI72" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ72" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>214.2</v>
+        <v>214</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C73" s="8">
         <v>97656</v>
@@ -6373,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>108</v>
@@ -6381,11 +6762,11 @@
       <c r="H73" s="6">
         <v>0.5</v>
       </c>
-      <c r="L73" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M73" s="7" t="s">
-        <v>162</v>
+      <c r="L73" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M73" s="7">
+        <v>1000</v>
       </c>
       <c r="N73" s="7" t="s">
         <v>118</v>
@@ -6394,30 +6775,30 @@
         <v>56</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="U73" s="7">
         <v>1</v>
       </c>
       <c r="V73" s="7" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="W73" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AH73" t="s">
         <v>18</v>
       </c>
-      <c r="AI73" s="16" t="s">
+      <c r="AJ73" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>214.3</v>
+        <v>214.1</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" s="8">
         <v>97656</v>
@@ -6429,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>108</v>
@@ -6450,7 +6831,7 @@
         <v>56</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="U74" s="7">
         <v>1</v>
@@ -6461,19 +6842,19 @@
       <c r="W74" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AG74" t="s">
+      <c r="AH74" t="s">
         <v>18</v>
       </c>
-      <c r="AI74" s="16" t="s">
+      <c r="AJ74" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>214.4</v>
+        <v>214.2</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C75" s="8">
         <v>97656</v>
@@ -6485,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>108</v>
@@ -6494,10 +6875,10 @@
         <v>0.5</v>
       </c>
       <c r="L75" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M75" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="N75" s="7" t="s">
         <v>118</v>
@@ -6517,19 +6898,19 @@
       <c r="W75" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AG75" t="s">
+      <c r="AH75" t="s">
         <v>18</v>
       </c>
-      <c r="AI75" s="16" t="s">
+      <c r="AJ75" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>214.5</v>
+        <v>214.3</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C76" s="8">
         <v>97656</v>
@@ -6541,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>108</v>
@@ -6550,7 +6931,7 @@
         <v>0.5</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="M76" s="7" t="s">
         <v>117</v>
@@ -6573,16 +6954,16 @@
       <c r="W76" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AG76" t="s">
+      <c r="AH76" t="s">
         <v>18</v>
       </c>
-      <c r="AI76" s="16" t="s">
+      <c r="AJ76" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>214.6</v>
+        <v>214.4</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>169</v>
@@ -6597,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>108</v>
@@ -6606,7 +6987,7 @@
         <v>0.5</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>117</v>
@@ -6629,16 +7010,16 @@
       <c r="W77" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AG77" t="s">
+      <c r="AH77" t="s">
         <v>18</v>
       </c>
-      <c r="AI77" s="16" t="s">
+      <c r="AJ77" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>214.7</v>
+        <v>214.5</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>169</v>
@@ -6653,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>108</v>
@@ -6662,7 +7043,7 @@
         <v>0.5</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="M78" s="7" t="s">
         <v>117</v>
@@ -6685,468 +7066,461 @@
       <c r="W78" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AG78" t="s">
+      <c r="AH78" t="s">
         <v>18</v>
       </c>
-      <c r="AI78" s="16" t="s">
+      <c r="AJ78" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17">
-        <v>214.8</v>
+    <row r="79" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>214.6</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C79" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>193</v>
+        <v>169</v>
+      </c>
+      <c r="C79" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" s="17" t="s">
-        <v>193</v>
+      <c r="F79" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="6">
         <v>0.5</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="N79" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="U79" s="7" t="s">
-        <v>196</v>
+        <v>56</v>
+      </c>
+      <c r="U79" s="7">
+        <v>1</v>
       </c>
       <c r="V79" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="W79" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-      <c r="AG79" t="s">
+        <v>51</v>
+      </c>
+      <c r="W79" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH79" t="s">
         <v>18</v>
       </c>
-      <c r="AI79" s="16" t="s">
+      <c r="AJ79" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
-        <v>214.9</v>
+    <row r="80" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>214.7</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C80" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>200</v>
+        <v>169</v>
+      </c>
+      <c r="C80" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="F80" s="17" t="s">
-        <v>200</v>
+      <c r="F80" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H80" s="6">
         <v>0.5</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="N80" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="U80" s="7" t="s">
-        <v>196</v>
+        <v>56</v>
+      </c>
+      <c r="U80" s="7">
+        <v>1</v>
       </c>
       <c r="V80" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="W80" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="27"/>
-      <c r="AG80" t="s">
+        <v>51</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH80" t="s">
         <v>18</v>
       </c>
-      <c r="AI80" s="16" t="s">
+      <c r="AJ80" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <v>215</v>
+    <row r="81" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17">
+        <v>214.8</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C81" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>158</v>
+        <v>192</v>
+      </c>
+      <c r="C81" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" s="6" t="s">
-        <v>174</v>
+      <c r="F81" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H81" s="17">
         <v>0.5</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="N81" s="7" t="s">
         <v>118</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U81" s="7">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="U81" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="V81" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W81" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z81" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA81" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB81" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC81" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG81" t="s">
+        <v>197</v>
+      </c>
+      <c r="W81" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="AH81" t="s">
         <v>18</v>
       </c>
-      <c r="AI81" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>216</v>
+      <c r="AJ81" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17">
+        <v>214.9</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C82" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="C82" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82" s="6" t="s">
-        <v>188</v>
+      <c r="F82" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H82" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K82" s="9">
-        <v>6000</v>
+      <c r="H82" s="17">
+        <v>0.5</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="O82" s="7">
-        <v>1.5</v>
+        <v>118</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U82" s="7">
-        <v>0</v>
-      </c>
-      <c r="V82" s="7">
-        <v>0</v>
-      </c>
-      <c r="W82" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG82" t="s">
+        <v>199</v>
+      </c>
+      <c r="U82" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="V82" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W82" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="AH82" t="s">
         <v>18</v>
       </c>
-      <c r="AI82" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="C83" s="8">
         <v>97656</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>76</v>
+      <c r="D83" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
-      <c r="F83" s="17" t="s">
-        <v>109</v>
+      <c r="F83" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H83" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I83" s="14"/>
-      <c r="J83" s="17"/>
+      <c r="H83" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L83" s="11" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P83" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q83" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T83" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="U83" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="U83" s="7">
+        <v>1</v>
       </c>
       <c r="V83" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W83" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG83" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z83" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA83" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB83" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC83" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH83" t="s">
         <v>18</v>
       </c>
-      <c r="AI83" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>225.1</v>
+        <v>216</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C84" s="8">
         <v>97656</v>
       </c>
-      <c r="D84" s="17" t="s">
-        <v>76</v>
+      <c r="D84" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
-      <c r="F84" s="17" t="s">
-        <v>114</v>
+      <c r="F84" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H84" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I84" s="14"/>
-      <c r="J84" s="17"/>
+      <c r="H84" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K84" s="9">
+        <v>6000</v>
+      </c>
       <c r="L84" s="11" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O84" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P84" s="7" t="s">
-        <v>110</v>
+        <v>190</v>
+      </c>
+      <c r="O84" s="7">
+        <v>1.5</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T84" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="U84" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="V84" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="U84" s="7">
+        <v>0</v>
+      </c>
+      <c r="V84" s="7">
+        <v>0</v>
       </c>
       <c r="W84" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG84" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI84" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <v>225.2</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G85" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ84" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="29">
+        <v>216.1</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="C85" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="28">
+        <v>1</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="G85" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="H85" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="17"/>
-      <c r="L85" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M85" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N85" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O85" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P85" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="H85" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I85" s="30"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="32">
+        <v>8000</v>
+      </c>
+      <c r="L85" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="M85" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="N85" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O85" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R85" s="30"/>
+      <c r="S85" s="30"/>
       <c r="T85" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="U85" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="V85" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W85" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI85" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>225.3</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C86" s="8">
+        <v>51</v>
+      </c>
+      <c r="U85" s="30">
+        <v>0</v>
+      </c>
+      <c r="V85" s="30">
+        <v>0</v>
+      </c>
+      <c r="W85" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+      <c r="AB85" s="30"/>
+      <c r="AC85" s="30"/>
+      <c r="AH85" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ85" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="29">
+        <v>221</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="C86" s="31">
         <v>97656</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E86">
+        <v>73</v>
+      </c>
+      <c r="E86" s="28">
         <v>1</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G86" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G86" s="29" t="s">
         <v>108</v>
       </c>
       <c r="H86" s="17">
@@ -7154,49 +7528,56 @@
       </c>
       <c r="I86" s="14"/>
       <c r="J86" s="17"/>
-      <c r="L86" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M86" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N86" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O86" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P86" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q86" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="K86" s="32"/>
+      <c r="L86" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M86" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N86" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="O86" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
       <c r="T86" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="U86" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="V86" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W86" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI86" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="U86" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V86" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W86" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X86" s="34"/>
+      <c r="Y86" s="34"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="30"/>
+      <c r="AH86" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ86" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>225.4</v>
+        <v>225</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C87" s="8">
         <v>97656</v>
@@ -7208,9 +7589,9 @@
         <v>1</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G87" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="29" t="s">
         <v>108</v>
       </c>
       <c r="H87" s="17">
@@ -7248,16 +7629,16 @@
       <c r="W87" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AG87" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI87" s="16" t="s">
+      <c r="AH87" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ87" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>225.5</v>
+        <v>225.1</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>111</v>
@@ -7272,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>108</v>
@@ -7301,7 +7682,7 @@
         <v>56</v>
       </c>
       <c r="T88" s="30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U88" s="7" t="s">
         <v>56</v>
@@ -7312,33 +7693,33 @@
       <c r="W88" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AG88" t="s">
+      <c r="AH88" t="s">
         <v>28</v>
       </c>
-      <c r="AI88" s="16" t="s">
+      <c r="AJ88" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="29">
-        <v>225.6</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C89" s="31">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>225.2</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="8">
         <v>97656</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E89" s="28">
+      <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="G89" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H89" s="17">
@@ -7346,72 +7727,63 @@
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="17"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="33" t="s">
+      <c r="L89" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M89" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N89" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O89" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P89" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q89" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
+      <c r="M89" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N89" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T89" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="U89" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V89" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="W89" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="X89" s="34"/>
-      <c r="Y89" s="34"/>
-      <c r="Z89" s="30"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="30"/>
-      <c r="AC89" s="30"/>
-      <c r="AG89" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="U89" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V89" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W89" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH89" t="s">
         <v>28</v>
       </c>
-      <c r="AI89" s="35" t="s">
+      <c r="AJ89" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29">
-        <v>225.7</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C90" s="31">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>225.3</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="8">
         <v>97656</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="28">
+      <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G90" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H90" s="17">
@@ -7419,72 +7791,63 @@
       </c>
       <c r="I90" s="14"/>
       <c r="J90" s="17"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="33" t="s">
+      <c r="L90" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M90" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N90" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O90" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P90" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q90" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="R90" s="30"/>
-      <c r="S90" s="30"/>
+      <c r="M90" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q90" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T90" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="U90" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V90" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="W90" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="X90" s="34"/>
-      <c r="Y90" s="34"/>
-      <c r="Z90" s="30"/>
-      <c r="AA90" s="30"/>
-      <c r="AB90" s="30"/>
-      <c r="AC90" s="30"/>
-      <c r="AG90" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="U90" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V90" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W90" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH90" t="s">
         <v>28</v>
       </c>
-      <c r="AI90" s="35" t="s">
+      <c r="AJ90" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29">
-        <v>225.8</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C91" s="31">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>225.4</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="8">
         <v>97656</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E91" s="28">
+      <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="G91" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H91" s="17">
@@ -7492,70 +7855,61 @@
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="33" t="s">
+      <c r="L91" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M91" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N91" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O91" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P91" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q91" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
+      <c r="M91" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q91" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T91" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="U91" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V91" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="W91" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="X91" s="34"/>
-      <c r="Y91" s="34"/>
-      <c r="Z91" s="30"/>
-      <c r="AA91" s="30"/>
-      <c r="AB91" s="30"/>
-      <c r="AC91" s="30"/>
-      <c r="AG91" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="U91" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V91" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W91" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH91" t="s">
         <v>28</v>
       </c>
-      <c r="AI91" s="35" t="s">
+      <c r="AJ91" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>226</v>
+        <v>225.5</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C92" s="8">
         <v>97656</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>108</v>
@@ -7577,48 +7931,51 @@
       <c r="O92" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="P92" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="Q92" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T92" s="30" t="s">
         <v>300</v>
       </c>
       <c r="U92" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V92" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W92" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI92" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
-        <v>227</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" s="26">
+        <v>38</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ92" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="29">
+        <v>225.6</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="31">
         <v>97656</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E93">
+        <v>76</v>
+      </c>
+      <c r="E93" s="28">
         <v>1</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G93" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G93" s="29" t="s">
         <v>108</v>
       </c>
       <c r="H93" s="17">
@@ -7626,67 +7983,70 @@
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="17"/>
-      <c r="L93" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="M93" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="N93" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="O93" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q93" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="K93" s="32"/>
+      <c r="L93" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M93" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N93" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O93" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P93" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q93" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="R93" s="30"/>
+      <c r="S93" s="30"/>
       <c r="T93" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="U93" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="V93" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="W93" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z93" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA93" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB93" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG93" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI93" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
-        <v>227.1</v>
+      <c r="U93" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V93" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W93" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="X93" s="34"/>
+      <c r="Y93" s="34"/>
+      <c r="Z93" s="30"/>
+      <c r="AA93" s="30"/>
+      <c r="AB93" s="30"/>
+      <c r="AC93" s="30"/>
+      <c r="AH93" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ93" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="29">
+        <v>225.7</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C94" s="26">
+        <v>296</v>
+      </c>
+      <c r="C94" s="31">
         <v>97656</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="E94" s="28">
         <v>1</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="G94" s="29" t="s">
         <v>108</v>
@@ -7698,20 +8058,22 @@
       <c r="J94" s="17"/>
       <c r="K94" s="32"/>
       <c r="L94" s="33" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="M94" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N94" s="30" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O94" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="P94" s="30"/>
+      <c r="P94" s="30" t="s">
+        <v>305</v>
+      </c>
       <c r="Q94" s="30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R94" s="30"/>
       <c r="S94" s="30"/>
@@ -7722,48 +8084,42 @@
         <v>51</v>
       </c>
       <c r="V94" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W94" s="34" t="s">
-        <v>51</v>
+        <v>302</v>
       </c>
       <c r="X94" s="34"/>
       <c r="Y94" s="34"/>
-      <c r="Z94" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA94" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB94" s="30" t="s">
-        <v>51</v>
-      </c>
+      <c r="Z94" s="30"/>
+      <c r="AA94" s="30"/>
+      <c r="AB94" s="30"/>
       <c r="AC94" s="30"/>
-      <c r="AG94" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI94" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
-        <v>227.2</v>
+      <c r="AH94" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ94" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="29">
+        <v>225.8</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C95" s="26">
+        <v>296</v>
+      </c>
+      <c r="C95" s="31">
         <v>97656</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="E95" s="28">
         <v>1</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="G95" s="29" t="s">
         <v>108</v>
@@ -7775,20 +8131,22 @@
       <c r="J95" s="17"/>
       <c r="K95" s="32"/>
       <c r="L95" s="33" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="M95" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O95" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="P95" s="30"/>
+      <c r="P95" s="30" t="s">
+        <v>305</v>
+      </c>
       <c r="Q95" s="30" t="s">
-        <v>51</v>
+        <v>283</v>
       </c>
       <c r="R95" s="30"/>
       <c r="S95" s="30"/>
@@ -7799,50 +8157,44 @@
         <v>51</v>
       </c>
       <c r="V95" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W95" s="34" t="s">
-        <v>51</v>
+        <v>304</v>
       </c>
       <c r="X95" s="34"/>
       <c r="Y95" s="34"/>
-      <c r="Z95" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA95" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB95" s="30" t="s">
-        <v>51</v>
-      </c>
+      <c r="Z95" s="30"/>
+      <c r="AA95" s="30"/>
+      <c r="AB95" s="30"/>
       <c r="AC95" s="30"/>
-      <c r="AG95" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI95" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="17">
-        <v>227.3</v>
-      </c>
-      <c r="B96" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="C96" s="26">
+      <c r="AH95" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ95" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>226</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="8">
         <v>97656</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E96" s="28">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G96" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H96" s="17">
@@ -7850,62 +8202,46 @@
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="17"/>
-      <c r="K96" s="32"/>
-      <c r="L96" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M96" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N96" s="30" t="s">
+      <c r="L96" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N96" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O96" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P96" s="30"/>
-      <c r="Q96" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R96" s="30"/>
-      <c r="S96" s="30"/>
+      <c r="O96" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T96" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="U96" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V96" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W96" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X96" s="34"/>
-      <c r="Y96" s="34"/>
-      <c r="Z96" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA96" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB96" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC96" s="30"/>
-      <c r="AG96" s="28" t="s">
+      <c r="U96" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V96" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W96" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH96" t="s">
         <v>18</v>
       </c>
-      <c r="AI96" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
-        <v>227.4</v>
-      </c>
-      <c r="B97" s="30" t="s">
-        <v>241</v>
+        <v>227</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="C97" s="26">
         <v>97656</v>
@@ -7913,13 +8249,13 @@
       <c r="D97" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E97" s="28">
+      <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G97" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H97" s="17">
@@ -7927,62 +8263,55 @@
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="17"/>
-      <c r="K97" s="32"/>
-      <c r="L97" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M97" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N97" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="O97" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P97" s="30"/>
-      <c r="Q97" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R97" s="30"/>
-      <c r="S97" s="30"/>
+      <c r="L97" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="T97" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="U97" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V97" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W97" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X97" s="34"/>
-      <c r="Y97" s="34"/>
-      <c r="Z97" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA97" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB97" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC97" s="30"/>
-      <c r="AG97" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI97" s="35" t="s">
+      <c r="U97" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="V97" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="W97" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z97" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA97" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB97" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ97" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
-        <v>227.5</v>
+        <v>227.1</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C98" s="26">
         <v>97656</v>
@@ -7994,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="G98" s="29" t="s">
         <v>108</v>
@@ -8038,89 +8367,289 @@
       <c r="X98" s="34"/>
       <c r="Y98" s="34"/>
       <c r="Z98" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA98" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB98" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC98" s="30"/>
+      <c r="AH98" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ98" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17">
+        <v>227.2</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="28">
+        <v>1</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H99" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I99" s="14"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M99" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N99" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O99" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P99" s="30"/>
+      <c r="Q99" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R99" s="30"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U99" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V99" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W99" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X99" s="34"/>
+      <c r="Y99" s="34"/>
+      <c r="Z99" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA99" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB99" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC99" s="30"/>
+      <c r="AH99" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ99" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17">
+        <v>227.3</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="28">
+        <v>1</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G100" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H100" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I100" s="14"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M100" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N100" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O100" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U100" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V100" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W100" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X100" s="34"/>
+      <c r="Y100" s="34"/>
+      <c r="Z100" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA100" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB100" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC100" s="30"/>
+      <c r="AH100" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ100" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
+        <v>227.4</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="28">
+        <v>1</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H101" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I101" s="14"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M101" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N101" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R101" s="30"/>
+      <c r="S101" s="30"/>
+      <c r="T101" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U101" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V101" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W101" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X101" s="34"/>
+      <c r="Y101" s="34"/>
+      <c r="Z101" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="AA98" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB98" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC98" s="30"/>
-      <c r="AG98" s="28" t="s">
+      <c r="AA101" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB101" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC101" s="30"/>
+      <c r="AH101" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI98" s="35" t="s">
+      <c r="AJ101" s="35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="22"/>
-      <c r="L101" s="23"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="19"/>
-      <c r="W101" s="24"/>
-      <c r="X101" s="24"/>
-      <c r="Y101" s="24"/>
-      <c r="Z101" s="19"/>
-      <c r="AA101" s="19"/>
-      <c r="AB101" s="19"/>
-      <c r="AC101" s="19"/>
-      <c r="AI101" s="25"/>
-    </row>
-    <row r="102" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="29">
-        <v>321</v>
+    <row r="102" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17">
+        <v>227.5</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="C102" s="31">
-        <v>384000</v>
+        <v>241</v>
+      </c>
+      <c r="C102" s="26">
+        <v>97656</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="E102" s="28">
         <v>1</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="H102" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="17"/>
       <c r="K102" s="32"/>
       <c r="L102" s="33" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="M102" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N102" s="30" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="O102" s="30" t="s">
         <v>56</v>
@@ -8132,7 +8661,7 @@
       <c r="R102" s="30"/>
       <c r="S102" s="30"/>
       <c r="T102" s="30" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="U102" s="30" t="s">
         <v>51</v>
@@ -8141,237 +8670,61 @@
         <v>51</v>
       </c>
       <c r="W102" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X102" s="34"/>
       <c r="Y102" s="34"/>
-      <c r="Z102" s="30"/>
-      <c r="AA102" s="30"/>
-      <c r="AB102" s="30"/>
+      <c r="Z102" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA102" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB102" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="AC102" s="30"/>
-      <c r="AG102" s="28" t="s">
+      <c r="AH102" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI102" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="29">
-        <v>321.10000000000002</v>
-      </c>
-      <c r="B103" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="C103" s="31">
-        <v>384000</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E103" s="28">
-        <v>1</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="G103" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H103" s="17">
-        <v>1</v>
-      </c>
-      <c r="I103" s="14"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="32"/>
-      <c r="L103" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="M103" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N103" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O103" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R103" s="30"/>
-      <c r="S103" s="30"/>
-      <c r="T103" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U103" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V103" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W103" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X103" s="34"/>
-      <c r="Y103" s="34"/>
-      <c r="Z103" s="30"/>
-      <c r="AA103" s="30"/>
-      <c r="AB103" s="30"/>
-      <c r="AC103" s="30"/>
-      <c r="AG103" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI103" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="29">
-        <v>321.2</v>
-      </c>
-      <c r="B104" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="C104" s="31">
-        <v>384000</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E104" s="28">
-        <v>1</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G104" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H104" s="17">
-        <v>1</v>
-      </c>
-      <c r="I104" s="14"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M104" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N104" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O104" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P104" s="30"/>
-      <c r="Q104" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R104" s="30"/>
-      <c r="S104" s="30"/>
-      <c r="T104" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U104" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V104" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W104" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X104" s="34"/>
-      <c r="Y104" s="34"/>
-      <c r="Z104" s="30"/>
-      <c r="AA104" s="30"/>
-      <c r="AB104" s="30"/>
-      <c r="AC104" s="30"/>
-      <c r="AG104" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI104" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="29">
-        <v>324</v>
-      </c>
-      <c r="B105" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="C105" s="31">
-        <v>384000</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E105" s="28">
-        <v>1</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G105" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H105" s="17">
-        <v>1</v>
-      </c>
-      <c r="I105" s="14"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="32"/>
-      <c r="L105" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="M105" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N105" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O105" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P105" s="30"/>
-      <c r="Q105" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R105" s="30"/>
-      <c r="S105" s="30"/>
-      <c r="T105" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U105" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V105" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W105" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X105" s="34"/>
-      <c r="Y105" s="34"/>
-      <c r="Z105" s="30"/>
-      <c r="AA105" s="30"/>
-      <c r="AB105" s="30"/>
-      <c r="AC105" s="30"/>
-      <c r="AG105" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI105" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ102" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="19"/>
+      <c r="V105" s="19"/>
+      <c r="W105" s="24"/>
+      <c r="X105" s="24"/>
+      <c r="Y105" s="24"/>
+      <c r="Z105" s="19"/>
+      <c r="AA105" s="19"/>
+      <c r="AB105" s="19"/>
+      <c r="AC105" s="19"/>
+      <c r="AJ105" s="25"/>
+    </row>
+    <row r="106" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="29">
-        <v>324.10000000000002</v>
+        <v>321</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>252</v>
@@ -8380,13 +8733,13 @@
         <v>384000</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E106" s="28">
         <v>1</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G106" s="29" t="s">
         <v>275</v>
@@ -8398,13 +8751,13 @@
       <c r="J106" s="17"/>
       <c r="K106" s="32"/>
       <c r="L106" s="33" t="s">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c r="M106" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N106" s="30" t="s">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="O106" s="30" t="s">
         <v>56</v>
@@ -8433,31 +8786,31 @@
       <c r="AA106" s="30"/>
       <c r="AB106" s="30"/>
       <c r="AC106" s="30"/>
-      <c r="AG106" s="28" t="s">
+      <c r="AH106" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI106" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ106" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
-        <v>324.2</v>
+        <v>321.10000000000002</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C107" s="31">
         <v>384000</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="E107" s="28">
         <v>1</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G107" s="29" t="s">
         <v>275</v>
@@ -8469,16 +8822,16 @@
       <c r="J107" s="17"/>
       <c r="K107" s="32"/>
       <c r="L107" s="33" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="M107" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O107" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P107" s="30"/>
       <c r="Q107" s="30" t="s">
@@ -8487,7 +8840,7 @@
       <c r="R107" s="30"/>
       <c r="S107" s="30"/>
       <c r="T107" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U107" s="30" t="s">
         <v>51</v>
@@ -8504,12 +8857,3274 @@
       <c r="AA107" s="30"/>
       <c r="AB107" s="30"/>
       <c r="AC107" s="30"/>
-      <c r="AG107" s="28" t="s">
+      <c r="AH107" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AI107" s="35" t="s">
+      <c r="AJ107" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="29">
+        <v>321.2</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C108" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E108" s="28">
+        <v>1</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G108" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H108" s="17">
+        <v>1</v>
+      </c>
+      <c r="I108" s="14"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M108" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N108" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O108" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P108" s="30"/>
+      <c r="Q108" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R108" s="30"/>
+      <c r="S108" s="30"/>
+      <c r="T108" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U108" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V108" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W108" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X108" s="34"/>
+      <c r="Y108" s="34"/>
+      <c r="Z108" s="30"/>
+      <c r="AA108" s="30"/>
+      <c r="AB108" s="30"/>
+      <c r="AC108" s="30"/>
+      <c r="AH108" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ108" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="29">
+        <v>321.3</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" s="28">
+        <v>1</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G109" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H109" s="17">
+        <v>1</v>
+      </c>
+      <c r="I109" s="14"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M109" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N109" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O109" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R109" s="30"/>
+      <c r="S109" s="30"/>
+      <c r="T109" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U109" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V109" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W109" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X109" s="34"/>
+      <c r="Y109" s="34"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="30"/>
+      <c r="AB109" s="30"/>
+      <c r="AC109" s="30"/>
+      <c r="AH109" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ109" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="29">
+        <v>321.39999999999998</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="C110" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E110" s="28">
+        <v>1</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="G110" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H110" s="17">
+        <v>1</v>
+      </c>
+      <c r="I110" s="14"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="M110" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N110" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O110" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P110" s="30"/>
+      <c r="Q110" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R110" s="30"/>
+      <c r="S110" s="30"/>
+      <c r="T110" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U110" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V110" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W110" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X110" s="34"/>
+      <c r="Y110" s="34"/>
+      <c r="Z110" s="30"/>
+      <c r="AA110" s="30"/>
+      <c r="AB110" s="30"/>
+      <c r="AC110" s="30"/>
+      <c r="AH110" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ110" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="29">
+        <v>324</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" s="28">
+        <v>1</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G111" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H111" s="17">
+        <v>1</v>
+      </c>
+      <c r="I111" s="14"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M111" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N111" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O111" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P111" s="30"/>
+      <c r="Q111" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R111" s="30"/>
+      <c r="S111" s="30"/>
+      <c r="T111" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U111" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V111" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W111" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X111" s="34"/>
+      <c r="Y111" s="34"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="30"/>
+      <c r="AC111" s="30"/>
+      <c r="AH111" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ111" s="35" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="112" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="29">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" s="28">
+        <v>1</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G112" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H112" s="17">
+        <v>1</v>
+      </c>
+      <c r="I112" s="14"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M112" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N112" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O112" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P112" s="30"/>
+      <c r="Q112" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R112" s="30"/>
+      <c r="S112" s="30"/>
+      <c r="T112" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U112" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V112" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W112" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X112" s="34"/>
+      <c r="Y112" s="34"/>
+      <c r="Z112" s="30"/>
+      <c r="AA112" s="30"/>
+      <c r="AB112" s="30"/>
+      <c r="AC112" s="30"/>
+      <c r="AH112" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ112" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="29">
+        <v>324.2</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C113" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E113" s="28">
+        <v>1</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G113" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H113" s="17">
+        <v>1</v>
+      </c>
+      <c r="I113" s="14"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M113" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N113" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O113" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P113" s="30"/>
+      <c r="Q113" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R113" s="30"/>
+      <c r="S113" s="30"/>
+      <c r="T113" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U113" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V113" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W113" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X113" s="34"/>
+      <c r="Y113" s="34"/>
+      <c r="Z113" s="30"/>
+      <c r="AA113" s="30"/>
+      <c r="AB113" s="30"/>
+      <c r="AC113" s="30"/>
+      <c r="AH113" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ113" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="18"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="23"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="24"/>
+      <c r="X115" s="24"/>
+      <c r="Y115" s="24"/>
+      <c r="Z115" s="19"/>
+      <c r="AA115" s="19"/>
+      <c r="AB115" s="19"/>
+      <c r="AC115" s="19"/>
+      <c r="AJ115" s="25"/>
+    </row>
+    <row r="116" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="29">
+        <v>401</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C116" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="28">
+        <v>1</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I116" s="30"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M116" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N116" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O116" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P116" s="30"/>
+      <c r="Q116" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R116" s="14"/>
+      <c r="S116" s="14"/>
+      <c r="T116" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U116" s="14">
+        <v>0</v>
+      </c>
+      <c r="V116" s="14">
+        <v>0</v>
+      </c>
+      <c r="W116" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X116" s="34"/>
+      <c r="Y116" s="34"/>
+      <c r="Z116" s="30"/>
+      <c r="AA116" s="30"/>
+      <c r="AB116" s="30"/>
+      <c r="AC116" s="30"/>
+      <c r="AH116" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ116" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="17">
+        <v>402</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E117" s="28">
+        <v>1</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="G117" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I117" s="30"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M117" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N117" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O117" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P117" s="30"/>
+      <c r="Q117" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="R117" s="30"/>
+      <c r="S117" s="30"/>
+      <c r="T117" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U117" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V117" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W117" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="30"/>
+      <c r="AC117" s="30"/>
+      <c r="AH117" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ117" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="17">
+        <v>402.1</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="C118" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E118" s="28">
+        <v>1</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G118" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I118" s="30"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M118" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N118" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O118" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P118" s="30"/>
+      <c r="Q118" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="R118" s="30"/>
+      <c r="S118" s="30"/>
+      <c r="T118" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U118" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V118" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W118" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="X118" s="27"/>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="30"/>
+      <c r="AA118" s="30"/>
+      <c r="AB118" s="30"/>
+      <c r="AC118" s="30"/>
+      <c r="AH118" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ118" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="29">
+        <v>403</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C119" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="28">
+        <v>1</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="G119" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I119" s="30"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M119" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N119" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O119" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P119" s="30"/>
+      <c r="Q119" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="R119" s="30"/>
+      <c r="S119" s="30"/>
+      <c r="T119" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U119" s="30">
+        <v>1</v>
+      </c>
+      <c r="V119" s="30">
+        <v>1</v>
+      </c>
+      <c r="W119" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="X119" s="34"/>
+      <c r="Y119" s="34"/>
+      <c r="Z119" s="30"/>
+      <c r="AA119" s="30"/>
+      <c r="AB119" s="30"/>
+      <c r="AC119" s="30"/>
+      <c r="AH119" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ119" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="29">
+        <v>404</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C120" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="28">
+        <v>1</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G120" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I120" s="30"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L120" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M120" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="N120" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O120" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P120" s="30"/>
+      <c r="Q120" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R120" s="30"/>
+      <c r="S120" s="30"/>
+      <c r="T120" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U120" s="30">
+        <v>0</v>
+      </c>
+      <c r="V120" s="30">
+        <v>0</v>
+      </c>
+      <c r="W120" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X120" s="34"/>
+      <c r="Y120" s="34"/>
+      <c r="Z120" s="30"/>
+      <c r="AA120" s="30"/>
+      <c r="AB120" s="30"/>
+      <c r="AC120" s="30"/>
+      <c r="AH120" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ120" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="29">
+        <v>404.1</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C121" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E121" s="28">
+        <v>1</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="G121" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="I121" s="30"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L121" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="M121" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="N121" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O121" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P121" s="30"/>
+      <c r="Q121" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R121" s="30"/>
+      <c r="S121" s="30"/>
+      <c r="T121" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U121" s="30">
+        <v>0</v>
+      </c>
+      <c r="V121" s="30">
+        <v>0</v>
+      </c>
+      <c r="W121" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X121" s="34"/>
+      <c r="Y121" s="34"/>
+      <c r="Z121" s="30"/>
+      <c r="AA121" s="30"/>
+      <c r="AB121" s="30"/>
+      <c r="AC121" s="30"/>
+      <c r="AD121" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AE121" s="28">
+        <v>500</v>
+      </c>
+      <c r="AF121" s="28">
+        <v>333</v>
+      </c>
+      <c r="AG121" s="28">
+        <v>5</v>
+      </c>
+      <c r="AH121" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ121" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="29">
+        <v>404.2</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C122" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E122" s="28">
+        <v>1</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="G122" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I122" s="30"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L122" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="M122" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N122" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O122" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P122" s="30"/>
+      <c r="Q122" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R122" s="30"/>
+      <c r="S122" s="30"/>
+      <c r="T122" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U122" s="30">
+        <v>0</v>
+      </c>
+      <c r="V122" s="30">
+        <v>0</v>
+      </c>
+      <c r="W122" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X122" s="34"/>
+      <c r="Y122" s="34"/>
+      <c r="Z122" s="30"/>
+      <c r="AA122" s="30"/>
+      <c r="AB122" s="30"/>
+      <c r="AC122" s="30"/>
+      <c r="AH122" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ122" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="29">
+        <v>405</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C123" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="28">
+        <v>1</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="G123" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I123" s="30"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M123" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N123" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O123" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P123" s="30"/>
+      <c r="Q123" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R123" s="14"/>
+      <c r="S123" s="14"/>
+      <c r="T123" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U123" s="14">
+        <v>0</v>
+      </c>
+      <c r="V123" s="14">
+        <v>0</v>
+      </c>
+      <c r="W123" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X123" s="34"/>
+      <c r="Y123" s="34"/>
+      <c r="Z123" s="30"/>
+      <c r="AA123" s="30"/>
+      <c r="AB123" s="30"/>
+      <c r="AC123" s="30"/>
+      <c r="AH123" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ123" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="29">
+        <v>406</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C124" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="28">
+        <v>1</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G124" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I124" s="30"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M124" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N124" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O124" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P124" s="30"/>
+      <c r="Q124" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R124" s="14"/>
+      <c r="S124" s="14"/>
+      <c r="T124" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U124" s="14">
+        <v>0</v>
+      </c>
+      <c r="V124" s="14">
+        <v>0</v>
+      </c>
+      <c r="W124" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X124" s="34"/>
+      <c r="Y124" s="34"/>
+      <c r="Z124" s="30"/>
+      <c r="AA124" s="30"/>
+      <c r="AB124" s="30"/>
+      <c r="AC124" s="30"/>
+      <c r="AH124" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ124" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="29">
+        <v>407</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C125" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E125" s="28">
+        <v>1</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G125" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I125" s="30"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M125" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N125" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O125" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P125" s="30"/>
+      <c r="Q125" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R125" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="S125" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T125" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U125" s="30">
+        <v>1</v>
+      </c>
+      <c r="V125" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W125" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X125" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y125" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z125" s="30"/>
+      <c r="AA125" s="30"/>
+      <c r="AB125" s="30"/>
+      <c r="AC125" s="30"/>
+      <c r="AH125" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ125" s="35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" s="39" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="36"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="38"/>
+      <c r="I126" s="37"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="41"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="37"/>
+      <c r="O126" s="37"/>
+      <c r="P126" s="37"/>
+      <c r="Q126" s="37"/>
+      <c r="R126" s="37"/>
+      <c r="S126" s="37"/>
+      <c r="T126" s="37"/>
+      <c r="U126" s="37"/>
+      <c r="V126" s="37"/>
+      <c r="W126" s="42"/>
+      <c r="X126" s="42"/>
+      <c r="Y126" s="42"/>
+      <c r="Z126" s="37"/>
+      <c r="AA126" s="37"/>
+      <c r="AB126" s="37"/>
+      <c r="AC126" s="37"/>
+      <c r="AJ126" s="37"/>
+    </row>
+    <row r="127" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="29">
+        <v>401.22</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C127" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="28">
+        <v>1</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G127" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I127" s="30"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M127" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N127" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O127" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P127" s="30"/>
+      <c r="Q127" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R127" s="14"/>
+      <c r="S127" s="14"/>
+      <c r="T127" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U127" s="14">
+        <v>0</v>
+      </c>
+      <c r="V127" s="14">
+        <v>0</v>
+      </c>
+      <c r="W127" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X127" s="34"/>
+      <c r="Y127" s="34"/>
+      <c r="Z127" s="30"/>
+      <c r="AA127" s="30"/>
+      <c r="AB127" s="30"/>
+      <c r="AC127" s="30"/>
+      <c r="AH127" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ127" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="17">
+        <v>402.22</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C128" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E128" s="28">
+        <v>1</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G128" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I128" s="30"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M128" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N128" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O128" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P128" s="30"/>
+      <c r="Q128" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="R128" s="30"/>
+      <c r="S128" s="30"/>
+      <c r="T128" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U128" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V128" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W128" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="30"/>
+      <c r="AA128" s="30"/>
+      <c r="AB128" s="30"/>
+      <c r="AC128" s="30"/>
+      <c r="AH128" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ128" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="17">
+        <v>402.221</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C129" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E129" s="28">
+        <v>1</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="G129" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I129" s="30"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M129" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N129" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="O129" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P129" s="30"/>
+      <c r="Q129" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="R129" s="30"/>
+      <c r="S129" s="30"/>
+      <c r="T129" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U129" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V129" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W129" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="X129" s="27"/>
+      <c r="Y129" s="27"/>
+      <c r="Z129" s="30"/>
+      <c r="AA129" s="30"/>
+      <c r="AB129" s="30"/>
+      <c r="AC129" s="30"/>
+      <c r="AH129" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ129" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="29">
+        <v>403.22</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C130" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="28">
+        <v>1</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="G130" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I130" s="30"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M130" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N130" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O130" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P130" s="30"/>
+      <c r="Q130" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="R130" s="30"/>
+      <c r="S130" s="30"/>
+      <c r="T130" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U130" s="30">
+        <v>1</v>
+      </c>
+      <c r="V130" s="30">
+        <v>1</v>
+      </c>
+      <c r="W130" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="X130" s="34"/>
+      <c r="Y130" s="34"/>
+      <c r="Z130" s="30"/>
+      <c r="AA130" s="30"/>
+      <c r="AB130" s="30"/>
+      <c r="AC130" s="30"/>
+      <c r="AH130" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ130" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="29">
+        <v>404.22</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C131" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" s="28">
+        <v>1</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G131" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I131" s="30"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L131" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M131" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="N131" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O131" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P131" s="30"/>
+      <c r="Q131" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R131" s="30"/>
+      <c r="S131" s="30"/>
+      <c r="T131" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U131" s="30">
+        <v>0</v>
+      </c>
+      <c r="V131" s="30">
+        <v>0</v>
+      </c>
+      <c r="W131" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X131" s="34"/>
+      <c r="Y131" s="34"/>
+      <c r="Z131" s="30"/>
+      <c r="AA131" s="30"/>
+      <c r="AB131" s="30"/>
+      <c r="AC131" s="30"/>
+      <c r="AH131" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ131" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="29">
+        <v>404.221</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C132" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E132" s="28">
+        <v>1</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="I132" s="30"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L132" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="M132" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="N132" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O132" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P132" s="30"/>
+      <c r="Q132" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R132" s="30"/>
+      <c r="S132" s="30"/>
+      <c r="T132" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U132" s="30">
+        <v>0</v>
+      </c>
+      <c r="V132" s="30">
+        <v>0</v>
+      </c>
+      <c r="W132" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X132" s="34"/>
+      <c r="Y132" s="34"/>
+      <c r="Z132" s="30"/>
+      <c r="AA132" s="30"/>
+      <c r="AB132" s="30"/>
+      <c r="AC132" s="30"/>
+      <c r="AD132" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AE132" s="28">
+        <v>500</v>
+      </c>
+      <c r="AF132" s="28">
+        <v>454.54</v>
+      </c>
+      <c r="AG132" s="28">
+        <v>5</v>
+      </c>
+      <c r="AH132" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ132" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="29">
+        <v>404.22199999999998</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C133" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E133" s="28">
+        <v>1</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I133" s="30"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L133" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="M133" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="N133" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O133" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P133" s="30"/>
+      <c r="Q133" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R133" s="30"/>
+      <c r="S133" s="30"/>
+      <c r="T133" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U133" s="30">
+        <v>0</v>
+      </c>
+      <c r="V133" s="30">
+        <v>0</v>
+      </c>
+      <c r="W133" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X133" s="34"/>
+      <c r="Y133" s="34"/>
+      <c r="Z133" s="30"/>
+      <c r="AA133" s="30"/>
+      <c r="AB133" s="30"/>
+      <c r="AC133" s="30"/>
+      <c r="AH133" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ133" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="29">
+        <v>405.22</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C134" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="28">
+        <v>1</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I134" s="30"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="32"/>
+      <c r="L134" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M134" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N134" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O134" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P134" s="30"/>
+      <c r="Q134" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R134" s="14"/>
+      <c r="S134" s="14"/>
+      <c r="T134" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U134" s="14">
+        <v>0</v>
+      </c>
+      <c r="V134" s="14">
+        <v>0</v>
+      </c>
+      <c r="W134" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X134" s="34"/>
+      <c r="Y134" s="34"/>
+      <c r="Z134" s="30"/>
+      <c r="AA134" s="30"/>
+      <c r="AB134" s="30"/>
+      <c r="AC134" s="30"/>
+      <c r="AH134" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ134" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="29">
+        <v>406.22</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C135" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="28">
+        <v>1</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I135" s="30"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="32"/>
+      <c r="L135" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M135" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N135" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O135" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P135" s="30"/>
+      <c r="Q135" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R135" s="14"/>
+      <c r="S135" s="14"/>
+      <c r="T135" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U135" s="14">
+        <v>0</v>
+      </c>
+      <c r="V135" s="14">
+        <v>0</v>
+      </c>
+      <c r="W135" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X135" s="34"/>
+      <c r="Y135" s="34"/>
+      <c r="Z135" s="30"/>
+      <c r="AA135" s="30"/>
+      <c r="AB135" s="30"/>
+      <c r="AC135" s="30"/>
+      <c r="AH135" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ135" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="29">
+        <v>407.22</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C136" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E136" s="28">
+        <v>1</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G136" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I136" s="30"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="32"/>
+      <c r="L136" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M136" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N136" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O136" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P136" s="30"/>
+      <c r="Q136" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R136" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="S136" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T136" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U136" s="30">
+        <v>1</v>
+      </c>
+      <c r="V136" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W136" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X136" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y136" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z136" s="30"/>
+      <c r="AA136" s="30"/>
+      <c r="AB136" s="30"/>
+      <c r="AC136" s="30"/>
+      <c r="AH136" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ136" s="35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:36" s="39" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="36"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="38"/>
+      <c r="I137" s="37"/>
+      <c r="K137" s="40"/>
+      <c r="L137" s="41"/>
+      <c r="M137" s="37"/>
+      <c r="N137" s="37"/>
+      <c r="O137" s="37"/>
+      <c r="P137" s="37"/>
+      <c r="Q137" s="37"/>
+      <c r="R137" s="37"/>
+      <c r="S137" s="37"/>
+      <c r="T137" s="37"/>
+      <c r="U137" s="37"/>
+      <c r="V137" s="37"/>
+      <c r="W137" s="42"/>
+      <c r="X137" s="42"/>
+      <c r="Y137" s="42"/>
+      <c r="Z137" s="37"/>
+      <c r="AA137" s="37"/>
+      <c r="AB137" s="37"/>
+      <c r="AC137" s="37"/>
+      <c r="AJ137" s="37"/>
+    </row>
+    <row r="138" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="29">
+        <v>501</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="C138" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="28">
+        <v>1</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="G138" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H138" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I138" s="30"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="32"/>
+      <c r="L138" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M138" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N138" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O138" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P138" s="30"/>
+      <c r="Q138" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R138" s="14"/>
+      <c r="S138" s="14"/>
+      <c r="T138" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U138" s="14">
+        <v>0</v>
+      </c>
+      <c r="V138" s="14">
+        <v>0</v>
+      </c>
+      <c r="W138" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X138" s="34"/>
+      <c r="Y138" s="34"/>
+      <c r="Z138" s="30"/>
+      <c r="AA138" s="30"/>
+      <c r="AB138" s="30"/>
+      <c r="AC138" s="30"/>
+      <c r="AH138" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ138" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="17">
+        <v>502</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="C139" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E139" s="28">
+        <v>1</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="G139" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H139" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I139" s="30"/>
+      <c r="J139" s="29"/>
+      <c r="K139" s="32"/>
+      <c r="L139" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M139" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N139" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O139" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P139" s="30"/>
+      <c r="Q139" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="R139" s="30"/>
+      <c r="S139" s="30"/>
+      <c r="T139" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U139" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V139" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W139" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="X139" s="27"/>
+      <c r="Y139" s="27"/>
+      <c r="Z139" s="30"/>
+      <c r="AA139" s="30"/>
+      <c r="AB139" s="30"/>
+      <c r="AC139" s="30"/>
+      <c r="AH139" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ139" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="29">
+        <v>503</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="C140" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="28">
+        <v>1</v>
+      </c>
+      <c r="F140" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="G140" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H140" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I140" s="30"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="32"/>
+      <c r="L140" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M140" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N140" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O140" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="P140" s="30"/>
+      <c r="Q140" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="R140" s="30"/>
+      <c r="S140" s="30"/>
+      <c r="T140" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U140" s="30">
+        <v>1</v>
+      </c>
+      <c r="V140" s="30">
+        <v>1</v>
+      </c>
+      <c r="W140" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="X140" s="34"/>
+      <c r="Y140" s="34"/>
+      <c r="Z140" s="30"/>
+      <c r="AA140" s="30"/>
+      <c r="AB140" s="30"/>
+      <c r="AC140" s="30"/>
+      <c r="AH140" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ140" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="29">
+        <v>504</v>
+      </c>
+      <c r="B141" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C141" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="28">
+        <v>1</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="G141" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H141" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I141" s="30"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L141" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M141" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="N141" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O141" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="P141" s="30"/>
+      <c r="Q141" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R141" s="30"/>
+      <c r="S141" s="30"/>
+      <c r="T141" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U141" s="30">
+        <v>0</v>
+      </c>
+      <c r="V141" s="30">
+        <v>0</v>
+      </c>
+      <c r="W141" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X141" s="34"/>
+      <c r="Y141" s="34"/>
+      <c r="Z141" s="30"/>
+      <c r="AA141" s="30"/>
+      <c r="AB141" s="30"/>
+      <c r="AC141" s="30"/>
+      <c r="AH141" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ141" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="29">
+        <v>504.1</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E142" s="28">
+        <v>1</v>
+      </c>
+      <c r="F142" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="G142" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H142" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="I142" s="30"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L142" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="M142" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="N142" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O142" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="P142" s="30"/>
+      <c r="Q142" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R142" s="30"/>
+      <c r="S142" s="30"/>
+      <c r="T142" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U142" s="30">
+        <v>0</v>
+      </c>
+      <c r="V142" s="30">
+        <v>0</v>
+      </c>
+      <c r="W142" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X142" s="34"/>
+      <c r="Y142" s="34"/>
+      <c r="Z142" s="30"/>
+      <c r="AA142" s="30"/>
+      <c r="AB142" s="30"/>
+      <c r="AC142" s="30"/>
+      <c r="AD142" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AE142" s="28">
+        <v>500</v>
+      </c>
+      <c r="AF142" s="28">
+        <v>454.54</v>
+      </c>
+      <c r="AG142" s="28">
+        <v>5</v>
+      </c>
+      <c r="AH142" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ142" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="29">
+        <v>505</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C143" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="28">
+        <v>1</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="G143" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H143" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I143" s="30"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="32"/>
+      <c r="L143" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M143" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N143" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="O143" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P143" s="30"/>
+      <c r="Q143" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R143" s="14"/>
+      <c r="S143" s="14"/>
+      <c r="T143" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U143" s="14">
+        <v>0</v>
+      </c>
+      <c r="V143" s="14">
+        <v>0</v>
+      </c>
+      <c r="W143" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X143" s="34"/>
+      <c r="Y143" s="34"/>
+      <c r="Z143" s="30"/>
+      <c r="AA143" s="30"/>
+      <c r="AB143" s="30"/>
+      <c r="AC143" s="30"/>
+      <c r="AH143" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ143" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="29">
+        <v>506</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C144" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" s="28">
+        <v>1</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="G144" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H144" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I144" s="30"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="32"/>
+      <c r="L144" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M144" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N144" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O144" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="P144" s="30"/>
+      <c r="Q144" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R144" s="14"/>
+      <c r="S144" s="14"/>
+      <c r="T144" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U144" s="14">
+        <v>0</v>
+      </c>
+      <c r="V144" s="14">
+        <v>0</v>
+      </c>
+      <c r="W144" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X144" s="34"/>
+      <c r="Y144" s="34"/>
+      <c r="Z144" s="30"/>
+      <c r="AA144" s="30"/>
+      <c r="AB144" s="30"/>
+      <c r="AC144" s="30"/>
+      <c r="AH144" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ144" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="29">
+        <v>507</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C145" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E145" s="28">
+        <v>1</v>
+      </c>
+      <c r="F145" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="G145" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H145" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I145" s="30"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="32"/>
+      <c r="L145" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M145" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N145" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O145" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P145" s="30"/>
+      <c r="Q145" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R145" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="S145" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T145" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U145" s="30">
+        <v>1</v>
+      </c>
+      <c r="V145" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W145" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X145" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y145" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z145" s="30"/>
+      <c r="AA145" s="30"/>
+      <c r="AB145" s="30"/>
+      <c r="AC145" s="30"/>
+      <c r="AH145" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ145" s="35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="29">
+        <v>511</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="C146" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E146" s="28">
+        <v>1</v>
+      </c>
+      <c r="F146" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="G146" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H146" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I146" s="14"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="32"/>
+      <c r="L146" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M146" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N146" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="O146" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P146" s="30"/>
+      <c r="Q146" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R146" s="30"/>
+      <c r="S146" s="30"/>
+      <c r="T146" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U146" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V146" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W146" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X146" s="34"/>
+      <c r="Y146" s="34"/>
+      <c r="Z146" s="30"/>
+      <c r="AA146" s="30"/>
+      <c r="AB146" s="30"/>
+      <c r="AC146" s="30"/>
+      <c r="AH146" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ146" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="29">
+        <v>511.1</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C147" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E147" s="28">
+        <v>0</v>
+      </c>
+      <c r="F147" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="G147" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H147" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I147" s="14"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="32"/>
+      <c r="L147" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="M147" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N147" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="O147" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P147" s="30"/>
+      <c r="Q147" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R147" s="30"/>
+      <c r="S147" s="30"/>
+      <c r="T147" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U147" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V147" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W147" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X147" s="34"/>
+      <c r="Y147" s="34"/>
+      <c r="Z147" s="30"/>
+      <c r="AA147" s="30"/>
+      <c r="AB147" s="30"/>
+      <c r="AC147" s="30"/>
+      <c r="AH147" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ147" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="29">
+        <v>511.2</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C148" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E148" s="28">
+        <v>0</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="G148" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H148" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I148" s="14"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="32"/>
+      <c r="L148" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M148" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N148" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O148" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P148" s="30"/>
+      <c r="Q148" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R148" s="30"/>
+      <c r="S148" s="30"/>
+      <c r="T148" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U148" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V148" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W148" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X148" s="34"/>
+      <c r="Y148" s="34"/>
+      <c r="Z148" s="30"/>
+      <c r="AA148" s="30"/>
+      <c r="AB148" s="30"/>
+      <c r="AC148" s="30"/>
+      <c r="AH148" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ148" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="29">
+        <v>512</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C149" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E149" s="28">
+        <v>1</v>
+      </c>
+      <c r="F149" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="G149" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H149" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I149" s="14"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="32"/>
+      <c r="L149" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="M149" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N149" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O149" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P149" s="30"/>
+      <c r="Q149" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R149" s="30"/>
+      <c r="S149" s="30"/>
+      <c r="T149" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U149" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V149" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W149" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X149" s="34"/>
+      <c r="Y149" s="34"/>
+      <c r="Z149" s="30"/>
+      <c r="AA149" s="30"/>
+      <c r="AB149" s="30"/>
+      <c r="AC149" s="30"/>
+      <c r="AH149" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ149" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="29">
+        <v>512.1</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C150" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E150" s="28">
+        <v>1</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="G150" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H150" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I150" s="14"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="32"/>
+      <c r="L150" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="M150" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N150" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O150" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P150" s="30"/>
+      <c r="Q150" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R150" s="30"/>
+      <c r="S150" s="30"/>
+      <c r="T150" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U150" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V150" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W150" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X150" s="34"/>
+      <c r="Y150" s="34"/>
+      <c r="Z150" s="30"/>
+      <c r="AA150" s="30"/>
+      <c r="AB150" s="30"/>
+      <c r="AC150" s="30"/>
+      <c r="AH150" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ150" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="29">
+        <v>512.20000000000005</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C151" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E151" s="28">
+        <v>1</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="G151" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H151" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I151" s="14"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="32"/>
+      <c r="L151" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M151" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N151" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O151" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P151" s="30"/>
+      <c r="Q151" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R151" s="30"/>
+      <c r="S151" s="30"/>
+      <c r="T151" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U151" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V151" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W151" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X151" s="34"/>
+      <c r="Y151" s="34"/>
+      <c r="Z151" s="30"/>
+      <c r="AA151" s="30"/>
+      <c r="AB151" s="30"/>
+      <c r="AC151" s="30"/>
+      <c r="AH151" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ151" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="29">
+        <v>513</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C152" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="E152" s="28">
+        <v>1</v>
+      </c>
+      <c r="F152" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="G152" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H152" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I152" s="30"/>
+      <c r="J152" s="29"/>
+      <c r="K152" s="32"/>
+      <c r="L152" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M152" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N152" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O152" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P152" s="30"/>
+      <c r="Q152" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R152" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="S152" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T152" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U152" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V152" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W152" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="X152" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y152" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z152" s="30"/>
+      <c r="AA152" s="30"/>
+      <c r="AB152" s="30"/>
+      <c r="AC152" s="30"/>
+      <c r="AH152" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ152" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="153" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="29">
+        <v>513.1</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C153" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="E153" s="28">
+        <v>1</v>
+      </c>
+      <c r="F153" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="G153" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H153" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I153" s="30"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="32"/>
+      <c r="L153" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M153" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N153" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O153" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P153" s="30"/>
+      <c r="Q153" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R153" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="S153" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T153" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U153" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V153" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W153" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="X153" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y153" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z153" s="30"/>
+      <c r="AA153" s="30"/>
+      <c r="AB153" s="30"/>
+      <c r="AC153" s="30"/>
+      <c r="AH153" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ153" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="154" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="29">
+        <v>513.20000000000005</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C154" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="E154" s="28">
+        <v>1</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="G154" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H154" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I154" s="30"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="32"/>
+      <c r="L154" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M154" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N154" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O154" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P154" s="30"/>
+      <c r="Q154" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R154" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="S154" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T154" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U154" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V154" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W154" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="X154" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y154" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z154" s="30"/>
+      <c r="AA154" s="30"/>
+      <c r="AB154" s="30"/>
+      <c r="AC154" s="30"/>
+      <c r="AH154" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ154" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="155" spans="1:36" s="39" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="36"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="38"/>
+      <c r="I155" s="37"/>
+      <c r="K155" s="40"/>
+      <c r="L155" s="41"/>
+      <c r="M155" s="37"/>
+      <c r="N155" s="37"/>
+      <c r="O155" s="37"/>
+      <c r="P155" s="37"/>
+      <c r="Q155" s="37"/>
+      <c r="R155" s="37"/>
+      <c r="S155" s="37"/>
+      <c r="T155" s="37"/>
+      <c r="U155" s="37"/>
+      <c r="V155" s="37"/>
+      <c r="W155" s="42"/>
+      <c r="X155" s="42"/>
+      <c r="Y155" s="42"/>
+      <c r="Z155" s="37"/>
+      <c r="AA155" s="37"/>
+      <c r="AB155" s="37"/>
+      <c r="AC155" s="37"/>
+      <c r="AJ155" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830E571D-EE0B-4858-9854-819F4144AD13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC46CBA5-98F1-4A08-ADF2-33E1B950E547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1332" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1335" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="397">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1575,6 +1575,22 @@
   </si>
   <si>
     <t>1.015,1.015,1.015,1.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Oscillation_Tone250_246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Oscillation_Tone250_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/06/05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2027,50 +2043,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ155"/>
+  <dimension ref="A1:AJ158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W140" sqref="W140"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.77734375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" style="30" customWidth="1"/>
-    <col min="19" max="20" width="12.44140625" style="30" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="39.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="7" customWidth="1"/>
+    <col min="18" max="18" width="23.375" style="30" customWidth="1"/>
+    <col min="19" max="20" width="12.5" style="30" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="7" customWidth="1"/>
     <col min="22" max="22" width="14" style="7" customWidth="1"/>
-    <col min="23" max="23" width="47.109375" style="13" customWidth="1"/>
+    <col min="23" max="23" width="47.125" style="13" customWidth="1"/>
     <col min="24" max="25" width="18" style="34" customWidth="1"/>
-    <col min="26" max="26" width="43.33203125" style="7" customWidth="1"/>
-    <col min="27" max="27" width="17.109375" style="7" customWidth="1"/>
-    <col min="28" max="28" width="16.109375" style="7" customWidth="1"/>
-    <col min="29" max="29" width="21.109375" style="7" customWidth="1"/>
+    <col min="26" max="26" width="43.375" style="7" customWidth="1"/>
+    <col min="27" max="27" width="17.125" style="7" customWidth="1"/>
+    <col min="28" max="28" width="16.125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="21.125" style="7" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.44140625" style="28" customWidth="1"/>
-    <col min="34" max="34" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.109375" customWidth="1"/>
-    <col min="36" max="36" width="29.6640625" style="16" customWidth="1"/>
+    <col min="31" max="31" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" style="28" customWidth="1"/>
+    <col min="34" max="34" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.125" customWidth="1"/>
+    <col min="36" max="36" width="29.625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2180,7 +2196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2290,7 +2306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -2349,7 +2365,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>101.1</v>
       </c>
@@ -2420,7 +2436,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>102</v>
       </c>
@@ -2464,7 +2480,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>103</v>
       </c>
@@ -2525,7 +2541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>103.1</v>
       </c>
@@ -2586,7 +2602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>103.2</v>
       </c>
@@ -2657,7 +2673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>104</v>
       </c>
@@ -2718,7 +2734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>104.1</v>
       </c>
@@ -2789,7 +2805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>105</v>
       </c>
@@ -2862,7 +2878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>105.1</v>
       </c>
@@ -2924,7 +2940,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>105.2</v>
       </c>
@@ -2997,7 +3013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>106</v>
       </c>
@@ -3059,7 +3075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>107</v>
       </c>
@@ -3118,7 +3134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>107.1</v>
       </c>
@@ -3177,7 +3193,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>108</v>
       </c>
@@ -3250,7 +3266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>108.1</v>
       </c>
@@ -3314,7 +3330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>109</v>
       </c>
@@ -3375,7 +3391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>109.1</v>
       </c>
@@ -3454,7 +3470,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>109.2</v>
       </c>
@@ -3533,7 +3549,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>1010</v>
       </c>
@@ -3604,7 +3620,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>121</v>
       </c>
@@ -3675,7 +3691,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>121.1</v>
       </c>
@@ -3736,7 +3752,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>122</v>
       </c>
@@ -3797,7 +3813,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>123</v>
       </c>
@@ -3868,7 +3884,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <v>123.1</v>
       </c>
@@ -3939,7 +3955,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>123.2</v>
       </c>
@@ -4000,7 +4016,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>124</v>
       </c>
@@ -4061,7 +4077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>124.1</v>
       </c>
@@ -4132,7 +4148,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <v>124.2</v>
       </c>
@@ -4203,7 +4219,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <v>124.3</v>
       </c>
@@ -4274,7 +4290,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
         <v>124.4</v>
       </c>
@@ -4345,7 +4361,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
         <v>124.5</v>
       </c>
@@ -4416,7 +4432,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>125</v>
       </c>
@@ -4480,7 +4496,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
         <v>125</v>
       </c>
@@ -4553,7 +4569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>126</v>
       </c>
@@ -4614,7 +4630,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>127</v>
       </c>
@@ -4691,7 +4707,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>127.1</v>
       </c>
@@ -4768,7 +4784,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>127.2</v>
       </c>
@@ -4845,7 +4861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>131</v>
       </c>
@@ -4904,7 +4920,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>131.1</v>
       </c>
@@ -4963,7 +4979,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>131.19999999999999</v>
       </c>
@@ -5022,7 +5038,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>131.30000000000001</v>
       </c>
@@ -5081,7 +5097,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
         <v>131.4</v>
       </c>
@@ -5140,7 +5156,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="29">
         <v>131.5</v>
       </c>
@@ -5199,7 +5215,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="29">
         <v>131.6</v>
       </c>
@@ -5278,7 +5294,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:36" s="28" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" s="28" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="29">
         <v>131.69999999999999</v>
       </c>
@@ -5349,7 +5365,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:36" s="28" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" s="28" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="29">
         <v>131.80000000000001</v>
       </c>
@@ -5420,7 +5436,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="29">
         <v>131.9</v>
       </c>
@@ -5491,7 +5507,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="29">
         <v>131.11000000000001</v>
       </c>
@@ -5562,7 +5578,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="29">
         <v>131.12</v>
       </c>
@@ -5633,7 +5649,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="29">
         <v>131.13</v>
       </c>
@@ -5712,7 +5728,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>132</v>
       </c>
@@ -5783,7 +5799,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>132.1</v>
       </c>
@@ -5854,7 +5870,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
         <v>133</v>
       </c>
@@ -5925,7 +5941,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
         <v>134</v>
       </c>
@@ -6002,7 +6018,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
@@ -6033,7 +6049,7 @@
       <c r="AC59" s="19"/>
       <c r="AJ59" s="25"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>201</v>
       </c>
@@ -6089,7 +6105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>201.1</v>
       </c>
@@ -6145,7 +6161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>201.2</v>
       </c>
@@ -6201,7 +6217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>201.3</v>
       </c>
@@ -6257,7 +6273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>201.4</v>
       </c>
@@ -6313,7 +6329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>202</v>
       </c>
@@ -6357,7 +6373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
         <v>203</v>
       </c>
@@ -6428,7 +6444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
         <v>205</v>
       </c>
@@ -6501,7 +6517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>210.1</v>
       </c>
@@ -6560,7 +6576,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>211.1</v>
       </c>
@@ -6619,7 +6635,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>212.1</v>
       </c>
@@ -6678,7 +6694,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>213.1</v>
       </c>
@@ -6737,7 +6753,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>214</v>
       </c>
@@ -6793,7 +6809,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>214.1</v>
       </c>
@@ -6849,7 +6865,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>214.2</v>
       </c>
@@ -6905,7 +6921,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>214.3</v>
       </c>
@@ -6961,7 +6977,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>214.4</v>
       </c>
@@ -7017,7 +7033,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>214.5</v>
       </c>
@@ -7073,7 +7089,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>214.6</v>
       </c>
@@ -7129,7 +7145,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>214.7</v>
       </c>
@@ -7185,7 +7201,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <v>214.8</v>
       </c>
@@ -7243,7 +7259,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <v>214.9</v>
       </c>
@@ -7301,7 +7317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>215</v>
       </c>
@@ -7369,7 +7385,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>216</v>
       </c>
@@ -7428,7 +7444,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="29">
         <v>216.1</v>
       </c>
@@ -7501,7 +7517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="29">
         <v>221</v>
       </c>
@@ -7572,140 +7588,182 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
-        <v>225</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>109</v>
+    <row r="87" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="29">
+        <v>221.1</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C87" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E87" s="28">
+        <v>1</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>393</v>
       </c>
       <c r="G87" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="H87" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="17"/>
-      <c r="L87" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M87" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N87" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O87" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P87" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q87" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="H87" s="29">
+        <v>1</v>
+      </c>
+      <c r="I87" s="30"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L87" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="M87" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="N87" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O87" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="P87" s="30"/>
+      <c r="Q87" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R87" s="30"/>
+      <c r="S87" s="30"/>
       <c r="T87" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="U87" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="V87" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W87" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH87" t="s">
+        <v>51</v>
+      </c>
+      <c r="U87" s="30">
+        <v>0</v>
+      </c>
+      <c r="V87" s="30">
+        <v>0</v>
+      </c>
+      <c r="W87" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X87" s="34"/>
+      <c r="Y87" s="34"/>
+      <c r="Z87" s="30"/>
+      <c r="AA87" s="30"/>
+      <c r="AB87" s="30"/>
+      <c r="AC87" s="30"/>
+      <c r="AD87" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AE87" s="28">
+        <v>250</v>
+      </c>
+      <c r="AF87" s="28">
+        <v>246</v>
+      </c>
+      <c r="AG87" s="28">
+        <v>1</v>
+      </c>
+      <c r="AH87" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AJ87" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <v>225.1</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C88" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G88" s="6" t="s">
+      <c r="AJ87" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="29">
+        <v>221.2</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C88" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="E88" s="28">
+        <v>1</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="G88" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="H88" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="17"/>
-      <c r="L88" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M88" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N88" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O88" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="H88" s="29">
+        <v>1</v>
+      </c>
+      <c r="I88" s="30"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="32">
+        <v>6000</v>
+      </c>
+      <c r="L88" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="M88" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="N88" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O88" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R88" s="30"/>
+      <c r="S88" s="30"/>
       <c r="T88" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="U88" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="V88" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W88" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH88" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ88" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="U88" s="30">
+        <v>0</v>
+      </c>
+      <c r="V88" s="30">
+        <v>0</v>
+      </c>
+      <c r="W88" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="30"/>
+      <c r="AB88" s="30"/>
+      <c r="AC88" s="30"/>
+      <c r="AD88" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AE88" s="28">
+        <v>250</v>
+      </c>
+      <c r="AF88" s="28">
+        <v>200</v>
+      </c>
+      <c r="AG88" s="28">
+        <v>1</v>
+      </c>
+      <c r="AH88" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ88" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
-        <v>225.2</v>
+        <v>225</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C89" s="8">
         <v>97656</v>
@@ -7717,9 +7775,9 @@
         <v>1</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G89" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G89" s="29" t="s">
         <v>108</v>
       </c>
       <c r="H89" s="17">
@@ -7758,15 +7816,15 @@
         <v>38</v>
       </c>
       <c r="AH89" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AJ89" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>225.3</v>
+        <v>225.1</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>111</v>
@@ -7781,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>108</v>
@@ -7828,9 +7886,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>225.4</v>
+        <v>225.2</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>111</v>
@@ -7845,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>108</v>
@@ -7892,9 +7950,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>225.5</v>
+        <v>225.3</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>111</v>
@@ -7909,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>108</v>
@@ -7938,7 +7996,7 @@
         <v>56</v>
       </c>
       <c r="T92" s="30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U92" s="7" t="s">
         <v>56</v>
@@ -7956,26 +8014,26 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="29">
-        <v>225.6</v>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C93" s="31">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>225.4</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="8">
         <v>97656</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E93" s="28">
+      <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="G93" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H93" s="17">
@@ -7983,72 +8041,63 @@
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="17"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="33" t="s">
+      <c r="L93" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M93" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N93" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O93" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P93" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q93" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
+      <c r="M93" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P93" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q93" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T93" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="U93" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V93" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="W93" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="X93" s="34"/>
-      <c r="Y93" s="34"/>
-      <c r="Z93" s="30"/>
-      <c r="AA93" s="30"/>
-      <c r="AB93" s="30"/>
-      <c r="AC93" s="30"/>
-      <c r="AH93" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="U93" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V93" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W93" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH93" t="s">
         <v>28</v>
       </c>
-      <c r="AJ93" s="35" t="s">
+      <c r="AJ93" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="29">
-        <v>225.7</v>
-      </c>
-      <c r="B94" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C94" s="31">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>225.5</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="8">
         <v>97656</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E94" s="28">
+      <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G94" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H94" s="17">
@@ -8056,55 +8105,46 @@
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="17"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="33" t="s">
+      <c r="L94" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M94" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N94" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O94" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P94" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q94" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="R94" s="30"/>
-      <c r="S94" s="30"/>
+      <c r="M94" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P94" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q94" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="T94" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="U94" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V94" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="W94" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="X94" s="34"/>
-      <c r="Y94" s="34"/>
-      <c r="Z94" s="30"/>
-      <c r="AA94" s="30"/>
-      <c r="AB94" s="30"/>
-      <c r="AC94" s="30"/>
-      <c r="AH94" s="28" t="s">
+      <c r="U94" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V94" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W94" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH94" t="s">
         <v>28</v>
       </c>
-      <c r="AJ94" s="35" t="s">
+      <c r="AJ94" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="29">
-        <v>225.8</v>
+        <v>225.6</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>296</v>
@@ -8119,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G95" s="29" t="s">
         <v>108</v>
@@ -8146,7 +8186,7 @@
         <v>305</v>
       </c>
       <c r="Q95" s="30" t="s">
-        <v>283</v>
+        <v>118</v>
       </c>
       <c r="R95" s="30"/>
       <c r="S95" s="30"/>
@@ -8160,7 +8200,7 @@
         <v>56</v>
       </c>
       <c r="W95" s="34" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="X95" s="34"/>
       <c r="Y95" s="34"/>
@@ -8175,26 +8215,26 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
-        <v>226</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C96" s="8">
+    <row r="96" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="29">
+        <v>225.7</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" s="31">
         <v>97656</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="E96" s="28">
+        <v>1</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G96" s="29" t="s">
         <v>108</v>
       </c>
       <c r="H96" s="17">
@@ -8202,60 +8242,72 @@
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="17"/>
-      <c r="L96" s="11" t="s">
+      <c r="K96" s="32"/>
+      <c r="L96" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="M96" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N96" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O96" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q96" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="M96" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N96" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O96" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P96" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q96" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="R96" s="30"/>
+      <c r="S96" s="30"/>
       <c r="T96" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="U96" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V96" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W96" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH96" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ96" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
-        <v>227</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" s="26">
+      <c r="U96" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V96" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W96" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="X96" s="34"/>
+      <c r="Y96" s="34"/>
+      <c r="Z96" s="30"/>
+      <c r="AA96" s="30"/>
+      <c r="AB96" s="30"/>
+      <c r="AC96" s="30"/>
+      <c r="AH96" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ96" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="29">
+        <v>225.8</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="31">
         <v>97656</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E97">
+        <v>76</v>
+      </c>
+      <c r="E97" s="28">
         <v>1</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G97" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G97" s="29" t="s">
         <v>108</v>
       </c>
       <c r="H97" s="17">
@@ -8263,69 +8315,72 @@
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="17"/>
-      <c r="L97" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="M97" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="N97" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="O97" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q97" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="K97" s="32"/>
+      <c r="L97" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M97" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N97" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O97" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P97" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q97" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="R97" s="30"/>
+      <c r="S97" s="30"/>
       <c r="T97" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="U97" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="V97" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="W97" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z97" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA97" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB97" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH97" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ97" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="17">
-        <v>227.1</v>
-      </c>
-      <c r="B98" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C98" s="26">
+      <c r="U97" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V97" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W97" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="X97" s="34"/>
+      <c r="Y97" s="34"/>
+      <c r="Z97" s="30"/>
+      <c r="AA97" s="30"/>
+      <c r="AB97" s="30"/>
+      <c r="AC97" s="30"/>
+      <c r="AH97" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ97" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>226</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="8">
         <v>97656</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98" s="28">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G98" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H98" s="17">
@@ -8333,62 +8388,46 @@
       </c>
       <c r="I98" s="14"/>
       <c r="J98" s="17"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M98" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N98" s="30" t="s">
+      <c r="L98" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N98" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O98" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P98" s="30"/>
-      <c r="Q98" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R98" s="30"/>
-      <c r="S98" s="30"/>
+      <c r="O98" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q98" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="T98" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="U98" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V98" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W98" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X98" s="34"/>
-      <c r="Y98" s="34"/>
-      <c r="Z98" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA98" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB98" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC98" s="30"/>
-      <c r="AH98" s="28" t="s">
+      <c r="U98" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V98" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W98" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH98" t="s">
         <v>18</v>
       </c>
-      <c r="AJ98" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="17">
-        <v>227.2</v>
-      </c>
-      <c r="B99" s="30" t="s">
-        <v>212</v>
+        <v>227</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="C99" s="26">
         <v>97656</v>
@@ -8396,13 +8435,13 @@
       <c r="D99" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E99" s="28">
+      <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="G99" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H99" s="17">
@@ -8410,62 +8449,55 @@
       </c>
       <c r="I99" s="14"/>
       <c r="J99" s="17"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M99" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N99" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="O99" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P99" s="30"/>
-      <c r="Q99" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R99" s="30"/>
-      <c r="S99" s="30"/>
+      <c r="L99" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="T99" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="U99" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V99" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W99" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X99" s="34"/>
-      <c r="Y99" s="34"/>
-      <c r="Z99" s="30" t="s">
+      <c r="U99" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="V99" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="W99" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z99" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AA99" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB99" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC99" s="30"/>
-      <c r="AH99" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ99" s="35" t="s">
+      <c r="AA99" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB99" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ99" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
-        <v>227.3</v>
+        <v>227.1</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C100" s="26">
         <v>97656</v>
@@ -8477,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G100" s="29" t="s">
         <v>108</v>
@@ -8521,10 +8553,10 @@
       <c r="X100" s="34"/>
       <c r="Y100" s="34"/>
       <c r="Z100" s="30" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="AA100" s="30" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="AB100" s="30" t="s">
         <v>51</v>
@@ -8537,12 +8569,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
-        <v>227.4</v>
+        <v>227.2</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C101" s="26">
         <v>97656</v>
@@ -8598,7 +8630,7 @@
       <c r="X101" s="34"/>
       <c r="Y101" s="34"/>
       <c r="Z101" s="30" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AA101" s="30" t="s">
         <v>71</v>
@@ -8614,12 +8646,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17">
-        <v>227.5</v>
+        <v>227.3</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C102" s="26">
         <v>97656</v>
@@ -8631,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="G102" s="29" t="s">
         <v>108</v>
@@ -8675,10 +8707,10 @@
       <c r="X102" s="34"/>
       <c r="Y102" s="34"/>
       <c r="Z102" s="30" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="AA102" s="30" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="AB102" s="30" t="s">
         <v>51</v>
@@ -8691,182 +8723,194 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="23"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="19"/>
-      <c r="O105" s="19"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="19"/>
-      <c r="R105" s="19"/>
-      <c r="S105" s="19"/>
-      <c r="T105" s="19"/>
-      <c r="U105" s="19"/>
-      <c r="V105" s="19"/>
-      <c r="W105" s="24"/>
-      <c r="X105" s="24"/>
-      <c r="Y105" s="24"/>
-      <c r="Z105" s="19"/>
-      <c r="AA105" s="19"/>
-      <c r="AB105" s="19"/>
-      <c r="AC105" s="19"/>
-      <c r="AJ105" s="25"/>
-    </row>
-    <row r="106" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="29">
+    <row r="103" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="17">
+        <v>227.4</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="28">
+        <v>1</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G103" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I103" s="14"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M103" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N103" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O103" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R103" s="30"/>
+      <c r="S103" s="30"/>
+      <c r="T103" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U103" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V103" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W103" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X103" s="34"/>
+      <c r="Y103" s="34"/>
+      <c r="Z103" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA103" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB103" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC103" s="30"/>
+      <c r="AH103" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ103" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="17">
+        <v>227.5</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C104" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="28">
+        <v>1</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H104" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I104" s="14"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M104" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N104" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O104" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P104" s="30"/>
+      <c r="Q104" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R104" s="30"/>
+      <c r="S104" s="30"/>
+      <c r="T104" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U104" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V104" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W104" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X104" s="34"/>
+      <c r="Y104" s="34"/>
+      <c r="Z104" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA104" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB104" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC104" s="30"/>
+      <c r="AH104" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ104" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="19"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="24"/>
+      <c r="X107" s="24"/>
+      <c r="Y107" s="24"/>
+      <c r="Z107" s="19"/>
+      <c r="AA107" s="19"/>
+      <c r="AB107" s="19"/>
+      <c r="AC107" s="19"/>
+      <c r="AJ107" s="25"/>
+    </row>
+    <row r="108" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="29">
         <v>321</v>
-      </c>
-      <c r="B106" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="C106" s="31">
-        <v>384000</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E106" s="28">
-        <v>1</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G106" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H106" s="17">
-        <v>1</v>
-      </c>
-      <c r="I106" s="14"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M106" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N106" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="O106" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P106" s="30"/>
-      <c r="Q106" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R106" s="30"/>
-      <c r="S106" s="30"/>
-      <c r="T106" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U106" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V106" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W106" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X106" s="34"/>
-      <c r="Y106" s="34"/>
-      <c r="Z106" s="30"/>
-      <c r="AA106" s="30"/>
-      <c r="AB106" s="30"/>
-      <c r="AC106" s="30"/>
-      <c r="AH106" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ106" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29">
-        <v>321.10000000000002</v>
-      </c>
-      <c r="B107" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="C107" s="31">
-        <v>384000</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E107" s="28">
-        <v>1</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="G107" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H107" s="17">
-        <v>1</v>
-      </c>
-      <c r="I107" s="14"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="M107" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N107" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O107" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P107" s="30"/>
-      <c r="Q107" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R107" s="30"/>
-      <c r="S107" s="30"/>
-      <c r="T107" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U107" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V107" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W107" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X107" s="34"/>
-      <c r="Y107" s="34"/>
-      <c r="Z107" s="30"/>
-      <c r="AA107" s="30"/>
-      <c r="AB107" s="30"/>
-      <c r="AC107" s="30"/>
-      <c r="AH107" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ107" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="29">
-        <v>321.2</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>252</v>
@@ -8875,13 +8919,13 @@
         <v>384000</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E108" s="28">
         <v>1</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G108" s="29" t="s">
         <v>275</v>
@@ -8893,13 +8937,13 @@
       <c r="J108" s="17"/>
       <c r="K108" s="32"/>
       <c r="L108" s="33" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="M108" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N108" s="30" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="O108" s="30" t="s">
         <v>56</v>
@@ -8935,24 +8979,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
-        <v>321.3</v>
+        <v>321.10000000000002</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c r="C109" s="31">
         <v>384000</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E109" s="28">
         <v>1</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="G109" s="29" t="s">
         <v>275</v>
@@ -8964,13 +9008,13 @@
       <c r="J109" s="17"/>
       <c r="K109" s="32"/>
       <c r="L109" s="33" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="M109" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N109" s="30" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="O109" s="30" t="s">
         <v>56</v>
@@ -9006,12 +9050,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="29">
-        <v>321.39999999999998</v>
+        <v>321.2</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>356</v>
+        <v>252</v>
       </c>
       <c r="C110" s="31">
         <v>384000</v>
@@ -9023,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="G110" s="29" t="s">
         <v>275</v>
@@ -9035,7 +9079,7 @@
       <c r="J110" s="17"/>
       <c r="K110" s="32"/>
       <c r="L110" s="33" t="s">
-        <v>358</v>
+        <v>117</v>
       </c>
       <c r="M110" s="30" t="s">
         <v>51</v>
@@ -9077,24 +9121,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="29">
-        <v>324</v>
+        <v>321.3</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="C111" s="31">
         <v>384000</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E111" s="28">
         <v>1</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="G111" s="29" t="s">
         <v>275</v>
@@ -9106,13 +9150,13 @@
       <c r="J111" s="17"/>
       <c r="K111" s="32"/>
       <c r="L111" s="33" t="s">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="M111" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N111" s="30" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="O111" s="30" t="s">
         <v>56</v>
@@ -9145,27 +9189,27 @@
         <v>18</v>
       </c>
       <c r="AJ111" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="29">
-        <v>324.10000000000002</v>
+        <v>321.39999999999998</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>252</v>
+        <v>356</v>
       </c>
       <c r="C112" s="31">
         <v>384000</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E112" s="28">
         <v>1</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="G112" s="29" t="s">
         <v>275</v>
@@ -9177,13 +9221,13 @@
       <c r="J112" s="17"/>
       <c r="K112" s="32"/>
       <c r="L112" s="33" t="s">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="M112" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N112" s="30" t="s">
-        <v>283</v>
+        <v>118</v>
       </c>
       <c r="O112" s="30" t="s">
         <v>56</v>
@@ -9216,27 +9260,27 @@
         <v>18</v>
       </c>
       <c r="AJ112" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="29">
-        <v>324.2</v>
+        <v>324</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C113" s="31">
         <v>384000</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="E113" s="28">
         <v>1</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G113" s="29" t="s">
         <v>275</v>
@@ -9248,7 +9292,7 @@
       <c r="J113" s="17"/>
       <c r="K113" s="32"/>
       <c r="L113" s="33" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="M113" s="30" t="s">
         <v>51</v>
@@ -9257,7 +9301,7 @@
         <v>118</v>
       </c>
       <c r="O113" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P113" s="30"/>
       <c r="Q113" s="30" t="s">
@@ -9266,7 +9310,7 @@
       <c r="R113" s="30"/>
       <c r="S113" s="30"/>
       <c r="T113" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U113" s="30" t="s">
         <v>51</v>
@@ -9290,202 +9334,202 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="22"/>
-      <c r="L115" s="23"/>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19"/>
-      <c r="O115" s="19"/>
-      <c r="P115" s="19"/>
-      <c r="Q115" s="19"/>
-      <c r="R115" s="19"/>
-      <c r="S115" s="19"/>
-      <c r="T115" s="19"/>
-      <c r="U115" s="19"/>
-      <c r="V115" s="19"/>
-      <c r="W115" s="24"/>
-      <c r="X115" s="24"/>
-      <c r="Y115" s="24"/>
-      <c r="Z115" s="19"/>
-      <c r="AA115" s="19"/>
-      <c r="AB115" s="19"/>
-      <c r="AC115" s="19"/>
-      <c r="AJ115" s="25"/>
-    </row>
-    <row r="116" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29">
+    <row r="114" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="29">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" s="28">
+        <v>1</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G114" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H114" s="17">
+        <v>1</v>
+      </c>
+      <c r="I114" s="14"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M114" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N114" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O114" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P114" s="30"/>
+      <c r="Q114" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R114" s="30"/>
+      <c r="S114" s="30"/>
+      <c r="T114" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="U114" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V114" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W114" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X114" s="34"/>
+      <c r="Y114" s="34"/>
+      <c r="Z114" s="30"/>
+      <c r="AA114" s="30"/>
+      <c r="AB114" s="30"/>
+      <c r="AC114" s="30"/>
+      <c r="AH114" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ114" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="29">
+        <v>324.2</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="31">
+        <v>384000</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E115" s="28">
+        <v>1</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G115" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H115" s="17">
+        <v>1</v>
+      </c>
+      <c r="I115" s="14"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="32"/>
+      <c r="L115" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M115" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N115" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O115" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P115" s="30"/>
+      <c r="Q115" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R115" s="30"/>
+      <c r="S115" s="30"/>
+      <c r="T115" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U115" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V115" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W115" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X115" s="34"/>
+      <c r="Y115" s="34"/>
+      <c r="Z115" s="30"/>
+      <c r="AA115" s="30"/>
+      <c r="AB115" s="30"/>
+      <c r="AC115" s="30"/>
+      <c r="AH115" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ115" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="18"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="23"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
+      <c r="T117" s="19"/>
+      <c r="U117" s="19"/>
+      <c r="V117" s="19"/>
+      <c r="W117" s="24"/>
+      <c r="X117" s="24"/>
+      <c r="Y117" s="24"/>
+      <c r="Z117" s="19"/>
+      <c r="AA117" s="19"/>
+      <c r="AB117" s="19"/>
+      <c r="AC117" s="19"/>
+      <c r="AJ117" s="25"/>
+    </row>
+    <row r="118" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="29">
         <v>401</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B118" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="C116" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D116" s="29" t="s">
+      <c r="C118" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D118" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E116" s="28">
-        <v>1</v>
-      </c>
-      <c r="F116" s="29" t="s">
+      <c r="E118" s="28">
+        <v>1</v>
+      </c>
+      <c r="F118" s="29" t="s">
         <v>329</v>
-      </c>
-      <c r="G116" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I116" s="30"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="32"/>
-      <c r="L116" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M116" s="30">
-        <v>1000</v>
-      </c>
-      <c r="N116" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="O116" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="P116" s="30"/>
-      <c r="Q116" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R116" s="14"/>
-      <c r="S116" s="14"/>
-      <c r="T116" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="U116" s="14">
-        <v>0</v>
-      </c>
-      <c r="V116" s="14">
-        <v>0</v>
-      </c>
-      <c r="W116" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="X116" s="34"/>
-      <c r="Y116" s="34"/>
-      <c r="Z116" s="30"/>
-      <c r="AA116" s="30"/>
-      <c r="AB116" s="30"/>
-      <c r="AC116" s="30"/>
-      <c r="AH116" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ116" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="17">
-        <v>402</v>
-      </c>
-      <c r="B117" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="C117" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E117" s="28">
-        <v>1</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="G117" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I117" s="30"/>
-      <c r="J117" s="29"/>
-      <c r="K117" s="32"/>
-      <c r="L117" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M117" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="N117" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="O117" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P117" s="30"/>
-      <c r="Q117" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="R117" s="30"/>
-      <c r="S117" s="30"/>
-      <c r="T117" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="U117" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="V117" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W117" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="30"/>
-      <c r="AA117" s="30"/>
-      <c r="AB117" s="30"/>
-      <c r="AC117" s="30"/>
-      <c r="AH117" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ117" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="17">
-        <v>402.1</v>
-      </c>
-      <c r="B118" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="C118" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E118" s="28">
-        <v>1</v>
-      </c>
-      <c r="F118" s="17" t="s">
-        <v>346</v>
       </c>
       <c r="G118" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H118" s="17">
+      <c r="H118" s="29">
         <v>0.5</v>
       </c>
       <c r="I118" s="30"/>
@@ -9494,35 +9538,35 @@
       <c r="L118" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="M118" s="30" t="s">
-        <v>162</v>
+      <c r="M118" s="30">
+        <v>1000</v>
       </c>
       <c r="N118" s="30" t="s">
         <v>47</v>
       </c>
       <c r="O118" s="30" t="s">
-        <v>56</v>
+        <v>326</v>
       </c>
       <c r="P118" s="30"/>
-      <c r="Q118" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="R118" s="30"/>
-      <c r="S118" s="30"/>
-      <c r="T118" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="U118" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="V118" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W118" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="27"/>
+      <c r="Q118" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R118" s="14"/>
+      <c r="S118" s="14"/>
+      <c r="T118" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U118" s="14">
+        <v>0</v>
+      </c>
+      <c r="V118" s="14">
+        <v>0</v>
+      </c>
+      <c r="W118" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X118" s="34"/>
+      <c r="Y118" s="34"/>
       <c r="Z118" s="30"/>
       <c r="AA118" s="30"/>
       <c r="AB118" s="30"/>
@@ -9531,32 +9575,32 @@
         <v>18</v>
       </c>
       <c r="AJ118" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="29">
-        <v>403</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="17">
+        <v>402</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="C119" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D119" s="29" t="s">
-        <v>7</v>
+      <c r="C119" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="E119" s="28">
         <v>1</v>
       </c>
-      <c r="F119" s="29" t="s">
-        <v>331</v>
+      <c r="F119" s="17" t="s">
+        <v>330</v>
       </c>
       <c r="G119" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H119" s="29">
+      <c r="H119" s="17">
         <v>0.5</v>
       </c>
       <c r="I119" s="30"/>
@@ -9565,108 +9609,106 @@
       <c r="L119" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="M119" s="30">
-        <v>1000</v>
+      <c r="M119" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="N119" s="30" t="s">
         <v>47</v>
       </c>
       <c r="O119" s="30" t="s">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="P119" s="30"/>
       <c r="Q119" s="30" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="R119" s="30"/>
       <c r="S119" s="30"/>
       <c r="T119" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="U119" s="30">
-        <v>1</v>
-      </c>
-      <c r="V119" s="30">
-        <v>1</v>
-      </c>
-      <c r="W119" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="X119" s="34"/>
-      <c r="Y119" s="34"/>
+      <c r="U119" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V119" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W119" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
       <c r="Z119" s="30"/>
       <c r="AA119" s="30"/>
       <c r="AB119" s="30"/>
       <c r="AC119" s="30"/>
       <c r="AH119" s="28" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AJ119" s="35" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="29">
-        <v>404</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:36" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="17">
+        <v>402.1</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="C120" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>23</v>
+        <v>345</v>
+      </c>
+      <c r="C120" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="E120" s="28">
         <v>1</v>
       </c>
-      <c r="F120" s="29" t="s">
-        <v>257</v>
+      <c r="F120" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="G120" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H120" s="29">
+      <c r="H120" s="17">
         <v>0.5</v>
       </c>
       <c r="I120" s="30"/>
       <c r="J120" s="29"/>
-      <c r="K120" s="32">
-        <v>6000</v>
-      </c>
+      <c r="K120" s="32"/>
       <c r="L120" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="M120" s="33" t="s">
-        <v>308</v>
+        <v>117</v>
+      </c>
+      <c r="M120" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="N120" s="30" t="s">
         <v>47</v>
       </c>
       <c r="O120" s="30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P120" s="30"/>
       <c r="Q120" s="30" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="R120" s="30"/>
       <c r="S120" s="30"/>
       <c r="T120" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="U120" s="30">
-        <v>0</v>
-      </c>
-      <c r="V120" s="30">
-        <v>0</v>
-      </c>
-      <c r="W120" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="X120" s="34"/>
-      <c r="Y120" s="34"/>
+      <c r="U120" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V120" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W120" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="X120" s="27"/>
+      <c r="Y120" s="27"/>
       <c r="Z120" s="30"/>
       <c r="AA120" s="30"/>
       <c r="AB120" s="30"/>
@@ -9675,54 +9717,52 @@
         <v>18</v>
       </c>
       <c r="AJ120" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="29">
-        <v>404.1</v>
+        <v>403</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C121" s="31">
         <v>97656</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="E121" s="28">
         <v>1</v>
       </c>
       <c r="F121" s="29" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G121" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H121" s="29">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="I121" s="30"/>
       <c r="J121" s="29"/>
-      <c r="K121" s="32">
-        <v>6000</v>
-      </c>
+      <c r="K121" s="32"/>
       <c r="L121" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="M121" s="33" t="s">
-        <v>336</v>
+        <v>117</v>
+      </c>
+      <c r="M121" s="30">
+        <v>1000</v>
       </c>
       <c r="N121" s="30" t="s">
         <v>47</v>
       </c>
       <c r="O121" s="30" t="s">
-        <v>52</v>
+        <v>326</v>
       </c>
       <c r="P121" s="30"/>
       <c r="Q121" s="30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R121" s="30"/>
       <c r="S121" s="30"/>
@@ -9730,13 +9770,13 @@
         <v>51</v>
       </c>
       <c r="U121" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V121" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W121" s="34" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="X121" s="34"/>
       <c r="Y121" s="34"/>
@@ -9744,43 +9784,31 @@
       <c r="AA121" s="30"/>
       <c r="AB121" s="30"/>
       <c r="AC121" s="30"/>
-      <c r="AD121" s="28">
-        <v>6000</v>
-      </c>
-      <c r="AE121" s="28">
-        <v>500</v>
-      </c>
-      <c r="AF121" s="28">
-        <v>333</v>
-      </c>
-      <c r="AG121" s="28">
-        <v>5</v>
-      </c>
       <c r="AH121" s="28" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AJ121" s="35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="122" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="29">
-        <v>404.2</v>
+        <v>404</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C122" s="31">
         <v>97656</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>342</v>
+        <v>23</v>
       </c>
       <c r="E122" s="28">
         <v>1</v>
       </c>
       <c r="F122" s="29" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="G122" s="29" t="s">
         <v>10</v>
@@ -9794,13 +9822,13 @@
         <v>6000</v>
       </c>
       <c r="L122" s="33" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="M122" s="33" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="N122" s="30" t="s">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="O122" s="30" t="s">
         <v>52</v>
@@ -9836,63 +9864,65 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="29">
-        <v>405</v>
+        <v>404.1</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C123" s="31">
         <v>97656</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="E123" s="28">
         <v>1</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G123" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H123" s="29">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I123" s="30"/>
       <c r="J123" s="29"/>
-      <c r="K123" s="32"/>
+      <c r="K123" s="32">
+        <v>6000</v>
+      </c>
       <c r="L123" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M123" s="30">
-        <v>1000</v>
+        <v>336</v>
+      </c>
+      <c r="M123" s="33" t="s">
+        <v>336</v>
       </c>
       <c r="N123" s="30" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="O123" s="30" t="s">
         <v>52</v>
       </c>
       <c r="P123" s="30"/>
-      <c r="Q123" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R123" s="14"/>
-      <c r="S123" s="14"/>
-      <c r="T123" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="U123" s="14">
+      <c r="Q123" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R123" s="30"/>
+      <c r="S123" s="30"/>
+      <c r="T123" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U123" s="30">
         <v>0</v>
       </c>
-      <c r="V123" s="14">
+      <c r="V123" s="30">
         <v>0</v>
       </c>
       <c r="W123" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X123" s="34"/>
       <c r="Y123" s="34"/>
@@ -9900,31 +9930,43 @@
       <c r="AA123" s="30"/>
       <c r="AB123" s="30"/>
       <c r="AC123" s="30"/>
+      <c r="AD123" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AE123" s="28">
+        <v>500</v>
+      </c>
+      <c r="AF123" s="28">
+        <v>333</v>
+      </c>
+      <c r="AG123" s="28">
+        <v>5</v>
+      </c>
       <c r="AH123" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AJ123" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="29">
-        <v>406</v>
+        <v>404.2</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C124" s="31">
         <v>97656</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="E124" s="28">
         <v>1</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="G124" s="29" t="s">
         <v>10</v>
@@ -9934,36 +9976,38 @@
       </c>
       <c r="I124" s="30"/>
       <c r="J124" s="29"/>
-      <c r="K124" s="32"/>
+      <c r="K124" s="32">
+        <v>6000</v>
+      </c>
       <c r="L124" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M124" s="30">
-        <v>1000</v>
+        <v>344</v>
+      </c>
+      <c r="M124" s="33" t="s">
+        <v>344</v>
       </c>
       <c r="N124" s="30" t="s">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="O124" s="30" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="P124" s="30"/>
-      <c r="Q124" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R124" s="14"/>
-      <c r="S124" s="14"/>
-      <c r="T124" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="U124" s="14">
+      <c r="Q124" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R124" s="30"/>
+      <c r="S124" s="30"/>
+      <c r="T124" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U124" s="30">
         <v>0</v>
       </c>
-      <c r="V124" s="14">
+      <c r="V124" s="30">
         <v>0</v>
       </c>
       <c r="W124" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X124" s="34"/>
       <c r="Y124" s="34"/>
@@ -9975,12 +10019,12 @@
         <v>18</v>
       </c>
       <c r="AJ124" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="29">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>325</v>
@@ -9989,13 +10033,13 @@
         <v>97656</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="E125" s="28">
         <v>1</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="G125" s="29" t="s">
         <v>10</v>
@@ -10009,43 +10053,35 @@
       <c r="L125" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="M125" s="30" t="s">
-        <v>162</v>
+      <c r="M125" s="30">
+        <v>1000</v>
       </c>
       <c r="N125" s="30" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="O125" s="30" t="s">
         <v>52</v>
       </c>
       <c r="P125" s="30"/>
-      <c r="Q125" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="R125" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="S125" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="T125" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="U125" s="30">
-        <v>1</v>
-      </c>
-      <c r="V125" s="30" t="s">
-        <v>56</v>
+      <c r="Q125" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R125" s="14"/>
+      <c r="S125" s="14"/>
+      <c r="T125" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U125" s="14">
+        <v>0</v>
+      </c>
+      <c r="V125" s="14">
+        <v>0</v>
       </c>
       <c r="W125" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X125" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y125" s="34" t="s">
-        <v>56</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="X125" s="34"/>
+      <c r="Y125" s="34"/>
       <c r="Z125" s="30"/>
       <c r="AA125" s="30"/>
       <c r="AB125" s="30"/>
@@ -10054,53 +10090,98 @@
         <v>18</v>
       </c>
       <c r="AJ125" s="35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="126" spans="1:36" s="39" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="36"/>
-      <c r="B126" s="37"/>
-      <c r="C126" s="38"/>
-      <c r="I126" s="37"/>
-      <c r="K126" s="40"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
-      <c r="O126" s="37"/>
-      <c r="P126" s="37"/>
-      <c r="Q126" s="37"/>
-      <c r="R126" s="37"/>
-      <c r="S126" s="37"/>
-      <c r="T126" s="37"/>
-      <c r="U126" s="37"/>
-      <c r="V126" s="37"/>
-      <c r="W126" s="42"/>
-      <c r="X126" s="42"/>
-      <c r="Y126" s="42"/>
-      <c r="Z126" s="37"/>
-      <c r="AA126" s="37"/>
-      <c r="AB126" s="37"/>
-      <c r="AC126" s="37"/>
-      <c r="AJ126" s="37"/>
-    </row>
-    <row r="127" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="29">
+        <v>406</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C126" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="28">
+        <v>1</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G126" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I126" s="30"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M126" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N126" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O126" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P126" s="30"/>
+      <c r="Q126" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R126" s="14"/>
+      <c r="S126" s="14"/>
+      <c r="T126" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U126" s="14">
+        <v>0</v>
+      </c>
+      <c r="V126" s="14">
+        <v>0</v>
+      </c>
+      <c r="W126" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X126" s="34"/>
+      <c r="Y126" s="34"/>
+      <c r="Z126" s="30"/>
+      <c r="AA126" s="30"/>
+      <c r="AB126" s="30"/>
+      <c r="AC126" s="30"/>
+      <c r="AH126" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ126" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="29">
-        <v>401.22</v>
+        <v>407</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="C127" s="31">
         <v>97656</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="E127" s="28">
         <v>1</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="G127" s="29" t="s">
         <v>10</v>
@@ -10114,35 +10195,43 @@
       <c r="L127" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="M127" s="30">
-        <v>1000</v>
+      <c r="M127" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="N127" s="30" t="s">
         <v>47</v>
       </c>
       <c r="O127" s="30" t="s">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="P127" s="30"/>
-      <c r="Q127" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R127" s="14"/>
-      <c r="S127" s="14"/>
-      <c r="T127" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="U127" s="14">
-        <v>0</v>
-      </c>
-      <c r="V127" s="14">
-        <v>0</v>
+      <c r="Q127" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R127" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="S127" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T127" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U127" s="30">
+        <v>1</v>
+      </c>
+      <c r="V127" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="W127" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="X127" s="34"/>
-      <c r="Y127" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="X127" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y127" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="Z127" s="30"/>
       <c r="AA127" s="30"/>
       <c r="AB127" s="30"/>
@@ -10151,103 +10240,58 @@
         <v>18</v>
       </c>
       <c r="AJ127" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="17">
-        <v>402.22</v>
-      </c>
-      <c r="B128" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="C128" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E128" s="28">
-        <v>1</v>
-      </c>
-      <c r="F128" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="G128" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I128" s="30"/>
-      <c r="J128" s="29"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M128" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="N128" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="O128" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P128" s="30"/>
-      <c r="Q128" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="R128" s="30"/>
-      <c r="S128" s="30"/>
-      <c r="T128" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="U128" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="V128" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W128" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="X128" s="27"/>
-      <c r="Y128" s="27"/>
-      <c r="Z128" s="30"/>
-      <c r="AA128" s="30"/>
-      <c r="AB128" s="30"/>
-      <c r="AC128" s="30"/>
-      <c r="AH128" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ128" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="17">
-        <v>402.221</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="36"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="38"/>
+      <c r="I128" s="37"/>
+      <c r="K128" s="40"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="37"/>
+      <c r="O128" s="37"/>
+      <c r="P128" s="37"/>
+      <c r="Q128" s="37"/>
+      <c r="R128" s="37"/>
+      <c r="S128" s="37"/>
+      <c r="T128" s="37"/>
+      <c r="U128" s="37"/>
+      <c r="V128" s="37"/>
+      <c r="W128" s="42"/>
+      <c r="X128" s="42"/>
+      <c r="Y128" s="42"/>
+      <c r="Z128" s="37"/>
+      <c r="AA128" s="37"/>
+      <c r="AB128" s="37"/>
+      <c r="AC128" s="37"/>
+      <c r="AJ128" s="37"/>
+    </row>
+    <row r="129" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="29">
+        <v>401.22</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="C129" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>193</v>
+      <c r="C129" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="E129" s="28">
         <v>1</v>
       </c>
-      <c r="F129" s="17" t="s">
-        <v>362</v>
+      <c r="F129" s="29" t="s">
+        <v>329</v>
       </c>
       <c r="G129" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H129" s="17">
+      <c r="H129" s="29">
         <v>0.5</v>
       </c>
       <c r="I129" s="30"/>
@@ -10256,35 +10300,35 @@
       <c r="L129" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="M129" s="30" t="s">
-        <v>162</v>
+      <c r="M129" s="30">
+        <v>1000</v>
       </c>
       <c r="N129" s="30" t="s">
-        <v>363</v>
+        <v>47</v>
       </c>
       <c r="O129" s="30" t="s">
-        <v>56</v>
+        <v>326</v>
       </c>
       <c r="P129" s="30"/>
-      <c r="Q129" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="R129" s="30"/>
-      <c r="S129" s="30"/>
-      <c r="T129" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="U129" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="V129" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W129" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="X129" s="27"/>
-      <c r="Y129" s="27"/>
+      <c r="Q129" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R129" s="14"/>
+      <c r="S129" s="14"/>
+      <c r="T129" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U129" s="14">
+        <v>0</v>
+      </c>
+      <c r="V129" s="14">
+        <v>0</v>
+      </c>
+      <c r="W129" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X129" s="34"/>
+      <c r="Y129" s="34"/>
       <c r="Z129" s="30"/>
       <c r="AA129" s="30"/>
       <c r="AB129" s="30"/>
@@ -10293,32 +10337,32 @@
         <v>18</v>
       </c>
       <c r="AJ129" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="29">
-        <v>403.22</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:36" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="17">
+        <v>402.22</v>
       </c>
       <c r="B130" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="C130" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D130" s="29" t="s">
-        <v>7</v>
+      <c r="C130" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="E130" s="28">
         <v>1</v>
       </c>
-      <c r="F130" s="29" t="s">
-        <v>331</v>
+      <c r="F130" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="G130" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H130" s="29">
+      <c r="H130" s="17">
         <v>0.5</v>
       </c>
       <c r="I130" s="30"/>
@@ -10327,108 +10371,106 @@
       <c r="L130" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="M130" s="30">
-        <v>1000</v>
+      <c r="M130" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="N130" s="30" t="s">
         <v>47</v>
       </c>
       <c r="O130" s="30" t="s">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="P130" s="30"/>
       <c r="Q130" s="30" t="s">
-        <v>43</v>
+        <v>347</v>
       </c>
       <c r="R130" s="30"/>
       <c r="S130" s="30"/>
       <c r="T130" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="U130" s="30">
-        <v>1</v>
-      </c>
-      <c r="V130" s="30">
-        <v>1</v>
-      </c>
-      <c r="W130" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="X130" s="34"/>
-      <c r="Y130" s="34"/>
+      <c r="U130" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V130" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W130" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="X130" s="27"/>
+      <c r="Y130" s="27"/>
       <c r="Z130" s="30"/>
       <c r="AA130" s="30"/>
       <c r="AB130" s="30"/>
       <c r="AC130" s="30"/>
       <c r="AH130" s="28" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AJ130" s="35" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="131" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="29">
-        <v>404.22</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:36" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="17">
+        <v>402.221</v>
       </c>
       <c r="B131" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="C131" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D131" s="29" t="s">
-        <v>23</v>
+      <c r="C131" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="E131" s="28">
         <v>1</v>
       </c>
-      <c r="F131" s="29" t="s">
-        <v>257</v>
+      <c r="F131" s="17" t="s">
+        <v>362</v>
       </c>
       <c r="G131" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H131" s="29">
+      <c r="H131" s="17">
         <v>0.5</v>
       </c>
       <c r="I131" s="30"/>
       <c r="J131" s="29"/>
-      <c r="K131" s="32">
-        <v>6000</v>
-      </c>
+      <c r="K131" s="32"/>
       <c r="L131" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="M131" s="33" t="s">
-        <v>360</v>
+        <v>117</v>
+      </c>
+      <c r="M131" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="N131" s="30" t="s">
-        <v>47</v>
+        <v>363</v>
       </c>
       <c r="O131" s="30" t="s">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="P131" s="30"/>
       <c r="Q131" s="30" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="R131" s="30"/>
       <c r="S131" s="30"/>
       <c r="T131" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="U131" s="30">
-        <v>0</v>
-      </c>
-      <c r="V131" s="30">
-        <v>0</v>
-      </c>
-      <c r="W131" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="X131" s="34"/>
-      <c r="Y131" s="34"/>
+      <c r="U131" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V131" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W131" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="X131" s="27"/>
+      <c r="Y131" s="27"/>
       <c r="Z131" s="30"/>
       <c r="AA131" s="30"/>
       <c r="AB131" s="30"/>
@@ -10437,12 +10479,12 @@
         <v>18</v>
       </c>
       <c r="AJ131" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="132" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="29">
-        <v>404.221</v>
+        <v>403.22</v>
       </c>
       <c r="B132" s="30" t="s">
         <v>359</v>
@@ -10451,30 +10493,28 @@
         <v>97656</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="E132" s="28">
         <v>1</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G132" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H132" s="29">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="I132" s="30"/>
       <c r="J132" s="29"/>
-      <c r="K132" s="32">
-        <v>6000</v>
-      </c>
+      <c r="K132" s="32"/>
       <c r="L132" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="M132" s="33" t="s">
-        <v>336</v>
+        <v>117</v>
+      </c>
+      <c r="M132" s="30">
+        <v>1000</v>
       </c>
       <c r="N132" s="30" t="s">
         <v>47</v>
@@ -10484,7 +10524,7 @@
       </c>
       <c r="P132" s="30"/>
       <c r="Q132" s="30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R132" s="30"/>
       <c r="S132" s="30"/>
@@ -10492,13 +10532,13 @@
         <v>51</v>
       </c>
       <c r="U132" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V132" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W132" s="34" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="X132" s="34"/>
       <c r="Y132" s="34"/>
@@ -10506,28 +10546,16 @@
       <c r="AA132" s="30"/>
       <c r="AB132" s="30"/>
       <c r="AC132" s="30"/>
-      <c r="AD132" s="28">
-        <v>6000</v>
-      </c>
-      <c r="AE132" s="28">
-        <v>500</v>
-      </c>
-      <c r="AF132" s="28">
-        <v>454.54</v>
-      </c>
-      <c r="AG132" s="28">
-        <v>5</v>
-      </c>
       <c r="AH132" s="28" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AJ132" s="35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="133" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="29">
-        <v>404.22199999999998</v>
+        <v>404.22</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>359</v>
@@ -10536,13 +10564,13 @@
         <v>97656</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>342</v>
+        <v>23</v>
       </c>
       <c r="E133" s="28">
         <v>1</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="G133" s="29" t="s">
         <v>10</v>
@@ -10556,13 +10584,13 @@
         <v>6000</v>
       </c>
       <c r="L133" s="33" t="s">
-        <v>189</v>
+        <v>360</v>
       </c>
       <c r="M133" s="33" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="N133" s="30" t="s">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="O133" s="30" t="s">
         <v>326</v>
@@ -10598,9 +10626,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="29">
-        <v>405.22</v>
+        <v>404.221</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>359</v>
@@ -10609,52 +10637,54 @@
         <v>97656</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="E134" s="28">
         <v>1</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G134" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H134" s="29">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I134" s="30"/>
       <c r="J134" s="29"/>
-      <c r="K134" s="32"/>
+      <c r="K134" s="32">
+        <v>6000</v>
+      </c>
       <c r="L134" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M134" s="30">
-        <v>1000</v>
+        <v>361</v>
+      </c>
+      <c r="M134" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="N134" s="30" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="O134" s="30" t="s">
         <v>326</v>
       </c>
       <c r="P134" s="30"/>
-      <c r="Q134" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R134" s="14"/>
-      <c r="S134" s="14"/>
-      <c r="T134" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="U134" s="14">
+      <c r="Q134" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R134" s="30"/>
+      <c r="S134" s="30"/>
+      <c r="T134" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U134" s="30">
         <v>0</v>
       </c>
-      <c r="V134" s="14">
+      <c r="V134" s="30">
         <v>0</v>
       </c>
       <c r="W134" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X134" s="34"/>
       <c r="Y134" s="34"/>
@@ -10662,16 +10692,28 @@
       <c r="AA134" s="30"/>
       <c r="AB134" s="30"/>
       <c r="AC134" s="30"/>
+      <c r="AD134" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AE134" s="28">
+        <v>500</v>
+      </c>
+      <c r="AF134" s="28">
+        <v>454.54</v>
+      </c>
+      <c r="AG134" s="28">
+        <v>5</v>
+      </c>
       <c r="AH134" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AJ134" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:36" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="29">
-        <v>406.22</v>
+        <v>404.22199999999998</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>359</v>
@@ -10680,13 +10722,13 @@
         <v>97656</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="E135" s="28">
         <v>1</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="G135" s="29" t="s">
         <v>10</v>
@@ -10696,36 +10738,38 @@
       </c>
       <c r="I135" s="30"/>
       <c r="J135" s="29"/>
-      <c r="K135" s="32"/>
+      <c r="K135" s="32">
+        <v>6000</v>
+      </c>
       <c r="L135" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M135" s="30">
-        <v>1000</v>
+        <v>189</v>
+      </c>
+      <c r="M135" s="33" t="s">
+        <v>344</v>
       </c>
       <c r="N135" s="30" t="s">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="O135" s="30" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="P135" s="30"/>
-      <c r="Q135" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R135" s="14"/>
-      <c r="S135" s="14"/>
-      <c r="T135" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="U135" s="14">
+      <c r="Q135" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R135" s="30"/>
+      <c r="S135" s="30"/>
+      <c r="T135" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U135" s="30">
         <v>0</v>
       </c>
-      <c r="V135" s="14">
+      <c r="V135" s="30">
         <v>0</v>
       </c>
       <c r="W135" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X135" s="34"/>
       <c r="Y135" s="34"/>
@@ -10737,135 +10781,186 @@
         <v>18</v>
       </c>
       <c r="AJ135" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="136" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="29">
-        <v>407.22</v>
+        <v>404.22300000000001</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="C136" s="31">
         <v>97656</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="E136" s="28">
         <v>1</v>
       </c>
       <c r="F136" s="29" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="G136" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H136" s="29">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I136" s="30"/>
       <c r="J136" s="29"/>
-      <c r="K136" s="32"/>
+      <c r="K136" s="32">
+        <v>6000</v>
+      </c>
       <c r="L136" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M136" s="30" t="s">
-        <v>162</v>
+        <v>89</v>
+      </c>
+      <c r="M136" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="N136" s="30" t="s">
         <v>47</v>
       </c>
       <c r="O136" s="30" t="s">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="P136" s="30"/>
       <c r="Q136" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="R136" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="S136" s="30" t="s">
-        <v>240</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R136" s="30"/>
+      <c r="S136" s="30"/>
       <c r="T136" s="30" t="s">
         <v>51</v>
       </c>
       <c r="U136" s="30">
-        <v>1</v>
-      </c>
-      <c r="V136" s="30" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="V136" s="30">
+        <v>0</v>
       </c>
       <c r="W136" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X136" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y136" s="34" t="s">
-        <v>56</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="X136" s="34"/>
+      <c r="Y136" s="34"/>
       <c r="Z136" s="30"/>
       <c r="AA136" s="30"/>
       <c r="AB136" s="30"/>
       <c r="AC136" s="30"/>
+      <c r="AD136" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AE136" s="28">
+        <v>500</v>
+      </c>
+      <c r="AF136" s="28">
+        <v>333.33</v>
+      </c>
+      <c r="AG136" s="28">
+        <v>5</v>
+      </c>
       <c r="AH136" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AJ136" s="35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="137" spans="1:36" s="39" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="36"/>
-      <c r="B137" s="37"/>
-      <c r="C137" s="38"/>
-      <c r="I137" s="37"/>
-      <c r="K137" s="40"/>
-      <c r="L137" s="41"/>
-      <c r="M137" s="37"/>
-      <c r="N137" s="37"/>
-      <c r="O137" s="37"/>
-      <c r="P137" s="37"/>
-      <c r="Q137" s="37"/>
-      <c r="R137" s="37"/>
-      <c r="S137" s="37"/>
-      <c r="T137" s="37"/>
-      <c r="U137" s="37"/>
-      <c r="V137" s="37"/>
-      <c r="W137" s="42"/>
-      <c r="X137" s="42"/>
-      <c r="Y137" s="42"/>
-      <c r="Z137" s="37"/>
-      <c r="AA137" s="37"/>
-      <c r="AB137" s="37"/>
-      <c r="AC137" s="37"/>
-      <c r="AJ137" s="37"/>
-    </row>
-    <row r="138" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="29">
+        <v>405.22</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C137" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="28">
+        <v>1</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="G137" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I137" s="30"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M137" s="30">
+        <v>1000</v>
+      </c>
+      <c r="N137" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O137" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="P137" s="30"/>
+      <c r="Q137" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R137" s="14"/>
+      <c r="S137" s="14"/>
+      <c r="T137" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U137" s="14">
+        <v>0</v>
+      </c>
+      <c r="V137" s="14">
+        <v>0</v>
+      </c>
+      <c r="W137" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="X137" s="34"/>
+      <c r="Y137" s="34"/>
+      <c r="Z137" s="30"/>
+      <c r="AA137" s="30"/>
+      <c r="AB137" s="30"/>
+      <c r="AC137" s="30"/>
+      <c r="AH137" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ137" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="29">
-        <v>501</v>
+        <v>406.22</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C138" s="31">
         <v>97656</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E138" s="28">
         <v>1</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="H138" s="29">
         <v>0.5</v>
@@ -10880,10 +10975,10 @@
         <v>1000</v>
       </c>
       <c r="N138" s="30" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="O138" s="30" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="P138" s="30"/>
       <c r="Q138" s="14" t="s">
@@ -10916,29 +11011,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:36" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="17">
-        <v>502</v>
+    <row r="139" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="29">
+        <v>407.22</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="C139" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>193</v>
+        <v>359</v>
+      </c>
+      <c r="C139" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="E139" s="28">
         <v>1</v>
       </c>
-      <c r="F139" s="17" t="s">
-        <v>375</v>
+      <c r="F139" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="G139" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="H139" s="17">
+        <v>10</v>
+      </c>
+      <c r="H139" s="29">
         <v>0.5</v>
       </c>
       <c r="I139" s="30"/>
@@ -10951,31 +11046,39 @@
         <v>162</v>
       </c>
       <c r="N139" s="30" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="O139" s="30" t="s">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="P139" s="30"/>
       <c r="Q139" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="R139" s="30"/>
-      <c r="S139" s="30"/>
+        <v>47</v>
+      </c>
+      <c r="R139" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="S139" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="T139" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="U139" s="30" t="s">
-        <v>56</v>
+      <c r="U139" s="30">
+        <v>1</v>
       </c>
       <c r="V139" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W139" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="X139" s="27"/>
-      <c r="Y139" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="W139" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X139" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y139" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="Z139" s="30"/>
       <c r="AA139" s="30"/>
       <c r="AB139" s="30"/>
@@ -10984,98 +11087,53 @@
         <v>18</v>
       </c>
       <c r="AJ139" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="29">
-        <v>503</v>
-      </c>
-      <c r="B140" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:36" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="36"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="38"/>
+      <c r="I140" s="37"/>
+      <c r="K140" s="40"/>
+      <c r="L140" s="41"/>
+      <c r="M140" s="37"/>
+      <c r="N140" s="37"/>
+      <c r="O140" s="37"/>
+      <c r="P140" s="37"/>
+      <c r="Q140" s="37"/>
+      <c r="R140" s="37"/>
+      <c r="S140" s="37"/>
+      <c r="T140" s="37"/>
+      <c r="U140" s="37"/>
+      <c r="V140" s="37"/>
+      <c r="W140" s="42"/>
+      <c r="X140" s="42"/>
+      <c r="Y140" s="42"/>
+      <c r="Z140" s="37"/>
+      <c r="AA140" s="37"/>
+      <c r="AB140" s="37"/>
+      <c r="AC140" s="37"/>
+      <c r="AJ140" s="37"/>
+    </row>
+    <row r="141" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="29">
+        <v>501</v>
+      </c>
+      <c r="B141" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="C140" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D140" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="28">
-        <v>1</v>
-      </c>
-      <c r="F140" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="G140" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="H140" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I140" s="30"/>
-      <c r="J140" s="29"/>
-      <c r="K140" s="32"/>
-      <c r="L140" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M140" s="30">
-        <v>1000</v>
-      </c>
-      <c r="N140" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O140" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="P140" s="30"/>
-      <c r="Q140" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="R140" s="30"/>
-      <c r="S140" s="30"/>
-      <c r="T140" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="U140" s="30">
-        <v>1</v>
-      </c>
-      <c r="V140" s="30">
-        <v>1</v>
-      </c>
-      <c r="W140" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="X140" s="34"/>
-      <c r="Y140" s="34"/>
-      <c r="Z140" s="30"/>
-      <c r="AA140" s="30"/>
-      <c r="AB140" s="30"/>
-      <c r="AC140" s="30"/>
-      <c r="AH140" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ140" s="35" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="141" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="29">
-        <v>504</v>
-      </c>
-      <c r="B141" s="30" t="s">
-        <v>372</v>
-      </c>
       <c r="C141" s="31">
         <v>97656</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E141" s="28">
         <v>1</v>
       </c>
       <c r="F141" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G141" s="29" t="s">
         <v>374</v>
@@ -11085,38 +11143,36 @@
       </c>
       <c r="I141" s="30"/>
       <c r="J141" s="29"/>
-      <c r="K141" s="32">
-        <v>6000</v>
-      </c>
+      <c r="K141" s="32"/>
       <c r="L141" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="M141" s="33" t="s">
-        <v>360</v>
+        <v>117</v>
+      </c>
+      <c r="M141" s="30">
+        <v>1000</v>
       </c>
       <c r="N141" s="30" t="s">
         <v>118</v>
       </c>
       <c r="O141" s="30" t="s">
-        <v>376</v>
+        <v>119</v>
       </c>
       <c r="P141" s="30"/>
-      <c r="Q141" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R141" s="30"/>
-      <c r="S141" s="30"/>
-      <c r="T141" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="U141" s="30">
+      <c r="Q141" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R141" s="14"/>
+      <c r="S141" s="14"/>
+      <c r="T141" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U141" s="14">
         <v>0</v>
       </c>
-      <c r="V141" s="30">
+      <c r="V141" s="14">
         <v>0</v>
       </c>
       <c r="W141" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X141" s="34"/>
       <c r="Y141" s="34"/>
@@ -11128,112 +11184,98 @@
         <v>18</v>
       </c>
       <c r="AJ141" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:36" s="28" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="29">
-        <v>504.1</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:36" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="17">
+        <v>502</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="C142" s="31">
-        <v>97656</v>
-      </c>
-      <c r="D142" s="29" t="s">
-        <v>334</v>
+        <v>373</v>
+      </c>
+      <c r="C142" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="E142" s="28">
         <v>1</v>
       </c>
-      <c r="F142" s="29" t="s">
-        <v>368</v>
+      <c r="F142" s="17" t="s">
+        <v>375</v>
       </c>
       <c r="G142" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="H142" s="29">
-        <v>2.5</v>
+      <c r="H142" s="17">
+        <v>0.5</v>
       </c>
       <c r="I142" s="30"/>
       <c r="J142" s="29"/>
-      <c r="K142" s="32">
-        <v>6000</v>
-      </c>
+      <c r="K142" s="32"/>
       <c r="L142" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="M142" s="33" t="s">
-        <v>336</v>
+        <v>117</v>
+      </c>
+      <c r="M142" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="N142" s="30" t="s">
         <v>118</v>
       </c>
       <c r="O142" s="30" t="s">
-        <v>376</v>
+        <v>119</v>
       </c>
       <c r="P142" s="30"/>
       <c r="Q142" s="30" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="R142" s="30"/>
       <c r="S142" s="30"/>
       <c r="T142" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="U142" s="30">
-        <v>0</v>
-      </c>
-      <c r="V142" s="30">
-        <v>0</v>
-      </c>
-      <c r="W142" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="X142" s="34"/>
-      <c r="Y142" s="34"/>
+      <c r="U142" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V142" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W142" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="X142" s="27"/>
+      <c r="Y142" s="27"/>
       <c r="Z142" s="30"/>
       <c r="AA142" s="30"/>
       <c r="AB142" s="30"/>
       <c r="AC142" s="30"/>
-      <c r="AD142" s="28">
-        <v>6000</v>
-      </c>
-      <c r="AE142" s="28">
-        <v>500</v>
-      </c>
-      <c r="AF142" s="28">
-        <v>454.54</v>
-      </c>
-      <c r="AG142" s="28">
-        <v>5</v>
-      </c>
       <c r="AH142" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AJ142" s="35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="143" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="29">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C143" s="31">
         <v>97656</v>
       </c>
       <c r="D143" s="29" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E143" s="28">
         <v>1</v>
       </c>
       <c r="F143" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G143" s="29" t="s">
         <v>374</v>
@@ -11251,28 +11293,28 @@
         <v>1000</v>
       </c>
       <c r="N143" s="30" t="s">
-        <v>377</v>
+        <v>118</v>
       </c>
       <c r="O143" s="30" t="s">
-        <v>119</v>
+        <v>376</v>
       </c>
       <c r="P143" s="30"/>
-      <c r="Q143" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R143" s="14"/>
-      <c r="S143" s="14"/>
-      <c r="T143" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="U143" s="14">
-        <v>0</v>
-      </c>
-      <c r="V143" s="14">
-        <v>0</v>
+      <c r="Q143" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="R143" s="30"/>
+      <c r="S143" s="30"/>
+      <c r="T143" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U143" s="30">
+        <v>1</v>
+      </c>
+      <c r="V143" s="30">
+        <v>1</v>
       </c>
       <c r="W143" s="34" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="X143" s="34"/>
       <c r="Y143" s="34"/>
@@ -11281,15 +11323,15 @@
       <c r="AB143" s="30"/>
       <c r="AC143" s="30"/>
       <c r="AH143" s="28" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AJ143" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="1:36" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="29">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B144" s="30" t="s">
         <v>372</v>
@@ -11298,13 +11340,13 @@
         <v>97656</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E144" s="28">
         <v>1</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G144" s="29" t="s">
         <v>374</v>
@@ -11314,36 +11356,38 @@
       </c>
       <c r="I144" s="30"/>
       <c r="J144" s="29"/>
-      <c r="K144" s="32"/>
+      <c r="K144" s="32">
+        <v>6000</v>
+      </c>
       <c r="L144" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M144" s="30">
-        <v>1000</v>
+        <v>360</v>
+      </c>
+      <c r="M144" s="33" t="s">
+        <v>360</v>
       </c>
       <c r="N144" s="30" t="s">
         <v>118</v>
       </c>
       <c r="O144" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P144" s="30"/>
-      <c r="Q144" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R144" s="14"/>
-      <c r="S144" s="14"/>
-      <c r="T144" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="U144" s="14">
+      <c r="Q144" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R144" s="30"/>
+      <c r="S144" s="30"/>
+      <c r="T144" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U144" s="30">
         <v>0</v>
       </c>
-      <c r="V144" s="14">
+      <c r="V144" s="30">
         <v>0</v>
       </c>
       <c r="W144" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X144" s="34"/>
       <c r="Y144" s="34"/>
@@ -11355,12 +11399,12 @@
         <v>18</v>
       </c>
       <c r="AJ144" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="145" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="29">
-        <v>507</v>
+        <v>504.1</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>372</v>
@@ -11369,131 +11413,137 @@
         <v>97656</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="E145" s="28">
         <v>1</v>
       </c>
       <c r="F145" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G145" s="29" t="s">
         <v>374</v>
       </c>
       <c r="H145" s="29">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I145" s="30"/>
       <c r="J145" s="29"/>
-      <c r="K145" s="32"/>
+      <c r="K145" s="32">
+        <v>6000</v>
+      </c>
       <c r="L145" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M145" s="30" t="s">
-        <v>162</v>
+        <v>361</v>
+      </c>
+      <c r="M145" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="N145" s="30" t="s">
         <v>118</v>
       </c>
       <c r="O145" s="30" t="s">
-        <v>119</v>
+        <v>376</v>
       </c>
       <c r="P145" s="30"/>
       <c r="Q145" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="R145" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="S145" s="30" t="s">
-        <v>240</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R145" s="30"/>
+      <c r="S145" s="30"/>
       <c r="T145" s="30" t="s">
         <v>51</v>
       </c>
       <c r="U145" s="30">
-        <v>1</v>
-      </c>
-      <c r="V145" s="30" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="V145" s="30">
+        <v>0</v>
       </c>
       <c r="W145" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X145" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y145" s="34" t="s">
-        <v>56</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="X145" s="34"/>
+      <c r="Y145" s="34"/>
       <c r="Z145" s="30"/>
       <c r="AA145" s="30"/>
       <c r="AB145" s="30"/>
       <c r="AC145" s="30"/>
+      <c r="AD145" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AE145" s="28">
+        <v>500</v>
+      </c>
+      <c r="AF145" s="28">
+        <v>454.54</v>
+      </c>
+      <c r="AG145" s="28">
+        <v>5</v>
+      </c>
       <c r="AH145" s="28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AJ145" s="35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="146" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="29">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C146" s="31">
         <v>97656</v>
       </c>
-      <c r="D146" s="17" t="s">
-        <v>73</v>
+      <c r="D146" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="E146" s="28">
         <v>1</v>
       </c>
-      <c r="F146" s="17" t="s">
-        <v>379</v>
+      <c r="F146" s="29" t="s">
+        <v>369</v>
       </c>
       <c r="G146" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="H146" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I146" s="14"/>
-      <c r="J146" s="17"/>
+      <c r="H146" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I146" s="30"/>
+      <c r="J146" s="29"/>
       <c r="K146" s="32"/>
       <c r="L146" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M146" s="30" t="s">
-        <v>51</v>
+        <v>117</v>
+      </c>
+      <c r="M146" s="30">
+        <v>1000</v>
       </c>
       <c r="N146" s="30" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O146" s="30" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="P146" s="30"/>
-      <c r="Q146" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R146" s="30"/>
-      <c r="S146" s="30"/>
-      <c r="T146" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U146" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V146" s="30" t="s">
-        <v>51</v>
+      <c r="Q146" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R146" s="14"/>
+      <c r="S146" s="14"/>
+      <c r="T146" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U146" s="14">
+        <v>0</v>
+      </c>
+      <c r="V146" s="14">
+        <v>0</v>
       </c>
       <c r="W146" s="34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="X146" s="34"/>
       <c r="Y146" s="34"/>
@@ -11505,12 +11555,12 @@
         <v>18</v>
       </c>
       <c r="AJ146" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="147" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="29">
-        <v>511.1</v>
+        <v>506</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>372</v>
@@ -11518,53 +11568,53 @@
       <c r="C147" s="31">
         <v>97656</v>
       </c>
-      <c r="D147" s="17" t="s">
-        <v>70</v>
+      <c r="D147" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="E147" s="28">
-        <v>0</v>
-      </c>
-      <c r="F147" s="17" t="s">
-        <v>381</v>
+        <v>1</v>
+      </c>
+      <c r="F147" s="29" t="s">
+        <v>370</v>
       </c>
       <c r="G147" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="H147" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I147" s="14"/>
-      <c r="J147" s="17"/>
+      <c r="H147" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I147" s="30"/>
+      <c r="J147" s="29"/>
       <c r="K147" s="32"/>
       <c r="L147" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="M147" s="30" t="s">
-        <v>51</v>
+        <v>117</v>
+      </c>
+      <c r="M147" s="30">
+        <v>1000</v>
       </c>
       <c r="N147" s="30" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O147" s="30" t="s">
-        <v>56</v>
+        <v>378</v>
       </c>
       <c r="P147" s="30"/>
-      <c r="Q147" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R147" s="30"/>
-      <c r="S147" s="30"/>
-      <c r="T147" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U147" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="V147" s="30" t="s">
-        <v>51</v>
+      <c r="Q147" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R147" s="14"/>
+      <c r="S147" s="14"/>
+      <c r="T147" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U147" s="14">
+        <v>0</v>
+      </c>
+      <c r="V147" s="14">
+        <v>0</v>
       </c>
       <c r="W147" s="34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="X147" s="34"/>
       <c r="Y147" s="34"/>
@@ -11576,12 +11626,12 @@
         <v>18</v>
       </c>
       <c r="AJ147" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="148" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="29">
-        <v>511.2</v>
+        <v>507</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>372</v>
@@ -11589,85 +11639,93 @@
       <c r="C148" s="31">
         <v>97656</v>
       </c>
-      <c r="D148" s="17" t="s">
-        <v>70</v>
+      <c r="D148" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="E148" s="28">
-        <v>0</v>
-      </c>
-      <c r="F148" s="17" t="s">
-        <v>382</v>
+        <v>1</v>
+      </c>
+      <c r="F148" s="29" t="s">
+        <v>371</v>
       </c>
       <c r="G148" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="H148" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I148" s="14"/>
-      <c r="J148" s="17"/>
+      <c r="H148" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I148" s="30"/>
+      <c r="J148" s="29"/>
       <c r="K148" s="32"/>
       <c r="L148" s="33" t="s">
         <v>117</v>
       </c>
       <c r="M148" s="30" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="N148" s="30" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="O148" s="30" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="P148" s="30"/>
       <c r="Q148" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R148" s="30"/>
-      <c r="S148" s="30"/>
+        <v>47</v>
+      </c>
+      <c r="R148" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="S148" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="T148" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="U148" s="30" t="s">
-        <v>51</v>
+        <v>51</v>
+      </c>
+      <c r="U148" s="30">
+        <v>1</v>
       </c>
       <c r="V148" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W148" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="X148" s="34"/>
-      <c r="Y148" s="34"/>
+      <c r="X148" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y148" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="Z148" s="30"/>
       <c r="AA148" s="30"/>
       <c r="AB148" s="30"/>
       <c r="AC148" s="30"/>
       <c r="AH148" s="28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AJ148" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="149" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="29">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C149" s="31">
         <v>97656</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E149" s="28">
         <v>1</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G149" s="29" t="s">
         <v>374</v>
@@ -11679,13 +11737,13 @@
       <c r="J149" s="17"/>
       <c r="K149" s="32"/>
       <c r="L149" s="33" t="s">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="M149" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N149" s="30" t="s">
-        <v>118</v>
+        <v>380</v>
       </c>
       <c r="O149" s="30" t="s">
         <v>56</v>
@@ -11718,12 +11776,12 @@
         <v>18</v>
       </c>
       <c r="AJ149" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="150" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="29">
-        <v>512.1</v>
+        <v>511.1</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>372</v>
@@ -11732,13 +11790,13 @@
         <v>97656</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E150" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G150" s="29" t="s">
         <v>374</v>
@@ -11750,13 +11808,13 @@
       <c r="J150" s="17"/>
       <c r="K150" s="32"/>
       <c r="L150" s="33" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="M150" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N150" s="30" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O150" s="30" t="s">
         <v>56</v>
@@ -11789,12 +11847,12 @@
         <v>18</v>
       </c>
       <c r="AJ150" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="151" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="29">
-        <v>512.20000000000005</v>
+        <v>511.2</v>
       </c>
       <c r="B151" s="30" t="s">
         <v>372</v>
@@ -11803,13 +11861,13 @@
         <v>97656</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="E151" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G151" s="29" t="s">
         <v>374</v>
@@ -11821,16 +11879,16 @@
       <c r="J151" s="17"/>
       <c r="K151" s="32"/>
       <c r="L151" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M151" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N151" s="30" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="O151" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P151" s="30"/>
       <c r="Q151" s="30" t="s">
@@ -11839,7 +11897,7 @@
       <c r="R151" s="30"/>
       <c r="S151" s="30"/>
       <c r="T151" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U151" s="30" t="s">
         <v>51</v>
@@ -11860,12 +11918,12 @@
         <v>18</v>
       </c>
       <c r="AJ151" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="152" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="29">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B152" s="30" t="s">
         <v>372</v>
@@ -11873,78 +11931,70 @@
       <c r="C152" s="31">
         <v>97656</v>
       </c>
-      <c r="D152" s="29" t="s">
-        <v>383</v>
+      <c r="D152" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="E152" s="28">
         <v>1</v>
       </c>
-      <c r="F152" s="29" t="s">
-        <v>387</v>
+      <c r="F152" s="17" t="s">
+        <v>384</v>
       </c>
       <c r="G152" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="H152" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I152" s="30"/>
-      <c r="J152" s="29"/>
+      <c r="H152" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I152" s="14"/>
+      <c r="J152" s="17"/>
       <c r="K152" s="32"/>
       <c r="L152" s="33" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="M152" s="30" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="N152" s="30" t="s">
         <v>118</v>
       </c>
       <c r="O152" s="30" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="P152" s="30"/>
       <c r="Q152" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="R152" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="S152" s="30" t="s">
-        <v>240</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R152" s="30"/>
+      <c r="S152" s="30"/>
       <c r="T152" s="30" t="s">
-        <v>300</v>
+        <v>56</v>
       </c>
       <c r="U152" s="30" t="s">
         <v>51</v>
       </c>
       <c r="V152" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W152" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="X152" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y152" s="34" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="X152" s="34"/>
+      <c r="Y152" s="34"/>
       <c r="Z152" s="30"/>
       <c r="AA152" s="30"/>
       <c r="AB152" s="30"/>
       <c r="AC152" s="30"/>
       <c r="AH152" s="28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AJ152" s="35" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="153" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="153" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="29">
-        <v>513.1</v>
+        <v>512.1</v>
       </c>
       <c r="B153" s="30" t="s">
         <v>372</v>
@@ -11952,78 +12002,70 @@
       <c r="C153" s="31">
         <v>97656</v>
       </c>
-      <c r="D153" s="29" t="s">
-        <v>383</v>
+      <c r="D153" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="E153" s="28">
         <v>1</v>
       </c>
-      <c r="F153" s="29" t="s">
-        <v>389</v>
+      <c r="F153" s="17" t="s">
+        <v>385</v>
       </c>
       <c r="G153" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="H153" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I153" s="30"/>
-      <c r="J153" s="29"/>
+      <c r="H153" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I153" s="14"/>
+      <c r="J153" s="17"/>
       <c r="K153" s="32"/>
       <c r="L153" s="33" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="M153" s="30" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="N153" s="30" t="s">
         <v>118</v>
       </c>
       <c r="O153" s="30" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="P153" s="30"/>
       <c r="Q153" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="R153" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="S153" s="30" t="s">
-        <v>240</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R153" s="30"/>
+      <c r="S153" s="30"/>
       <c r="T153" s="30" t="s">
-        <v>300</v>
+        <v>56</v>
       </c>
       <c r="U153" s="30" t="s">
         <v>51</v>
       </c>
       <c r="V153" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W153" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="X153" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y153" s="34" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="X153" s="34"/>
+      <c r="Y153" s="34"/>
       <c r="Z153" s="30"/>
       <c r="AA153" s="30"/>
       <c r="AB153" s="30"/>
       <c r="AC153" s="30"/>
       <c r="AH153" s="28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AJ153" s="35" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="154" spans="1:36" s="28" customFormat="1" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="29">
-        <v>513.20000000000005</v>
+        <v>512.20000000000005</v>
       </c>
       <c r="B154" s="30" t="s">
         <v>372</v>
@@ -12031,100 +12073,329 @@
       <c r="C154" s="31">
         <v>97656</v>
       </c>
-      <c r="D154" s="29" t="s">
-        <v>383</v>
+      <c r="D154" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="E154" s="28">
         <v>1</v>
       </c>
-      <c r="F154" s="29" t="s">
-        <v>390</v>
+      <c r="F154" s="17" t="s">
+        <v>386</v>
       </c>
       <c r="G154" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="H154" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I154" s="30"/>
-      <c r="J154" s="29"/>
+      <c r="H154" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I154" s="14"/>
+      <c r="J154" s="17"/>
       <c r="K154" s="32"/>
       <c r="L154" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M154" s="30" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="N154" s="30" t="s">
         <v>118</v>
       </c>
       <c r="O154" s="30" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="P154" s="30"/>
       <c r="Q154" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="R154" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="S154" s="30" t="s">
-        <v>240</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="R154" s="30"/>
+      <c r="S154" s="30"/>
       <c r="T154" s="30" t="s">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="U154" s="30" t="s">
         <v>51</v>
       </c>
       <c r="V154" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W154" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="X154" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y154" s="34" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="X154" s="34"/>
+      <c r="Y154" s="34"/>
       <c r="Z154" s="30"/>
       <c r="AA154" s="30"/>
       <c r="AB154" s="30"/>
       <c r="AC154" s="30"/>
       <c r="AH154" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ154" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="29">
+        <v>513</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C155" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="E155" s="28">
+        <v>1</v>
+      </c>
+      <c r="F155" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="G155" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H155" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I155" s="30"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="32"/>
+      <c r="L155" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M155" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N155" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O155" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P155" s="30"/>
+      <c r="Q155" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R155" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="S155" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T155" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U155" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V155" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W155" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="X155" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y155" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z155" s="30"/>
+      <c r="AA155" s="30"/>
+      <c r="AB155" s="30"/>
+      <c r="AC155" s="30"/>
+      <c r="AH155" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AJ154" s="35" t="s">
+      <c r="AJ155" s="35" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="155" spans="1:36" s="39" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="36"/>
-      <c r="B155" s="37"/>
-      <c r="C155" s="38"/>
-      <c r="I155" s="37"/>
-      <c r="K155" s="40"/>
-      <c r="L155" s="41"/>
-      <c r="M155" s="37"/>
-      <c r="N155" s="37"/>
-      <c r="O155" s="37"/>
-      <c r="P155" s="37"/>
-      <c r="Q155" s="37"/>
-      <c r="R155" s="37"/>
-      <c r="S155" s="37"/>
-      <c r="T155" s="37"/>
-      <c r="U155" s="37"/>
-      <c r="V155" s="37"/>
-      <c r="W155" s="42"/>
-      <c r="X155" s="42"/>
-      <c r="Y155" s="42"/>
-      <c r="Z155" s="37"/>
-      <c r="AA155" s="37"/>
-      <c r="AB155" s="37"/>
-      <c r="AC155" s="37"/>
-      <c r="AJ155" s="37"/>
+    <row r="156" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="29">
+        <v>513.1</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C156" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="E156" s="28">
+        <v>1</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="G156" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H156" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I156" s="30"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="32"/>
+      <c r="L156" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M156" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N156" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O156" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P156" s="30"/>
+      <c r="Q156" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R156" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="S156" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T156" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U156" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V156" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W156" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="X156" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y156" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z156" s="30"/>
+      <c r="AA156" s="30"/>
+      <c r="AB156" s="30"/>
+      <c r="AC156" s="30"/>
+      <c r="AH156" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ156" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="157" spans="1:36" s="28" customFormat="1" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="29">
+        <v>513.20000000000005</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C157" s="31">
+        <v>97656</v>
+      </c>
+      <c r="D157" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="E157" s="28">
+        <v>1</v>
+      </c>
+      <c r="F157" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="G157" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H157" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I157" s="30"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="32"/>
+      <c r="L157" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M157" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="N157" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O157" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P157" s="30"/>
+      <c r="Q157" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R157" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="S157" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T157" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="U157" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V157" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W157" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="X157" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y157" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z157" s="30"/>
+      <c r="AA157" s="30"/>
+      <c r="AB157" s="30"/>
+      <c r="AC157" s="30"/>
+      <c r="AH157" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ157" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="158" spans="1:36" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="36"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="38"/>
+      <c r="I158" s="37"/>
+      <c r="K158" s="40"/>
+      <c r="L158" s="41"/>
+      <c r="M158" s="37"/>
+      <c r="N158" s="37"/>
+      <c r="O158" s="37"/>
+      <c r="P158" s="37"/>
+      <c r="Q158" s="37"/>
+      <c r="R158" s="37"/>
+      <c r="S158" s="37"/>
+      <c r="T158" s="37"/>
+      <c r="U158" s="37"/>
+      <c r="V158" s="37"/>
+      <c r="W158" s="42"/>
+      <c r="X158" s="42"/>
+      <c r="Y158" s="42"/>
+      <c r="Z158" s="37"/>
+      <c r="AA158" s="37"/>
+      <c r="AB158" s="37"/>
+      <c r="AC158" s="37"/>
+      <c r="AJ158" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0E05D5-045E-4F60-86E2-7CAABD8EFFCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6972B3-16DC-4B61-BD9F-F5B55AA731E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1332" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1335" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="498">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1976,6 +1976,22 @@
   </si>
   <si>
     <t>1,1.05,1.1,1.2,1.3,1.4,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/10/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_1s-1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_TB_LocalChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2447,54 +2463,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK212"/>
+  <dimension ref="A1:AK213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C215" sqref="C215"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X123" sqref="X123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="22" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="22" customWidth="1"/>
     <col min="5" max="5" width="9" style="21"/>
-    <col min="6" max="6" width="39.6640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.33203125" style="26" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.77734375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" style="23" customWidth="1"/>
-    <col min="20" max="21" width="12.44140625" style="23" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="39.625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.375" style="26" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.75" style="23" customWidth="1"/>
+    <col min="16" max="16" width="27.375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="15.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="23" customWidth="1"/>
+    <col min="19" max="19" width="23.375" style="23" customWidth="1"/>
+    <col min="20" max="21" width="12.5" style="23" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="23" customWidth="1"/>
     <col min="23" max="23" width="14" style="23" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="27" customWidth="1"/>
+    <col min="24" max="24" width="11.625" style="27" customWidth="1"/>
     <col min="25" max="26" width="18" style="27" customWidth="1"/>
-    <col min="27" max="27" width="19.21875" style="23" customWidth="1"/>
-    <col min="28" max="28" width="17.109375" style="23" customWidth="1"/>
-    <col min="29" max="29" width="16.109375" style="23" customWidth="1"/>
-    <col min="30" max="30" width="21.109375" style="23" customWidth="1"/>
+    <col min="27" max="27" width="19.25" style="23" customWidth="1"/>
+    <col min="28" max="28" width="17.125" style="23" customWidth="1"/>
+    <col min="29" max="29" width="16.125" style="23" customWidth="1"/>
+    <col min="30" max="30" width="21.125" style="23" customWidth="1"/>
     <col min="31" max="31" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.44140625" style="21" customWidth="1"/>
-    <col min="35" max="35" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.109375" style="21" customWidth="1"/>
-    <col min="37" max="37" width="29.6640625" style="28" customWidth="1"/>
+    <col min="32" max="32" width="8.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" style="21" customWidth="1"/>
+    <col min="35" max="35" width="11.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.125" style="21" customWidth="1"/>
+    <col min="37" max="37" width="29.625" style="28" customWidth="1"/>
     <col min="38" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2607,7 +2623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2720,7 +2736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>101</v>
       </c>
@@ -2782,7 +2798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>101.1</v>
       </c>
@@ -2844,7 +2860,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>102</v>
       </c>
@@ -2891,7 +2907,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>103</v>
       </c>
@@ -2955,7 +2971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>103.1</v>
       </c>
@@ -3019,7 +3035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>103.2</v>
       </c>
@@ -3083,7 +3099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>104</v>
       </c>
@@ -3147,7 +3163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>104.1</v>
       </c>
@@ -3211,7 +3227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>105</v>
       </c>
@@ -3276,7 +3292,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>105.1</v>
       </c>
@@ -3341,7 +3357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>105.2</v>
       </c>
@@ -3406,7 +3422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>106</v>
       </c>
@@ -3471,7 +3487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>107</v>
       </c>
@@ -3533,7 +3549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>107.1</v>
       </c>
@@ -3595,7 +3611,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>108</v>
       </c>
@@ -3662,7 +3678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>108.1</v>
       </c>
@@ -3729,7 +3745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>109</v>
       </c>
@@ -3793,7 +3809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>109.1</v>
       </c>
@@ -3867,7 +3883,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>109.2</v>
       </c>
@@ -3941,7 +3957,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>1010</v>
       </c>
@@ -4005,7 +4021,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>121</v>
       </c>
@@ -4069,7 +4085,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>121.1</v>
       </c>
@@ -4133,7 +4149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>122</v>
       </c>
@@ -4197,7 +4213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>123</v>
       </c>
@@ -4261,7 +4277,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>123.1</v>
       </c>
@@ -4325,7 +4341,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>123.2</v>
       </c>
@@ -4389,7 +4405,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>124</v>
       </c>
@@ -4453,7 +4469,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>124.1</v>
       </c>
@@ -4517,7 +4533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>124.2</v>
       </c>
@@ -4581,7 +4597,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>124.3</v>
       </c>
@@ -4645,7 +4661,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>124.4</v>
       </c>
@@ -4709,7 +4725,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>124.5</v>
       </c>
@@ -4773,7 +4789,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>125</v>
       </c>
@@ -4840,7 +4856,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>125</v>
       </c>
@@ -4907,7 +4923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
         <v>126</v>
       </c>
@@ -4971,7 +4987,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>127</v>
       </c>
@@ -5044,7 +5060,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>127.1</v>
       </c>
@@ -5117,7 +5133,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>127.2</v>
       </c>
@@ -5190,7 +5206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
         <v>131</v>
       </c>
@@ -5252,7 +5268,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>131.1</v>
       </c>
@@ -5314,7 +5330,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
         <v>131.19999999999999</v>
       </c>
@@ -5376,7 +5392,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
         <v>131.30000000000001</v>
       </c>
@@ -5438,7 +5454,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
         <v>131.4</v>
       </c>
@@ -5500,7 +5516,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>131.5</v>
       </c>
@@ -5562,7 +5578,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
         <v>131.6</v>
       </c>
@@ -5636,7 +5652,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
         <v>131.69999999999999</v>
       </c>
@@ -5698,7 +5714,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>131.80000000000001</v>
       </c>
@@ -5760,7 +5776,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>131.9</v>
       </c>
@@ -5822,7 +5838,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>131.11000000000001</v>
       </c>
@@ -5884,7 +5900,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
         <v>131.12</v>
       </c>
@@ -5946,7 +5962,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
         <v>131.13</v>
       </c>
@@ -6020,7 +6036,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>132</v>
       </c>
@@ -6084,7 +6100,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>132.1</v>
       </c>
@@ -6148,7 +6164,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>133</v>
       </c>
@@ -6210,7 +6226,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>134</v>
       </c>
@@ -6281,7 +6297,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="13"/>
@@ -6315,12 +6331,12 @@
       <c r="AG59" s="18"/>
       <c r="AK59" s="18"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="H60" s="22">
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" s="22">
         <v>201</v>
       </c>
@@ -6379,7 +6395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
         <v>201.1</v>
       </c>
@@ -6438,7 +6454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" s="22">
         <v>201.2</v>
       </c>
@@ -6497,7 +6513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" s="22">
         <v>201.3</v>
       </c>
@@ -6556,7 +6572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" s="22">
         <v>201.4</v>
       </c>
@@ -6615,7 +6631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" s="22">
         <v>202</v>
       </c>
@@ -6662,7 +6678,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" s="22">
         <v>203</v>
       </c>
@@ -6726,7 +6742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22">
         <v>205</v>
       </c>
@@ -6791,7 +6807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" s="22">
         <v>210.1</v>
       </c>
@@ -6853,7 +6869,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" s="22">
         <v>211.1</v>
       </c>
@@ -6915,7 +6931,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" s="22">
         <v>212.1</v>
       </c>
@@ -6977,7 +6993,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72" s="22">
         <v>213.1</v>
       </c>
@@ -7039,7 +7055,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="22">
         <v>214</v>
       </c>
@@ -7098,7 +7114,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="22">
         <v>214.1</v>
       </c>
@@ -7157,7 +7173,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="22">
         <v>214.2</v>
       </c>
@@ -7216,7 +7232,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="22">
         <v>214.3</v>
       </c>
@@ -7275,7 +7291,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22">
         <v>214.4</v>
       </c>
@@ -7334,7 +7350,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="22">
         <v>214.5</v>
       </c>
@@ -7393,7 +7409,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="22">
         <v>214.6</v>
       </c>
@@ -7452,7 +7468,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22">
         <v>214.7</v>
       </c>
@@ -7511,7 +7527,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>214.8</v>
       </c>
@@ -7572,7 +7588,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>214.9</v>
       </c>
@@ -7633,7 +7649,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="22">
         <v>215</v>
       </c>
@@ -7704,7 +7720,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84" s="22">
         <v>216</v>
       </c>
@@ -7766,7 +7782,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="22">
         <v>216.1</v>
       </c>
@@ -7831,7 +7847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86" s="22">
         <v>221</v>
       </c>
@@ -7895,7 +7911,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="22">
         <v>221.1</v>
       </c>
@@ -7972,7 +7988,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="22">
         <v>221.2</v>
       </c>
@@ -8049,7 +8065,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="22">
         <v>221.3</v>
       </c>
@@ -8126,7 +8142,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90" s="22">
         <v>225</v>
       </c>
@@ -8193,7 +8209,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91" s="22">
         <v>225.1</v>
       </c>
@@ -8260,7 +8276,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92" s="22">
         <v>225.2</v>
       </c>
@@ -8327,7 +8343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93" s="22">
         <v>225.3</v>
       </c>
@@ -8394,7 +8410,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="22">
         <v>225.4</v>
       </c>
@@ -8461,7 +8477,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
         <v>225.5</v>
       </c>
@@ -8528,7 +8544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96" s="22">
         <v>225.6</v>
       </c>
@@ -8595,7 +8611,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A97" s="22">
         <v>225.7</v>
       </c>
@@ -8662,7 +8678,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A98" s="22">
         <v>225.8</v>
       </c>
@@ -8729,7 +8745,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A99" s="22">
         <v>225.9</v>
       </c>
@@ -8796,7 +8812,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A100" s="22">
         <v>225.11</v>
       </c>
@@ -8863,7 +8879,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B101" s="23" t="s">
         <v>31</v>
       </c>
@@ -8924,7 +8940,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
         <v>227</v>
       </c>
@@ -8997,7 +9013,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A103" s="10">
         <v>227.1</v>
       </c>
@@ -9070,7 +9086,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A104" s="10">
         <v>227.2</v>
       </c>
@@ -9143,7 +9159,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A105" s="10">
         <v>227.3</v>
       </c>
@@ -9216,7 +9232,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
         <v>227.4</v>
       </c>
@@ -9289,7 +9305,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A107" s="10">
         <v>227.5</v>
       </c>
@@ -9362,7 +9378,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
       <c r="B110" s="12"/>
       <c r="C110" s="13"/>
@@ -9396,7 +9412,7 @@
       <c r="AG110" s="18"/>
       <c r="AK110" s="18"/>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A111" s="22">
         <v>301</v>
       </c>
@@ -9458,7 +9474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A112" s="22">
         <v>302</v>
       </c>
@@ -9520,7 +9536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A113" s="22">
         <v>303</v>
       </c>
@@ -9585,7 +9601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A114" s="22">
         <v>321</v>
       </c>
@@ -9649,7 +9665,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A115" s="22">
         <v>321.10000000000002</v>
       </c>
@@ -9713,7 +9729,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A116" s="22">
         <v>321.2</v>
       </c>
@@ -9777,7 +9793,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A117" s="22">
         <v>321.3</v>
       </c>
@@ -9841,7 +9857,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A118" s="22">
         <v>321.39999999999998</v>
       </c>
@@ -9905,7 +9921,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A119" s="22">
         <v>321.5</v>
       </c>
@@ -9969,7 +9985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="22">
         <v>324</v>
       </c>
@@ -10033,7 +10049,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="22">
         <v>324.10000000000002</v>
       </c>
@@ -10097,7 +10113,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="22">
         <v>324.2</v>
       </c>
@@ -10161,129 +10177,129 @@
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="10"/>
-    </row>
-    <row r="125" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="11"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="16"/>
-      <c r="N125" s="12"/>
-      <c r="O125" s="12"/>
-      <c r="P125" s="12"/>
-      <c r="Q125" s="12"/>
-      <c r="R125" s="12"/>
-      <c r="S125" s="12"/>
-      <c r="T125" s="12"/>
-      <c r="U125" s="12"/>
-      <c r="V125" s="12"/>
-      <c r="W125" s="12"/>
-      <c r="X125" s="17"/>
-      <c r="Y125" s="17"/>
-      <c r="Z125" s="17"/>
-      <c r="AA125" s="12"/>
-      <c r="AB125" s="12"/>
-      <c r="AC125" s="12"/>
-      <c r="AD125" s="12"/>
-      <c r="AF125" s="18"/>
-      <c r="AG125" s="18"/>
-      <c r="AK125" s="18"/>
-    </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A126" s="22">
+    <row r="123" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="22">
+        <v>304</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="C123" s="19">
+        <v>384000</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E123" s="21">
+        <v>1</v>
+      </c>
+      <c r="F123" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H123" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I123" s="10">
+        <v>1</v>
+      </c>
+      <c r="M123" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="N123" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O123" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P123" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="R123" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="U123" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="V123" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W123" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X123" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y123" s="20"/>
+      <c r="Z123" s="20"/>
+      <c r="AI123" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK123" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="10"/>
+    </row>
+    <row r="126" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="11"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="12"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
+      <c r="W126" s="12"/>
+      <c r="X126" s="17"/>
+      <c r="Y126" s="17"/>
+      <c r="Z126" s="17"/>
+      <c r="AA126" s="12"/>
+      <c r="AB126" s="12"/>
+      <c r="AC126" s="12"/>
+      <c r="AD126" s="12"/>
+      <c r="AF126" s="18"/>
+      <c r="AG126" s="18"/>
+      <c r="AK126" s="18"/>
+    </row>
+    <row r="127" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A127" s="22">
         <v>401</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C126" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D126" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="21">
-        <v>1</v>
-      </c>
-      <c r="F126" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="I126" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="M126" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N126" s="23">
-        <v>1000</v>
-      </c>
-      <c r="O126" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="P126" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R126" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S126" s="8"/>
-      <c r="T126" s="8"/>
-      <c r="U126" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V126" s="8">
-        <v>0</v>
-      </c>
-      <c r="W126" s="8">
-        <v>0</v>
-      </c>
-      <c r="X126" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI126" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK126" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="10">
-        <v>402</v>
       </c>
       <c r="B127" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="C127" s="19">
-        <v>97656</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>193</v>
+      <c r="C127" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="E127" s="21">
         <v>1</v>
       </c>
-      <c r="F127" s="10" t="s">
-        <v>329</v>
+      <c r="F127" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="G127" s="22" t="s">
         <v>10</v>
@@ -10291,51 +10307,51 @@
       <c r="H127" s="22">
         <v>0.2</v>
       </c>
-      <c r="I127" s="10">
+      <c r="I127" s="22">
         <v>0.5</v>
       </c>
       <c r="M127" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N127" s="23" t="s">
-        <v>162</v>
+      <c r="N127" s="23">
+        <v>1000</v>
       </c>
       <c r="O127" s="23" t="s">
         <v>47</v>
       </c>
       <c r="P127" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="R127" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="U127" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V127" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="W127" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="X127" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y127" s="20"/>
-      <c r="Z127" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="R127" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
+      <c r="U127" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V127" s="8">
+        <v>0</v>
+      </c>
+      <c r="W127" s="8">
+        <v>0</v>
+      </c>
+      <c r="X127" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="AI127" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK127" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10">
-        <v>402.1</v>
+        <v>402</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="C128" s="19">
         <v>97656</v>
@@ -10347,7 +10363,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G128" s="22" t="s">
         <v>10</v>
@@ -10371,7 +10387,7 @@
         <v>56</v>
       </c>
       <c r="R128" s="23" t="s">
-        <v>346</v>
+        <v>229</v>
       </c>
       <c r="U128" s="23" t="s">
         <v>51</v>
@@ -10394,24 +10410,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A129" s="22">
-        <v>403</v>
+    <row r="129" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="10">
+        <v>402.1</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C129" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D129" s="22" t="s">
-        <v>7</v>
+        <v>344</v>
+      </c>
+      <c r="C129" s="19">
+        <v>97656</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="E129" s="21">
         <v>1</v>
       </c>
-      <c r="F129" s="22" t="s">
-        <v>330</v>
+      <c r="F129" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="G129" s="22" t="s">
         <v>10</v>
@@ -10419,61 +10435,63 @@
       <c r="H129" s="22">
         <v>0.2</v>
       </c>
-      <c r="I129" s="22">
+      <c r="I129" s="10">
         <v>0.5</v>
       </c>
       <c r="M129" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N129" s="23">
-        <v>1000</v>
+      <c r="N129" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="O129" s="23" t="s">
         <v>47</v>
       </c>
       <c r="P129" s="23" t="s">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="R129" s="23" t="s">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="U129" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="V129" s="23">
-        <v>1</v>
-      </c>
-      <c r="W129" s="23">
-        <v>1</v>
-      </c>
-      <c r="X129" s="27" t="s">
-        <v>105</v>
-      </c>
+      <c r="V129" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W129" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X129" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y129" s="20"/>
+      <c r="Z129" s="20"/>
       <c r="AI129" s="21" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AK129" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A130" s="22">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C130" s="24">
         <v>97656</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E130" s="21">
         <v>1</v>
       </c>
       <c r="F130" s="22" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="G130" s="22" t="s">
         <v>10</v>
@@ -10484,61 +10502,58 @@
       <c r="I130" s="22">
         <v>0.5</v>
       </c>
-      <c r="L130" s="25">
-        <v>6000</v>
-      </c>
       <c r="M130" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="N130" s="26" t="s">
-        <v>307</v>
+        <v>117</v>
+      </c>
+      <c r="N130" s="23">
+        <v>1000</v>
       </c>
       <c r="O130" s="23" t="s">
         <v>47</v>
       </c>
       <c r="P130" s="23" t="s">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c r="R130" s="23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U130" s="23" t="s">
         <v>51</v>
       </c>
       <c r="V130" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W130" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X130" s="27" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="AI130" s="21" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AK130" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="131" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="22">
-        <v>404.1</v>
+        <v>404</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C131" s="24">
         <v>97656</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="E131" s="21">
         <v>1</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="G131" s="22" t="s">
         <v>10</v>
@@ -10547,16 +10562,16 @@
         <v>0.2</v>
       </c>
       <c r="I131" s="22">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L131" s="25">
         <v>6000</v>
       </c>
       <c r="M131" s="26" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="N131" s="26" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="O131" s="23" t="s">
         <v>47</v>
@@ -10579,43 +10594,31 @@
       <c r="X131" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AE131" s="21">
-        <v>6000</v>
-      </c>
-      <c r="AF131" s="28">
-        <v>500</v>
-      </c>
-      <c r="AG131" s="28">
-        <v>333</v>
-      </c>
-      <c r="AH131" s="21">
-        <v>5</v>
-      </c>
       <c r="AI131" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK131" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="132" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="22">
-        <v>404.2</v>
+        <v>404.1</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C132" s="24">
         <v>97656</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E132" s="21">
         <v>1</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G132" s="22" t="s">
         <v>10</v>
@@ -10624,19 +10627,19 @@
         <v>0.2</v>
       </c>
       <c r="I132" s="22">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L132" s="25">
         <v>6000</v>
       </c>
       <c r="M132" s="26" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="N132" s="26" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="O132" s="23" t="s">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="P132" s="23" t="s">
         <v>52</v>
@@ -10656,31 +10659,43 @@
       <c r="X132" s="27" t="s">
         <v>37</v>
       </c>
+      <c r="AE132" s="21">
+        <v>6000</v>
+      </c>
+      <c r="AF132" s="28">
+        <v>500</v>
+      </c>
+      <c r="AG132" s="28">
+        <v>333</v>
+      </c>
+      <c r="AH132" s="21">
+        <v>5</v>
+      </c>
       <c r="AI132" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK132" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="133" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="22">
-        <v>405</v>
+        <v>404.2</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C133" s="24">
         <v>97656</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>15</v>
+        <v>341</v>
       </c>
       <c r="E133" s="21">
         <v>1</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G133" s="22" t="s">
         <v>10</v>
@@ -10691,45 +10706,46 @@
       <c r="I133" s="22">
         <v>0.5</v>
       </c>
+      <c r="L133" s="25">
+        <v>6000</v>
+      </c>
       <c r="M133" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N133" s="23">
-        <v>1000</v>
+        <v>343</v>
+      </c>
+      <c r="N133" s="26" t="s">
+        <v>343</v>
       </c>
       <c r="O133" s="23" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="P133" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="R133" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S133" s="8"/>
-      <c r="T133" s="8"/>
-      <c r="U133" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V133" s="8">
+      <c r="R133" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U133" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V133" s="23">
         <v>0</v>
       </c>
-      <c r="W133" s="8">
+      <c r="W133" s="23">
         <v>0</v>
       </c>
       <c r="X133" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI133" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK133" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A134" s="22">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>324</v>
@@ -10738,13 +10754,13 @@
         <v>97656</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E134" s="21">
         <v>1</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="G134" s="22" t="s">
         <v>10</v>
@@ -10762,10 +10778,10 @@
         <v>1000</v>
       </c>
       <c r="O134" s="23" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="P134" s="23" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R134" s="8" t="s">
         <v>51</v>
@@ -10791,9 +10807,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:37" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A135" s="22">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>324</v>
@@ -10802,13 +10818,13 @@
         <v>97656</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="E135" s="21">
         <v>1</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="G135" s="22" t="s">
         <v>10</v>
@@ -10822,159 +10838,159 @@
       <c r="M135" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N135" s="23" t="s">
-        <v>162</v>
+      <c r="N135" s="23">
+        <v>1000</v>
       </c>
       <c r="O135" s="23" t="s">
         <v>47</v>
       </c>
       <c r="P135" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R135" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="S135" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="T135" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="U135" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V135" s="23">
-        <v>1</v>
-      </c>
-      <c r="W135" s="23" t="s">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="R135" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S135" s="8"/>
+      <c r="T135" s="8"/>
+      <c r="U135" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V135" s="8">
+        <v>0</v>
+      </c>
+      <c r="W135" s="8">
+        <v>0</v>
       </c>
       <c r="X135" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y135" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z135" s="27" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AI135" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK135" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:37" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="22">
+        <v>407</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C136" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="E136" s="21">
+        <v>1</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I136" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M136" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N136" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O136" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P136" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="R136" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="S136" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="T136" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="U136" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V136" s="23">
+        <v>1</v>
+      </c>
+      <c r="W136" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="X136" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y136" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z136" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI136" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK136" s="28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="1:37" s="32" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="29"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="31"/>
-      <c r="J136" s="30"/>
-      <c r="L136" s="33"/>
-      <c r="M136" s="34"/>
-      <c r="N136" s="30"/>
-      <c r="O136" s="30"/>
-      <c r="P136" s="30"/>
-      <c r="Q136" s="30"/>
-      <c r="R136" s="30"/>
-      <c r="S136" s="30"/>
-      <c r="T136" s="30"/>
-      <c r="U136" s="30"/>
-      <c r="V136" s="30"/>
-      <c r="W136" s="30"/>
-      <c r="X136" s="35"/>
-      <c r="Y136" s="35"/>
-      <c r="Z136" s="35"/>
-      <c r="AA136" s="30"/>
-      <c r="AB136" s="30"/>
-      <c r="AC136" s="30"/>
-      <c r="AD136" s="30"/>
-      <c r="AF136" s="30"/>
-      <c r="AG136" s="30"/>
-      <c r="AK136" s="30"/>
-    </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A137" s="22">
+    <row r="137" spans="1:37" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="29"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="31"/>
+      <c r="J137" s="30"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="34"/>
+      <c r="N137" s="30"/>
+      <c r="O137" s="30"/>
+      <c r="P137" s="30"/>
+      <c r="Q137" s="30"/>
+      <c r="R137" s="30"/>
+      <c r="S137" s="30"/>
+      <c r="T137" s="30"/>
+      <c r="U137" s="30"/>
+      <c r="V137" s="30"/>
+      <c r="W137" s="30"/>
+      <c r="X137" s="35"/>
+      <c r="Y137" s="35"/>
+      <c r="Z137" s="35"/>
+      <c r="AA137" s="30"/>
+      <c r="AB137" s="30"/>
+      <c r="AC137" s="30"/>
+      <c r="AD137" s="30"/>
+      <c r="AF137" s="30"/>
+      <c r="AG137" s="30"/>
+      <c r="AK137" s="30"/>
+    </row>
+    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A138" s="22">
         <v>401.22</v>
-      </c>
-      <c r="B137" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="C137" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137" s="21">
-        <v>1</v>
-      </c>
-      <c r="F137" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H137" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="I137" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="M137" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N137" s="23">
-        <v>1000</v>
-      </c>
-      <c r="O137" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="P137" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="R137" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S137" s="8"/>
-      <c r="T137" s="8"/>
-      <c r="U137" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V137" s="8">
-        <v>0</v>
-      </c>
-      <c r="W137" s="8">
-        <v>0</v>
-      </c>
-      <c r="X137" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI137" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK137" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="10">
-        <v>402.22</v>
       </c>
       <c r="B138" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="C138" s="19">
-        <v>97656</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>193</v>
+      <c r="C138" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="E138" s="21">
         <v>1</v>
       </c>
-      <c r="F138" s="10" t="s">
-        <v>345</v>
+      <c r="F138" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="G138" s="22" t="s">
         <v>10</v>
@@ -10982,48 +10998,48 @@
       <c r="H138" s="22">
         <v>0.2</v>
       </c>
-      <c r="I138" s="10">
+      <c r="I138" s="22">
         <v>0.5</v>
       </c>
       <c r="M138" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N138" s="23" t="s">
-        <v>162</v>
+      <c r="N138" s="23">
+        <v>1000</v>
       </c>
       <c r="O138" s="23" t="s">
         <v>47</v>
       </c>
       <c r="P138" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="R138" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="U138" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V138" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="W138" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="X138" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y138" s="20"/>
-      <c r="Z138" s="20"/>
+        <v>325</v>
+      </c>
+      <c r="R138" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S138" s="8"/>
+      <c r="T138" s="8"/>
+      <c r="U138" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V138" s="8">
+        <v>0</v>
+      </c>
+      <c r="W138" s="8">
+        <v>0</v>
+      </c>
+      <c r="X138" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="AI138" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK138" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10">
-        <v>402.221</v>
+        <v>402.22</v>
       </c>
       <c r="B139" s="23" t="s">
         <v>356</v>
@@ -11038,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="G139" s="22" t="s">
         <v>10</v>
@@ -11056,7 +11072,7 @@
         <v>162</v>
       </c>
       <c r="O139" s="23" t="s">
-        <v>360</v>
+        <v>47</v>
       </c>
       <c r="P139" s="23" t="s">
         <v>56</v>
@@ -11074,7 +11090,7 @@
         <v>51</v>
       </c>
       <c r="X139" s="20" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="Y139" s="20"/>
       <c r="Z139" s="20"/>
@@ -11085,24 +11101,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A140" s="22">
-        <v>403.22</v>
+    <row r="140" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="10">
+        <v>402.221</v>
       </c>
       <c r="B140" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="C140" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D140" s="22" t="s">
-        <v>7</v>
+      <c r="C140" s="19">
+        <v>97656</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="E140" s="21">
         <v>1</v>
       </c>
-      <c r="F140" s="22" t="s">
-        <v>330</v>
+      <c r="F140" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="G140" s="22" t="s">
         <v>10</v>
@@ -11110,46 +11126,48 @@
       <c r="H140" s="22">
         <v>0.2</v>
       </c>
-      <c r="I140" s="22">
+      <c r="I140" s="10">
         <v>0.5</v>
       </c>
       <c r="M140" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N140" s="23">
-        <v>1000</v>
+      <c r="N140" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="O140" s="23" t="s">
-        <v>47</v>
+        <v>360</v>
       </c>
       <c r="P140" s="23" t="s">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="R140" s="23" t="s">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="U140" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="V140" s="23">
-        <v>1</v>
-      </c>
-      <c r="W140" s="23">
-        <v>1</v>
-      </c>
-      <c r="X140" s="27" t="s">
-        <v>105</v>
-      </c>
+      <c r="V140" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W140" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X140" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y140" s="20"/>
+      <c r="Z140" s="20"/>
       <c r="AI140" s="21" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AK140" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="141" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A141" s="22">
-        <v>404.22</v>
+        <v>403.22</v>
       </c>
       <c r="B141" s="23" t="s">
         <v>356</v>
@@ -11158,13 +11176,13 @@
         <v>97656</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E141" s="21">
         <v>1</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="G141" s="22" t="s">
         <v>10</v>
@@ -11175,14 +11193,11 @@
       <c r="I141" s="22">
         <v>0.5</v>
       </c>
-      <c r="L141" s="25">
-        <v>6000</v>
-      </c>
       <c r="M141" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="N141" s="26" t="s">
-        <v>357</v>
+        <v>117</v>
+      </c>
+      <c r="N141" s="23">
+        <v>1000</v>
       </c>
       <c r="O141" s="23" t="s">
         <v>47</v>
@@ -11191,30 +11206,30 @@
         <v>325</v>
       </c>
       <c r="R141" s="23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U141" s="23" t="s">
         <v>51</v>
       </c>
       <c r="V141" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W141" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X141" s="27" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="AI141" s="21" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AK141" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="22">
-        <v>404.221</v>
+        <v>404.22</v>
       </c>
       <c r="B142" s="23" t="s">
         <v>356</v>
@@ -11223,13 +11238,13 @@
         <v>97656</v>
       </c>
       <c r="D142" s="22" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="E142" s="21">
         <v>1</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="G142" s="22" t="s">
         <v>10</v>
@@ -11238,16 +11253,16 @@
         <v>0.2</v>
       </c>
       <c r="I142" s="22">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L142" s="25">
         <v>6000</v>
       </c>
       <c r="M142" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N142" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O142" s="23" t="s">
         <v>47</v>
@@ -11270,28 +11285,16 @@
       <c r="X142" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AE142" s="21">
-        <v>6000</v>
-      </c>
-      <c r="AF142" s="28">
-        <v>500</v>
-      </c>
-      <c r="AG142" s="28">
-        <v>454.54</v>
-      </c>
-      <c r="AH142" s="21">
-        <v>5</v>
-      </c>
       <c r="AI142" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK142" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="143" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="22">
-        <v>404.22199999999998</v>
+        <v>404.221</v>
       </c>
       <c r="B143" s="23" t="s">
         <v>356</v>
@@ -11300,13 +11303,13 @@
         <v>97656</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E143" s="21">
         <v>1</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G143" s="22" t="s">
         <v>10</v>
@@ -11315,19 +11318,19 @@
         <v>0.2</v>
       </c>
       <c r="I143" s="22">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L143" s="25">
         <v>6000</v>
       </c>
       <c r="M143" s="26" t="s">
-        <v>189</v>
+        <v>358</v>
       </c>
       <c r="N143" s="26" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="O143" s="23" t="s">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="P143" s="23" t="s">
         <v>325</v>
@@ -11347,16 +11350,28 @@
       <c r="X143" s="27" t="s">
         <v>37</v>
       </c>
+      <c r="AE143" s="21">
+        <v>6000</v>
+      </c>
+      <c r="AF143" s="28">
+        <v>500</v>
+      </c>
+      <c r="AG143" s="28">
+        <v>454.54</v>
+      </c>
+      <c r="AH143" s="21">
+        <v>5</v>
+      </c>
       <c r="AI143" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK143" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="144" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="22">
-        <v>405.22</v>
+        <v>404.22199999999998</v>
       </c>
       <c r="B144" s="23" t="s">
         <v>356</v>
@@ -11365,13 +11380,13 @@
         <v>97656</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>15</v>
+        <v>341</v>
       </c>
       <c r="E144" s="21">
         <v>1</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G144" s="22" t="s">
         <v>10</v>
@@ -11382,45 +11397,46 @@
       <c r="I144" s="22">
         <v>0.5</v>
       </c>
+      <c r="L144" s="25">
+        <v>6000</v>
+      </c>
       <c r="M144" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N144" s="23">
-        <v>1000</v>
+        <v>189</v>
+      </c>
+      <c r="N144" s="26" t="s">
+        <v>343</v>
       </c>
       <c r="O144" s="23" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="P144" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="R144" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S144" s="8"/>
-      <c r="T144" s="8"/>
-      <c r="U144" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V144" s="8">
+      <c r="R144" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U144" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V144" s="23">
         <v>0</v>
       </c>
-      <c r="W144" s="8">
+      <c r="W144" s="23">
         <v>0</v>
       </c>
       <c r="X144" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI144" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK144" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A145" s="22">
-        <v>406.22</v>
+        <v>405.22</v>
       </c>
       <c r="B145" s="23" t="s">
         <v>356</v>
@@ -11429,13 +11445,13 @@
         <v>97656</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E145" s="21">
         <v>1</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="G145" s="22" t="s">
         <v>10</v>
@@ -11453,10 +11469,10 @@
         <v>1000</v>
       </c>
       <c r="O145" s="23" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="P145" s="23" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="R145" s="8" t="s">
         <v>51</v>
@@ -11482,9 +11498,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A146" s="22">
-        <v>407.22</v>
+        <v>406.22</v>
       </c>
       <c r="B146" s="23" t="s">
         <v>356</v>
@@ -11493,18 +11509,18 @@
         <v>97656</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="E146" s="21">
         <v>1</v>
       </c>
       <c r="F146" s="22" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="G146" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H146" s="10">
+      <c r="H146" s="22">
         <v>0.2</v>
       </c>
       <c r="I146" s="22">
@@ -11513,159 +11529,159 @@
       <c r="M146" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N146" s="23" t="s">
-        <v>162</v>
+      <c r="N146" s="23">
+        <v>1000</v>
       </c>
       <c r="O146" s="23" t="s">
         <v>47</v>
       </c>
       <c r="P146" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R146" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
+      <c r="U146" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V146" s="8">
+        <v>0</v>
+      </c>
+      <c r="W146" s="8">
+        <v>0</v>
+      </c>
+      <c r="X146" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI146" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK146" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:37" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="22">
+        <v>407.22</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C147" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="E147" s="21">
+        <v>1</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I147" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M147" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N147" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O147" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P147" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="R146" s="23" t="s">
+      <c r="R147" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="S146" s="23" t="s">
+      <c r="S147" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="T146" s="23" t="s">
+      <c r="T147" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="U146" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V146" s="23">
-        <v>1</v>
-      </c>
-      <c r="W146" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="X146" s="27" t="s">
+      <c r="U147" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V147" s="23">
+        <v>1</v>
+      </c>
+      <c r="W147" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="X147" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="Y146" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z146" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI146" s="21" t="s">
+      <c r="Y147" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z147" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI147" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AK146" s="28" t="s">
+      <c r="AK147" s="28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:37" s="32" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="29"/>
-      <c r="B147" s="30"/>
-      <c r="C147" s="31"/>
-      <c r="J147" s="30"/>
-      <c r="L147" s="33"/>
-      <c r="M147" s="34"/>
-      <c r="N147" s="30"/>
-      <c r="O147" s="30"/>
-      <c r="P147" s="30"/>
-      <c r="Q147" s="30"/>
-      <c r="R147" s="30"/>
-      <c r="S147" s="30"/>
-      <c r="T147" s="30"/>
-      <c r="U147" s="30"/>
-      <c r="V147" s="30"/>
-      <c r="W147" s="30"/>
-      <c r="X147" s="35"/>
-      <c r="Y147" s="35"/>
-      <c r="Z147" s="35"/>
-      <c r="AA147" s="30"/>
-      <c r="AB147" s="30"/>
-      <c r="AC147" s="30"/>
-      <c r="AD147" s="30"/>
-      <c r="AF147" s="30"/>
-      <c r="AG147" s="30"/>
-      <c r="AK147" s="30"/>
-    </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A148" s="22">
+    <row r="148" spans="1:37" s="32" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="29"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="31"/>
+      <c r="J148" s="30"/>
+      <c r="L148" s="33"/>
+      <c r="M148" s="34"/>
+      <c r="N148" s="30"/>
+      <c r="O148" s="30"/>
+      <c r="P148" s="30"/>
+      <c r="Q148" s="30"/>
+      <c r="R148" s="30"/>
+      <c r="S148" s="30"/>
+      <c r="T148" s="30"/>
+      <c r="U148" s="30"/>
+      <c r="V148" s="30"/>
+      <c r="W148" s="30"/>
+      <c r="X148" s="35"/>
+      <c r="Y148" s="35"/>
+      <c r="Z148" s="35"/>
+      <c r="AA148" s="30"/>
+      <c r="AB148" s="30"/>
+      <c r="AC148" s="30"/>
+      <c r="AD148" s="30"/>
+      <c r="AF148" s="30"/>
+      <c r="AG148" s="30"/>
+      <c r="AK148" s="30"/>
+    </row>
+    <row r="149" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A149" s="22">
         <v>401.33</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C148" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" s="21">
-        <v>1</v>
-      </c>
-      <c r="F148" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="G148" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H148" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="I148" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="M148" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N148" s="23">
-        <v>1000</v>
-      </c>
-      <c r="O148" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="P148" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R148" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S148" s="8"/>
-      <c r="T148" s="8"/>
-      <c r="U148" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V148" s="8">
-        <v>0</v>
-      </c>
-      <c r="W148" s="8">
-        <v>0</v>
-      </c>
-      <c r="X148" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI148" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK148" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="10">
-        <v>402.33</v>
       </c>
       <c r="B149" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C149" s="19">
-        <v>97656</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>193</v>
+      <c r="C149" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="E149" s="21">
         <v>1</v>
       </c>
-      <c r="F149" s="10" t="s">
-        <v>410</v>
+      <c r="F149" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="G149" s="22" t="s">
         <v>10</v>
@@ -11673,48 +11689,48 @@
       <c r="H149" s="22">
         <v>0.2</v>
       </c>
-      <c r="I149" s="10">
+      <c r="I149" s="22">
         <v>0.5</v>
       </c>
       <c r="M149" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N149" s="23" t="s">
-        <v>162</v>
+      <c r="N149" s="23">
+        <v>1000</v>
       </c>
       <c r="O149" s="23" t="s">
         <v>118</v>
       </c>
       <c r="P149" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="R149" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="U149" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V149" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="W149" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="X149" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y149" s="20"/>
-      <c r="Z149" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="R149" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
+      <c r="U149" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V149" s="8">
+        <v>0</v>
+      </c>
+      <c r="W149" s="8">
+        <v>0</v>
+      </c>
+      <c r="X149" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="AI149" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK149" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="150" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10">
-        <v>402.33100000000002</v>
+        <v>402.33</v>
       </c>
       <c r="B150" s="23" t="s">
         <v>409</v>
@@ -11729,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G150" s="22" t="s">
         <v>10</v>
@@ -11747,7 +11763,7 @@
         <v>162</v>
       </c>
       <c r="O150" s="23" t="s">
-        <v>414</v>
+        <v>118</v>
       </c>
       <c r="P150" s="23" t="s">
         <v>56</v>
@@ -11765,7 +11781,7 @@
         <v>51</v>
       </c>
       <c r="X150" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Y150" s="20"/>
       <c r="Z150" s="20"/>
@@ -11776,24 +11792,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A151" s="22">
-        <v>403.33</v>
+    <row r="151" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="10">
+        <v>402.33100000000002</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="C151" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>330</v>
+        <v>409</v>
+      </c>
+      <c r="C151" s="19">
+        <v>97656</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="E151" s="21">
         <v>1</v>
       </c>
-      <c r="F151" s="22" t="s">
-        <v>330</v>
+      <c r="F151" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="G151" s="22" t="s">
         <v>10</v>
@@ -11801,46 +11817,48 @@
       <c r="H151" s="22">
         <v>0.2</v>
       </c>
-      <c r="I151" s="22">
+      <c r="I151" s="10">
         <v>0.5</v>
       </c>
       <c r="M151" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N151" s="23">
-        <v>1000</v>
+      <c r="N151" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="O151" s="23" t="s">
-        <v>118</v>
+        <v>414</v>
       </c>
       <c r="P151" s="23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R151" s="23" t="s">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="U151" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="V151" s="23">
-        <v>1</v>
-      </c>
-      <c r="W151" s="23">
-        <v>1</v>
-      </c>
-      <c r="X151" s="27" t="s">
-        <v>105</v>
-      </c>
+      <c r="V151" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W151" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X151" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y151" s="20"/>
+      <c r="Z151" s="20"/>
       <c r="AI151" s="21" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AK151" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="152" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A152" s="22">
-        <v>404.33</v>
+        <v>403.33</v>
       </c>
       <c r="B152" s="23" t="s">
         <v>408</v>
@@ -11849,13 +11867,13 @@
         <v>97656</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="E152" s="21">
         <v>1</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="G152" s="22" t="s">
         <v>10</v>
@@ -11866,14 +11884,11 @@
       <c r="I152" s="22">
         <v>0.5</v>
       </c>
-      <c r="L152" s="25">
-        <v>6000</v>
-      </c>
       <c r="M152" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="N152" s="26" t="s">
-        <v>357</v>
+        <v>117</v>
+      </c>
+      <c r="N152" s="23">
+        <v>1000</v>
       </c>
       <c r="O152" s="23" t="s">
         <v>118</v>
@@ -11882,30 +11897,30 @@
         <v>52</v>
       </c>
       <c r="R152" s="23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U152" s="23" t="s">
         <v>51</v>
       </c>
       <c r="V152" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W152" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X152" s="27" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="AI152" s="21" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AK152" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="153" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="22">
-        <v>404.33100000000002</v>
+        <v>404.33</v>
       </c>
       <c r="B153" s="23" t="s">
         <v>408</v>
@@ -11914,13 +11929,13 @@
         <v>97656</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="E153" s="21">
         <v>1</v>
       </c>
       <c r="F153" s="22" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="G153" s="22" t="s">
         <v>10</v>
@@ -11929,16 +11944,16 @@
         <v>0.2</v>
       </c>
       <c r="I153" s="22">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L153" s="25">
         <v>6000</v>
       </c>
       <c r="M153" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N153" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O153" s="23" t="s">
         <v>118</v>
@@ -11961,28 +11976,16 @@
       <c r="X153" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AE153" s="21">
-        <v>6000</v>
-      </c>
-      <c r="AF153" s="28">
-        <v>250</v>
-      </c>
-      <c r="AG153" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="AH153" s="21">
-        <v>5</v>
-      </c>
       <c r="AI153" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK153" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="22">
-        <v>405.33</v>
+        <v>404.33100000000002</v>
       </c>
       <c r="B154" s="23" t="s">
         <v>408</v>
@@ -11991,13 +11994,13 @@
         <v>97656</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c r="E154" s="21">
         <v>1</v>
       </c>
       <c r="F154" s="22" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G154" s="22" t="s">
         <v>10</v>
@@ -12006,47 +12009,60 @@
         <v>0.2</v>
       </c>
       <c r="I154" s="22">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="L154" s="25">
+        <v>6000</v>
       </c>
       <c r="M154" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N154" s="23">
-        <v>1000</v>
+        <v>358</v>
+      </c>
+      <c r="N154" s="26" t="s">
+        <v>358</v>
       </c>
       <c r="O154" s="23" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="P154" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="R154" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S154" s="8"/>
-      <c r="T154" s="8"/>
-      <c r="U154" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V154" s="8">
+      <c r="R154" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U154" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V154" s="23">
         <v>0</v>
       </c>
-      <c r="W154" s="8">
+      <c r="W154" s="23">
         <v>0</v>
       </c>
       <c r="X154" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="AE154" s="21">
+        <v>6000</v>
+      </c>
+      <c r="AF154" s="28">
+        <v>250</v>
+      </c>
+      <c r="AG154" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH154" s="21">
+        <v>5</v>
       </c>
       <c r="AI154" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK154" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="155" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A155" s="22">
-        <v>406.33</v>
+        <v>405.33</v>
       </c>
       <c r="B155" s="23" t="s">
         <v>408</v>
@@ -12055,13 +12071,13 @@
         <v>97656</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E155" s="21">
         <v>1</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="G155" s="22" t="s">
         <v>10</v>
@@ -12079,10 +12095,10 @@
         <v>1000</v>
       </c>
       <c r="O155" s="23" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="P155" s="23" t="s">
-        <v>412</v>
+        <v>52</v>
       </c>
       <c r="R155" s="8" t="s">
         <v>51</v>
@@ -12108,9 +12124,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:37" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A156" s="22">
-        <v>407.33</v>
+        <v>406.33</v>
       </c>
       <c r="B156" s="23" t="s">
         <v>408</v>
@@ -12119,13 +12135,13 @@
         <v>97656</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="E156" s="21">
         <v>1</v>
       </c>
       <c r="F156" s="22" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="G156" s="22" t="s">
         <v>10</v>
@@ -12139,159 +12155,159 @@
       <c r="M156" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N156" s="23" t="s">
-        <v>162</v>
+      <c r="N156" s="23">
+        <v>1000</v>
       </c>
       <c r="O156" s="23" t="s">
         <v>118</v>
       </c>
       <c r="P156" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="R156" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S156" s="8"/>
+      <c r="T156" s="8"/>
+      <c r="U156" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V156" s="8">
+        <v>0</v>
+      </c>
+      <c r="W156" s="8">
+        <v>0</v>
+      </c>
+      <c r="X156" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI156" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK156" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:37" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="22">
+        <v>407.33</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C157" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="E157" s="21">
+        <v>1</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G157" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I157" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M157" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N157" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O157" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P157" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="R156" s="23" t="s">
+      <c r="R157" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="S156" s="23" t="s">
+      <c r="S157" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="T156" s="23" t="s">
+      <c r="T157" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="U156" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V156" s="23">
-        <v>1</v>
-      </c>
-      <c r="W156" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="X156" s="27" t="s">
+      <c r="U157" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V157" s="23">
+        <v>1</v>
+      </c>
+      <c r="W157" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="X157" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="Y156" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z156" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI156" s="21" t="s">
+      <c r="Y157" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z157" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI157" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AK156" s="28" t="s">
+      <c r="AK157" s="28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="157" spans="1:37" s="32" customFormat="1" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="29"/>
-      <c r="B157" s="30"/>
-      <c r="C157" s="31"/>
-      <c r="J157" s="30"/>
-      <c r="L157" s="33"/>
-      <c r="M157" s="34"/>
-      <c r="N157" s="30"/>
-      <c r="O157" s="30"/>
-      <c r="P157" s="30"/>
-      <c r="Q157" s="30"/>
-      <c r="R157" s="30"/>
-      <c r="S157" s="30"/>
-      <c r="T157" s="30"/>
-      <c r="U157" s="30"/>
-      <c r="V157" s="30"/>
-      <c r="W157" s="30"/>
-      <c r="X157" s="35"/>
-      <c r="Y157" s="35"/>
-      <c r="Z157" s="35"/>
-      <c r="AA157" s="30"/>
-      <c r="AB157" s="30"/>
-      <c r="AC157" s="30"/>
-      <c r="AD157" s="30"/>
-      <c r="AF157" s="30"/>
-      <c r="AG157" s="30"/>
-      <c r="AK157" s="30"/>
-    </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A158" s="22">
+    <row r="158" spans="1:37" s="32" customFormat="1" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="29"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="31"/>
+      <c r="J158" s="30"/>
+      <c r="L158" s="33"/>
+      <c r="M158" s="34"/>
+      <c r="N158" s="30"/>
+      <c r="O158" s="30"/>
+      <c r="P158" s="30"/>
+      <c r="Q158" s="30"/>
+      <c r="R158" s="30"/>
+      <c r="S158" s="30"/>
+      <c r="T158" s="30"/>
+      <c r="U158" s="30"/>
+      <c r="V158" s="30"/>
+      <c r="W158" s="30"/>
+      <c r="X158" s="35"/>
+      <c r="Y158" s="35"/>
+      <c r="Z158" s="35"/>
+      <c r="AA158" s="30"/>
+      <c r="AB158" s="30"/>
+      <c r="AC158" s="30"/>
+      <c r="AD158" s="30"/>
+      <c r="AF158" s="30"/>
+      <c r="AG158" s="30"/>
+      <c r="AK158" s="30"/>
+    </row>
+    <row r="159" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A159" s="22">
         <v>401.44</v>
-      </c>
-      <c r="B158" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C158" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D158" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="21">
-        <v>1</v>
-      </c>
-      <c r="F158" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="G158" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H158" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="I158" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="M158" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N158" s="23">
-        <v>1000</v>
-      </c>
-      <c r="O158" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="P158" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R158" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S158" s="8"/>
-      <c r="T158" s="8"/>
-      <c r="U158" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V158" s="8">
-        <v>0</v>
-      </c>
-      <c r="W158" s="8">
-        <v>0</v>
-      </c>
-      <c r="X158" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI158" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK158" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="10">
-        <v>402.44</v>
       </c>
       <c r="B159" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C159" s="19">
-        <v>97656</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>193</v>
+      <c r="C159" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="E159" s="21">
         <v>1</v>
       </c>
-      <c r="F159" s="10" t="s">
-        <v>345</v>
+      <c r="F159" s="22" t="s">
+        <v>420</v>
       </c>
       <c r="G159" s="22" t="s">
         <v>10</v>
@@ -12299,48 +12315,48 @@
       <c r="H159" s="22">
         <v>0.2</v>
       </c>
-      <c r="I159" s="10">
+      <c r="I159" s="22">
         <v>0.5</v>
       </c>
       <c r="M159" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N159" s="23" t="s">
-        <v>162</v>
+      <c r="N159" s="23">
+        <v>1000</v>
       </c>
       <c r="O159" s="23" t="s">
         <v>47</v>
       </c>
       <c r="P159" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="R159" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="U159" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V159" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="W159" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="X159" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y159" s="20"/>
-      <c r="Z159" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="R159" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S159" s="8"/>
+      <c r="T159" s="8"/>
+      <c r="U159" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V159" s="8">
+        <v>0</v>
+      </c>
+      <c r="W159" s="8">
+        <v>0</v>
+      </c>
+      <c r="X159" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="AI159" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK159" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="160" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10">
-        <v>402.44099999999997</v>
+        <v>402.44</v>
       </c>
       <c r="B160" s="23" t="s">
         <v>409</v>
@@ -12355,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
       <c r="G160" s="22" t="s">
         <v>10</v>
@@ -12373,7 +12389,7 @@
         <v>162</v>
       </c>
       <c r="O160" s="23" t="s">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c r="P160" s="23" t="s">
         <v>56</v>
@@ -12391,7 +12407,7 @@
         <v>51</v>
       </c>
       <c r="X160" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Y160" s="20"/>
       <c r="Z160" s="20"/>
@@ -12402,12 +12418,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10">
-        <v>402.44200000000001</v>
+        <v>402.44099999999997</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="C161" s="19">
         <v>97656</v>
@@ -12419,7 +12435,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="G161" s="22" t="s">
         <v>10</v>
@@ -12437,13 +12453,13 @@
         <v>162</v>
       </c>
       <c r="O161" s="23" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="P161" s="23" t="s">
         <v>56</v>
       </c>
       <c r="R161" s="23" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="U161" s="23" t="s">
         <v>51</v>
@@ -12455,7 +12471,7 @@
         <v>51</v>
       </c>
       <c r="X161" s="20" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="Y161" s="20"/>
       <c r="Z161" s="20"/>
@@ -12466,24 +12482,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A162" s="22">
-        <v>403.44</v>
+    <row r="162" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="10">
+        <v>402.44200000000001</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="C162" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>330</v>
+        <v>442</v>
+      </c>
+      <c r="C162" s="19">
+        <v>97656</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="E162" s="21">
         <v>1</v>
       </c>
-      <c r="F162" s="22" t="s">
-        <v>419</v>
+      <c r="F162" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="G162" s="22" t="s">
         <v>10</v>
@@ -12491,46 +12507,48 @@
       <c r="H162" s="22">
         <v>0.2</v>
       </c>
-      <c r="I162" s="22">
+      <c r="I162" s="10">
         <v>0.5</v>
       </c>
       <c r="M162" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N162" s="23">
-        <v>1000</v>
+      <c r="N162" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="O162" s="23" t="s">
         <v>47</v>
       </c>
       <c r="P162" s="23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R162" s="23" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="U162" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="V162" s="23">
-        <v>1</v>
-      </c>
-      <c r="W162" s="23">
-        <v>1</v>
-      </c>
-      <c r="X162" s="27" t="s">
-        <v>105</v>
-      </c>
+      <c r="V162" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W162" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X162" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y162" s="20"/>
+      <c r="Z162" s="20"/>
       <c r="AI162" s="21" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AK162" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="163" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A163" s="22">
-        <v>404.44</v>
+        <v>403.44</v>
       </c>
       <c r="B163" s="23" t="s">
         <v>408</v>
@@ -12539,13 +12557,13 @@
         <v>97656</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="E163" s="21">
         <v>1</v>
       </c>
       <c r="F163" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G163" s="22" t="s">
         <v>10</v>
@@ -12556,14 +12574,11 @@
       <c r="I163" s="22">
         <v>0.5</v>
       </c>
-      <c r="L163" s="25">
-        <v>6000</v>
-      </c>
       <c r="M163" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="N163" s="26" t="s">
-        <v>357</v>
+        <v>117</v>
+      </c>
+      <c r="N163" s="23">
+        <v>1000</v>
       </c>
       <c r="O163" s="23" t="s">
         <v>47</v>
@@ -12572,30 +12587,30 @@
         <v>52</v>
       </c>
       <c r="R163" s="23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U163" s="23" t="s">
         <v>51</v>
       </c>
       <c r="V163" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W163" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X163" s="27" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="AI163" s="21" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AK163" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="164" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="22">
-        <v>404.44099999999997</v>
+        <v>404.44</v>
       </c>
       <c r="B164" s="23" t="s">
         <v>408</v>
@@ -12604,13 +12619,13 @@
         <v>97656</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="E164" s="21">
         <v>1</v>
       </c>
       <c r="F164" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G164" s="22" t="s">
         <v>10</v>
@@ -12619,16 +12634,16 @@
         <v>0.2</v>
       </c>
       <c r="I164" s="22">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L164" s="25">
         <v>6000</v>
       </c>
       <c r="M164" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N164" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O164" s="23" t="s">
         <v>47</v>
@@ -12651,28 +12666,16 @@
       <c r="X164" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AE164" s="21">
-        <v>6000</v>
-      </c>
-      <c r="AF164" s="28">
-        <v>500</v>
-      </c>
-      <c r="AG164" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="AH164" s="21">
-        <v>5</v>
-      </c>
       <c r="AI164" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK164" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="22">
-        <v>405.44</v>
+        <v>404.44099999999997</v>
       </c>
       <c r="B165" s="23" t="s">
         <v>408</v>
@@ -12681,13 +12684,13 @@
         <v>97656</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c r="E165" s="21">
         <v>1</v>
       </c>
       <c r="F165" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G165" s="22" t="s">
         <v>10</v>
@@ -12696,47 +12699,60 @@
         <v>0.2</v>
       </c>
       <c r="I165" s="22">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="L165" s="25">
+        <v>6000</v>
       </c>
       <c r="M165" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N165" s="23">
-        <v>1000</v>
+        <v>358</v>
+      </c>
+      <c r="N165" s="26" t="s">
+        <v>358</v>
       </c>
       <c r="O165" s="23" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="P165" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="R165" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S165" s="8"/>
-      <c r="T165" s="8"/>
-      <c r="U165" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V165" s="8">
+      <c r="R165" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U165" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V165" s="23">
         <v>0</v>
       </c>
-      <c r="W165" s="8">
+      <c r="W165" s="23">
         <v>0</v>
       </c>
       <c r="X165" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="AE165" s="21">
+        <v>6000</v>
+      </c>
+      <c r="AF165" s="28">
+        <v>500</v>
+      </c>
+      <c r="AG165" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="AH165" s="21">
+        <v>5</v>
       </c>
       <c r="AI165" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK165" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A166" s="22">
-        <v>406.44</v>
+        <v>405.44</v>
       </c>
       <c r="B166" s="23" t="s">
         <v>408</v>
@@ -12745,13 +12761,13 @@
         <v>97656</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E166" s="21">
         <v>1</v>
       </c>
       <c r="F166" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G166" s="22" t="s">
         <v>10</v>
@@ -12769,10 +12785,10 @@
         <v>1000</v>
       </c>
       <c r="O166" s="23" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="P166" s="23" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R166" s="8" t="s">
         <v>51</v>
@@ -12798,9 +12814,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:37" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A167" s="22">
-        <v>407.44</v>
+        <v>406.44</v>
       </c>
       <c r="B167" s="23" t="s">
         <v>408</v>
@@ -12809,13 +12825,13 @@
         <v>97656</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="E167" s="21">
         <v>1</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G167" s="22" t="s">
         <v>10</v>
@@ -12829,159 +12845,159 @@
       <c r="M167" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N167" s="23" t="s">
-        <v>162</v>
+      <c r="N167" s="23">
+        <v>1000</v>
       </c>
       <c r="O167" s="23" t="s">
         <v>47</v>
       </c>
       <c r="P167" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R167" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S167" s="8"/>
+      <c r="T167" s="8"/>
+      <c r="U167" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V167" s="8">
+        <v>0</v>
+      </c>
+      <c r="W167" s="8">
+        <v>0</v>
+      </c>
+      <c r="X167" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI167" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK167" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:37" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="22">
+        <v>407.44</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C168" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="E168" s="21">
+        <v>1</v>
+      </c>
+      <c r="F168" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="G168" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I168" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M168" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N168" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O168" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P168" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="R167" s="23" t="s">
+      <c r="R168" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="S167" s="23" t="s">
+      <c r="S168" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="T167" s="23" t="s">
+      <c r="T168" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="U167" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V167" s="23">
-        <v>1</v>
-      </c>
-      <c r="W167" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="X167" s="27" t="s">
+      <c r="U168" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V168" s="23">
+        <v>1</v>
+      </c>
+      <c r="W168" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="X168" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="Y167" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z167" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI167" s="21" t="s">
+      <c r="Y168" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z168" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI168" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AK167" s="28" t="s">
+      <c r="AK168" s="28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="168" spans="1:37" s="39" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="36"/>
-      <c r="B168" s="37"/>
-      <c r="C168" s="38"/>
-      <c r="J168" s="37"/>
-      <c r="L168" s="40"/>
-      <c r="M168" s="41"/>
-      <c r="N168" s="37"/>
-      <c r="O168" s="37"/>
-      <c r="P168" s="37"/>
-      <c r="Q168" s="37"/>
-      <c r="R168" s="37"/>
-      <c r="S168" s="37"/>
-      <c r="T168" s="37"/>
-      <c r="U168" s="37"/>
-      <c r="V168" s="37"/>
-      <c r="W168" s="37"/>
-      <c r="X168" s="42"/>
-      <c r="Y168" s="42"/>
-      <c r="Z168" s="42"/>
-      <c r="AA168" s="37"/>
-      <c r="AB168" s="37"/>
-      <c r="AC168" s="37"/>
-      <c r="AD168" s="37"/>
-      <c r="AF168" s="37"/>
-      <c r="AG168" s="37"/>
-      <c r="AK168" s="37"/>
-    </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A169" s="22">
+    <row r="169" spans="1:37" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="36"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="38"/>
+      <c r="J169" s="37"/>
+      <c r="L169" s="40"/>
+      <c r="M169" s="41"/>
+      <c r="N169" s="37"/>
+      <c r="O169" s="37"/>
+      <c r="P169" s="37"/>
+      <c r="Q169" s="37"/>
+      <c r="R169" s="37"/>
+      <c r="S169" s="37"/>
+      <c r="T169" s="37"/>
+      <c r="U169" s="37"/>
+      <c r="V169" s="37"/>
+      <c r="W169" s="37"/>
+      <c r="X169" s="42"/>
+      <c r="Y169" s="42"/>
+      <c r="Z169" s="42"/>
+      <c r="AA169" s="37"/>
+      <c r="AB169" s="37"/>
+      <c r="AC169" s="37"/>
+      <c r="AD169" s="37"/>
+      <c r="AF169" s="37"/>
+      <c r="AG169" s="37"/>
+      <c r="AK169" s="37"/>
+    </row>
+    <row r="170" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A170" s="22">
         <v>501</v>
       </c>
-      <c r="B169" s="23" t="s">
+      <c r="B170" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C169" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D169" s="22" t="s">
+      <c r="C170" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D170" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E169" s="21">
-        <v>1</v>
-      </c>
-      <c r="F169" s="22" t="s">
+      <c r="E170" s="21">
+        <v>1</v>
+      </c>
+      <c r="F170" s="22" t="s">
         <v>362</v>
-      </c>
-      <c r="G169" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="H169" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="I169" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="M169" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N169" s="23">
-        <v>1000</v>
-      </c>
-      <c r="O169" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="P169" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="R169" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S169" s="8"/>
-      <c r="T169" s="8"/>
-      <c r="U169" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V169" s="8">
-        <v>0</v>
-      </c>
-      <c r="W169" s="8">
-        <v>0</v>
-      </c>
-      <c r="X169" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI169" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK169" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A170" s="22">
-        <v>501.1</v>
-      </c>
-      <c r="B170" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="C170" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D170" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" s="21">
-        <v>1</v>
-      </c>
-      <c r="F170" s="22" t="s">
-        <v>136</v>
       </c>
       <c r="G170" s="22" t="s">
         <v>371</v>
@@ -12990,33 +13006,50 @@
         <v>0.2</v>
       </c>
       <c r="I170" s="22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M170" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N170" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF170" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="AG170" s="28" t="s">
-        <v>404</v>
+      <c r="N170" s="23">
+        <v>1000</v>
+      </c>
+      <c r="O170" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P170" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="R170" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S170" s="8"/>
+      <c r="T170" s="8"/>
+      <c r="U170" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V170" s="8">
+        <v>0</v>
+      </c>
+      <c r="W170" s="8">
+        <v>0</v>
+      </c>
+      <c r="X170" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="AI170" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK170" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A171" s="22">
-        <v>501.2</v>
+        <v>501.1</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C171" s="24">
         <v>97656</v>
@@ -13046,10 +13079,10 @@
         <v>162</v>
       </c>
       <c r="AF171" s="28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AG171" s="28" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AI171" s="21" t="s">
         <v>19</v>
@@ -13058,24 +13091,24 @@
         <v>91</v>
       </c>
     </row>
-    <row r="172" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="10">
-        <v>502</v>
+    <row r="172" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A172" s="22">
+        <v>501.2</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C172" s="19">
-        <v>97656</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>193</v>
+        <v>405</v>
+      </c>
+      <c r="C172" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="E172" s="21">
         <v>1</v>
       </c>
-      <c r="F172" s="10" t="s">
-        <v>372</v>
+      <c r="F172" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="G172" s="22" t="s">
         <v>371</v>
@@ -13083,8 +13116,8 @@
       <c r="H172" s="22">
         <v>0.2</v>
       </c>
-      <c r="I172" s="10">
-        <v>0.5</v>
+      <c r="I172" s="22">
+        <v>1</v>
       </c>
       <c r="M172" s="26" t="s">
         <v>117</v>
@@ -13092,54 +13125,37 @@
       <c r="N172" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="O172" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="P172" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="R172" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="U172" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V172" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="W172" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="X172" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y172" s="20"/>
-      <c r="Z172" s="20"/>
+      <c r="AF172" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG172" s="28" t="s">
+        <v>407</v>
+      </c>
       <c r="AI172" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK172" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A173" s="22">
-        <v>503</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="10">
+        <v>502</v>
       </c>
       <c r="B173" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C173" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D173" s="22" t="s">
-        <v>7</v>
+      <c r="C173" s="19">
+        <v>97656</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="E173" s="21">
         <v>1</v>
       </c>
-      <c r="F173" s="22" t="s">
-        <v>363</v>
+      <c r="F173" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="G173" s="22" t="s">
         <v>371</v>
@@ -13147,61 +13163,63 @@
       <c r="H173" s="22">
         <v>0.2</v>
       </c>
-      <c r="I173" s="22">
+      <c r="I173" s="10">
         <v>0.5</v>
       </c>
       <c r="M173" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N173" s="23">
-        <v>1000</v>
+      <c r="N173" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="O173" s="23" t="s">
         <v>118</v>
       </c>
       <c r="P173" s="23" t="s">
-        <v>373</v>
+        <v>119</v>
       </c>
       <c r="R173" s="23" t="s">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="U173" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="V173" s="23">
-        <v>1</v>
-      </c>
-      <c r="W173" s="23">
-        <v>1</v>
-      </c>
-      <c r="X173" s="27" t="s">
-        <v>105</v>
-      </c>
+      <c r="V173" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W173" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X173" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y173" s="20"/>
+      <c r="Z173" s="20"/>
       <c r="AI173" s="21" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AK173" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="174" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A174" s="22">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C174" s="24">
         <v>97656</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E174" s="21">
         <v>1</v>
       </c>
       <c r="F174" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G174" s="22" t="s">
         <v>371</v>
@@ -13212,14 +13230,11 @@
       <c r="I174" s="22">
         <v>0.5</v>
       </c>
-      <c r="L174" s="25">
-        <v>6000</v>
-      </c>
       <c r="M174" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="N174" s="26" t="s">
-        <v>357</v>
+        <v>117</v>
+      </c>
+      <c r="N174" s="23">
+        <v>1000</v>
       </c>
       <c r="O174" s="23" t="s">
         <v>118</v>
@@ -13228,30 +13243,30 @@
         <v>373</v>
       </c>
       <c r="R174" s="23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U174" s="23" t="s">
         <v>51</v>
       </c>
       <c r="V174" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W174" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X174" s="27" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="AI174" s="21" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AK174" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="175" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="22">
-        <v>504.1</v>
+        <v>504</v>
       </c>
       <c r="B175" s="23" t="s">
         <v>369</v>
@@ -13260,13 +13275,13 @@
         <v>97656</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="E175" s="21">
         <v>1</v>
       </c>
       <c r="F175" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G175" s="22" t="s">
         <v>371</v>
@@ -13275,16 +13290,16 @@
         <v>0.2</v>
       </c>
       <c r="I175" s="22">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L175" s="25">
         <v>6000</v>
       </c>
       <c r="M175" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N175" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O175" s="23" t="s">
         <v>118</v>
@@ -13307,43 +13322,31 @@
       <c r="X175" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AE175" s="21">
-        <v>6000</v>
-      </c>
-      <c r="AF175" s="28">
-        <v>500</v>
-      </c>
-      <c r="AG175" s="28">
-        <v>454.54</v>
-      </c>
-      <c r="AH175" s="21">
-        <v>5</v>
-      </c>
       <c r="AI175" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK175" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="176" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="176" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="22">
-        <v>504.2</v>
+        <v>504.1</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="C176" s="24">
         <v>97656</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>23</v>
+        <v>333</v>
       </c>
       <c r="E176" s="21">
         <v>1</v>
       </c>
       <c r="F176" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G176" s="22" t="s">
         <v>371</v>
@@ -13352,16 +13355,16 @@
         <v>0.2</v>
       </c>
       <c r="I176" s="22">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L176" s="25">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M176" s="26" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="N176" s="26" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="O176" s="23" t="s">
         <v>118</v>
@@ -13384,16 +13387,28 @@
       <c r="X176" s="27" t="s">
         <v>37</v>
       </c>
+      <c r="AE176" s="21">
+        <v>6000</v>
+      </c>
+      <c r="AF176" s="28">
+        <v>500</v>
+      </c>
+      <c r="AG176" s="28">
+        <v>454.54</v>
+      </c>
+      <c r="AH176" s="21">
+        <v>5</v>
+      </c>
       <c r="AI176" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK176" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="177" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="177" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="22">
-        <v>504.3</v>
+        <v>504.2</v>
       </c>
       <c r="B177" s="23" t="s">
         <v>396</v>
@@ -13402,13 +13417,13 @@
         <v>97656</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="E177" s="21">
         <v>1</v>
       </c>
       <c r="F177" s="22" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="G177" s="22" t="s">
         <v>371</v>
@@ -13417,7 +13432,7 @@
         <v>0.2</v>
       </c>
       <c r="I177" s="22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L177" s="25">
         <v>10000</v>
@@ -13449,28 +13464,16 @@
       <c r="X177" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AE177" s="21">
-        <v>10000</v>
-      </c>
-      <c r="AF177" s="28">
-        <v>250</v>
-      </c>
-      <c r="AG177" s="28">
-        <v>246</v>
-      </c>
-      <c r="AH177" s="21">
-        <v>1</v>
-      </c>
       <c r="AI177" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK177" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="178" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="22">
-        <v>504.4</v>
+        <v>504.3</v>
       </c>
       <c r="B178" s="23" t="s">
         <v>396</v>
@@ -13485,7 +13488,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G178" s="22" t="s">
         <v>371</v>
@@ -13533,7 +13536,7 @@
         <v>250</v>
       </c>
       <c r="AG178" s="28">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AH178" s="21">
         <v>1</v>
@@ -13545,24 +13548,24 @@
         <v>338</v>
       </c>
     </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="22">
-        <v>505</v>
+        <v>504.4</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C179" s="24">
         <v>97656</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c r="E179" s="21">
         <v>1</v>
       </c>
       <c r="F179" s="22" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="G179" s="22" t="s">
         <v>371</v>
@@ -13571,47 +13574,60 @@
         <v>0.2</v>
       </c>
       <c r="I179" s="22">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="L179" s="25">
+        <v>10000</v>
       </c>
       <c r="M179" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N179" s="23">
-        <v>1000</v>
+        <v>397</v>
+      </c>
+      <c r="N179" s="26" t="s">
+        <v>397</v>
       </c>
       <c r="O179" s="23" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="P179" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="R179" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S179" s="8"/>
-      <c r="T179" s="8"/>
-      <c r="U179" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V179" s="8">
+        <v>373</v>
+      </c>
+      <c r="R179" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U179" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V179" s="23">
         <v>0</v>
       </c>
-      <c r="W179" s="8">
+      <c r="W179" s="23">
         <v>0</v>
       </c>
       <c r="X179" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="AE179" s="21">
+        <v>10000</v>
+      </c>
+      <c r="AF179" s="28">
+        <v>250</v>
+      </c>
+      <c r="AG179" s="28">
+        <v>240</v>
+      </c>
+      <c r="AH179" s="21">
+        <v>1</v>
       </c>
       <c r="AI179" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK179" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="180" spans="1:37" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A180" s="22">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B180" s="23" t="s">
         <v>369</v>
@@ -13620,13 +13636,13 @@
         <v>97656</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E180" s="21">
         <v>1</v>
       </c>
       <c r="F180" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G180" s="22" t="s">
         <v>371</v>
@@ -13644,10 +13660,10 @@
         <v>1000</v>
       </c>
       <c r="O180" s="23" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="P180" s="23" t="s">
-        <v>375</v>
+        <v>119</v>
       </c>
       <c r="R180" s="8" t="s">
         <v>51</v>
@@ -13673,12 +13689,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A181" s="22">
-        <v>506.1</v>
+        <v>506</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="C181" s="24">
         <v>97656</v>
@@ -13711,7 +13727,7 @@
         <v>118</v>
       </c>
       <c r="P181" s="23" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="R181" s="8" t="s">
         <v>51</v>
@@ -13737,24 +13753,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A182" s="22">
-        <v>507</v>
+        <v>506.1</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="C182" s="24">
         <v>97656</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="E182" s="21">
         <v>1</v>
       </c>
       <c r="F182" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G182" s="22" t="s">
         <v>371</v>
@@ -13768,67 +13784,57 @@
       <c r="M182" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N182" s="23" t="s">
-        <v>162</v>
+      <c r="N182" s="23">
+        <v>1000</v>
       </c>
       <c r="O182" s="23" t="s">
         <v>118</v>
       </c>
       <c r="P182" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="R182" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="S182" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="T182" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="U182" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V182" s="23">
-        <v>1</v>
-      </c>
-      <c r="W182" s="23" t="s">
-        <v>56</v>
+        <v>401</v>
+      </c>
+      <c r="R182" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S182" s="8"/>
+      <c r="T182" s="8"/>
+      <c r="U182" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V182" s="8">
+        <v>0</v>
+      </c>
+      <c r="W182" s="8">
+        <v>0</v>
       </c>
       <c r="X182" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y182" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z182" s="27" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AI182" s="21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AK182" s="28" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="183" spans="1:37" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="22">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C183" s="24">
         <v>97656</v>
       </c>
-      <c r="D183" s="10" t="s">
-        <v>73</v>
+      <c r="D183" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="E183" s="21">
         <v>1</v>
       </c>
-      <c r="F183" s="10" t="s">
-        <v>376</v>
+      <c r="F183" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="G183" s="22" t="s">
         <v>371</v>
@@ -13836,63 +13842,73 @@
       <c r="H183" s="22">
         <v>0.2</v>
       </c>
-      <c r="I183" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J183" s="8"/>
-      <c r="K183" s="10"/>
+      <c r="I183" s="22">
+        <v>0.5</v>
+      </c>
       <c r="M183" s="26" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="N183" s="23" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="O183" s="23" t="s">
-        <v>377</v>
+        <v>118</v>
       </c>
       <c r="P183" s="23" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="R183" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="S183" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="T183" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="U183" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="V183" s="23" t="s">
-        <v>51</v>
+        <v>51</v>
+      </c>
+      <c r="V183" s="23">
+        <v>1</v>
       </c>
       <c r="W183" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X183" s="27" t="s">
         <v>54</v>
       </c>
+      <c r="Y183" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z183" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="AI183" s="21" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK183" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="184" spans="1:37" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="184" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A184" s="22">
-        <v>511.1</v>
+        <v>511</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C184" s="24">
         <v>97656</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E184" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G184" s="22" t="s">
         <v>371</v>
@@ -13906,13 +13922,13 @@
       <c r="J184" s="8"/>
       <c r="K184" s="10"/>
       <c r="M184" s="26" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N184" s="23" t="s">
         <v>51</v>
       </c>
       <c r="O184" s="23" t="s">
-        <v>71</v>
+        <v>377</v>
       </c>
       <c r="P184" s="23" t="s">
         <v>56</v>
@@ -13939,9 +13955,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A185" s="22">
-        <v>511.2</v>
+        <v>511.1</v>
       </c>
       <c r="B185" s="23" t="s">
         <v>369</v>
@@ -13956,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="G185" s="22" t="s">
         <v>371</v>
@@ -13970,13 +13986,13 @@
       <c r="J185" s="8"/>
       <c r="K185" s="10"/>
       <c r="M185" s="26" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="N185" s="23" t="s">
         <v>51</v>
       </c>
       <c r="O185" s="23" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="P185" s="23" t="s">
         <v>56</v>
@@ -14003,9 +14019,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A186" s="22">
-        <v>512</v>
+        <v>511.2</v>
       </c>
       <c r="B186" s="23" t="s">
         <v>369</v>
@@ -14014,13 +14030,13 @@
         <v>97656</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E186" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="G186" s="22" t="s">
         <v>371</v>
@@ -14034,13 +14050,13 @@
       <c r="J186" s="8"/>
       <c r="K186" s="10"/>
       <c r="M186" s="26" t="s">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="N186" s="23" t="s">
         <v>51</v>
       </c>
       <c r="O186" s="23" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="P186" s="23" t="s">
         <v>56</v>
@@ -14064,12 +14080,12 @@
         <v>18</v>
       </c>
       <c r="AK186" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="187" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="22">
-        <v>512.1</v>
+        <v>512</v>
       </c>
       <c r="B187" s="23" t="s">
         <v>369</v>
@@ -14084,7 +14100,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G187" s="22" t="s">
         <v>371</v>
@@ -14098,7 +14114,7 @@
       <c r="J187" s="8"/>
       <c r="K187" s="10"/>
       <c r="M187" s="26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N187" s="23" t="s">
         <v>51</v>
@@ -14131,9 +14147,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="188" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="22">
-        <v>512.20000000000005</v>
+        <v>512.1</v>
       </c>
       <c r="B188" s="23" t="s">
         <v>369</v>
@@ -14142,13 +14158,13 @@
         <v>97656</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="E188" s="21">
         <v>1</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G188" s="22" t="s">
         <v>371</v>
@@ -14162,7 +14178,7 @@
       <c r="J188" s="8"/>
       <c r="K188" s="10"/>
       <c r="M188" s="26" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="N188" s="23" t="s">
         <v>51</v>
@@ -14171,13 +14187,13 @@
         <v>118</v>
       </c>
       <c r="P188" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R188" s="23" t="s">
         <v>51</v>
       </c>
       <c r="U188" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V188" s="23" t="s">
         <v>51</v>
@@ -14195,9 +14211,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="189" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="22">
-        <v>513</v>
+        <v>512.20000000000005</v>
       </c>
       <c r="B189" s="23" t="s">
         <v>369</v>
@@ -14205,14 +14221,14 @@
       <c r="C189" s="24">
         <v>97656</v>
       </c>
-      <c r="D189" s="22" t="s">
-        <v>379</v>
+      <c r="D189" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="E189" s="21">
         <v>1</v>
       </c>
-      <c r="F189" s="22" t="s">
-        <v>383</v>
+      <c r="F189" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="G189" s="22" t="s">
         <v>371</v>
@@ -14220,58 +14236,48 @@
       <c r="H189" s="22">
         <v>0.2</v>
       </c>
-      <c r="I189" s="22">
-        <v>0.5</v>
-      </c>
+      <c r="I189" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J189" s="8"/>
+      <c r="K189" s="10"/>
       <c r="M189" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N189" s="23" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="O189" s="23" t="s">
         <v>118</v>
       </c>
       <c r="P189" s="23" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="R189" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="S189" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="T189" s="23" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="U189" s="23" t="s">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="V189" s="23" t="s">
         <v>51</v>
       </c>
       <c r="W189" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X189" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y189" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z189" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AI189" s="21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AK189" s="28" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="190" spans="1:37" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="190" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="22">
-        <v>513.1</v>
+        <v>513</v>
       </c>
       <c r="B190" s="23" t="s">
         <v>369</v>
@@ -14286,7 +14292,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G190" s="22" t="s">
         <v>371</v>
@@ -14328,7 +14334,7 @@
         <v>56</v>
       </c>
       <c r="X190" s="27" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Y190" s="27" t="s">
         <v>56</v>
@@ -14343,9 +14349,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:37" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:37" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="22">
-        <v>513.20000000000005</v>
+        <v>513.1</v>
       </c>
       <c r="B191" s="23" t="s">
         <v>369</v>
@@ -14360,7 +14366,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G191" s="22" t="s">
         <v>371</v>
@@ -14402,7 +14408,7 @@
         <v>56</v>
       </c>
       <c r="X191" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Y191" s="27" t="s">
         <v>56</v>
@@ -14417,107 +14423,117 @@
         <v>384</v>
       </c>
     </row>
-    <row r="192" spans="1:37" s="39" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="36"/>
-      <c r="B192" s="37"/>
-      <c r="C192" s="38"/>
-      <c r="J192" s="37"/>
-      <c r="L192" s="40"/>
-      <c r="M192" s="41"/>
-      <c r="N192" s="37"/>
-      <c r="O192" s="37"/>
-      <c r="P192" s="37"/>
-      <c r="Q192" s="37"/>
-      <c r="R192" s="37"/>
-      <c r="S192" s="37"/>
-      <c r="T192" s="37"/>
-      <c r="U192" s="37"/>
-      <c r="V192" s="37"/>
-      <c r="W192" s="37"/>
-      <c r="X192" s="42"/>
-      <c r="Y192" s="42"/>
-      <c r="Z192" s="42"/>
-      <c r="AA192" s="37"/>
-      <c r="AB192" s="37"/>
-      <c r="AC192" s="37"/>
-      <c r="AD192" s="37"/>
-      <c r="AF192" s="37"/>
-      <c r="AG192" s="37"/>
-      <c r="AK192" s="37"/>
-    </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A193" s="22">
+    <row r="192" spans="1:37" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="22">
+        <v>513.20000000000005</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C192" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E192" s="21">
+        <v>1</v>
+      </c>
+      <c r="F192" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G192" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="H192" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I192" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M192" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N192" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O192" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P192" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="R192" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="S192" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="T192" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="U192" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="V192" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W192" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="X192" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y192" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z192" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI192" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK192" s="28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="193" spans="1:37" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="36"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="38"/>
+      <c r="J193" s="37"/>
+      <c r="L193" s="40"/>
+      <c r="M193" s="41"/>
+      <c r="N193" s="37"/>
+      <c r="O193" s="37"/>
+      <c r="P193" s="37"/>
+      <c r="Q193" s="37"/>
+      <c r="R193" s="37"/>
+      <c r="S193" s="37"/>
+      <c r="T193" s="37"/>
+      <c r="U193" s="37"/>
+      <c r="V193" s="37"/>
+      <c r="W193" s="37"/>
+      <c r="X193" s="42"/>
+      <c r="Y193" s="42"/>
+      <c r="Z193" s="42"/>
+      <c r="AA193" s="37"/>
+      <c r="AB193" s="37"/>
+      <c r="AC193" s="37"/>
+      <c r="AD193" s="37"/>
+      <c r="AF193" s="37"/>
+      <c r="AG193" s="37"/>
+      <c r="AK193" s="37"/>
+    </row>
+    <row r="194" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A194" s="22">
         <v>601</v>
       </c>
-      <c r="B193" s="23" t="s">
+      <c r="B194" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="C193" s="24">
+      <c r="C194" s="24">
         <v>10000</v>
-      </c>
-      <c r="D193" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="E193" s="21">
-        <v>1</v>
-      </c>
-      <c r="F193" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="G193" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="H193" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="I193" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="M193" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N193" s="23">
-        <v>1000</v>
-      </c>
-      <c r="O193" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="P193" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="R193" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S193" s="8"/>
-      <c r="T193" s="8"/>
-      <c r="U193" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V193" s="8">
-        <v>0</v>
-      </c>
-      <c r="W193" s="8">
-        <v>0</v>
-      </c>
-      <c r="X193" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI193" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK193" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A194" s="22">
-        <v>602</v>
-      </c>
-      <c r="B194" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="C194" s="24">
-        <v>97656</v>
       </c>
       <c r="D194" s="22" t="s">
         <v>446</v>
@@ -14538,7 +14554,7 @@
         <v>0.5</v>
       </c>
       <c r="M194" s="26" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="N194" s="23">
         <v>1000</v>
@@ -14547,7 +14563,7 @@
         <v>118</v>
       </c>
       <c r="P194" s="23" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="R194" s="8" t="s">
         <v>51</v>
@@ -14573,143 +14589,143 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:37" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="10">
-        <v>603</v>
+    <row r="195" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A195" s="22">
+        <v>602</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C195" s="19">
-        <v>384000</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>482</v>
+        <v>449</v>
+      </c>
+      <c r="C195" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>446</v>
       </c>
       <c r="E195" s="21">
         <v>1</v>
       </c>
-      <c r="F195" s="10" t="s">
+      <c r="F195" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="G195" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="H195" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="I195" s="10">
-        <v>1</v>
-      </c>
-      <c r="L195" s="22"/>
-      <c r="M195" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="N195" s="23" t="s">
-        <v>484</v>
+      <c r="G195" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="H195" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I195" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M195" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="N195" s="23">
+        <v>1000</v>
       </c>
       <c r="O195" s="23" t="s">
-        <v>485</v>
+        <v>118</v>
       </c>
       <c r="P195" s="23" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="R195" s="8" t="s">
-        <v>487</v>
+        <v>51</v>
       </c>
       <c r="S195" s="8"/>
       <c r="T195" s="8"/>
       <c r="U195" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="V195" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="W195" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="X195" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="Y195" s="23"/>
-      <c r="Z195" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="V195" s="8">
+        <v>0</v>
+      </c>
+      <c r="W195" s="8">
+        <v>0</v>
+      </c>
+      <c r="X195" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="AI195" s="21" t="s">
-        <v>490</v>
+        <v>18</v>
       </c>
       <c r="AK195" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:37" s="46" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="45"/>
-    </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A197" s="22">
+    <row r="196" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="10">
+        <v>603</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="C196" s="19">
+        <v>384000</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E196" s="21">
+        <v>1</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G196" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="H196" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="I196" s="10">
+        <v>1</v>
+      </c>
+      <c r="L196" s="22"/>
+      <c r="M196" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="N196" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="O196" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="P196" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="R196" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="S196" s="8"/>
+      <c r="T196" s="8"/>
+      <c r="U196" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="V196" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="W196" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="X196" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y196" s="23"/>
+      <c r="Z196" s="23"/>
+      <c r="AI196" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="AK196" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:37" s="46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="45"/>
+    </row>
+    <row r="198" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A198" s="22">
         <v>701</v>
-      </c>
-      <c r="B197" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="C197" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D197" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E197" s="21">
-        <v>1</v>
-      </c>
-      <c r="F197" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G197" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H197" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="I197" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J197" s="8"/>
-      <c r="K197" s="10"/>
-      <c r="M197" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="N197" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O197" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="P197" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="R197" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="U197" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="V197" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="W197" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="X197" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI197" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK197" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="198" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="22">
-        <v>702</v>
       </c>
       <c r="B198" s="23" t="s">
         <v>454</v>
@@ -14718,13 +14734,13 @@
         <v>97656</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E198" s="21">
         <v>1</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G198" s="22" t="s">
         <v>10</v>
@@ -14738,13 +14754,13 @@
       <c r="J198" s="8"/>
       <c r="K198" s="10"/>
       <c r="M198" s="26" t="s">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="N198" s="23" t="s">
         <v>51</v>
       </c>
       <c r="O198" s="23" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="P198" s="23" t="s">
         <v>56</v>
@@ -14752,7 +14768,7 @@
       <c r="R198" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="U198" s="44" t="s">
+      <c r="U198" s="43" t="s">
         <v>56</v>
       </c>
       <c r="V198" s="23" t="s">
@@ -14768,12 +14784,12 @@
         <v>18</v>
       </c>
       <c r="AK198" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="199" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="22">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B199" s="23" t="s">
         <v>454</v>
@@ -14788,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G199" s="22" t="s">
         <v>10</v>
@@ -14802,7 +14818,7 @@
       <c r="J199" s="8"/>
       <c r="K199" s="10"/>
       <c r="M199" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N199" s="23" t="s">
         <v>51</v>
@@ -14835,9 +14851,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="200" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="22">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B200" s="23" t="s">
         <v>454</v>
@@ -14846,13 +14862,13 @@
         <v>97656</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="E200" s="21">
         <v>1</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G200" s="22" t="s">
         <v>10</v>
@@ -14866,7 +14882,7 @@
       <c r="J200" s="8"/>
       <c r="K200" s="10"/>
       <c r="M200" s="26" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="N200" s="23" t="s">
         <v>51</v>
@@ -14875,13 +14891,13 @@
         <v>118</v>
       </c>
       <c r="P200" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R200" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="U200" s="23" t="s">
-        <v>51</v>
+      <c r="U200" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="V200" s="23" t="s">
         <v>51</v>
@@ -14899,24 +14915,24 @@
         <v>102</v>
       </c>
     </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="22">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C201" s="24">
         <v>97656</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="E201" s="21">
         <v>1</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>455</v>
+        <v>269</v>
       </c>
       <c r="G201" s="22" t="s">
         <v>10</v>
@@ -14930,7 +14946,7 @@
       <c r="J201" s="8"/>
       <c r="K201" s="10"/>
       <c r="M201" s="26" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="N201" s="23" t="s">
         <v>51</v>
@@ -14939,36 +14955,33 @@
         <v>118</v>
       </c>
       <c r="P201" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q201" s="23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R201" s="23" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="U201" s="23" t="s">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="V201" s="23" t="s">
         <v>51</v>
       </c>
       <c r="W201" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X201" s="27" t="s">
-        <v>294</v>
+        <v>54</v>
       </c>
       <c r="AI201" s="21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AK201" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A202" s="22">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B202" s="23" t="s">
         <v>453</v>
@@ -14983,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G202" s="22" t="s">
         <v>10</v>
@@ -15012,7 +15025,7 @@
         <v>47</v>
       </c>
       <c r="R202" s="23" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="U202" s="23" t="s">
         <v>300</v>
@@ -15024,7 +15037,7 @@
         <v>56</v>
       </c>
       <c r="X202" s="27" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AI202" s="21" t="s">
         <v>28</v>
@@ -15033,9 +15046,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A203" s="22">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B203" s="23" t="s">
         <v>453</v>
@@ -15050,7 +15063,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G203" s="22" t="s">
         <v>10</v>
@@ -15079,7 +15092,7 @@
         <v>47</v>
       </c>
       <c r="R203" s="23" t="s">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c r="U203" s="23" t="s">
         <v>300</v>
@@ -15091,7 +15104,7 @@
         <v>56</v>
       </c>
       <c r="X203" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AI203" s="21" t="s">
         <v>28</v>
@@ -15100,9 +15113,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="204" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A204" s="22">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B204" s="23" t="s">
         <v>453</v>
@@ -15117,7 +15130,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G204" s="22" t="s">
         <v>10</v>
@@ -15146,7 +15159,7 @@
         <v>47</v>
       </c>
       <c r="R204" s="23" t="s">
-        <v>440</v>
+        <v>283</v>
       </c>
       <c r="U204" s="23" t="s">
         <v>300</v>
@@ -15158,7 +15171,7 @@
         <v>56</v>
       </c>
       <c r="X204" s="27" t="s">
-        <v>441</v>
+        <v>304</v>
       </c>
       <c r="AI204" s="21" t="s">
         <v>28</v>
@@ -15167,122 +15180,125 @@
         <v>103</v>
       </c>
     </row>
-    <row r="206" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="11"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="13"/>
-      <c r="D206" s="11"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
-      <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
-      <c r="J206" s="12"/>
-      <c r="K206" s="11"/>
-      <c r="L206" s="15"/>
-      <c r="M206" s="16"/>
-      <c r="N206" s="12"/>
-      <c r="O206" s="12"/>
-      <c r="P206" s="12"/>
-      <c r="Q206" s="12"/>
-      <c r="R206" s="12"/>
-      <c r="S206" s="12"/>
-      <c r="T206" s="12"/>
-      <c r="U206" s="12"/>
-      <c r="V206" s="12"/>
-      <c r="W206" s="12"/>
-      <c r="X206" s="17"/>
-      <c r="Y206" s="17"/>
-      <c r="Z206" s="17"/>
-      <c r="AA206" s="12"/>
-      <c r="AB206" s="12"/>
-      <c r="AC206" s="12"/>
-      <c r="AD206" s="12"/>
-      <c r="AF206" s="18"/>
-      <c r="AG206" s="18"/>
-      <c r="AK206" s="18"/>
-    </row>
-    <row r="207" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A207" s="22">
+    <row r="205" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A205" s="22">
+        <v>708</v>
+      </c>
+      <c r="B205" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="C205" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E205" s="21">
+        <v>1</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="G205" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H205" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I205" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J205" s="8"/>
+      <c r="K205" s="10"/>
+      <c r="M205" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N205" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="O205" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P205" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q205" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R205" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="U205" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="V205" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W205" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="X205" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI205" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK205" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="207" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="11"/>
+      <c r="B207" s="12"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="11"/>
+      <c r="L207" s="15"/>
+      <c r="M207" s="16"/>
+      <c r="N207" s="12"/>
+      <c r="O207" s="12"/>
+      <c r="P207" s="12"/>
+      <c r="Q207" s="12"/>
+      <c r="R207" s="12"/>
+      <c r="S207" s="12"/>
+      <c r="T207" s="12"/>
+      <c r="U207" s="12"/>
+      <c r="V207" s="12"/>
+      <c r="W207" s="12"/>
+      <c r="X207" s="17"/>
+      <c r="Y207" s="17"/>
+      <c r="Z207" s="17"/>
+      <c r="AA207" s="12"/>
+      <c r="AB207" s="12"/>
+      <c r="AC207" s="12"/>
+      <c r="AD207" s="12"/>
+      <c r="AF207" s="18"/>
+      <c r="AG207" s="18"/>
+      <c r="AK207" s="18"/>
+    </row>
+    <row r="208" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A208" s="22">
         <v>801</v>
       </c>
-      <c r="B207" s="23" t="s">
+      <c r="B208" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="C207" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D207" s="22" t="s">
+      <c r="C208" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D208" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E207" s="21">
-        <v>1</v>
-      </c>
-      <c r="F207" s="22" t="s">
+      <c r="E208" s="21">
+        <v>1</v>
+      </c>
+      <c r="F208" s="22" t="s">
         <v>461</v>
-      </c>
-      <c r="G207" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H207" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="I207" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="M207" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="N207" s="23">
-        <v>1000</v>
-      </c>
-      <c r="O207" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="P207" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R207" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S207" s="8"/>
-      <c r="T207" s="8"/>
-      <c r="U207" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V207" s="8">
-        <v>0</v>
-      </c>
-      <c r="W207" s="8">
-        <v>0</v>
-      </c>
-      <c r="X207" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI207" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK207" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="208" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A208" s="22">
-        <v>802</v>
-      </c>
-      <c r="B208" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="C208" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E208" s="21">
-        <v>1</v>
-      </c>
-      <c r="F208" s="22" t="s">
-        <v>469</v>
       </c>
       <c r="G208" s="22" t="s">
         <v>10</v>
@@ -15300,10 +15316,10 @@
         <v>1000</v>
       </c>
       <c r="O208" s="23" t="s">
-        <v>118</v>
+        <v>463</v>
       </c>
       <c r="P208" s="23" t="s">
-        <v>464</v>
+        <v>52</v>
       </c>
       <c r="R208" s="8" t="s">
         <v>51</v>
@@ -15329,24 +15345,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A209" s="22">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B209" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="C209" s="19">
-        <v>97656</v>
-      </c>
-      <c r="D209" s="10" t="s">
-        <v>193</v>
+      <c r="C209" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="E209" s="21">
         <v>1</v>
       </c>
-      <c r="F209" s="10" t="s">
-        <v>462</v>
+      <c r="F209" s="22" t="s">
+        <v>469</v>
       </c>
       <c r="G209" s="22" t="s">
         <v>10</v>
@@ -15354,63 +15370,63 @@
       <c r="H209" s="22">
         <v>0.2</v>
       </c>
-      <c r="I209" s="10">
+      <c r="I209" s="22">
         <v>0.5</v>
       </c>
       <c r="M209" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N209" s="23" t="s">
-        <v>162</v>
+      <c r="N209" s="23">
+        <v>1000</v>
       </c>
       <c r="O209" s="23" t="s">
         <v>118</v>
       </c>
       <c r="P209" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R209" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="U209" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="V209" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="W209" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="X209" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="Y209" s="20"/>
-      <c r="Z209" s="20"/>
+        <v>464</v>
+      </c>
+      <c r="R209" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S209" s="8"/>
+      <c r="T209" s="8"/>
+      <c r="U209" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V209" s="8">
+        <v>0</v>
+      </c>
+      <c r="W209" s="8">
+        <v>0</v>
+      </c>
+      <c r="X209" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="AI209" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK209" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="210" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="22">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="C210" s="24">
-        <v>97656</v>
-      </c>
-      <c r="D210" s="22" t="s">
-        <v>468</v>
+        <v>460</v>
+      </c>
+      <c r="C210" s="19">
+        <v>97656</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="E210" s="21">
         <v>1</v>
       </c>
-      <c r="F210" s="22" t="s">
-        <v>470</v>
+      <c r="F210" s="10" t="s">
+        <v>462</v>
       </c>
       <c r="G210" s="22" t="s">
         <v>10</v>
@@ -15418,73 +15434,63 @@
       <c r="H210" s="22">
         <v>0.2</v>
       </c>
-      <c r="I210" s="22">
-        <v>0.8</v>
+      <c r="I210" s="10">
+        <v>0.5</v>
       </c>
       <c r="M210" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N210" s="26" t="s">
+      <c r="N210" s="23" t="s">
         <v>162</v>
       </c>
       <c r="O210" s="23" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="P210" s="23" t="s">
         <v>52</v>
       </c>
       <c r="R210" s="23" t="s">
-        <v>51</v>
+        <v>465</v>
       </c>
       <c r="U210" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="V210" s="23">
-        <v>0</v>
-      </c>
-      <c r="W210" s="23">
-        <v>0</v>
-      </c>
-      <c r="X210" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE210" s="21">
-        <v>3000</v>
-      </c>
-      <c r="AF210" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="AG210" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="AH210" s="21">
-        <v>7</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="V210" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W210" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X210" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y210" s="20"/>
+      <c r="Z210" s="20"/>
       <c r="AI210" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK210" s="28" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="211" spans="1:37" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="211" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="22">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="C211" s="24">
         <v>97656</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>20</v>
+        <v>468</v>
       </c>
       <c r="E211" s="21">
         <v>1</v>
       </c>
       <c r="F211" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G211" s="22" t="s">
         <v>10</v>
@@ -15493,46 +15499,120 @@
         <v>0.2</v>
       </c>
       <c r="I211" s="22">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M211" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N211" s="23">
-        <v>1000</v>
+      <c r="N211" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="O211" s="23" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="P211" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="R211" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S211" s="8"/>
-      <c r="T211" s="8"/>
-      <c r="U211" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V211" s="8">
+        <v>52</v>
+      </c>
+      <c r="R211" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U211" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V211" s="23">
         <v>0</v>
       </c>
-      <c r="W211" s="8">
+      <c r="W211" s="23">
         <v>0</v>
       </c>
       <c r="X211" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="AE211" s="21">
+        <v>3000</v>
+      </c>
+      <c r="AF211" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG211" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH211" s="21">
+        <v>7</v>
       </c>
       <c r="AI211" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AK211" s="28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="212" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A212" s="22">
+        <v>805</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C212" s="24">
+        <v>97656</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212" s="21">
+        <v>1</v>
+      </c>
+      <c r="F212" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="G212" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H212" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I212" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M212" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N212" s="23">
+        <v>1000</v>
+      </c>
+      <c r="O212" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P212" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="R212" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S212" s="8"/>
+      <c r="T212" s="8"/>
+      <c r="U212" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V212" s="8">
+        <v>0</v>
+      </c>
+      <c r="W212" s="8">
+        <v>0</v>
+      </c>
+      <c r="X212" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI212" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK212" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N212" s="26"/>
+    <row r="213" spans="1:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N213" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15549,44 +15629,44 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="10">
         <v>402.44</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>402.44099999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>403.44</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>404.44</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>404.44099999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>405.44</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>406.44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>407.44</v>
       </c>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6972B3-16DC-4B61-BD9F-F5B55AA731E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F3788F-9235-4CD6-9537-089EC2AB2880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="1335" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2465,9 +2465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X123" sqref="X123"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2494,7 +2494,7 @@
     <col min="20" max="21" width="12.5" style="23" customWidth="1"/>
     <col min="22" max="22" width="14.5" style="23" customWidth="1"/>
     <col min="23" max="23" width="14" style="23" customWidth="1"/>
-    <col min="24" max="24" width="11.625" style="27" customWidth="1"/>
+    <col min="24" max="24" width="70.875" style="27" customWidth="1"/>
     <col min="25" max="26" width="18" style="27" customWidth="1"/>
     <col min="27" max="27" width="19.25" style="23" customWidth="1"/>
     <col min="28" max="28" width="17.125" style="23" customWidth="1"/>
@@ -10230,7 +10230,7 @@
         <v>51</v>
       </c>
       <c r="X123" s="20" t="s">
-        <v>466</v>
+        <v>198</v>
       </c>
       <c r="Y123" s="20"/>
       <c r="Z123" s="20"/>

--- a/TB&Offset/TBOffset_ClickTrain_Config.xlsx
+++ b/TB&Offset/TBOffset_ClickTrain_Config.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FC4B1C-1463-449A-BB0C-AEE874FF5FF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B868CA-789A-4BBF-84AF-009A80E43A3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="281">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,10 +846,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023/03/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,10 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MLA_Oscillation_ICI4-8-16-32-64_ratio_1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_Oscillation_ICI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,7 +862,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,8,12,16,24,32,64</t>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,12.4,13.7,14.4,14.8,15.2,18.6,22.8,34.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_ICI3-12.4-13.7-14.4-14.8-15.2-18.6-22.8-34.2_ratio_1.2_dur_300_27000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Reg</t>
+  </si>
+  <si>
+    <t>@TB_Local_ICIChange_Gen</t>
+  </si>
+  <si>
+    <t>0,1,2,4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkeySounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4.5,6.8,10.1,12.4,13.7,14.4,15.2,18.6,22.8,34.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/03/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.7,14.4,15.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_13.7_14.4_15.2_deveratio_l.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_13.7_14.4_15.2_deveratio_l.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_13.7_14.4_15.2_deveratio_l.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_13.7_14.4_15.2_deveratio_l.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s_BaseICI15.2_devratio_1.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s_BaseICI15.2_devratio_1.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s_BaseICI14.4_devratio_1.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s_BaseICI14.4_devratio_1.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.06,1.06,1.06,1.06,1.06,1.06,1.06,1.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.12,1.12,1.12,1.12,1.12,1.12,1.12,1.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s_BaseICI14.4_devratio_1.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s_BaseICI14.4_devratio_1.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.03,1.03,1.03,1.03,1.03,1.03,1.03,1.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.015,1.015,1.015,1.015,1.015,1.015,1.015,1.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s_BaseICI15.2_devratio_1.015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s_BaseICI15.2_devratio_1.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_ICI3-12.4-13.7-14.4-14.8-15.2-18.6-22.8-34.2_ratio_1.015_dur_200_18000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_2-34_deveratio_l.02_fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_ICI3-12.4-13.7-14.4-14.8-15.2-18.6-22.8-34.2_ratio_1.02_dur_200_18000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s_BaseICI14.4_devratio_1.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.02,1.02,1.02,1.02,1.02,1.02,1.02,1.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_4s-4s_BaseICI15.2_devratio_1.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_ICI3-12.4-13.7-14.4-14.8-15.2-18.6-22.8-34.2_ratio_1.02_dur_500_20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_ICI3-12.4-13.7-14.4-14.8-15.2-18.6-22.8-34.2_ratio_1.02_dur_1000_20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Oscillation_ICI3-12.4-13.7-14.4-14.8-15.2-18.6-22.8-34.2_ratio_1.02_dur_625_20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLA_Basic_2-34_deveratio_l.2_fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/08/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatECOGSounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalChange_3s-3s_BaseICI6.8_devratio_1.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6.8,10.1,15.2,22.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -878,70 +1118,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,8,12,16,18,20,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/03/22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Oscillation_ICI4-8-12-16-18-20-24_ratio_1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4.5,6.75,10.125,15.1875,22.78125,34.17188,51.25781,76.88672,115.3301</t>
-  </si>
-  <si>
-    <t>2023/03/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Basic_2-115_devratio_1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Basic_2-115_control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4.5,7,10,15,23,34,51,77,115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4.5,6.8,10,15,22.5,33.8,50.7,76.1,114.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/03/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Basic_2-115_devratio_1.2_fix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Basic_2-115_control_fix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,15,22.5,76.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Oscillation_ICI3-15-22.5-76.1_ratio_1.2_dur_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLA_Oscillation_ICI3-15-22.5-76.1_ratio_1.2_dur_300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
+    <t>Oscillation_ICI3-6.8-10.1-15.2-22.8_ratio_1.3_dur_300_18000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +1126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,6 +1150,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -988,7 +1172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1014,11 +1198,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1046,6 +1248,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1326,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD75"/>
+  <dimension ref="A1:AD91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1337,22 +1549,22 @@
     <col min="1" max="1" width="8.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="43.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="73.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18" style="6" customWidth="1"/>
     <col min="8" max="8" width="8.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="9" customWidth="1"/>
-    <col min="12" max="12" width="7.875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="11" customWidth="1"/>
     <col min="13" max="13" width="9.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="67.125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="25.5" style="7" customWidth="1"/>
     <col min="16" max="16" width="15.875" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.375" style="7" customWidth="1"/>
     <col min="18" max="18" width="14.375" style="7" customWidth="1"/>
     <col min="19" max="19" width="14" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.25" style="13" customWidth="1"/>
+    <col min="20" max="20" width="56.625" style="13" customWidth="1"/>
     <col min="21" max="21" width="19.125" style="7" customWidth="1"/>
     <col min="22" max="22" width="17.125" style="7" customWidth="1"/>
     <col min="23" max="23" width="16.125" style="7" customWidth="1"/>
@@ -2519,206 +2731,175 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="AD22" s="25"/>
+    <row r="20" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>131</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T20" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="AB20" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD20" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>141</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
+      <c r="T22" s="34"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="T23" s="34"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>201</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24" s="7">
-        <v>1</v>
-      </c>
-      <c r="S24" s="7">
-        <v>1</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD24" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>201.1</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" s="7">
-        <v>1</v>
-      </c>
-      <c r="S25" s="7">
-        <v>1</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD25" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>201.2</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R26" s="7">
-        <v>1</v>
-      </c>
-      <c r="S26" s="7">
-        <v>1</v>
-      </c>
-      <c r="T26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD26" s="16" t="s">
-        <v>50</v>
-      </c>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="T24" s="34"/>
+    </row>
+    <row r="25" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="AD25" s="25"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>201.3</v>
+        <v>201</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="8">
         <v>97656</v>
@@ -2730,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>108</v>
@@ -2742,25 +2923,25 @@
         <v>161</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>209</v>
+        <v>43</v>
+      </c>
+      <c r="R27" s="7">
+        <v>1</v>
       </c>
       <c r="S27" s="7">
         <v>1</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="AB27" t="s">
         <v>40</v>
@@ -2771,10 +2952,10 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>201.4</v>
+        <v>201.1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C28" s="8">
         <v>97656</v>
@@ -2786,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>108</v>
@@ -2795,10 +2976,10 @@
         <v>0.5</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>118</v>
@@ -2807,16 +2988,16 @@
         <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="R28" s="7" t="s">
-        <v>209</v>
+        <v>43</v>
+      </c>
+      <c r="R28" s="7">
+        <v>1</v>
       </c>
       <c r="S28" s="7">
         <v>1</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="AB28" t="s">
         <v>40</v>
@@ -2827,10 +3008,10 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>201.5</v>
+        <v>201.2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C29" s="8">
         <v>97656</v>
@@ -2845,25 +3026,25 @@
         <v>159</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="H29" s="6">
         <v>0.5</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R29" s="7">
         <v>1</v>
@@ -2875,7 +3056,7 @@
         <v>105</v>
       </c>
       <c r="AB29" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AD29" s="16" t="s">
         <v>50</v>
@@ -2883,10 +3064,10 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>201.6</v>
+        <v>201.3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C30" s="8">
         <v>97656</v>
@@ -2898,40 +3079,40 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="H30" s="6">
         <v>0.5</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R30" s="7">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="S30" s="7">
         <v>1</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="AB30" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AD30" s="16" t="s">
         <v>50</v>
@@ -2939,10 +3120,10 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>201.7</v>
+        <v>201.4</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C31" s="8">
         <v>97656</v>
@@ -2954,40 +3135,40 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="H31" s="6">
         <v>0.5</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R31" s="7">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="S31" s="7">
         <v>1</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="AB31" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AD31" s="16" t="s">
         <v>50</v>
@@ -2995,10 +3176,10 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>201.8</v>
+        <v>201.5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C32" s="8">
         <v>97656</v>
@@ -3010,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H32" s="6">
         <v>0.5</v>
@@ -3025,10 +3206,10 @@
         <v>59</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>51</v>
@@ -3051,7 +3232,7 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>201.9</v>
+        <v>201.6</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>229</v>
@@ -3066,10 +3247,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H33" s="6">
         <v>0.5</v>
@@ -3081,10 +3262,10 @@
         <v>59</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>51</v>
@@ -3107,84 +3288,96 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>202</v>
+        <v>201.7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="C34" s="8">
         <v>97656</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="H34" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z34">
-        <v>125</v>
-      </c>
-      <c r="AA34">
-        <v>123.1527</v>
+        <v>59</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R34" s="7">
+        <v>1</v>
+      </c>
+      <c r="S34" s="7">
+        <v>1</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="AB34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD34" s="16" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>210.1</v>
+        <v>201.8</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="C35" s="8">
         <v>97656</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="H35" s="6">
         <v>0.5</v>
       </c>
-      <c r="L35" s="11">
-        <v>2000</v>
+      <c r="L35" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>51</v>
@@ -3199,51 +3392,48 @@
         <v>105</v>
       </c>
       <c r="AB35" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="AD35" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>210.2</v>
+        <v>201.9</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="C36" s="8">
         <v>97656</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="H36" s="6">
         <v>0.5</v>
       </c>
-      <c r="L36" s="11">
-        <v>2000</v>
+      <c r="L36" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>51</v>
@@ -3258,51 +3448,48 @@
         <v>105</v>
       </c>
       <c r="AB36" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="AD36" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>210.3</v>
+        <v>201.11</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="C37" s="8">
         <v>97656</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="H37" s="6">
         <v>0.5</v>
       </c>
-      <c r="L37" s="11">
-        <v>2000</v>
+      <c r="L37" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>51</v>
@@ -3317,77 +3504,59 @@
         <v>105</v>
       </c>
       <c r="AB37" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="AD37" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
-        <v>210.4</v>
+      <c r="A38" s="27">
+        <v>202</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C38" s="8">
         <v>97656</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H38" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="11">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R38" s="7">
-        <v>1</v>
-      </c>
-      <c r="S38" s="7">
-        <v>1</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>105</v>
+        <v>187</v>
+      </c>
+      <c r="Z38">
+        <v>125</v>
+      </c>
+      <c r="AA38">
+        <v>123.1527</v>
       </c>
       <c r="AB38" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="AD38" s="16" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
-        <v>210.5</v>
+      <c r="A39" s="27">
+        <v>210.1</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>130</v>
@@ -3402,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>108</v>
@@ -3420,7 +3589,7 @@
         <v>118</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>51</v>
@@ -3438,15 +3607,15 @@
         <v>122</v>
       </c>
       <c r="AC39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AD39" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
-        <v>211.1</v>
+      <c r="A40" s="27">
+        <v>210.2</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>130</v>
@@ -3461,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>108</v>
@@ -3476,10 +3645,10 @@
         <v>117</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>51</v>
@@ -3497,15 +3666,15 @@
         <v>122</v>
       </c>
       <c r="AC40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD40" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
-        <v>211.2</v>
+      <c r="A41" s="27">
+        <v>210.3</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>130</v>
@@ -3520,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>108</v>
@@ -3535,10 +3704,10 @@
         <v>117</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>51</v>
@@ -3556,15 +3725,15 @@
         <v>122</v>
       </c>
       <c r="AC41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD41" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
-        <v>211.3</v>
+      <c r="A42" s="27">
+        <v>210.4</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>130</v>
@@ -3579,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>108</v>
@@ -3594,10 +3763,10 @@
         <v>117</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>51</v>
@@ -3615,15 +3784,15 @@
         <v>122</v>
       </c>
       <c r="AC42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD42" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
-        <v>211.4</v>
+      <c r="A43" s="27">
+        <v>210.5</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>130</v>
@@ -3638,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>108</v>
@@ -3653,10 +3822,10 @@
         <v>117</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>51</v>
@@ -3674,15 +3843,15 @@
         <v>122</v>
       </c>
       <c r="AC43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD43" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
-        <v>211.5</v>
+      <c r="A44" s="27">
+        <v>211.1</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>130</v>
@@ -3697,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>108</v>
@@ -3712,7 +3881,7 @@
         <v>117</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>119</v>
@@ -3733,15 +3902,15 @@
         <v>122</v>
       </c>
       <c r="AC44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AD44" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
-        <v>212.1</v>
+      <c r="A45" s="27">
+        <v>211.2</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>130</v>
@@ -3756,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>108</v>
@@ -3771,10 +3940,10 @@
         <v>117</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>51</v>
@@ -3792,15 +3961,15 @@
         <v>122</v>
       </c>
       <c r="AC45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD45" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
-        <v>212.2</v>
+      <c r="A46" s="27">
+        <v>211.3</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>130</v>
@@ -3815,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>108</v>
@@ -3830,10 +3999,10 @@
         <v>117</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>51</v>
@@ -3851,15 +4020,15 @@
         <v>122</v>
       </c>
       <c r="AC46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD46" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
-        <v>212.3</v>
+      <c r="A47" s="27">
+        <v>211.4</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>130</v>
@@ -3874,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>108</v>
@@ -3889,10 +4058,10 @@
         <v>117</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>51</v>
@@ -3910,15 +4079,15 @@
         <v>122</v>
       </c>
       <c r="AC47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD47" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
-        <v>212.4</v>
+      <c r="A48" s="27">
+        <v>211.5</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>130</v>
@@ -3933,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>108</v>
@@ -3948,10 +4117,10 @@
         <v>117</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>51</v>
@@ -3969,15 +4138,15 @@
         <v>122</v>
       </c>
       <c r="AC48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD48" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
-        <v>212.5</v>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A49" s="27">
+        <v>212.1</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>130</v>
@@ -3992,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>108</v>
@@ -4007,7 +4176,7 @@
         <v>117</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>145</v>
@@ -4028,15 +4197,15 @@
         <v>122</v>
       </c>
       <c r="AC49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AD49" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
-        <v>213.1</v>
+      <c r="A50" s="27">
+        <v>212.2</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>130</v>
@@ -4051,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>108</v>
@@ -4066,10 +4235,10 @@
         <v>117</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>51</v>
@@ -4087,15 +4256,15 @@
         <v>122</v>
       </c>
       <c r="AC50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD50" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
-        <v>213.2</v>
+      <c r="A51" s="27">
+        <v>212.3</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>130</v>
@@ -4110,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>108</v>
@@ -4125,10 +4294,10 @@
         <v>117</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q51" s="7" t="s">
         <v>51</v>
@@ -4146,15 +4315,15 @@
         <v>122</v>
       </c>
       <c r="AC51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD51" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
-        <v>213.3</v>
+      <c r="A52" s="27">
+        <v>212.4</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>130</v>
@@ -4169,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>108</v>
@@ -4184,10 +4353,10 @@
         <v>117</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>51</v>
@@ -4205,15 +4374,15 @@
         <v>122</v>
       </c>
       <c r="AC52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD52" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
-        <v>213.4</v>
+    <row r="53" spans="1:30" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27">
+        <v>212.5</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>130</v>
@@ -4228,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>108</v>
@@ -4243,10 +4412,10 @@
         <v>117</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>51</v>
@@ -4264,15 +4433,15 @@
         <v>122</v>
       </c>
       <c r="AC53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD53" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
-        <v>213.5</v>
+      <c r="A54" s="27">
+        <v>213.1</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>130</v>
@@ -4287,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>108</v>
@@ -4302,7 +4471,7 @@
         <v>117</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>119</v>
@@ -4323,30 +4492,30 @@
         <v>122</v>
       </c>
       <c r="AC54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AD54" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
-        <v>214</v>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A55" s="27">
+        <v>213.2</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C55" s="8">
         <v>97656</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>108</v>
@@ -4357,52 +4526,55 @@
       <c r="L55" s="11">
         <v>2000</v>
       </c>
-      <c r="M55" s="7">
-        <v>1000</v>
+      <c r="M55" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R55" s="7">
         <v>1</v>
       </c>
-      <c r="S55" s="7" t="s">
-        <v>170</v>
+      <c r="S55" s="7">
+        <v>1</v>
       </c>
       <c r="T55" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB55" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>126</v>
       </c>
       <c r="AD55" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
-        <v>214.1</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A56" s="27">
+        <v>213.3</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="C56" s="8">
         <v>97656</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>108</v>
@@ -4410,55 +4582,58 @@
       <c r="H56" s="6">
         <v>0.5</v>
       </c>
-      <c r="L56" s="11" t="s">
-        <v>161</v>
+      <c r="L56" s="11">
+        <v>2000</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R56" s="7">
         <v>1</v>
       </c>
-      <c r="S56" s="7" t="s">
-        <v>51</v>
+      <c r="S56" s="7">
+        <v>1</v>
       </c>
       <c r="T56" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB56" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>127</v>
       </c>
       <c r="AD56" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
-        <v>214.2</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A57" s="27">
+        <v>213.4</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C57" s="8">
         <v>97656</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>108</v>
@@ -4466,55 +4641,58 @@
       <c r="H57" s="6">
         <v>0.5</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M57" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M57" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="N57" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R57" s="7">
         <v>1</v>
       </c>
-      <c r="S57" s="7" t="s">
-        <v>51</v>
+      <c r="S57" s="7">
+        <v>1</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB57" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>128</v>
       </c>
       <c r="AD57" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
-        <v>214.3</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A58" s="27">
+        <v>213.5</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C58" s="8">
         <v>97656</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>108</v>
@@ -4522,43 +4700,46 @@
       <c r="H58" s="6">
         <v>0.5</v>
       </c>
-      <c r="L58" s="11" t="s">
-        <v>161</v>
+      <c r="L58" s="11">
+        <v>2000</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R58" s="7">
         <v>1</v>
       </c>
-      <c r="S58" s="7" t="s">
-        <v>51</v>
+      <c r="S58" s="7">
+        <v>1</v>
       </c>
       <c r="T58" s="13" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="AB58" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>129</v>
       </c>
       <c r="AD58" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
-        <v>214.4</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27">
+        <v>214</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C59" s="8">
         <v>97656</v>
@@ -4570,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>108</v>
@@ -4578,11 +4759,11 @@
       <c r="H59" s="6">
         <v>0.5</v>
       </c>
-      <c r="L59" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>117</v>
+      <c r="L59" s="11">
+        <v>2000</v>
+      </c>
+      <c r="M59" s="7">
+        <v>1000</v>
       </c>
       <c r="N59" s="7" t="s">
         <v>118</v>
@@ -4591,13 +4772,13 @@
         <v>56</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="R59" s="7">
         <v>1</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="T59" s="13" t="s">
         <v>183</v>
@@ -4609,12 +4790,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
-        <v>214.5</v>
+    <row r="60" spans="1:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="27">
+        <v>214.1</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C60" s="8">
         <v>97656</v>
@@ -4626,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>108</v>
@@ -4635,7 +4816,7 @@
         <v>0.5</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>117</v>
@@ -4647,7 +4828,7 @@
         <v>56</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="R60" s="7">
         <v>1</v>
@@ -4666,11 +4847,11 @@
       </c>
     </row>
     <row r="61" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
-        <v>214.6</v>
+      <c r="A61" s="27">
+        <v>214.2</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C61" s="8">
         <v>97656</v>
@@ -4682,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>108</v>
@@ -4691,10 +4872,10 @@
         <v>0.5</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="N61" s="7" t="s">
         <v>118</v>
@@ -4722,11 +4903,11 @@
       </c>
     </row>
     <row r="62" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
-        <v>214.7</v>
+      <c r="A62" s="27">
+        <v>214.3</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C62" s="8">
         <v>97656</v>
@@ -4738,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>108</v>
@@ -4747,7 +4928,7 @@
         <v>0.5</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="M62" s="7" t="s">
         <v>117</v>
@@ -4778,8 +4959,8 @@
       </c>
     </row>
     <row r="63" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
-        <v>215</v>
+      <c r="A63" s="27">
+        <v>214.4</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>193</v>
@@ -4794,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>108</v>
@@ -4803,7 +4984,7 @@
         <v>0.5</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>117</v>
@@ -4815,7 +4996,7 @@
         <v>56</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R63" s="7">
         <v>1</v>
@@ -4826,749 +5007,1721 @@
       <c r="T63" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="U63" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="V63" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="W63" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X63" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="AB63" t="s">
         <v>18</v>
       </c>
       <c r="AD63" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
-        <v>216</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="27">
+        <v>214.5</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C64" s="8">
         <v>97656</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="H64" s="6">
         <v>0.5</v>
       </c>
-      <c r="K64" s="9">
-        <v>6000</v>
-      </c>
       <c r="L64" s="11" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="O64" s="7">
-        <v>1.5</v>
+        <v>118</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="Q64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R64" s="7">
+        <v>1</v>
+      </c>
+      <c r="S64" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R64" s="7">
-        <v>0</v>
-      </c>
-      <c r="S64" s="7">
-        <v>0</v>
-      </c>
       <c r="T64" s="13" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="AB64" t="s">
         <v>18</v>
       </c>
       <c r="AD64" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
-        <v>216.1</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="27">
+        <v>214.6</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="C65" s="8">
         <v>97656</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="H65" s="6">
         <v>0.5</v>
       </c>
-      <c r="K65" s="9">
-        <v>10000</v>
-      </c>
       <c r="L65" s="11" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="Q65" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R65" s="7">
+        <v>1</v>
+      </c>
+      <c r="S65" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R65" s="7">
-        <v>0</v>
-      </c>
-      <c r="S65" s="7">
-        <v>0</v>
-      </c>
       <c r="T65" s="13" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="AB65" t="s">
         <v>18</v>
       </c>
       <c r="AD65" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
-        <v>216.2</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="27">
+        <v>214.7</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C66" s="8">
         <v>97656</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="H66" s="6">
         <v>0.5</v>
       </c>
-      <c r="K66" s="9">
-        <v>18000</v>
-      </c>
       <c r="L66" s="11" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="Q66" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R66" s="7">
+        <v>1</v>
+      </c>
+      <c r="S66" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R66" s="7">
-        <v>0</v>
-      </c>
-      <c r="S66" s="7">
-        <v>0</v>
-      </c>
       <c r="T66" s="13" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="AB66" t="s">
         <v>18</v>
       </c>
       <c r="AD66" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>216.3</v>
+        <v>215</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C67" s="8">
         <v>97656</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="H67" s="6">
         <v>0.5</v>
       </c>
-      <c r="K67" s="9">
-        <v>18000</v>
-      </c>
       <c r="L67" s="11" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="Q67" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R67" s="7">
-        <v>0</v>
-      </c>
-      <c r="S67" s="7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="T67" s="13" t="s">
-        <v>37</v>
+        <v>183</v>
+      </c>
+      <c r="U67" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="V67" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="W67" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="X67" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="AB67" t="s">
         <v>18</v>
       </c>
       <c r="AD67" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>216.1</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" s="27">
+        <v>1</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="28"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M68" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N68" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O68" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R68" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S68" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T68" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="AB68" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD68" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>216.2</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69" s="27">
+        <v>1</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H69" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="28"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M69" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N69" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O69" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R69" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S69" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T69" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="28"/>
+      <c r="AB69" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD69" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>216.3</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" s="27">
+        <v>1</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H70" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="28"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M70" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N70" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O70" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R70" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S70" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T70" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="28"/>
+      <c r="AB70" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD70" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>216.4</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71" s="27">
+        <v>1</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H71" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="28"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M71" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N71" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O71" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R71" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S71" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T71" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
+      <c r="AB71" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD71" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>216.5</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="27">
+        <v>1</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H72" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="28"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M72" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N72" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O72" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R72" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S72" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T72" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="U72" s="28"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="AB72" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD72" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>216.6</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="27">
+        <v>1</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H73" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="28"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M73" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N73" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O73" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R73" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S73" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T73" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="AB73" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD73" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>216.7</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="27">
+        <v>1</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H74" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="28"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M74" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N74" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O74" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R74" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S74" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T74" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="U74" s="28"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="AB74" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD74" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>216.8</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" s="27">
+        <v>1</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H75" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I75" s="28"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M75" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N75" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O75" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R75" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S75" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T75" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="AB75" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD75" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>216.9</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" s="27">
+        <v>1</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H76" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I76" s="28"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="M76" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N76" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O76" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R76" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S76" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T76" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="AB76" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD76" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>216.11</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" s="27">
+        <v>97656</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" s="27">
+        <v>1</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H77" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="28"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M77" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N77" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O77" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="R77" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="S77" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="T77" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="U77" s="28"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="AB77" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD77" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>217.1</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K78" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N78" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="7">
+        <v>0</v>
+      </c>
+      <c r="T78" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD78" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>217.2</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K79" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="7">
+        <v>0</v>
+      </c>
+      <c r="T79" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD79" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>217.3</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C80" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K80" s="9">
+        <v>20000</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0</v>
+      </c>
+      <c r="S80" s="7">
+        <v>0</v>
+      </c>
+      <c r="T80" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD80" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>217.4</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H81" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K81" s="9">
+        <v>20000</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="7">
+        <v>0</v>
+      </c>
+      <c r="T81" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD81" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>217.5</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H82" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K82" s="9">
+        <v>20000</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R82" s="7">
+        <v>0</v>
+      </c>
+      <c r="S82" s="7">
+        <v>0</v>
+      </c>
+      <c r="T82" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD82" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>217.6</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H83" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K83" s="9">
+        <v>27000</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q83" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="7">
+        <v>0</v>
+      </c>
+      <c r="T83" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD83" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A84" s="27">
         <v>225</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D68" s="17" t="s">
+      <c r="C84" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" s="17" t="s">
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G84" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H68" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="17"/>
-      <c r="L68" s="11" t="s">
+      <c r="H84" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I84" s="14"/>
+      <c r="J84" s="17"/>
+      <c r="L84" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M68" s="7" t="s">
+      <c r="M84" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N68" s="7" t="s">
+      <c r="N84" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O68" s="7" t="s">
+      <c r="O84" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P68" s="7" t="s">
+      <c r="P84" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="Q68" s="7" t="s">
+      <c r="Q84" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R68" s="7" t="s">
+      <c r="R84" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S68" s="7" t="s">
+      <c r="S84" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T68" s="13" t="s">
+      <c r="T84" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AB84" t="s">
         <v>18</v>
       </c>
-      <c r="AD68" s="16" t="s">
+      <c r="AD84" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A85" s="27">
         <v>225.1</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B85" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D69" s="17" t="s">
+      <c r="C85" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" s="17" t="s">
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H69" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="17"/>
-      <c r="L69" s="11" t="s">
+      <c r="H85" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I85" s="14"/>
+      <c r="J85" s="17"/>
+      <c r="L85" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M69" s="7" t="s">
+      <c r="M85" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N69" s="7" t="s">
+      <c r="N85" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O69" s="7" t="s">
+      <c r="O85" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P69" s="7" t="s">
+      <c r="P85" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="Q69" s="7" t="s">
+      <c r="Q85" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R69" s="7" t="s">
+      <c r="R85" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S69" s="7" t="s">
+      <c r="S85" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T69" s="13" t="s">
+      <c r="T85" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AB85" t="s">
         <v>28</v>
       </c>
-      <c r="AD69" s="16" t="s">
+      <c r="AD85" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A86" s="27">
         <v>225.2</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B86" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D70" s="17" t="s">
+      <c r="C86" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" s="17" t="s">
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H70" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="17"/>
-      <c r="L70" s="11" t="s">
+      <c r="H86" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I86" s="14"/>
+      <c r="J86" s="17"/>
+      <c r="L86" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M70" s="7" t="s">
+      <c r="M86" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N70" s="7" t="s">
+      <c r="N86" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O70" s="7" t="s">
+      <c r="O86" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P70" s="7" t="s">
+      <c r="P86" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="Q70" s="7" t="s">
+      <c r="Q86" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R70" s="7" t="s">
+      <c r="R86" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S70" s="7" t="s">
+      <c r="S86" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T70" s="13" t="s">
+      <c r="T86" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AB86" t="s">
         <v>28</v>
       </c>
-      <c r="AD70" s="16" t="s">
+      <c r="AD86" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A87" s="27">
         <v>225.3</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B87" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D71" s="17" t="s">
+      <c r="C87" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D87" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="17" t="s">
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="17"/>
-      <c r="L71" s="11" t="s">
+      <c r="H87" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I87" s="14"/>
+      <c r="J87" s="17"/>
+      <c r="L87" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M71" s="7" t="s">
+      <c r="M87" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N71" s="7" t="s">
+      <c r="N87" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O71" s="7" t="s">
+      <c r="O87" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P71" s="7" t="s">
+      <c r="P87" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="Q71" s="7" t="s">
+      <c r="Q87" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R71" s="7" t="s">
+      <c r="R87" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S71" s="7" t="s">
+      <c r="S87" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T71" s="13" t="s">
+      <c r="T87" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AB87" t="s">
         <v>28</v>
       </c>
-      <c r="AD71" s="16" t="s">
+      <c r="AD87" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A88" s="27">
         <v>225.4</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B88" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D72" s="17" t="s">
+      <c r="C88" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" s="17" t="s">
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G88" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H72" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="17"/>
-      <c r="L72" s="11" t="s">
+      <c r="H88" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I88" s="14"/>
+      <c r="J88" s="17"/>
+      <c r="L88" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M72" s="7" t="s">
+      <c r="M88" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N72" s="7" t="s">
+      <c r="N88" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O72" s="7" t="s">
+      <c r="O88" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P72" s="7" t="s">
+      <c r="P88" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="Q72" s="7" t="s">
+      <c r="Q88" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R72" s="7" t="s">
+      <c r="R88" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S72" s="7" t="s">
+      <c r="S88" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T72" s="13" t="s">
+      <c r="T88" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AB88" t="s">
         <v>28</v>
       </c>
-      <c r="AD72" s="16" t="s">
+      <c r="AD88" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A89" s="27">
         <v>225.5</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B89" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D73" s="17" t="s">
+      <c r="C89" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D89" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" s="17" t="s">
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G89" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H73" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="17"/>
-      <c r="L73" s="11" t="s">
+      <c r="H89" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I89" s="14"/>
+      <c r="J89" s="17"/>
+      <c r="L89" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M73" s="7" t="s">
+      <c r="M89" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N73" s="7" t="s">
+      <c r="N89" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O73" s="7" t="s">
+      <c r="O89" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P73" s="7" t="s">
+      <c r="P89" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="Q73" s="7" t="s">
+      <c r="Q89" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R73" s="7" t="s">
+      <c r="R89" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S73" s="7" t="s">
+      <c r="S89" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T73" s="13" t="s">
+      <c r="T89" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AB89" t="s">
         <v>28</v>
       </c>
-      <c r="AD73" s="16" t="s">
+      <c r="AD89" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A90" s="27">
         <v>226</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B90" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="8">
-        <v>97656</v>
-      </c>
-      <c r="D74" s="17" t="s">
+      <c r="C90" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E74">
+      <c r="E90">
         <v>0</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F90" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H74" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="17"/>
-      <c r="L74" s="11" t="s">
+      <c r="H90" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I90" s="14"/>
+      <c r="J90" s="17"/>
+      <c r="L90" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="M90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N74" s="7" t="s">
+      <c r="N90" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O74" s="7" t="s">
+      <c r="O90" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q74" s="7" t="s">
+      <c r="Q90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R74" s="7" t="s">
+      <c r="R90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S74" s="7" t="s">
+      <c r="S90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T74" s="13" t="s">
+      <c r="T90" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AB90" t="s">
         <v>18</v>
       </c>
-      <c r="AD74" s="16" t="s">
+      <c r="AD90" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A75" s="17">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
         <v>227</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="26">
-        <v>97656</v>
-      </c>
-      <c r="D75" s="17" t="s">
+      <c r="C91" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D91" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" s="17" t="s">
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G91" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H75" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="17"/>
-      <c r="L75" s="11" t="s">
+      <c r="H91" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I91" s="14"/>
+      <c r="J91" s="17"/>
+      <c r="L91" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="M75" s="7" t="s">
+      <c r="M91" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N75" s="7" t="s">
+      <c r="N91" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O75" s="7" t="s">
+      <c r="O91" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="Q75" s="7" t="s">
+      <c r="Q91" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="R75" s="7" t="s">
+      <c r="R91" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="S75" s="7" t="s">
+      <c r="S91" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="T75" s="13" t="s">
+      <c r="T91" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U75" s="7" t="s">
+      <c r="U91" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="V75" s="7" t="s">
+      <c r="V91" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="W75" s="7" t="s">
+      <c r="W91" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AB91" t="s">
         <v>173</v>
       </c>
-      <c r="AD75" s="16" t="s">
+      <c r="AD91" s="16" t="s">
         <v>175</v>
       </c>
     </row>
